--- a/Projects/MARSUAE/Data/Template.xlsx
+++ b/Projects/MARSUAE/Data/Template.xlsx
@@ -18,6 +18,8 @@
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPI!$A$1:$J$37</definedName>
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">SOS!$A$1:$L$13</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPI!$A$1:$J$37</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPI!$A$1:$J$37</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">SOS!$A$1:$L$13</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="180">
   <si>
     <t xml:space="preserve">Channel</t>
   </si>
@@ -146,6 +148,12 @@
   </si>
   <si>
     <t xml:space="preserve">MSL Impulse - Checkout Gum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSL Impulse - Main GUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSL Impulse - Main GUM_SKU</t>
   </si>
   <si>
     <t xml:space="preserve">Hanging Strips Impluse KPI - Whole store Gum</t>
@@ -577,7 +585,7 @@
     <numFmt numFmtId="167" formatCode="@"/>
     <numFmt numFmtId="168" formatCode="0"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -632,16 +640,6 @@
       <name val="FreeSans"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -740,7 +738,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="46">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -785,10 +783,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -802,10 +796,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -845,10 +835,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -877,7 +863,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1019,28 +1005,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="1:37"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+      <selection pane="topLeft" activeCell="F38" activeCellId="0" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="17.0102040816327"/>
     <col collapsed="false" hidden="true" max="4" min="4" style="1" width="0"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="41.3061224489796"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="46.4438775510204"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="14.7142857142857"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.765306122449"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="24.7040816326531"/>
-    <col collapsed="false" hidden="false" max="1023" min="11" style="1" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="40.765306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="45.8979591836735"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="14.4438775510204"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="24.4336734693878"/>
+    <col collapsed="false" hidden="false" max="1023" min="11" style="1" width="11.0714285714286"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1272,10 +1257,10 @@
         <v>38</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>21</v>
@@ -1301,16 +1286,16 @@
         <v>37</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H9" s="9" t="n">
         <v>20</v>
@@ -1320,328 +1305,328 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="13" t="n">
+      <c r="H10" s="12" t="n">
         <v>25</v>
       </c>
       <c r="I10" s="10" t="n">
         <v>100</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="E11" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="13" t="n">
+      <c r="H11" s="12" t="n">
         <v>20</v>
       </c>
       <c r="I11" s="10"/>
-      <c r="J11" s="12" t="s">
+      <c r="J11" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H12" s="13" t="n">
+        <v>54</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="12" t="n">
         <v>2.5</v>
       </c>
       <c r="I12" s="10"/>
-      <c r="J12" s="12" t="s">
+      <c r="J12" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13" s="13" t="n">
+        <v>56</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="12" t="n">
         <v>2.5</v>
       </c>
       <c r="I13" s="10"/>
-      <c r="J13" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J13" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F14" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="E14" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="13" t="n">
+      <c r="H14" s="12" t="n">
         <v>5</v>
       </c>
       <c r="I14" s="10"/>
-      <c r="J14" s="12" t="s">
+      <c r="J14" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="G15" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="13" t="n">
+      <c r="H15" s="12" t="n">
         <v>5</v>
       </c>
       <c r="I15" s="10"/>
-      <c r="J15" s="12" t="s">
+      <c r="J15" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="F16" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="E16" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H16" s="13" t="n">
+      <c r="H16" s="12" t="n">
         <v>7.5</v>
       </c>
       <c r="I16" s="10"/>
-      <c r="J16" s="12" t="s">
+      <c r="J16" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12" t="s">
-        <v>43</v>
+    <row r="17" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="E17" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H17" s="13" t="n">
+      <c r="H17" s="12" t="n">
         <v>7.5</v>
       </c>
       <c r="I17" s="10"/>
-      <c r="J17" s="12" t="s">
+      <c r="J17" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="G18" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="13" t="n">
+      <c r="H18" s="12" t="n">
         <v>15</v>
       </c>
       <c r="I18" s="10"/>
-      <c r="J18" s="12" t="s">
+      <c r="J18" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="F19" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="E19" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="13" t="n">
+      <c r="H19" s="12" t="n">
         <v>10</v>
       </c>
       <c r="I19" s="10"/>
-      <c r="J19" s="12" t="s">
+      <c r="J19" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="12" t="s">
-        <v>74</v>
+      <c r="C20" s="11" t="s">
+        <v>76</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="G20" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G20" s="11" t="s">
         <v>16</v>
       </c>
       <c r="H20" s="10" t="n">
@@ -1650,530 +1635,536 @@
       <c r="I20" s="10" t="n">
         <v>100</v>
       </c>
-      <c r="J20" s="12" t="s">
+      <c r="J20" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="12" t="s">
-        <v>74</v>
+      <c r="C21" s="11" t="s">
+        <v>76</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="F21" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="G21" s="12" t="s">
+      <c r="E21" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G21" s="11" t="s">
         <v>21</v>
       </c>
       <c r="H21" s="10" t="n">
         <v>50</v>
       </c>
       <c r="I21" s="10"/>
-      <c r="J21" s="12" t="s">
+      <c r="J21" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="12" t="s">
-        <v>43</v>
+    <row r="22" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F22" s="12" t="s">
+      <c r="D22" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="G22" s="12" t="s">
+      <c r="E22" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="G22" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H22" s="14" t="n">
+      <c r="H22" s="13" t="n">
         <v>50</v>
       </c>
-      <c r="I22" s="14" t="n">
+      <c r="I22" s="13" t="n">
         <v>100</v>
       </c>
-      <c r="J22" s="12" t="s">
+      <c r="J22" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="11" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="G23" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G23" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H23" s="13" t="n">
+      <c r="H23" s="12" t="n">
         <v>50</v>
       </c>
-      <c r="I23" s="14"/>
-      <c r="J23" s="12" t="s">
+      <c r="I23" s="13"/>
+      <c r="J23" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B24" s="16" t="s">
+    <row r="24" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="E24" s="15" t="s">
+      <c r="D24" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="16" t="n">
+        <v>25</v>
+      </c>
+      <c r="I24" s="14" t="n">
+        <v>100</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="F24" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="G24" s="17" t="s">
+      <c r="B25" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="16" t="n">
+        <v>20</v>
+      </c>
+      <c r="I25" s="14"/>
+      <c r="J25" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G26" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H24" s="18" t="n">
-        <v>25</v>
-      </c>
-      <c r="I24" s="15" t="n">
+      <c r="H26" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="I26" s="14"/>
+      <c r="J26" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="J24" s="17" t="s">
+      <c r="F27" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="I27" s="14"/>
+      <c r="J27" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="I28" s="14"/>
+      <c r="J28" s="15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B25" s="16" t="s">
+    <row r="29" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C29" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="G25" s="17" t="s">
+      <c r="D29" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="G29" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="H25" s="18" t="n">
+      <c r="H29" s="16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="I29" s="14"/>
+      <c r="J29" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" s="16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="I30" s="14"/>
+      <c r="J30" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" s="16" t="n">
+        <v>15</v>
+      </c>
+      <c r="I31" s="14"/>
+      <c r="J31" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="16" t="n">
+        <v>10</v>
+      </c>
+      <c r="I32" s="14"/>
+      <c r="J32" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" s="16" t="n">
+        <v>50</v>
+      </c>
+      <c r="I33" s="14" t="n">
+        <v>100</v>
+      </c>
+      <c r="J33" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" s="16" t="n">
+        <v>50</v>
+      </c>
+      <c r="I34" s="14"/>
+      <c r="J34" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" s="17" t="n">
+        <v>60</v>
+      </c>
+      <c r="I35" s="17" t="n">
+        <v>100</v>
+      </c>
+      <c r="J35" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36" s="17" t="n">
         <v>20</v>
       </c>
-      <c r="I25" s="15"/>
-      <c r="J25" s="17" t="s">
+      <c r="I36" s="17"/>
+      <c r="J36" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" s="16" t="n">
+        <v>20</v>
+      </c>
+      <c r="I37" s="17"/>
+      <c r="J37" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="G26" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H26" s="18" t="n">
-        <v>5</v>
-      </c>
-      <c r="I26" s="15"/>
-      <c r="J26" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="F27" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="G27" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="H27" s="18" t="n">
-        <v>5</v>
-      </c>
-      <c r="I27" s="15"/>
-      <c r="J27" s="17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="G28" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H28" s="18" t="n">
-        <v>5</v>
-      </c>
-      <c r="I28" s="15"/>
-      <c r="J28" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="F29" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="G29" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="H29" s="18" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="I29" s="15"/>
-      <c r="J29" s="17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="F30" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="G30" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="H30" s="18" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="I30" s="15"/>
-      <c r="J30" s="17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="G31" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H31" s="18" t="n">
-        <v>15</v>
-      </c>
-      <c r="I31" s="15"/>
-      <c r="J31" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B32" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="E32" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="F32" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="G32" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="H32" s="18" t="n">
-        <v>10</v>
-      </c>
-      <c r="I32" s="15"/>
-      <c r="J32" s="17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B33" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="F33" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="G33" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H33" s="18" t="n">
-        <v>50</v>
-      </c>
-      <c r="I33" s="15" t="n">
-        <v>100</v>
-      </c>
-      <c r="J33" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="E34" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="F34" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="G34" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="H34" s="18" t="n">
-        <v>50</v>
-      </c>
-      <c r="I34" s="15"/>
-      <c r="J34" s="17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="E35" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="F35" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="G35" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="H35" s="19" t="n">
-        <v>60</v>
-      </c>
-      <c r="I35" s="19" t="n">
-        <v>100</v>
-      </c>
-      <c r="J35" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B36" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="E36" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="F36" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="G36" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H36" s="19" t="n">
-        <v>20</v>
-      </c>
-      <c r="I36" s="19"/>
-      <c r="J36" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B37" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="E37" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="F37" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="G37" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="H37" s="18" t="n">
-        <v>20</v>
-      </c>
-      <c r="I37" s="19"/>
-      <c r="J37" s="17" t="s">
-        <v>33</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:J37"/>
+  <autoFilter ref="A1:J37">
+    <filterColumn colId="0">
+      <customFilters and="true">
+        <customFilter operator="equal" val="Impulse"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="8">
     <mergeCell ref="I2:I7"/>
     <mergeCell ref="I8:I9"/>
@@ -2208,59 +2199,59 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="28.484693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="25.1071428571429"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="26.8622448979592"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="7.4234693877551"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="28.0765306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.6530612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.8367346938776"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="26.4591836734694"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="11.0714285714286"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="D1" s="20" t="s">
+      <c r="B1" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="G1" s="20" t="s">
+      <c r="E1" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="F1" s="18" t="s">
         <v>126</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2286,412 +2277,412 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="37.2602040816326"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="33.75"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="34.0204081632653"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="21.3265306122449"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="25.515306122449"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="22.1377551020408"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="48.4642857142857"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="24.7040816326531"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="36.8520408163265"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="33.3418367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="33.6122448979592"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="20.6530612244898"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="21.0612244897959"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="25.2448979591837"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="20.6530612244898"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="21.8673469387755"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="47.7857142857143"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="24.4336734693878"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="1" width="11.0714285714286"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="D1" s="20" t="s">
+      <c r="B1" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="I1" s="20" t="s">
+      <c r="E1" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="G1" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="H1" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="I1" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="J1" s="18" t="s">
         <v>134</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="E2" s="21" t="s">
+      <c r="C2" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="F2" s="27" t="n">
+      <c r="D2" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="F2" s="24" t="n">
         <v>0.5</v>
       </c>
-      <c r="G2" s="27" t="n">
+      <c r="G2" s="24" t="n">
         <v>0.5</v>
       </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="J2" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="K2" s="21" t="s">
+      <c r="H2" s="24"/>
+      <c r="I2" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="L2" s="21"/>
+      <c r="J2" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="L2" s="19"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="D3" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="E3" s="29" t="s">
+      <c r="B3" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="F3" s="27" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G3" s="27" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H3" s="27"/>
+      <c r="I3" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="J3" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="F3" s="30" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="G3" s="30" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H3" s="30"/>
-      <c r="I3" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="J3" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="K3" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="L3" s="29"/>
+      <c r="K3" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="L3" s="26"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="F4" s="30" t="n">
+        <v>45</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="F4" s="27" t="n">
         <v>0.55</v>
       </c>
-      <c r="G4" s="30" t="n">
+      <c r="G4" s="27" t="n">
         <v>0.55</v>
       </c>
-      <c r="H4" s="30"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="K4" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="L4" s="29"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="K4" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="L4" s="26"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="F5" s="30" t="n">
+        <v>45</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F5" s="27" t="n">
         <v>0.5</v>
       </c>
-      <c r="G5" s="30" t="n">
+      <c r="G5" s="27" t="n">
         <v>0.5</v>
       </c>
-      <c r="H5" s="30"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="F6" s="30" t="n">
+        <v>45</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="F6" s="27" t="n">
         <v>0.4</v>
       </c>
-      <c r="G6" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
+      <c r="G6" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="F7" s="27" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G7" s="27" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H7" s="27"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="F8" s="30" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G8" s="30" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H8" s="30"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="F9" s="30" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G9" s="30" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="F10" s="30" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G10" s="30" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H10" s="30"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="F11" s="30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G11" s="30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H11" s="30"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="E12" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="D7" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="F7" s="30" t="n">
+      <c r="F12" s="30" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G12" s="30" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="F13" s="32" t="n">
         <v>0.7</v>
       </c>
-      <c r="G7" s="30" t="n">
+      <c r="G13" s="32" t="n">
         <v>0.8</v>
       </c>
-      <c r="H7" s="30"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="F8" s="33" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="G8" s="33" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="H8" s="33"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B9" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="E9" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="F9" s="33" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G9" s="33" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H9" s="33" t="s">
-        <v>154</v>
-      </c>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B10" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="E10" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="F10" s="33" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="G10" s="33" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="H10" s="33"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="E11" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="F11" s="33" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G11" s="33" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H11" s="33"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B12" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="E12" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="F12" s="33" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="G12" s="33" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B13" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="E13" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="F13" s="35" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="G13" s="35" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:L13"/>
@@ -2719,66 +2710,66 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="41.3061224489796"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="63.984693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="17.4132653061224"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="34.0204081632653"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="36" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="21.3265306122449"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="40.765306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="63.3112244897959"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="17.1428571428571"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="33.6122448979592"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="33" width="20.6530612244898"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="21.0612244897959"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="24.3010204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="11.0714285714286"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="D1" s="20" t="s">
+      <c r="B1" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>155</v>
+      <c r="E1" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="D2" s="21" t="s">
+      <c r="C2" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="F2" s="27" t="n">
+      <c r="E2" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="F2" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="27" t="n">
+      <c r="G2" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="H2" s="25"/>
+      <c r="H2" s="23"/>
       <c r="I2" s="0"/>
       <c r="J2" s="0"/>
       <c r="K2" s="0"/>
@@ -3800,25 +3791,25 @@
       <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="D3" s="21" t="s">
+      <c r="C3" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="F3" s="27" t="n">
+      <c r="E3" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="F3" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="G3" s="27" t="n">
+      <c r="G3" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="H3" s="25"/>
+      <c r="H3" s="23"/>
       <c r="I3" s="0"/>
       <c r="J3" s="0"/>
       <c r="K3" s="0"/>
@@ -4840,25 +4831,25 @@
       <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="D4" s="21" t="s">
+      <c r="C4" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="D4" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="F4" s="27" t="n">
+      <c r="E4" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="F4" s="24" t="n">
         <v>0.8</v>
       </c>
-      <c r="G4" s="27" t="n">
+      <c r="G4" s="24" t="n">
         <v>0.8</v>
       </c>
-      <c r="H4" s="25"/>
+      <c r="H4" s="23"/>
       <c r="I4" s="0"/>
       <c r="J4" s="0"/>
       <c r="K4" s="0"/>
@@ -5880,355 +5871,355 @@
       <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="D5" s="21" t="s">
+      <c r="C5" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="21" t="n">
+      <c r="E5" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="19" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="40" t="s">
-        <v>162</v>
-      </c>
-      <c r="D6" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="F6" s="30" t="n">
+      <c r="E6" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="F6" s="27" t="n">
         <v>0.8</v>
       </c>
-      <c r="G6" s="30" t="n">
+      <c r="G6" s="27" t="n">
         <v>0.8</v>
       </c>
-      <c r="H6" s="28"/>
+      <c r="H6" s="25"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="40" t="s">
-        <v>163</v>
-      </c>
-      <c r="D7" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="F7" s="30" t="n">
+      <c r="E7" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="F7" s="27" t="n">
         <v>0.8</v>
       </c>
-      <c r="G7" s="30" t="n">
+      <c r="G7" s="27" t="n">
         <v>0.8</v>
       </c>
-      <c r="H7" s="28"/>
+      <c r="H7" s="25"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="D8" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="D8" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="F8" s="30" t="n">
+      <c r="E8" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="F8" s="27" t="n">
         <v>0.8</v>
       </c>
-      <c r="G8" s="30" t="n">
+      <c r="G8" s="27" t="n">
         <v>0.8</v>
       </c>
-      <c r="H8" s="28"/>
+      <c r="H8" s="25"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="D9" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="D9" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="28" t="n">
+      <c r="E9" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="25" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="40" t="s">
-        <v>166</v>
-      </c>
-      <c r="D10" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="D10" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="F10" s="30" t="n">
+      <c r="E10" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F10" s="27" t="n">
         <v>0.8</v>
       </c>
-      <c r="G10" s="30" t="n">
+      <c r="G10" s="27" t="n">
         <v>0.8</v>
       </c>
-      <c r="H10" s="28"/>
+      <c r="H10" s="25"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="40" t="s">
-        <v>167</v>
-      </c>
-      <c r="D11" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="D11" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="F11" s="30" t="n">
+      <c r="E11" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="F11" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="G11" s="30" t="n">
+      <c r="G11" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="H11" s="28"/>
+      <c r="H11" s="25"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="C12" s="40" t="s">
-        <v>156</v>
-      </c>
-      <c r="D12" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="D12" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="F12" s="27" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G12" s="27" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H12" s="25"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="F13" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" s="28"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="F14" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="28"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="F15" s="30" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G15" s="30" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H15" s="28"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="F16" s="30" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G16" s="30" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H16" s="28"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="F12" s="30" t="n">
+      <c r="D17" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="F18" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" s="28"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="F19" s="30" t="n">
         <v>0.8</v>
       </c>
-      <c r="G12" s="30" t="n">
+      <c r="G19" s="30" t="n">
         <v>0.8</v>
       </c>
-      <c r="H12" s="28"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="C13" s="41" t="s">
-        <v>169</v>
-      </c>
-      <c r="D13" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="F13" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" s="31"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="C14" s="41" t="s">
-        <v>170</v>
-      </c>
-      <c r="D14" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="F14" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" s="31"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="C15" s="41" t="s">
-        <v>157</v>
-      </c>
-      <c r="D15" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="F15" s="33" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G15" s="33" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H15" s="31"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" s="41" t="s">
-        <v>157</v>
-      </c>
-      <c r="D16" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="F16" s="33" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G16" s="33" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H16" s="31"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="C17" s="41" t="s">
-        <v>166</v>
-      </c>
-      <c r="D17" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="31" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="C18" s="41" t="s">
-        <v>171</v>
-      </c>
-      <c r="D18" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="F18" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="G18" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="H18" s="31"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="C19" s="41" t="s">
-        <v>156</v>
-      </c>
-      <c r="D19" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="F19" s="33" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G19" s="33" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H19" s="31"/>
+      <c r="H19" s="28"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -6254,42 +6245,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.3061224489796"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="42" width="35.234693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="42" width="20.5204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="42" width="41.4438775510204"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="42" width="38.4744897959184"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="42" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="42" width="21.3265306122449"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="42" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="1010" min="9" style="42" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="1011" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.765306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="39" width="34.8265306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="39" width="20.25"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="39" width="40.9030612244898"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="39" width="37.9336734693878"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="39" width="20.6530612244898"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="39" width="21.0612244897959"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="39" width="24.3010204081633"/>
+    <col collapsed="false" hidden="false" max="1010" min="9" style="39" width="11.0714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="D1" s="43" t="s">
+      <c r="B1" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="F1" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="G1" s="43" t="s">
-        <v>130</v>
-      </c>
-      <c r="H1" s="43" t="s">
-        <v>155</v>
+      <c r="E1" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H1" s="40" t="s">
+        <v>157</v>
       </c>
       <c r="I1" s="0"/>
       <c r="J1" s="0"/>
@@ -7298,123 +7288,123 @@
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="E2" s="21" t="s">
+      <c r="C2" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="F2" s="45"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21" t="n">
+      <c r="D2" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="F2" s="42"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="ALW2" s="42"/>
-      <c r="ALX2" s="42"/>
-      <c r="ALY2" s="42"/>
+      <c r="ALW2" s="39"/>
+      <c r="ALX2" s="39"/>
+      <c r="ALY2" s="39"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="E3" s="21" t="s">
+      <c r="B3" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="25" t="n">
+      <c r="E3" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="F3" s="24"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="ALW3" s="42"/>
+      <c r="ALW3" s="39"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>135</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>176</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>177</v>
-      </c>
-      <c r="F4" s="30" t="n">
+        <v>45</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="F4" s="27" t="n">
         <v>0.8</v>
       </c>
-      <c r="G4" s="30" t="n">
+      <c r="G4" s="27" t="n">
         <v>0.8</v>
       </c>
-      <c r="H4" s="28" t="n">
+      <c r="H4" s="25" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>135</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>176</v>
-      </c>
-      <c r="E5" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="F5" s="27"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="E6" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="F5" s="30"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="28" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="41" t="s">
-        <v>172</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>173</v>
-      </c>
-      <c r="E6" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="F6" s="33"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="31" t="n">
+      <c r="F6" s="30"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="ALW6" s="42"/>
-      <c r="ALX6" s="42"/>
-      <c r="ALY6" s="42"/>
-      <c r="ALZ6" s="42"/>
+      <c r="ALW6" s="39"/>
+      <c r="ALX6" s="39"/>
+      <c r="ALY6" s="39"/>
+      <c r="ALZ6" s="39"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Projects/MARSUAE/Data/Template.xlsx
+++ b/Projects/MARSUAE/Data/Template.xlsx
@@ -13,12 +13,13 @@
     <sheet name="SOS" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Distribution" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Availability" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Sheet6" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPI!$A$1:$J$37</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPI!$A$1:$H$37</definedName>
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">SOS!$A$1:$L$13</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPI!$A$1:$J$37</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPI!$A$1:$J$37</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPI!$A$1:$H$37</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPI!$A$1:$H$37</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">SOS!$A$1:$L$13</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="174">
   <si>
     <t xml:space="preserve">Channel</t>
   </si>
@@ -42,472 +43,295 @@
     <t xml:space="preserve">Level_2</t>
   </si>
   <si>
-    <t xml:space="preserve">Kpi</t>
-  </si>
-  <si>
     <t xml:space="preserve">Level_3</t>
   </si>
   <si>
-    <t xml:space="preserve">Level_4</t>
+    <t xml:space="preserve">Level_3_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Points</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total points</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Required Output</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impulse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choc &amp; Ice Cream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mars Linear SOS - Main Choc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSL - Main Choc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freezer penetration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSL - Main Ice Cream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hanging Strips KPI - Choc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Availbility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checkout MSL KPI - Choc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSL - Main GUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hanging Strips KPI - GUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hypermarkets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mars Linear SOS  - Main Choc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSL SKUs - Main Choc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mars Presence - Main Ice cream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mars SOS - Main Ice cream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSL SKUs - Main Ice Cream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mars Linear SOS - Checkout Choc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSL SKUs - Checkout Choc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checkout Penetration - Checkout Choc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mars Linear SOS - Display Choc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSL SKUs - Display Choc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mars Linear SOS - Main Petcare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSL SKUs - Main Petcare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSL - Checkout Gum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mars Linear SOS - Checkout Gum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aggregation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mars Linear SOS - Main Ice cream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSL - Checkout Choc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSL - Display Choc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checkouts - Gum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOS of GUM in Checkout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atomic KPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EAN codes</t>
   </si>
   <si>
     <t xml:space="preserve">KPI Type</t>
   </si>
   <si>
-    <t xml:space="preserve">Points</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total points</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Required Output</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Impulse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choc &amp; Ice Cream</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mars Linear SOS Impulse - Main Shelf Choc</t>
+    <t xml:space="preserve">scene type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minimum threshold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impulse - Freezer penetration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count Scene Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Branded Freezer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lower threshold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">upper threshold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">numerator type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">numerator value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denominator type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denominator value</t>
   </si>
   <si>
     <t xml:space="preserve">Mars Linear SOS Impulse - Main Choc</t>
   </si>
   <si>
-    <t xml:space="preserve">Mars Linear SOS Impulse - Main Choc_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL Impulse - Main Shelf Choc</t>
+    <t xml:space="preserve">All Mars Choc SKUs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">linear SOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main shelf Impulse - Choc + Chillers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manufacturer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All of the confectionery products excluding irrelevant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mars Linear SOS Hyper  - Main Choc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main Shelf (Choc)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All Other prodcuts excluding irrelevant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mars Linear SOS Hyper - Checkout Choc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checkout </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARS Chocolate SKUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All Chocolate SKUs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mars Linear SOS Hyper - Display Choc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scondary Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mars Linear SOS Hyper - Main Petcare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All Mars Petcare SKUs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main Shelf (Petcare)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45%%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mars Linear SOS Hyper - Checkout Gum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All Mars Gum SKUs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checkout (Gum)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mars Linear SOS All others  - Main Choc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mars Linear SOS All others - Main Ice cream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Available from all Mars Ice Cream SKUs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main Shelf (Ice Cream)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 slots (Basket SKUs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mars Linear SOS All others - Main Petcare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minimum products</t>
   </si>
   <si>
     <t xml:space="preserve">MSL Impulse - Main Choc</t>
   </si>
   <si>
-    <t xml:space="preserve">MSL Impulse - Main Choc_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distribution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Freezer penetration - Not in scope for pilot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Impulse - Freezer penetration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Impulse - Freezer penetration_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0/1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL Impulse - Main Shelf Ice Cream</t>
+    <t xml:space="preserve">Use 'All channels' List noted in the Choc MSL worksheet</t>
   </si>
   <si>
     <t xml:space="preserve">MSL Impulse - Main Ice Cream</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL Impulse - Main Ice Cream_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hanging Strips KPI - Whole store Choc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hanging Strips KPI - Choc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hanging Strips KPI - Choc_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL Impulse - Checkouts Choc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checkout MSL KPI - Choc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checkout MSL KPI - Choc_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL Impulse - Checkout Gum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL Impulse - Main GUM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL Impulse - Main GUM_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hanging Strips Impluse KPI - Whole store Gum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hanging Strips KPI - GUM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hanging Strips KPI - GUM_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Availbility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hypermarkets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mars Linear SOS Hyper  - Main Shelf Choc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mars Linear SOS Hyper  - Main Choc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mars Linear SOS Hyper  - Main Choc_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL SKUs Hyper - Main Shelf Choc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL SKUs Hyper - Main Choc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL SKUs Hyper - Main Choc_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mars SOS Hyper - Main Shelf Ice cream</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mars Presence Hyper - Main Ice cream</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mars Presence Hyper - Main Ice cream_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mars SOS Hyper - Main Ice cream</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mars SOS Hyper - Main Ice cream_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL SKUs Hyper - Main Shelf Ice Cream</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL SKUs Hyper - Main Ice Cream</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL SKUs Hyper - Main Ice Cream_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mars Linear SOS Hyper - Checkouts Choc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mars Linear SOS Hyper - Checkout Choc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mars Linear SOS Hyper - Checkout Choc_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL SKUs Hyper - Checkouts Choc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL SKUs Hyper - Checkout Choc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL SKUs Hyper - Checkout Choc_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checkout Penetration Hyper - Checkouts Choc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checkout Penetration Hyper - Checkout Choc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checkout Penetration Hyper - Checkout Choc_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mars Linear SOD Hyper - Displays Choc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mars Linear SOS Hyper - Display Choc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mars Linear SOS Hyper - Display Choc_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL SKUs Hyper - Displays Choc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL SKUs Hyper - Display Choc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL SKUs Hyper - Display Choc_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mars Linear SOS Hyper - Main Shelf Petcare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mars Linear SOS Hyper - Main Petcare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mars Linear SOS Hyper - Main Petcare_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL SKUs Hyper - Main Shelf Petcare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL SKUs Hyper - Main Petcare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL SKUs Hyper - Main Petcare_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL Hyper - Checkouts Gum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL Hyper - Checkout Gum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL Hyper - Checkout Gum_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mars Linear SOS Hyper - Checkouts GUM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mars Linear SOS Hyper - Checkout Gum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mars Linear SOS Hyper - Checkout Gum_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mars Linear SOS All others  - Main shelf Choc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mars Linear SOS All others  - Main Choc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mars Linear SOS All others  - Main Choc_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL SKUs All others - Main shelf Choc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL SKUs All others - Main Choc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL SKUs All others - Main Choc_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mars Linear SOS All others - Main shelf Ice cream</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mars Linear SOS All others - Main Ice cream</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mars Linear SOS All others - Main Ice cream_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL SKUs All others - Main shelf Ice Cream</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL SKUs All others - Main Ice Cream</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL SKUs All others - Main Ice Cream_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mars Linear SOS All others - Checkouts Choc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL All others - Checkouts Choc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL Hyper - Checkout Choc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL Hyper - Checkout Choc_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checkout Penetration All others - Checkouts Choc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mars Linear SOD All others - Displays Choc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL SKUs All others - Displays Choc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL Hyper - Display Choc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL Hyper - Display Choc_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mars Linear SOS All others - Main shelf Petcare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mars Linear SOS All others - Main Petcare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mars Linear SOS All others - Main Petcare_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL SKUs All others - Main shelf Petcare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL SKUs All others - Main Petcare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL SKUs All others - Main Petcare_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL All others - Checkouts Gum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checkouts only Impulse - Gum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checkouts only Impulse - Gum_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOS of GUM in Checkout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOS of GUM in Checkout_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hanging Strips All others KPI - Whole store Gum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atomic KPI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EAN codes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scene type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">minimum threshold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count Scene Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Branded Freezer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lower threshold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">upper threshold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">numerator type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">numerator value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denominator type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denominator value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All Mars Choc SKUs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">linear SOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Main shelf Impulse - Choc + Chillers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manufacturer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All of the confectionery products excluding irrelevant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Main Shelf (Choc)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All Other prodcuts excluding irrelevant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checkout </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARS Chocolate SKUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All Chocolate SKUs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scondary Display</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All Mars Petcare SKUs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Main Shelf (Petcare)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45%%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All Mars Gum SKUs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checkout (Gum)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Available from all Mars Ice Cream SKUs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Main Shelf (Ice Cream)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14 slots (Basket SKUs)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">minimum products</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use 'All channels' List noted in the Choc MSL worksheet</t>
   </si>
   <si>
     <t xml:space="preserve">Ice Cream MSL worksheet - All other channels</t>
@@ -526,36 +350,75 @@
     <t xml:space="preserve">Checkouts Impulse - Choc</t>
   </si>
   <si>
+    <t xml:space="preserve">MSL SKUs Hyper - Main Choc</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hyper channel Main shelf MSL list is noted in the Choc MSL worksheet</t>
   </si>
   <si>
+    <t xml:space="preserve">MSL SKUs Hyper - Main Ice Cream</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hyper MSL: Ice Cream MSL worksheet</t>
   </si>
   <si>
+    <t xml:space="preserve">MSL SKUs Hyper - Checkout Choc</t>
+  </si>
+  <si>
     <t xml:space="preserve">Choc MSL worksheet - Hypermarket Checkout only</t>
   </si>
   <si>
+    <t xml:space="preserve">Checkout Penetration Hyper - Checkout Choc</t>
+  </si>
+  <si>
     <t xml:space="preserve">Checkout</t>
   </si>
   <si>
+    <t xml:space="preserve">MSL SKUs Hyper - Display Choc</t>
+  </si>
+  <si>
     <t xml:space="preserve">Choc MSL worksheet - All Channels - Displays </t>
   </si>
   <si>
+    <t xml:space="preserve">MSL SKUs Hyper - Main Petcare</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hypermarket MSL list noted in the Pet MSL worksheet</t>
   </si>
   <si>
+    <t xml:space="preserve">MSL Hyper - Checkout Gum</t>
+  </si>
+  <si>
     <t xml:space="preserve">Main shelf Impulse - Choc</t>
   </si>
   <si>
+    <t xml:space="preserve">MSL SKUs All others - Main Choc</t>
+  </si>
+  <si>
     <t xml:space="preserve">All channel MSL list noted in the Choc MSL worksheet</t>
   </si>
   <si>
+    <t xml:space="preserve">MSL SKUs All others - Main Ice Cream</t>
+  </si>
+  <si>
     <t xml:space="preserve">1 MSL: Ice Cream MSL worksheet</t>
   </si>
   <si>
+    <t xml:space="preserve">MSL Hyper - Checkout Choc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSL Hyper - Display Choc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSL SKUs All others - Main Petcare</t>
+  </si>
+  <si>
     <t xml:space="preserve">All Channels are noted in the Pet MSL worksheet</t>
   </si>
   <si>
+    <t xml:space="preserve">Checkouts only Impulse - Gum</t>
+  </si>
+  <si>
     <t xml:space="preserve">SCENE RECOGNITION</t>
   </si>
   <si>
@@ -568,10 +431,130 @@
     <t xml:space="preserve">Hanging Strip Gum</t>
   </si>
   <si>
+    <t xml:space="preserve">Mars Presence Hyper - Main Ice cream</t>
+  </si>
+  <si>
     <t xml:space="preserve">Availbility facings (basket &amp; Multipack SKUs)</t>
   </si>
   <si>
     <t xml:space="preserve">Main Shelf (Ice Cream), Industrial Coolers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mars SOS Hyper - Main Ice cream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level_1_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level_2_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level_4_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mars Linear SOS Impulse - Main Choc_SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSL Impulse - Main Choc_SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impulse - Freezer penetration_SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSL Impulse - Main Ice Cream_SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hanging Strips KPI - Choc_SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checkout MSL KPI - Choc_SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSL Impulse - Main GUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSL Impulse - Main GUM_SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hanging Strips KPI - GUM_SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mars Linear SOS Hyper  - Main Choc_SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSL SKUs Hyper - Main Choc_SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mars Presence Hyper - Main Ice cream_SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mars SOS Hyper - Main Ice cream_SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSL SKUs Hyper - Main Ice Cream_SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mars Linear SOS Hyper - Checkout Choc_SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSL SKUs Hyper - Checkout Choc_SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checkout Penetration Hyper - Checkout Choc_SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mars Linear SOS Hyper - Display Choc_SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSL SKUs Hyper - Display Choc_SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mars Linear SOS Hyper - Main Petcare_SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSL SKUs Hyper - Main Petcare_SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSL Hyper - Checkout Gum_SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mars Linear SOS Hyper - Checkout Gum_SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mars Linear SOS All others  - Main Choc_SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSL SKUs All others - Main Choc_SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mars Linear SOS All others - Main Ice cream_SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSL SKUs All others - Main Ice Cream_SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSL Hyper - Checkout Choc_SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSL Hyper - Display Choc_SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mars Linear SOS All others - Main Petcare_SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSL SKUs All others - Main Petcare_SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checkouts only Impulse - Gum_SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOS of GUM in Checkout_SKU</t>
   </si>
 </sst>
 </file>
@@ -585,7 +568,7 @@
     <numFmt numFmtId="167" formatCode="@"/>
     <numFmt numFmtId="168" formatCode="0"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -623,6 +606,13 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -643,10 +633,21 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -734,11 +735,11 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="50">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -747,11 +748,19 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -763,15 +772,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -779,11 +784,23 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -791,7 +808,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -799,7 +816,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -807,19 +824,15 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -835,7 +848,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -843,11 +856,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -855,15 +868,15 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -875,28 +888,24 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -907,7 +916,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="3" borderId="3" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="7" fillId="3" borderId="3" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -915,12 +924,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1005,1175 +1022,952 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="true">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="1:37"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F38" activeCellId="0" sqref="F38"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="17.0102040816327"/>
-    <col collapsed="false" hidden="true" max="4" min="4" style="1" width="0"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="40.765306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="45.8979591836735"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="14.4438775510204"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="24.4336734693878"/>
-    <col collapsed="false" hidden="false" max="1023" min="11" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.4438775510204"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.6683673469388"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.1530612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="43.3163265306122"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="20.3112244897959"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="12.1326530612245"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="18.9183673469388"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="25.0969387755102"/>
+    <col collapsed="false" hidden="false" max="1019" min="9" style="1" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1020" min="1020" style="2" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1021" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="AMF1" s="2"/>
+      <c r="AMG1" s="0"/>
+      <c r="AMH1" s="0"/>
+      <c r="AMI1" s="0"/>
+      <c r="AMJ1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="B2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="AMJ1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
+      <c r="C2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="D2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="F2" s="10" t="n">
+        <v>25</v>
+      </c>
+      <c r="G2" s="10" t="n">
+        <v>100</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="7" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="F3" s="10" t="n">
+        <v>35</v>
+      </c>
+      <c r="G3" s="10"/>
+      <c r="H3" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="8" t="n">
+      <c r="E4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" s="10"/>
+      <c r="H4" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="8" t="n">
+      <c r="E8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="10" t="n">
+        <v>80</v>
+      </c>
+      <c r="G8" s="10" t="n">
         <v>100</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="H8" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="15" t="n">
+        <v>25</v>
+      </c>
+      <c r="G10" s="13" t="n">
+        <v>100</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="15" t="n">
+        <v>20</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="H11" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G12" s="13"/>
+      <c r="H12" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="D13" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G13" s="13"/>
+      <c r="H13" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="G14" s="13"/>
+      <c r="H14" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="6" t="s">
+      <c r="F15" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="G15" s="13"/>
+      <c r="H15" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="G16" s="13"/>
+      <c r="H16" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="15" t="n">
+        <v>15</v>
+      </c>
+      <c r="G18" s="13"/>
+      <c r="H18" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="15" t="n">
+        <v>10</v>
+      </c>
+      <c r="G19" s="13"/>
+      <c r="H19" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="13" t="n">
+        <v>50</v>
+      </c>
+      <c r="G20" s="13" t="n">
+        <v>100</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="13" t="n">
+        <v>50</v>
+      </c>
+      <c r="G21" s="13"/>
+      <c r="H21" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="16" t="n">
+        <v>50</v>
+      </c>
+      <c r="G22" s="16" t="n">
+        <v>100</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="15" t="n">
+        <v>50</v>
+      </c>
+      <c r="G23" s="16"/>
+      <c r="H23" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="19" t="n">
+        <v>25</v>
+      </c>
+      <c r="G24" s="17" t="n">
+        <v>100</v>
+      </c>
+      <c r="H24" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="19" t="n">
         <v>20</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
+      <c r="G25" s="17"/>
+      <c r="H25" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="D26" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G26" s="17"/>
+      <c r="H26" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G27" s="17"/>
+      <c r="H27" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="6" t="s">
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G28" s="17"/>
+      <c r="H28" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" s="19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="G29" s="17"/>
+      <c r="H29" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" s="19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="G30" s="17"/>
+      <c r="H30" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="19" t="n">
+        <v>15</v>
+      </c>
+      <c r="G31" s="17"/>
+      <c r="H31" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" s="19" t="n">
+        <v>10</v>
+      </c>
+      <c r="G32" s="17"/>
+      <c r="H32" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33" s="19" t="n">
+        <v>50</v>
+      </c>
+      <c r="G33" s="17" t="n">
+        <v>100</v>
+      </c>
+      <c r="H33" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" s="19" t="n">
+        <v>50</v>
+      </c>
+      <c r="G34" s="17"/>
+      <c r="H34" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="6" t="s">
+      <c r="D35" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" s="20" t="n">
+        <v>60</v>
+      </c>
+      <c r="G35" s="20" t="n">
+        <v>100</v>
+      </c>
+      <c r="H35" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F36" s="20" t="n">
+        <v>20</v>
+      </c>
+      <c r="G36" s="20"/>
+      <c r="H36" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" s="18" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="9" t="n">
+      <c r="E37" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F37" s="19" t="n">
         <v>20</v>
       </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="8" t="n">
-        <v>80</v>
-      </c>
-      <c r="I8" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="12" t="n">
-        <v>25</v>
-      </c>
-      <c r="I10" s="10" t="n">
-        <v>100</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="12" t="n">
-        <v>20</v>
-      </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" s="12" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" s="12" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="I15" s="10"/>
-      <c r="J15" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" s="12" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="I16" s="10"/>
-      <c r="J16" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" s="12" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="I17" s="10"/>
-      <c r="J17" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="12" t="n">
-        <v>15</v>
-      </c>
-      <c r="I18" s="10"/>
-      <c r="J18" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H19" s="12" t="n">
-        <v>10</v>
-      </c>
-      <c r="I19" s="10"/>
-      <c r="J19" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="I20" s="10" t="n">
-        <v>100</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="I21" s="10"/>
-      <c r="J21" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H22" s="13" t="n">
-        <v>50</v>
-      </c>
-      <c r="I22" s="13" t="n">
-        <v>100</v>
-      </c>
-      <c r="J22" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" s="12" t="n">
-        <v>50</v>
-      </c>
-      <c r="I23" s="13"/>
-      <c r="J23" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H24" s="16" t="n">
-        <v>25</v>
-      </c>
-      <c r="I24" s="14" t="n">
-        <v>100</v>
-      </c>
-      <c r="J24" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" s="16" t="n">
-        <v>20</v>
-      </c>
-      <c r="I25" s="14"/>
-      <c r="J25" s="15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H26" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="I26" s="14"/>
-      <c r="J26" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="G27" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H27" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="I27" s="14"/>
-      <c r="J27" s="15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="G28" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H28" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="I28" s="14"/>
-      <c r="J28" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="G29" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H29" s="16" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="I29" s="14"/>
-      <c r="J29" s="15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="G30" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H30" s="16" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="I30" s="14"/>
-      <c r="J30" s="15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="F31" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="G31" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H31" s="16" t="n">
-        <v>15</v>
-      </c>
-      <c r="I31" s="14"/>
-      <c r="J31" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="G32" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H32" s="16" t="n">
-        <v>10</v>
-      </c>
-      <c r="I32" s="14"/>
-      <c r="J32" s="15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="F33" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="G33" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H33" s="16" t="n">
-        <v>50</v>
-      </c>
-      <c r="I33" s="14" t="n">
-        <v>100</v>
-      </c>
-      <c r="J33" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="G34" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H34" s="16" t="n">
-        <v>50</v>
-      </c>
-      <c r="I34" s="14"/>
-      <c r="J34" s="15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="G35" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H35" s="17" t="n">
-        <v>60</v>
-      </c>
-      <c r="I35" s="17" t="n">
-        <v>100</v>
-      </c>
-      <c r="J35" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="F36" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="G36" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H36" s="17" t="n">
-        <v>20</v>
-      </c>
-      <c r="I36" s="17"/>
-      <c r="J36" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F37" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="G37" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H37" s="16" t="n">
-        <v>20</v>
-      </c>
-      <c r="I37" s="17"/>
-      <c r="J37" s="15" t="s">
-        <v>33</v>
+      <c r="G37" s="20"/>
+      <c r="H37" s="18" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J37">
-    <filterColumn colId="0">
-      <customFilters and="true">
-        <customFilter operator="equal" val="Impulse"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H37"/>
   <mergeCells count="8">
-    <mergeCell ref="I2:I7"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="I10:I19"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="I24:I32"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="I35:I37"/>
+    <mergeCell ref="G2:G7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G10:G19"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="G24:G32"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G35:G37"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
@@ -2191,10 +1985,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2209,49 +2003,55 @@
     <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="11.0714285714286"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>128</v>
+      <c r="B1" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
+      <c r="A2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="11" t="n">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2266,426 +2066,471 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="36.8520408163265"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="33.3418367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="33.6122448979592"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="20.6530612244898"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="25.2448979591837"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="20.6530612244898"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="21.8673469387755"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="47.7857142857143"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="24.4336734693878"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.4438775510204"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="38.5255102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="34.9795918367347"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="14.9030612244898"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="34.8163265306122"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="24.0204081632653"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="24.3265306122449"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="28.6428571428571"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="23.8571428571429"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="24.9489795918367"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="50.4132653061224"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="27.719387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="1" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="K1" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="L1" s="18" t="s">
-        <v>136</v>
+      <c r="B1" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F2" s="24" t="n">
+      <c r="A2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="27" t="n">
         <v>0.5</v>
       </c>
-      <c r="G2" s="24" t="n">
+      <c r="G2" s="27" t="n">
         <v>0.5</v>
       </c>
-      <c r="H2" s="24"/>
-      <c r="I2" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="J2" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="K2" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="L2" s="19"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="F3" s="27" t="n">
+      <c r="H2" s="27"/>
+      <c r="I2" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="L2" s="22"/>
+      <c r="M2" s="10" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="30" t="n">
         <v>0.35</v>
       </c>
-      <c r="G3" s="27" t="n">
+      <c r="G3" s="30" t="n">
         <v>0.4</v>
       </c>
-      <c r="H3" s="27"/>
-      <c r="I3" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="J3" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="K3" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="L3" s="26"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="F4" s="27" t="n">
+      <c r="H3" s="30"/>
+      <c r="I3" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="J3" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="K3" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="L3" s="29"/>
+      <c r="M3" s="15" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="30" t="n">
         <v>0.55</v>
       </c>
-      <c r="G4" s="27" t="n">
+      <c r="G4" s="30" t="n">
         <v>0.55</v>
       </c>
-      <c r="H4" s="27"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="K4" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="L4" s="26"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="F5" s="27" t="n">
+      <c r="H4" s="30"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="L4" s="29"/>
+      <c r="M4" s="15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="30" t="n">
         <v>0.5</v>
       </c>
-      <c r="G5" s="27" t="n">
+      <c r="G5" s="30" t="n">
         <v>0.5</v>
       </c>
-      <c r="H5" s="27"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="F6" s="27" t="n">
+      <c r="H5" s="30"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="15" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6" s="30" t="n">
         <v>0.4</v>
       </c>
-      <c r="G6" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="25" t="s">
+      <c r="G6" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="13" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="25" t="s">
-        <v>152</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="F7" s="27" t="n">
+      <c r="C7" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" s="30" t="n">
         <v>0.7</v>
       </c>
-      <c r="G7" s="27" t="n">
+      <c r="G7" s="30" t="n">
         <v>0.8</v>
       </c>
-      <c r="H7" s="27"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14" t="s">
+      <c r="H7" s="30"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="15" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="33" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G8" s="33" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H8" s="33"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="19" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" s="33" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G9" s="33" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H9" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="33" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G10" s="33" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H10" s="33"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" s="33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G11" s="33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H11" s="33"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="19" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" s="33" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G12" s="33" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="19" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="F8" s="30" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="G8" s="30" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="H8" s="30"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="F9" s="30" t="n">
+      <c r="F13" s="35" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G13" s="35" t="n">
         <v>0.8</v>
       </c>
-      <c r="G9" s="30" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H9" s="30" t="s">
-        <v>156</v>
-      </c>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="F10" s="30" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="G10" s="30" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="H10" s="30"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="F11" s="30" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G11" s="30" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H11" s="30"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="F12" s="30" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="G12" s="30" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="F13" s="32" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="G13" s="32" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="20" t="n">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L13"/>
+  <autoFilter ref="A1:L13">
+    <filterColumn colId="0">
+      <customFilters and="true">
+        <customFilter operator="equal" val="Impulse"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2704,8 +2549,8 @@
   </sheetPr>
   <dimension ref="1:19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2715,62 +2560,67 @@
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="63.3112244897959"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="17.1428571428571"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="33.6122448979592"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="33" width="20.6530612244898"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="36" width="20.6530612244898"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="21.0612244897959"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="24.3010204081633"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="11.0714285714286"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>157</v>
+      <c r="B1" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F2" s="24" t="n">
+      <c r="A2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="24" t="n">
+      <c r="G2" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="0"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="10" t="n">
+        <v>35</v>
+      </c>
       <c r="J2" s="0"/>
       <c r="K2" s="0"/>
       <c r="L2" s="0"/>
@@ -3787,30 +3637,32 @@
       <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
     </row>
-    <row r="3" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
+    <row r="3" customFormat="false" ht="24.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="26"/>
+      <c r="I3" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="F3" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="0"/>
       <c r="J3" s="0"/>
       <c r="K3" s="0"/>
       <c r="L3" s="0"/>
@@ -4828,29 +4680,31 @@
       <c r="AMJ3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="F4" s="24" t="n">
+      <c r="A4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4" s="27" t="n">
         <v>0.8</v>
       </c>
-      <c r="G4" s="24" t="n">
+      <c r="G4" s="27" t="n">
         <v>0.8</v>
       </c>
-      <c r="H4" s="23"/>
-      <c r="I4" s="0"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="11" t="n">
+        <v>20</v>
+      </c>
       <c r="J4" s="0"/>
       <c r="K4" s="0"/>
       <c r="L4" s="0"/>
@@ -5868,358 +5722,403 @@
       <c r="AMJ4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="10" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="30" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G6" s="30" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="15" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="30" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G7" s="30" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="30" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G8" s="30" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="15" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="15" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="30" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G10" s="30" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="15" t="n">
         <v>10</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="19" t="n">
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="30" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="26" t="s">
+      <c r="G11" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="I11" s="13" t="n">
         <v>50</v>
       </c>
-      <c r="C6" s="37" t="s">
-        <v>164</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="F6" s="27" t="n">
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="F12" s="30" t="n">
         <v>0.8</v>
       </c>
-      <c r="G6" s="27" t="n">
+      <c r="G12" s="30" t="n">
         <v>0.8</v>
       </c>
-      <c r="H6" s="25"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>165</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="F7" s="27" t="n">
+      <c r="H12" s="28"/>
+      <c r="I12" s="16" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" s="31"/>
+      <c r="I13" s="19" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="31"/>
+      <c r="I14" s="19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="33" t="n">
         <v>0.8</v>
       </c>
-      <c r="G7" s="27" t="n">
+      <c r="G15" s="33" t="n">
         <v>0.8</v>
       </c>
-      <c r="H7" s="25"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>166</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="F8" s="27" t="n">
+      <c r="H15" s="31"/>
+      <c r="I15" s="19" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="33" t="n">
         <v>0.8</v>
       </c>
-      <c r="G8" s="27" t="n">
+      <c r="G16" s="33" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H16" s="31"/>
+      <c r="I16" s="19" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="31" t="n">
+        <v>2</v>
+      </c>
+      <c r="I17" s="19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" s="31"/>
+      <c r="I18" s="19" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="C19" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="F19" s="33" t="n">
         <v>0.8</v>
       </c>
-      <c r="H8" s="25"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>166</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="F10" s="27" t="n">
+      <c r="G19" s="33" t="n">
         <v>0.8</v>
       </c>
-      <c r="G10" s="27" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H10" s="25"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>169</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="F11" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="25"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="C12" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="F12" s="27" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G12" s="27" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H12" s="25"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="C13" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="F13" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" s="28"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="C14" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="F14" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" s="28"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="C15" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="D15" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="F15" s="30" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G15" s="30" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H15" s="28"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="D16" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="F16" s="30" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G16" s="30" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H16" s="28"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="C17" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="28" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="C18" s="38" t="s">
-        <v>173</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="F18" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="G18" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="H18" s="28"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="C19" s="38" t="s">
-        <v>158</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="29" t="s">
-        <v>170</v>
-      </c>
-      <c r="F19" s="30" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G19" s="30" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H19" s="28"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="20" t="n">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -6239,49 +6138,51 @@
   </sheetPr>
   <dimension ref="A1:ALZ6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="39" width="34.8265306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="39" width="20.25"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="39" width="40.9030612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="39" width="37.9336734693878"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="39" width="20.6530612244898"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="39" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="39" width="24.3010204081633"/>
-    <col collapsed="false" hidden="false" max="1010" min="9" style="39" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="34.8265306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="20.25"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="40.9030612244898"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="37.9336734693878"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="20.6530612244898"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="21.0612244897959"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="24.3010204081633"/>
+    <col collapsed="false" hidden="false" max="1010" min="9" style="2" width="11.0714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="D1" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="40" t="s">
-        <v>125</v>
-      </c>
-      <c r="F1" s="41" t="s">
-        <v>131</v>
-      </c>
-      <c r="G1" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="H1" s="40" t="s">
-        <v>157</v>
-      </c>
-      <c r="I1" s="0"/>
+      <c r="B1" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="J1" s="0"/>
       <c r="K1" s="0"/>
       <c r="L1" s="0"/>
@@ -7285,126 +7186,141 @@
       <c r="ALV1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>174</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="F2" s="42"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19" t="n">
+      <c r="A2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="F2" s="44"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22" t="n">
         <v>2</v>
       </c>
-      <c r="ALW2" s="39"/>
-      <c r="ALX2" s="39"/>
-      <c r="ALY2" s="39"/>
+      <c r="I2" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="ALW2" s="2"/>
+      <c r="ALX2" s="2"/>
+      <c r="ALY2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="23" t="n">
+      <c r="A3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="F3" s="27"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="ALW3" s="39"/>
+      <c r="I3" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="ALW3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>137</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>179</v>
-      </c>
-      <c r="F4" s="27" t="n">
+      <c r="A4" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="F4" s="30" t="n">
         <v>0.8</v>
       </c>
-      <c r="G4" s="27" t="n">
+      <c r="G4" s="30" t="n">
         <v>0.8</v>
       </c>
-      <c r="H4" s="25" t="n">
+      <c r="H4" s="28" t="n">
         <v>16</v>
       </c>
+      <c r="I4" s="15" t="n">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>137</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>179</v>
-      </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="25" t="n">
+      <c r="A5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="30"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="28" t="n">
         <v>3</v>
       </c>
+      <c r="I5" s="15" t="n">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>174</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>177</v>
-      </c>
-      <c r="F6" s="30"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="28" t="n">
+      <c r="A6" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="F6" s="33"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="ALW6" s="39"/>
-      <c r="ALX6" s="39"/>
-      <c r="ALY6" s="39"/>
-      <c r="ALZ6" s="39"/>
+      <c r="I6" s="19" t="n">
+        <v>20</v>
+      </c>
+      <c r="ALW6" s="2"/>
+      <c r="ALX6" s="2"/>
+      <c r="ALY6" s="2"/>
+      <c r="ALZ6" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -7415,4 +7331,1405 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="1:37"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.4438775510204"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.6683673469388"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.3112244897959"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.1530612244898"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="20.3112244897959"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="43.3163265306122"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.3112244897959"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="47.9489795918367"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="20.3112244897959"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="12.1326530612245"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="18.9183673469388"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="25.0969387755102"/>
+    <col collapsed="false" hidden="false" max="1023" min="13" style="1" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="2" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AMJ1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="J2" s="10" t="n">
+        <v>25</v>
+      </c>
+      <c r="K2" s="10" t="n">
+        <v>100</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="J3" s="10" t="n">
+        <v>35</v>
+      </c>
+      <c r="K3" s="10"/>
+      <c r="L3" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="J4" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="K4" s="10"/>
+      <c r="L4" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="J5" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="K5" s="10"/>
+      <c r="L5" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="J6" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="K6" s="10"/>
+      <c r="L6" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="J7" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="K7" s="10"/>
+      <c r="L7" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="J8" s="10" t="n">
+        <v>80</v>
+      </c>
+      <c r="K8" s="10" t="n">
+        <v>100</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="J9" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="K9" s="10"/>
+      <c r="L9" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="15" t="n">
+        <v>25</v>
+      </c>
+      <c r="K10" s="13" t="n">
+        <v>100</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="15" t="n">
+        <v>20</v>
+      </c>
+      <c r="K11" s="13"/>
+      <c r="L11" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K12" s="13"/>
+      <c r="L12" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K13" s="13"/>
+      <c r="L13" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="K14" s="13"/>
+      <c r="L14" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="K15" s="13"/>
+      <c r="L15" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K16" s="13"/>
+      <c r="L16" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K17" s="13"/>
+      <c r="L17" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" s="15" t="n">
+        <v>15</v>
+      </c>
+      <c r="K18" s="13"/>
+      <c r="L18" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="15" t="n">
+        <v>10</v>
+      </c>
+      <c r="K19" s="13"/>
+      <c r="L19" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="13" t="n">
+        <v>50</v>
+      </c>
+      <c r="K20" s="13" t="n">
+        <v>100</v>
+      </c>
+      <c r="L20" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="13" t="n">
+        <v>50</v>
+      </c>
+      <c r="K21" s="13"/>
+      <c r="L21" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="16" t="n">
+        <v>50</v>
+      </c>
+      <c r="K22" s="16" t="n">
+        <v>100</v>
+      </c>
+      <c r="L22" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" s="15" t="n">
+        <v>50</v>
+      </c>
+      <c r="K23" s="16"/>
+      <c r="L23" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="I24" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" s="19" t="n">
+        <v>25</v>
+      </c>
+      <c r="K24" s="17" t="n">
+        <v>100</v>
+      </c>
+      <c r="L24" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="I25" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" s="19" t="n">
+        <v>20</v>
+      </c>
+      <c r="K25" s="17"/>
+      <c r="L25" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="I26" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J26" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="K26" s="17"/>
+      <c r="L26" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="I27" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="K27" s="17"/>
+      <c r="L27" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="I28" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J28" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="K28" s="17"/>
+      <c r="L28" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="I29" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" s="19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K29" s="17"/>
+      <c r="L29" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="I30" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J30" s="19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K30" s="17"/>
+      <c r="L30" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="I31" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J31" s="19" t="n">
+        <v>15</v>
+      </c>
+      <c r="K31" s="17"/>
+      <c r="L31" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="I32" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J32" s="19" t="n">
+        <v>10</v>
+      </c>
+      <c r="K32" s="17"/>
+      <c r="L32" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="G33" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="I33" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J33" s="19" t="n">
+        <v>50</v>
+      </c>
+      <c r="K33" s="17" t="n">
+        <v>100</v>
+      </c>
+      <c r="L33" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="I34" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J34" s="19" t="n">
+        <v>50</v>
+      </c>
+      <c r="K34" s="17"/>
+      <c r="L34" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="I35" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J35" s="20" t="n">
+        <v>60</v>
+      </c>
+      <c r="K35" s="20" t="n">
+        <v>100</v>
+      </c>
+      <c r="L35" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F36" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="I36" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J36" s="20" t="n">
+        <v>20</v>
+      </c>
+      <c r="K36" s="20"/>
+      <c r="L36" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F37" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G37" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="I37" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="J37" s="19" t="n">
+        <v>20</v>
+      </c>
+      <c r="K37" s="20"/>
+      <c r="L37" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="K2:K7"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="K10:K19"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="K24:K32"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="K35:K37"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Projects/MARSUAE/Data/Template.xlsx
+++ b/Projects/MARSUAE/Data/Template.xlsx
@@ -16,11 +16,14 @@
     <sheet name="Sheet6" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames>
+    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Distribution!$A$1:$J$19</definedName>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPI!$A$1:$H$37</definedName>
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">SOS!$A$1:$L$13</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPI!$A$1:$H$37</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPI!$A$1:$H$37</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPI!$A$1:$H$37</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">SOS!$A$1:$L$13</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">SOS!$A$1:$L$13</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="170">
   <si>
     <t xml:space="preserve">Channel</t>
   </si>
@@ -97,19 +100,19 @@
     <t xml:space="preserve">Hanging Strips KPI - Choc</t>
   </si>
   <si>
-    <t xml:space="preserve">Availbility</t>
+    <t xml:space="preserve">Availability</t>
   </si>
   <si>
     <t xml:space="preserve">1/0</t>
   </si>
   <si>
-    <t xml:space="preserve">Checkout MSL KPI - Choc</t>
+    <t xml:space="preserve">MSL - Checkout Choc</t>
   </si>
   <si>
     <t xml:space="preserve">Gum</t>
   </si>
   <si>
-    <t xml:space="preserve">MSL - Main GUM</t>
+    <t xml:space="preserve">MSL - Checkout GUM</t>
   </si>
   <si>
     <t xml:space="preserve">Hanging Strips KPI - GUM</t>
@@ -118,37 +121,22 @@
     <t xml:space="preserve">Hypermarkets</t>
   </si>
   <si>
-    <t xml:space="preserve">Mars Linear SOS  - Main Choc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL SKUs - Main Choc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mars Presence - Main Ice cream</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mars SOS - Main Ice cream</t>
+    <t xml:space="preserve">basket Presence - Main Ice cream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">multipack Presence - Main Ice cream</t>
   </si>
   <si>
     <t xml:space="preserve">Count </t>
   </si>
   <si>
-    <t xml:space="preserve">MSL SKUs - Main Ice Cream</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mars Linear SOS - Checkout Choc</t>
   </si>
   <si>
-    <t xml:space="preserve">MSL SKUs - Checkout Choc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checkout Penetration - Checkout Choc</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mars Linear SOS - Display Choc</t>
   </si>
   <si>
-    <t xml:space="preserve">MSL SKUs - Display Choc</t>
+    <t xml:space="preserve">MSL - Display Choc</t>
   </si>
   <si>
     <t xml:space="preserve">Pet</t>
@@ -157,7 +145,7 @@
     <t xml:space="preserve">Mars Linear SOS - Main Petcare</t>
   </si>
   <si>
-    <t xml:space="preserve">MSL SKUs - Main Petcare</t>
+    <t xml:space="preserve">MSL - Main Petcare</t>
   </si>
   <si>
     <t xml:space="preserve">MSL - Checkout Gum</t>
@@ -169,22 +157,13 @@
     <t xml:space="preserve">Other</t>
   </si>
   <si>
-    <t xml:space="preserve">Aggregation</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mars Linear SOS - Main Ice cream</t>
   </si>
   <si>
-    <t xml:space="preserve">MSL - Checkout Choc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL - Display Choc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checkouts - Gum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOS of GUM in Checkout</t>
+    <t xml:space="preserve">MSL - Checkouts Gum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mars Linear SOS - Checkout GUM</t>
   </si>
   <si>
     <t xml:space="preserve">Atomic KPI</t>
@@ -208,9 +187,6 @@
     <t xml:space="preserve">value</t>
   </si>
   <si>
-    <t xml:space="preserve">Impulse - Freezer penetration</t>
-  </si>
-  <si>
     <t xml:space="preserve">Count Scene Type</t>
   </si>
   <si>
@@ -235,9 +211,6 @@
     <t xml:space="preserve">denominator value</t>
   </si>
   <si>
-    <t xml:space="preserve">Mars Linear SOS Impulse - Main Choc</t>
-  </si>
-  <si>
     <t xml:space="preserve">All Mars Choc SKUs</t>
   </si>
   <si>
@@ -256,18 +229,12 @@
     <t xml:space="preserve">All of the confectionery products excluding irrelevant</t>
   </si>
   <si>
-    <t xml:space="preserve">Mars Linear SOS Hyper  - Main Choc</t>
-  </si>
-  <si>
     <t xml:space="preserve">Main Shelf (Choc)</t>
   </si>
   <si>
     <t xml:space="preserve">All Other prodcuts excluding irrelevant</t>
   </si>
   <si>
-    <t xml:space="preserve">Mars Linear SOS Hyper - Checkout Choc</t>
-  </si>
-  <si>
     <t xml:space="preserve">Checkout </t>
   </si>
   <si>
@@ -277,15 +244,9 @@
     <t xml:space="preserve">All Chocolate SKUs</t>
   </si>
   <si>
-    <t xml:space="preserve">Mars Linear SOS Hyper - Display Choc</t>
-  </si>
-  <si>
     <t xml:space="preserve">Scondary Display</t>
   </si>
   <si>
-    <t xml:space="preserve">Mars Linear SOS Hyper - Main Petcare</t>
-  </si>
-  <si>
     <t xml:space="preserve">All Mars Petcare SKUs</t>
   </si>
   <si>
@@ -295,21 +256,12 @@
     <t xml:space="preserve">45%%</t>
   </si>
   <si>
-    <t xml:space="preserve">Mars Linear SOS Hyper - Checkout Gum</t>
-  </si>
-  <si>
     <t xml:space="preserve">All Mars Gum SKUs</t>
   </si>
   <si>
     <t xml:space="preserve">Checkout (Gum)</t>
   </si>
   <si>
-    <t xml:space="preserve">Mars Linear SOS All others  - Main Choc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mars Linear SOS All others - Main Ice cream</t>
-  </si>
-  <si>
     <t xml:space="preserve">Available from all Mars Ice Cream SKUs</t>
   </si>
   <si>
@@ -319,19 +271,13 @@
     <t xml:space="preserve">14 slots (Basket SKUs)</t>
   </si>
   <si>
-    <t xml:space="preserve">Mars Linear SOS All others - Main Petcare</t>
+    <t xml:space="preserve">Assortment group</t>
   </si>
   <si>
     <t xml:space="preserve">minimum products</t>
   </si>
   <si>
-    <t xml:space="preserve">MSL Impulse - Main Choc</t>
-  </si>
-  <si>
     <t xml:space="preserve">Use 'All channels' List noted in the Choc MSL worksheet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL Impulse - Main Ice Cream</t>
   </si>
   <si>
     <t xml:space="preserve">Ice Cream MSL worksheet - All other channels</t>
@@ -341,217 +287,262 @@
 Industrial Freezer</t>
   </si>
   <si>
-    <t xml:space="preserve">Checkout GUM</t>
+    <t xml:space="preserve">Checkout Choc</t>
   </si>
   <si>
     <t xml:space="preserve">checkout MSL list at the check out within checkout scene.</t>
   </si>
   <si>
-    <t xml:space="preserve">Checkouts Impulse - Choc</t>
+    <t xml:space="preserve">Checkouts Gum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hyper channel Main shelf MSL list is noted in the Choc MSL worksheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hyper MSL: Ice Cream MSL worksheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choc MSL worksheet - Hypermarket Checkout only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checkout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choc MSL worksheet - All Channels - Displays </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hypermarket MSL list noted in the Pet MSL worksheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main shelf Impulse - Choc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All channel MSL list noted in the Choc MSL worksheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 MSL: Ice Cream MSL worksheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All Channels are noted in the Pet MSL worksheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCENE RECOGNITION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Availbility hanging strip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hanging Strip Choc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hanging Strip Gum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Availbility basket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main Shelf (Ice Cream), Industrial Coolers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Availbility multipack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level_1_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level_2_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level_4_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aggregation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mars Linear SOS Impulse - Main Choc_SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSL Impulse - Main Choc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSL Impulse - Main Choc_SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impulse - Freezer penetration_SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSL Impulse - Main Ice Cream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSL Impulse - Main Ice Cream_SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Availbility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hanging Strips KPI - Choc_SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checkout MSL KPI - Choc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checkout MSL KPI - Choc_SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSL Impulse - Main GUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSL Impulse - Main GUM_SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hanging Strips KPI - GUM_SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mars Linear SOS  - Main Choc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mars Linear SOS Hyper  - Main Choc_SKU</t>
   </si>
   <si>
     <t xml:space="preserve">MSL SKUs Hyper - Main Choc</t>
   </si>
   <si>
-    <t xml:space="preserve">Hyper channel Main shelf MSL list is noted in the Choc MSL worksheet</t>
+    <t xml:space="preserve">MSL SKUs Hyper - Main Choc_SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mars Presence Hyper - Main Ice cream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mars Presence Hyper - Main Ice cream_SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mars SOS Hyper - Main Ice cream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mars SOS Hyper - Main Ice cream_SKU</t>
   </si>
   <si>
     <t xml:space="preserve">MSL SKUs Hyper - Main Ice Cream</t>
   </si>
   <si>
-    <t xml:space="preserve">Hyper MSL: Ice Cream MSL worksheet</t>
+    <t xml:space="preserve">MSL SKUs Hyper - Main Ice Cream_SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mars Linear SOS Hyper - Checkout Choc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mars Linear SOS Hyper - Checkout Choc_SKU</t>
   </si>
   <si>
     <t xml:space="preserve">MSL SKUs Hyper - Checkout Choc</t>
   </si>
   <si>
-    <t xml:space="preserve">Choc MSL worksheet - Hypermarket Checkout only</t>
+    <t xml:space="preserve">MSL SKUs Hyper - Checkout Choc_SKU</t>
   </si>
   <si>
     <t xml:space="preserve">Checkout Penetration Hyper - Checkout Choc</t>
   </si>
   <si>
-    <t xml:space="preserve">Checkout</t>
+    <t xml:space="preserve">Checkout Penetration Hyper - Checkout Choc_SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mars Linear SOS Hyper - Display Choc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mars Linear SOS Hyper - Display Choc_SKU</t>
   </si>
   <si>
     <t xml:space="preserve">MSL SKUs Hyper - Display Choc</t>
   </si>
   <si>
-    <t xml:space="preserve">Choc MSL worksheet - All Channels - Displays </t>
+    <t xml:space="preserve">MSL SKUs Hyper - Display Choc_SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mars Linear SOS Hyper - Main Petcare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mars Linear SOS Hyper - Main Petcare_SKU</t>
   </si>
   <si>
     <t xml:space="preserve">MSL SKUs Hyper - Main Petcare</t>
   </si>
   <si>
-    <t xml:space="preserve">Hypermarket MSL list noted in the Pet MSL worksheet</t>
+    <t xml:space="preserve">MSL SKUs Hyper - Main Petcare_SKU</t>
   </si>
   <si>
     <t xml:space="preserve">MSL Hyper - Checkout Gum</t>
   </si>
   <si>
-    <t xml:space="preserve">Main shelf Impulse - Choc</t>
+    <t xml:space="preserve">MSL Hyper - Checkout Gum_SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mars Linear SOS Hyper - Checkout Gum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mars Linear SOS Hyper - Checkout Gum_SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mars Linear SOS All others  - Main Choc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mars Linear SOS All others  - Main Choc_SKU</t>
   </si>
   <si>
     <t xml:space="preserve">MSL SKUs All others - Main Choc</t>
   </si>
   <si>
-    <t xml:space="preserve">All channel MSL list noted in the Choc MSL worksheet</t>
+    <t xml:space="preserve">MSL SKUs All others - Main Choc_SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mars Linear SOS All others - Main Ice cream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mars Linear SOS All others - Main Ice cream_SKU</t>
   </si>
   <si>
     <t xml:space="preserve">MSL SKUs All others - Main Ice Cream</t>
   </si>
   <si>
-    <t xml:space="preserve">1 MSL: Ice Cream MSL worksheet</t>
+    <t xml:space="preserve">MSL SKUs All others - Main Ice Cream_SKU</t>
   </si>
   <si>
     <t xml:space="preserve">MSL Hyper - Checkout Choc</t>
   </si>
   <si>
+    <t xml:space="preserve">MSL Hyper - Checkout Choc_SKU</t>
+  </si>
+  <si>
     <t xml:space="preserve">MSL Hyper - Display Choc</t>
   </si>
   <si>
+    <t xml:space="preserve">MSL Hyper - Display Choc_SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mars Linear SOS All others - Main Petcare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mars Linear SOS All others - Main Petcare_SKU</t>
+  </si>
+  <si>
     <t xml:space="preserve">MSL SKUs All others - Main Petcare</t>
   </si>
   <si>
-    <t xml:space="preserve">All Channels are noted in the Pet MSL worksheet</t>
+    <t xml:space="preserve">MSL SKUs All others - Main Petcare_SKU</t>
   </si>
   <si>
     <t xml:space="preserve">Checkouts only Impulse - Gum</t>
   </si>
   <si>
-    <t xml:space="preserve">SCENE RECOGNITION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Availbility hanging strip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hanging Strip Choc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hanging Strip Gum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mars Presence Hyper - Main Ice cream</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Availbility facings (basket &amp; Multipack SKUs)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Main Shelf (Ice Cream), Industrial Coolers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mars SOS Hyper - Main Ice cream</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Level_1_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Level_2_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Level_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Level_4_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mars Linear SOS Impulse - Main Choc_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL Impulse - Main Choc_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Impulse - Freezer penetration_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL Impulse - Main Ice Cream_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hanging Strips KPI - Choc_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checkout MSL KPI - Choc_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL Impulse - Main GUM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL Impulse - Main GUM_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hanging Strips KPI - GUM_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mars Linear SOS Hyper  - Main Choc_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL SKUs Hyper - Main Choc_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mars Presence Hyper - Main Ice cream_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mars SOS Hyper - Main Ice cream_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL SKUs Hyper - Main Ice Cream_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mars Linear SOS Hyper - Checkout Choc_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL SKUs Hyper - Checkout Choc_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checkout Penetration Hyper - Checkout Choc_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mars Linear SOS Hyper - Display Choc_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL SKUs Hyper - Display Choc_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mars Linear SOS Hyper - Main Petcare_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL SKUs Hyper - Main Petcare_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL Hyper - Checkout Gum_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mars Linear SOS Hyper - Checkout Gum_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mars Linear SOS All others  - Main Choc_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL SKUs All others - Main Choc_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mars Linear SOS All others - Main Ice cream_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL SKUs All others - Main Ice Cream_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL Hyper - Checkout Choc_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL Hyper - Display Choc_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mars Linear SOS All others - Main Petcare_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL SKUs All others - Main Petcare_SKU</t>
-  </si>
-  <si>
     <t xml:space="preserve">Checkouts only Impulse - Gum_SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOS of GUM in Checkout</t>
   </si>
   <si>
     <t xml:space="preserve">SOS of GUM in Checkout_SKU</t>
@@ -568,7 +559,7 @@
     <numFmt numFmtId="167" formatCode="@"/>
     <numFmt numFmtId="168" formatCode="0"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -606,15 +597,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
+      <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="Calibri"/>
+      <name val="FreeSans"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -627,12 +617,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="FreeSans"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -642,12 +627,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -735,11 +714,11 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="48">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -760,7 +739,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -772,7 +751,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -780,15 +767,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="3" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -796,15 +779,31 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="4" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -812,15 +811,23 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="5" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -828,11 +835,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -844,39 +847,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -888,7 +871,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -896,15 +879,15 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -916,7 +899,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="3" borderId="3" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="6" fillId="3" borderId="3" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -924,20 +907,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1020,6 +991,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -1028,22 +1003,22 @@
   <dimension ref="1:37"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
+      <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.4438775510204"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.6683673469388"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.1530612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="43.3163265306122"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="20.3112244897959"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="12.1326530612245"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="18.9183673469388"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="25.0969387755102"/>
-    <col collapsed="false" hidden="false" max="1019" min="9" style="1" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="1020" min="1020" style="2" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="1021" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.5"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="42.7908163265306"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="19.9795918367347"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="18.6275510204082"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="24.8367346938776"/>
+    <col collapsed="false" hidden="false" max="1019" min="9" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1020" min="1020" style="2" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="1021" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1128,7 +1103,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -1143,7 +1118,7 @@
       <c r="E4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="11" t="n">
+      <c r="F4" s="12" t="n">
         <v>5</v>
       </c>
       <c r="G4" s="10"/>
@@ -1152,7 +1127,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -1167,7 +1142,7 @@
       <c r="E5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="11" t="n">
+      <c r="F5" s="12" t="n">
         <v>10</v>
       </c>
       <c r="G5" s="10"/>
@@ -1185,13 +1160,13 @@
       <c r="C6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="11" t="n">
+      <c r="F6" s="12" t="n">
         <v>5</v>
       </c>
       <c r="G6" s="10"/>
@@ -1212,10 +1187,10 @@
       <c r="D7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="11" t="n">
+      <c r="F7" s="12" t="n">
         <v>20</v>
       </c>
       <c r="G7" s="10"/>
@@ -1259,13 +1234,13 @@
       <c r="C9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="13" t="s">
         <v>26</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="11" t="n">
+      <c r="F9" s="12" t="n">
         <v>20</v>
       </c>
       <c r="G9" s="10"/>
@@ -1274,686 +1249,686 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="17" t="n">
+        <v>25</v>
+      </c>
+      <c r="G10" s="14" t="n">
+        <v>100</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="17" t="n">
+        <v>20</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E12" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G14" s="14"/>
+      <c r="H14" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="15" t="n">
+      <c r="F15" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="G16" s="14"/>
+      <c r="H16" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="G17" s="14"/>
+      <c r="H17" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="17" t="n">
+        <v>15</v>
+      </c>
+      <c r="G18" s="14"/>
+      <c r="H18" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="17" t="n">
+        <v>10</v>
+      </c>
+      <c r="G19" s="14"/>
+      <c r="H19" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="14" t="n">
+        <v>50</v>
+      </c>
+      <c r="G20" s="14" t="n">
+        <v>100</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="14" t="n">
+        <v>50</v>
+      </c>
+      <c r="G21" s="14"/>
+      <c r="H21" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="21" t="n">
+        <v>50</v>
+      </c>
+      <c r="G22" s="21" t="n">
+        <v>100</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="17" t="n">
+        <v>50</v>
+      </c>
+      <c r="G23" s="21"/>
+      <c r="H23" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="25" t="n">
         <v>25</v>
       </c>
-      <c r="G10" s="13" t="n">
+      <c r="G24" s="22" t="n">
         <v>100</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H24" s="23" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="14" t="s">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C25" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="14" t="s">
+      <c r="D25" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="15" t="n">
+      <c r="F25" s="25" t="n">
         <v>20</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="14" t="s">
+      <c r="G25" s="22"/>
+      <c r="H25" s="23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="25" t="n">
+        <v>5</v>
+      </c>
+      <c r="G26" s="22"/>
+      <c r="H26" s="23" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="14" t="s">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C27" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="14" t="s">
+      <c r="D27" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="25" t="n">
+        <v>5</v>
+      </c>
+      <c r="G27" s="22"/>
+      <c r="H27" s="23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="25" t="n">
+        <v>5</v>
+      </c>
+      <c r="G28" s="22"/>
+      <c r="H28" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="25" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="G29" s="22"/>
+      <c r="H29" s="23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="25" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="G30" s="22"/>
+      <c r="H30" s="23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="25" t="n">
+        <v>15</v>
+      </c>
+      <c r="G31" s="22"/>
+      <c r="H31" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="25" t="n">
+        <v>10</v>
+      </c>
+      <c r="G32" s="22"/>
+      <c r="H32" s="23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="25" t="n">
+        <v>50</v>
+      </c>
+      <c r="G33" s="22" t="n">
+        <v>100</v>
+      </c>
+      <c r="H33" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="25" t="n">
+        <v>50</v>
+      </c>
+      <c r="G34" s="22"/>
+      <c r="H34" s="23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="27" t="n">
+        <v>60</v>
+      </c>
+      <c r="G35" s="27" t="n">
+        <v>100</v>
+      </c>
+      <c r="H35" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="27" t="n">
+        <v>20</v>
+      </c>
+      <c r="G36" s="27"/>
+      <c r="H36" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="15" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="15" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="15" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="15" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="15" t="n">
-        <v>15</v>
-      </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="15" t="n">
-        <v>10</v>
-      </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="13" t="n">
-        <v>50</v>
-      </c>
-      <c r="G20" s="13" t="n">
-        <v>100</v>
-      </c>
-      <c r="H20" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="13" t="n">
-        <v>50</v>
-      </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="16" t="n">
-        <v>50</v>
-      </c>
-      <c r="G22" s="16" t="n">
-        <v>100</v>
-      </c>
-      <c r="H22" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="15" t="n">
-        <v>50</v>
-      </c>
-      <c r="G23" s="16"/>
-      <c r="H23" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="F24" s="19" t="n">
-        <v>25</v>
-      </c>
-      <c r="G24" s="17" t="n">
-        <v>100</v>
-      </c>
-      <c r="H24" s="18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="F25" s="19" t="n">
+      <c r="F37" s="25" t="n">
         <v>20</v>
       </c>
-      <c r="G25" s="17"/>
-      <c r="H25" s="18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="F26" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="G26" s="17"/>
-      <c r="H26" s="18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="F27" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="G27" s="17"/>
-      <c r="H27" s="18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="F28" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="G28" s="17"/>
-      <c r="H28" s="18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="F29" s="19" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="G29" s="17"/>
-      <c r="H29" s="18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="F30" s="19" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="G30" s="17"/>
-      <c r="H30" s="18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E31" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="F31" s="19" t="n">
-        <v>15</v>
-      </c>
-      <c r="G31" s="17"/>
-      <c r="H31" s="18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E32" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="F32" s="19" t="n">
-        <v>10</v>
-      </c>
-      <c r="G32" s="17"/>
-      <c r="H32" s="18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E33" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="F33" s="19" t="n">
-        <v>50</v>
-      </c>
-      <c r="G33" s="17" t="n">
-        <v>100</v>
-      </c>
-      <c r="H33" s="18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D34" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E34" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="F34" s="19" t="n">
-        <v>50</v>
-      </c>
-      <c r="G34" s="17"/>
-      <c r="H34" s="18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D35" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="E35" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="F35" s="20" t="n">
-        <v>60</v>
-      </c>
-      <c r="G35" s="20" t="n">
-        <v>100</v>
-      </c>
-      <c r="H35" s="18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B36" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D36" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="E36" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="F36" s="20" t="n">
-        <v>20</v>
-      </c>
-      <c r="G36" s="20"/>
-      <c r="H36" s="18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B37" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D37" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E37" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="F37" s="19" t="n">
-        <v>20</v>
-      </c>
-      <c r="G37" s="20"/>
-      <c r="H37" s="18" t="s">
+      <c r="G37" s="27"/>
+      <c r="H37" s="23" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1988,45 +1963,45 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="28.0765306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.6530612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.8367346938776"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="26.4591836734694"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="7.29081632653061"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.3826530612245"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.5663265306122"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="26.0510204081633"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="10.8010204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>57</v>
+      <c r="B1" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>49</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>5</v>
@@ -2036,20 +2011,20 @@
       <c r="A2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="11" t="n">
+      <c r="B2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="12" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2066,68 +2041,68 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="true">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.4438775510204"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="38.5255102040816"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="34.9795918367347"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="14.9030612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="34.8163265306122"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="24.0204081632653"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="24.3265306122449"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="28.6428571428571"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="23.8571428571429"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="24.9489795918367"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="50.4132653061224"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="27.719387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="1" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="38.0663265306122"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="34.5561224489796"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="34.4234693877551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="23.6224489795918"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="23.8928571428571"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="28.2142857142857"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="23.4897959183673"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="24.7040816326531"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="49.8112244897959"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="27.4030612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="1" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="21" t="s">
+      <c r="B1" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="G1" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="H1" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="H1" s="21" t="s">
+      <c r="J1" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="L1" s="21" t="s">
-        <v>66</v>
+      <c r="K1" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>57</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>5</v>
@@ -2137,400 +2112,394 @@
       <c r="A2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" s="27" t="n">
+      <c r="B2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="32" t="n">
         <v>0.5</v>
       </c>
-      <c r="G2" s="27" t="n">
+      <c r="G2" s="32" t="n">
         <v>0.5</v>
       </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="K2" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="L2" s="22"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="L2" s="13"/>
       <c r="M2" s="10" t="n">
         <v>25</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="s">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="33" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G3" s="33" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H3" s="33"/>
+      <c r="I3" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="L3" s="18"/>
+      <c r="M3" s="17" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="33" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G4" s="33" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H4" s="33"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" s="18"/>
+      <c r="M4" s="17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="33"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="17" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="33" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="14" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="29" t="s">
+      <c r="F7" s="33" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G7" s="33" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H7" s="33"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="17" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="34" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G8" s="34" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H8" s="34"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="25" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="F3" s="30" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="G3" s="30" t="n">
+      <c r="D9" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="34" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G9" s="34" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H9" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="34" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G10" s="34" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H10" s="34"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G11" s="34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H11" s="34"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="25" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="34" t="n">
         <v>0.4</v>
       </c>
-      <c r="H3" s="30"/>
-      <c r="I3" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="J3" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="K3" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="L3" s="29"/>
-      <c r="M3" s="15" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="F4" s="30" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="G4" s="30" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="H4" s="30"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="K4" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="L4" s="29"/>
-      <c r="M4" s="15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="F5" s="30" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="30" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H5" s="30"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="15" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="F6" s="30" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="G6" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="13" t="n">
+      <c r="G12" s="34" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="25" t="n">
         <v>50</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="F7" s="30" t="n">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="36" t="n">
         <v>0.7</v>
       </c>
-      <c r="G7" s="30" t="n">
+      <c r="G13" s="36" t="n">
         <v>0.8</v>
       </c>
-      <c r="H7" s="30"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="15" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="F8" s="33" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="G8" s="33" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="H8" s="33"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="19" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="F9" s="33" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G9" s="33" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H9" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="19" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="F10" s="33" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="G10" s="33" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="H10" s="33"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="19" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="E11" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="F11" s="33" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G11" s="33" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H11" s="33"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="19" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="F12" s="33" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="G12" s="33" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="19" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="F13" s="35" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="G13" s="35" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="20" t="n">
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="27" t="n">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L13">
-    <filterColumn colId="0">
-      <customFilters and="true">
-        <customFilter operator="equal" val="Impulse"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:L13"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2550,48 +2519,51 @@
   <dimension ref="1:19"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="40.765306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="63.3112244897959"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="17.1428571428571"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="33.6122448979592"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="36" width="20.6530612244898"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="24.3010204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="40.2295918367347"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="62.5"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.8724489795918"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="33.2091836734694"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="37" width="20.3826530612245"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="20.6530612244898"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="23.8928571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="10.8010204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="21" t="s">
+      <c r="B1" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="H1" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2599,29 +2571,29 @@
       <c r="A2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" s="22" t="s">
+      <c r="B2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" s="27" t="n">
+      <c r="E2" s="13"/>
+      <c r="F2" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="27" t="n">
+      <c r="H2" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="10" t="n">
+      <c r="I2" s="9"/>
+      <c r="J2" s="10" t="n">
         <v>35</v>
       </c>
-      <c r="J2" s="0"/>
       <c r="K2" s="0"/>
       <c r="L2" s="0"/>
       <c r="M2" s="0"/>
@@ -3637,33 +3609,33 @@
       <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
     </row>
-    <row r="3" customFormat="false" ht="24.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="D3" s="22" t="s">
+      <c r="B3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="F3" s="27" t="n">
+      <c r="E3" s="13"/>
+      <c r="F3" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="G3" s="27" t="n">
+      <c r="H3" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="H3" s="26"/>
-      <c r="I3" s="11" t="n">
+      <c r="I3" s="9"/>
+      <c r="J3" s="12" t="n">
         <v>10</v>
       </c>
-      <c r="J3" s="0"/>
       <c r="K3" s="0"/>
       <c r="L3" s="0"/>
       <c r="M3" s="0"/>
@@ -4683,29 +4655,29 @@
       <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="D4" s="22" t="s">
+      <c r="B4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="F4" s="27" t="n">
+      <c r="E4" s="13"/>
+      <c r="F4" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4" s="32" t="n">
         <v>0.8</v>
       </c>
-      <c r="G4" s="27" t="n">
+      <c r="H4" s="32" t="n">
         <v>0.8</v>
       </c>
-      <c r="H4" s="26"/>
-      <c r="I4" s="11" t="n">
+      <c r="I4" s="9"/>
+      <c r="J4" s="12" t="n">
         <v>20</v>
       </c>
-      <c r="J4" s="0"/>
       <c r="K4" s="0"/>
       <c r="L4" s="0"/>
       <c r="M4" s="0"/>
@@ -5725,402 +5697,418 @@
       <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="10" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="33" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H6" s="33" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I6" s="16"/>
+      <c r="J6" s="17" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="33" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H7" s="33" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I7" s="16"/>
+      <c r="J7" s="17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="D5" s="22" t="s">
+      <c r="C8" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="22" t="n">
+      <c r="E8" s="18"/>
+      <c r="F8" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="33" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H8" s="33" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I8" s="16"/>
+      <c r="J8" s="17" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="I5" s="10" t="n">
+      <c r="J9" s="17" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="33" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H10" s="33" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I10" s="16"/>
+      <c r="J10" s="17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="16"/>
+      <c r="J11" s="14" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="41" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="C6" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="D6" s="29" t="s">
+      <c r="D12" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="F6" s="30" t="n">
+      <c r="E12" s="18"/>
+      <c r="F12" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" s="33" t="n">
         <v>0.8</v>
       </c>
-      <c r="G6" s="30" t="n">
+      <c r="H12" s="33" t="n">
         <v>0.8</v>
       </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="15" t="n">
+      <c r="I12" s="16"/>
+      <c r="J12" s="21" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="24"/>
+      <c r="J13" s="25" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="C7" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="D7" s="29" t="s">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="F7" s="30" t="n">
+      <c r="E14" s="26"/>
+      <c r="F14" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="24"/>
+      <c r="J14" s="25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="34" t="n">
         <v>0.8</v>
       </c>
-      <c r="G7" s="30" t="n">
+      <c r="H15" s="34" t="n">
         <v>0.8</v>
       </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="C8" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="D8" s="29" t="s">
+      <c r="I15" s="24"/>
+      <c r="J15" s="25" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" s="30" t="n">
+      <c r="E16" s="26"/>
+      <c r="F16" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="34" t="n">
         <v>0.8</v>
       </c>
-      <c r="G8" s="30" t="n">
+      <c r="H16" s="34" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I16" s="24"/>
+      <c r="J16" s="25" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="24" t="n">
+        <v>2</v>
+      </c>
+      <c r="J17" s="25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" s="24"/>
+      <c r="J18" s="25" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="G19" s="34" t="n">
         <v>0.8</v>
       </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="15" t="n">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="C9" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="15" t="n">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="C10" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="F10" s="30" t="n">
+      <c r="H19" s="34" t="n">
         <v>0.8</v>
       </c>
-      <c r="G10" s="30" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="C11" s="40" t="s">
-        <v>116</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="F11" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="28"/>
-      <c r="I11" s="13" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="C12" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="F12" s="30" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G12" s="30" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H12" s="28"/>
-      <c r="I12" s="16" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="C13" s="41" t="s">
-        <v>120</v>
-      </c>
-      <c r="D13" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="F13" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" s="31"/>
-      <c r="I13" s="19" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="C14" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="D14" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="F14" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" s="31"/>
-      <c r="I14" s="19" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="C15" s="41" t="s">
-        <v>100</v>
-      </c>
-      <c r="D15" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="F15" s="33" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G15" s="33" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H15" s="31"/>
-      <c r="I15" s="19" t="n">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="C16" s="41" t="s">
-        <v>100</v>
-      </c>
-      <c r="D16" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="F16" s="33" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G16" s="33" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H16" s="31"/>
-      <c r="I16" s="19" t="n">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="C17" s="41" t="s">
-        <v>114</v>
-      </c>
-      <c r="D17" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="31" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" s="19" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="C18" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="D18" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="F18" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="G18" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="H18" s="31"/>
-      <c r="I18" s="19" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="C19" s="41" t="s">
-        <v>98</v>
-      </c>
-      <c r="D19" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="F19" s="33" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G19" s="33" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H19" s="31"/>
-      <c r="I19" s="20" t="n">
+      <c r="I19" s="24"/>
+      <c r="J19" s="27" t="n">
         <v>60</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J19"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -6128,6 +6116,7 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6139,46 +6128,48 @@
   <dimension ref="A1:ALZ6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="34.8265306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="20.25"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="40.9030612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="37.9336734693878"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="20.6530612244898"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="24.3010204081633"/>
-    <col collapsed="false" hidden="false" max="1010" min="9" style="2" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.4438775510204"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="35.4387755102041"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="21.5459183673469"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="23.3979591836735"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="39.9234693877551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="21.2397959183673"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="21.5459183673469"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="24.7857142857143"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="9.35204081632653"/>
+    <col collapsed="false" hidden="false" max="1010" min="10" style="2" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1011" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="42" t="s">
+      <c r="B1" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="G1" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="G1" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="H1" s="42" t="s">
-        <v>96</v>
+      <c r="H1" s="43" t="s">
+        <v>79</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>5</v>
@@ -7189,24 +7180,24 @@
       <c r="A2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="38" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="F2" s="44"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22" t="n">
+      <c r="C2" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="45"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="I2" s="11" t="n">
+      <c r="I2" s="12" t="n">
         <v>5</v>
       </c>
       <c r="ALW2" s="2"/>
@@ -7217,104 +7208,104 @@
       <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="26" t="n">
+      <c r="C3" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" s="32"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="I3" s="11" t="n">
+      <c r="I3" s="12" t="n">
         <v>20</v>
       </c>
       <c r="ALW3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="46" t="s">
-        <v>132</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="F4" s="30" t="n">
+      <c r="B4" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" s="33" t="n">
         <v>0.8</v>
       </c>
-      <c r="G4" s="30" t="n">
+      <c r="G4" s="33" t="n">
         <v>0.8</v>
       </c>
-      <c r="H4" s="28" t="n">
+      <c r="H4" s="16" t="n">
         <v>16</v>
       </c>
-      <c r="I4" s="15" t="n">
+      <c r="I4" s="17" t="n">
         <v>2.5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="46" t="s">
-        <v>135</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="F5" s="30"/>
+      <c r="B5" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" s="33"/>
       <c r="G5" s="47"/>
-      <c r="H5" s="28" t="n">
+      <c r="H5" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="I5" s="15" t="n">
+      <c r="I5" s="17" t="n">
         <v>2.5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="32" t="s">
+      <c r="A6" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="E6" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="F6" s="33"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="31" t="n">
+      <c r="C6" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6" s="34"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="I6" s="19" t="n">
+      <c r="I6" s="25" t="n">
         <v>20</v>
       </c>
       <c r="ALW6" s="2"/>
@@ -7341,25 +7332,25 @@
   <dimension ref="1:37"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="I24" activeCellId="0" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.4438775510204"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.6683673469388"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.3112244897959"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.1530612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="20.3112244897959"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="43.3163265306122"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.3112244897959"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="47.9489795918367"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="20.3112244897959"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="12.1326530612245"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="18.9183673469388"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="25.0969387755102"/>
-    <col collapsed="false" hidden="false" max="1023" min="13" style="1" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="2" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.5"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="19.9795918367347"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="19.9795918367347"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="42.7908163265306"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="19.9795918367347"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="47.3826530612245"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="19.9795918367347"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="18.6275510204082"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="24.8367346938776"/>
+    <col collapsed="false" hidden="false" max="1023" min="13" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="2" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7370,13 +7361,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="48" t="s">
-        <v>137</v>
+      <c r="E1" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>3</v>
@@ -7385,10 +7376,10 @@
         <v>4</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>5</v>
@@ -7408,26 +7399,26 @@
       <c r="B2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>45</v>
+      <c r="C2" s="11" t="s">
+        <v>107</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="9" t="s">
+      <c r="E2" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>140</v>
+      <c r="H2" s="11" t="s">
+        <v>108</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="J2" s="10" t="n">
         <v>25</v>
@@ -7446,26 +7437,26 @@
       <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>45</v>
+      <c r="C3" s="11" t="s">
+        <v>107</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>45</v>
+      <c r="E3" s="11" t="s">
+        <v>107</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>15</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="J3" s="10" t="n">
         <v>35</v>
@@ -7476,20 +7467,20 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>45</v>
+      <c r="C4" s="11" t="s">
+        <v>107</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>45</v>
+      <c r="E4" s="11" t="s">
+        <v>107</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>16</v>
@@ -7498,12 +7489,12 @@
         <v>17</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="J4" s="11" t="n">
+        <v>109</v>
+      </c>
+      <c r="J4" s="12" t="n">
         <v>5</v>
       </c>
       <c r="K4" s="10"/>
@@ -7512,34 +7503,34 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>45</v>
+      <c r="C5" s="11" t="s">
+        <v>107</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>45</v>
+      <c r="E5" s="11" t="s">
+        <v>107</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>15</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="J5" s="11" t="n">
+        <v>109</v>
+      </c>
+      <c r="J5" s="12" t="n">
         <v>10</v>
       </c>
       <c r="K5" s="10"/>
@@ -7554,28 +7545,28 @@
       <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>45</v>
+      <c r="C6" s="11" t="s">
+        <v>107</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>45</v>
+      <c r="E6" s="11" t="s">
+        <v>107</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>20</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="J6" s="11" t="n">
+        <v>109</v>
+      </c>
+      <c r="J6" s="12" t="n">
         <v>5</v>
       </c>
       <c r="K6" s="10"/>
@@ -7590,28 +7581,28 @@
       <c r="B7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>45</v>
+      <c r="C7" s="11" t="s">
+        <v>107</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>45</v>
+      <c r="E7" s="11" t="s">
+        <v>107</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>15</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="J7" s="11" t="n">
+        <v>109</v>
+      </c>
+      <c r="J7" s="12" t="n">
         <v>20</v>
       </c>
       <c r="K7" s="10"/>
@@ -7626,26 +7617,26 @@
       <c r="B8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>45</v>
+      <c r="C8" s="11" t="s">
+        <v>107</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>45</v>
+      <c r="E8" s="11" t="s">
+        <v>107</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>15</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="J8" s="10" t="n">
         <v>80</v>
@@ -7664,28 +7655,28 @@
       <c r="B9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>45</v>
+      <c r="C9" s="11" t="s">
+        <v>107</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>45</v>
+      <c r="E9" s="11" t="s">
+        <v>107</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>26</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="J9" s="11" t="n">
+        <v>109</v>
+      </c>
+      <c r="J9" s="12" t="n">
         <v>20</v>
       </c>
       <c r="K9" s="10"/>
@@ -7694,1022 +7685,1022 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="14" t="s">
+      <c r="C10" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="14" t="s">
+      <c r="E10" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="17" t="n">
+        <v>25</v>
+      </c>
+      <c r="K10" s="14" t="n">
+        <v>100</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="17" t="n">
+        <v>20</v>
+      </c>
+      <c r="K11" s="14"/>
+      <c r="L11" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="J12" s="17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K12" s="14"/>
+      <c r="L12" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="J13" s="17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K13" s="14"/>
+      <c r="L13" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="K14" s="14"/>
+      <c r="L14" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="K15" s="14"/>
+      <c r="L15" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K16" s="14"/>
+      <c r="L16" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K17" s="14"/>
+      <c r="L17" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" s="17" t="n">
+        <v>15</v>
+      </c>
+      <c r="K18" s="14"/>
+      <c r="L18" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="17" t="n">
+        <v>10</v>
+      </c>
+      <c r="K19" s="14"/>
+      <c r="L19" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="14" t="n">
+        <v>50</v>
+      </c>
+      <c r="K20" s="14" t="n">
+        <v>100</v>
+      </c>
+      <c r="L20" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="14" t="n">
+        <v>50</v>
+      </c>
+      <c r="K21" s="14"/>
+      <c r="L21" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="21" t="n">
+        <v>50</v>
+      </c>
+      <c r="K22" s="21" t="n">
+        <v>100</v>
+      </c>
+      <c r="L22" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" s="17" t="n">
+        <v>50</v>
+      </c>
+      <c r="K23" s="21"/>
+      <c r="L23" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="F24" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="G24" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="H24" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="I24" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="15" t="n">
+      <c r="J24" s="25" t="n">
         <v>25</v>
       </c>
-      <c r="K10" s="13" t="n">
+      <c r="K24" s="22" t="n">
         <v>100</v>
       </c>
-      <c r="L10" s="14" t="s">
+      <c r="L24" s="23" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="14" t="s">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="14" t="s">
+      <c r="C25" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="G11" s="14" t="s">
+      <c r="E25" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="H25" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="I25" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="I11" s="14" t="s">
+      <c r="J25" s="25" t="n">
+        <v>20</v>
+      </c>
+      <c r="K25" s="22"/>
+      <c r="L25" s="23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="G26" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="H26" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="I26" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J26" s="25" t="n">
+        <v>5</v>
+      </c>
+      <c r="K26" s="22"/>
+      <c r="L26" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="H27" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="I27" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="15" t="n">
+      <c r="J27" s="25" t="n">
+        <v>5</v>
+      </c>
+      <c r="K27" s="22"/>
+      <c r="L27" s="23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="G28" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="H28" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="I28" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J28" s="25" t="n">
+        <v>5</v>
+      </c>
+      <c r="K28" s="22"/>
+      <c r="L28" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="G29" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="H29" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="I29" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" s="25" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K29" s="22"/>
+      <c r="L29" s="23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="G30" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="H30" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="I30" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="J30" s="25" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K30" s="22"/>
+      <c r="L30" s="23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="G31" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="H31" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="I31" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J31" s="25" t="n">
+        <v>15</v>
+      </c>
+      <c r="K31" s="22"/>
+      <c r="L31" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="F32" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="G32" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="H32" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="I32" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="J32" s="25" t="n">
+        <v>10</v>
+      </c>
+      <c r="K32" s="22"/>
+      <c r="L32" s="23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="G33" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="H33" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="I33" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J33" s="25" t="n">
+        <v>50</v>
+      </c>
+      <c r="K33" s="22" t="n">
+        <v>100</v>
+      </c>
+      <c r="L33" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="F34" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="G34" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="H34" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="I34" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="J34" s="25" t="n">
+        <v>50</v>
+      </c>
+      <c r="K34" s="22"/>
+      <c r="L34" s="23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="F35" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="G35" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="H35" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="I35" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="J35" s="27" t="n">
+        <v>60</v>
+      </c>
+      <c r="K35" s="27" t="n">
+        <v>100</v>
+      </c>
+      <c r="L35" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="F36" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="G36" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="H36" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="I36" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J36" s="27" t="n">
         <v>20</v>
       </c>
-      <c r="K11" s="13"/>
-      <c r="L11" s="14" t="s">
+      <c r="K36" s="27"/>
+      <c r="L36" s="23" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="14" t="s">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" s="15" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K12" s="13"/>
-      <c r="L12" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="I13" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="J13" s="15" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K13" s="13"/>
-      <c r="L13" s="14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="14" t="s">
+      <c r="C37" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="G14" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="I14" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="K14" s="13"/>
-      <c r="L14" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="J15" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="K15" s="13"/>
-      <c r="L15" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="I16" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J16" s="15" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K16" s="13"/>
-      <c r="L16" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="I17" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J17" s="15" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K17" s="13"/>
-      <c r="L17" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="I18" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="J18" s="15" t="n">
-        <v>15</v>
-      </c>
-      <c r="K18" s="13"/>
-      <c r="L18" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="I19" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J19" s="15" t="n">
-        <v>10</v>
-      </c>
-      <c r="K19" s="13"/>
-      <c r="L19" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="I20" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="J20" s="13" t="n">
-        <v>50</v>
-      </c>
-      <c r="K20" s="13" t="n">
-        <v>100</v>
-      </c>
-      <c r="L20" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" s="14" t="s">
+      <c r="D37" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="F37" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G37" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="H37" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="I37" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="G21" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="I21" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J21" s="13" t="n">
-        <v>50</v>
-      </c>
-      <c r="K21" s="13"/>
-      <c r="L21" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="I22" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J22" s="16" t="n">
-        <v>50</v>
-      </c>
-      <c r="K22" s="16" t="n">
-        <v>100</v>
-      </c>
-      <c r="L22" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="I23" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="J23" s="15" t="n">
-        <v>50</v>
-      </c>
-      <c r="K23" s="16"/>
-      <c r="L23" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="G24" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="H24" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="I24" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="J24" s="19" t="n">
-        <v>25</v>
-      </c>
-      <c r="K24" s="17" t="n">
-        <v>100</v>
-      </c>
-      <c r="L24" s="18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="F25" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="G25" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="H25" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="I25" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="J25" s="19" t="n">
+      <c r="J37" s="25" t="n">
         <v>20</v>
       </c>
-      <c r="K25" s="17"/>
-      <c r="L25" s="18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="G26" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="H26" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="I26" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="J26" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="K26" s="17"/>
-      <c r="L26" s="18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="F27" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="G27" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="H27" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="I27" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="J27" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="K27" s="17"/>
-      <c r="L27" s="18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="F28" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="G28" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="H28" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="I28" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="J28" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="K28" s="17"/>
-      <c r="L28" s="18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="F29" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="G29" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="H29" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="I29" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="J29" s="19" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K29" s="17"/>
-      <c r="L29" s="18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="F30" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="G30" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="H30" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="I30" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="J30" s="19" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K30" s="17"/>
-      <c r="L30" s="18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="F31" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="G31" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="H31" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="I31" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="J31" s="19" t="n">
-        <v>15</v>
-      </c>
-      <c r="K31" s="17"/>
-      <c r="L31" s="18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="F32" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="G32" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="H32" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="I32" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="J32" s="19" t="n">
-        <v>10</v>
-      </c>
-      <c r="K32" s="17"/>
-      <c r="L32" s="18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E33" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="F33" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="G33" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="H33" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="I33" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="J33" s="19" t="n">
-        <v>50</v>
-      </c>
-      <c r="K33" s="17" t="n">
-        <v>100</v>
-      </c>
-      <c r="L33" s="18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E34" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="F34" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="G34" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="H34" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="I34" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="J34" s="19" t="n">
-        <v>50</v>
-      </c>
-      <c r="K34" s="17"/>
-      <c r="L34" s="18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E35" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="F35" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="G35" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="H35" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="I35" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="J35" s="20" t="n">
-        <v>60</v>
-      </c>
-      <c r="K35" s="20" t="n">
-        <v>100</v>
-      </c>
-      <c r="L35" s="18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B36" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="F36" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="G36" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="H36" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="I36" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="J36" s="20" t="n">
-        <v>20</v>
-      </c>
-      <c r="K36" s="20"/>
-      <c r="L36" s="18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B37" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E37" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="F37" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G37" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="H37" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="I37" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="J37" s="19" t="n">
-        <v>20</v>
-      </c>
-      <c r="K37" s="20"/>
-      <c r="L37" s="18" t="s">
+      <c r="K37" s="27"/>
+      <c r="L37" s="23" t="s">
         <v>22</v>
       </c>
     </row>

--- a/Projects/MARSUAE/Data/Template.xlsx
+++ b/Projects/MARSUAE/Data/Template.xlsx
@@ -18,12 +18,12 @@
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Distribution!$A$1:$J$19</definedName>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPI!$A$1:$H$37</definedName>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">SOS!$A$1:$L$13</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">SOS!$A$1:$K$13</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPI!$A$1:$H$37</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPI!$A$1:$H$37</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPI!$A$1:$H$37</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">SOS!$A$1:$L$13</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">SOS!$A$1:$L$13</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">SOS!$A$1:$K$13</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">SOS!$A$1:$K$13</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="167">
   <si>
     <t xml:space="preserve">Channel</t>
   </si>
@@ -211,9 +211,6 @@
     <t xml:space="preserve">denominator value</t>
   </si>
   <si>
-    <t xml:space="preserve">All Mars Choc SKUs</t>
-  </si>
-  <si>
     <t xml:space="preserve">linear SOS</t>
   </si>
   <si>
@@ -247,22 +244,13 @@
     <t xml:space="preserve">Scondary Display</t>
   </si>
   <si>
-    <t xml:space="preserve">All Mars Petcare SKUs</t>
-  </si>
-  <si>
     <t xml:space="preserve">Main Shelf (Petcare)</t>
   </si>
   <si>
     <t xml:space="preserve">45%%</t>
   </si>
   <si>
-    <t xml:space="preserve">All Mars Gum SKUs</t>
-  </si>
-  <si>
     <t xml:space="preserve">Checkout (Gum)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Available from all Mars Ice Cream SKUs</t>
   </si>
   <si>
     <t xml:space="preserve">Main Shelf (Ice Cream)</t>
@@ -336,6 +324,9 @@
   </si>
   <si>
     <t xml:space="preserve">Hanging Strip Gum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All Mars Choc SKUs</t>
   </si>
   <si>
     <t xml:space="preserve">Availbility basket</t>
@@ -1003,7 +994,7 @@
   <dimension ref="1:37"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2044,27 +2035,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M13"/>
+  <dimension ref="1:13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="38.0663265306122"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="34.5561224489796"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="34.4234693877551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="23.6224489795918"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="23.8928571428571"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="28.2142857142857"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="23.4897959183673"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="24.7040816326531"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="49.8112244897959"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="27.4030612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.4438775510204"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="30.5"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.9030612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="34.8163265306122"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.0204081632653"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="24.3265306122449"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="28.6428571428571"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="23.8571428571429"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="24.9489795918367"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="50.4132653061224"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="27.719387755102"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="9.35204081632653"/>
+    <col collapsed="false" hidden="false" max="1023" min="13" style="1" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2075,38 +2067,36 @@
         <v>43</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="E1" s="31" t="s">
         <v>52</v>
       </c>
+      <c r="F1" s="28" t="s">
+        <v>53</v>
+      </c>
       <c r="G1" s="28" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H1" s="28" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="I1" s="28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J1" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K1" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="L1" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
@@ -2118,30 +2108,27 @@
       <c r="C2" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>60</v>
+      <c r="E2" s="32" t="n">
+        <v>0.5</v>
       </c>
       <c r="F2" s="32" t="n">
         <v>0.5</v>
       </c>
-      <c r="G2" s="32" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="I2" s="13" t="s">
         <v>61</v>
       </c>
       <c r="J2" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="L2" s="13"/>
-      <c r="M2" s="10" t="n">
+      <c r="K2" s="13"/>
+      <c r="L2" s="10" t="n">
         <v>25</v>
       </c>
     </row>
@@ -2155,30 +2142,27 @@
       <c r="C3" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>64</v>
+      <c r="D3" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="33" t="n">
+        <v>0.35</v>
       </c>
       <c r="F3" s="33" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="G3" s="33" t="n">
         <v>0.4</v>
       </c>
-      <c r="H3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="18" t="s">
+        <v>60</v>
+      </c>
       <c r="I3" s="18" t="s">
         <v>61</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="K3" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="L3" s="18"/>
-      <c r="M3" s="17" t="n">
+        <v>64</v>
+      </c>
+      <c r="K3" s="18"/>
+      <c r="L3" s="17" t="n">
         <v>25</v>
       </c>
     </row>
@@ -2192,28 +2176,25 @@
       <c r="C4" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>66</v>
+      <c r="D4" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="33" t="n">
+        <v>0.55</v>
       </c>
       <c r="F4" s="33" t="n">
         <v>0.55</v>
       </c>
-      <c r="G4" s="33" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="H4" s="33"/>
-      <c r="I4" s="18"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18" t="s">
+        <v>66</v>
+      </c>
       <c r="J4" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="K4" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="L4" s="18"/>
-      <c r="M4" s="17" t="n">
+      <c r="K4" s="18"/>
+      <c r="L4" s="17" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2227,24 +2208,21 @@
       <c r="C5" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>69</v>
+      <c r="D5" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="33" t="n">
+        <v>0.5</v>
       </c>
       <c r="F5" s="33" t="n">
         <v>0.5</v>
       </c>
-      <c r="G5" s="33" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="18"/>
       <c r="I5" s="18"/>
       <c r="J5" s="18"/>
       <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="17" t="n">
+      <c r="L5" s="17" t="n">
         <v>15</v>
       </c>
     </row>
@@ -2256,26 +2234,23 @@
         <v>35</v>
       </c>
       <c r="C6" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="33" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F6" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="F6" s="33" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="G6" s="33" t="s">
-        <v>72</v>
-      </c>
+      <c r="G6" s="18"/>
       <c r="H6" s="18"/>
       <c r="I6" s="18"/>
       <c r="J6" s="18"/>
       <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="14" t="n">
+      <c r="L6" s="14" t="n">
         <v>50</v>
       </c>
     </row>
@@ -2287,26 +2262,23 @@
         <v>38</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>74</v>
+        <v>58</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="33" t="n">
+        <v>0.7</v>
       </c>
       <c r="F7" s="33" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="G7" s="33" t="n">
         <v>0.8</v>
       </c>
-      <c r="H7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="18"/>
       <c r="I7" s="18"/>
       <c r="J7" s="18"/>
       <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="17" t="n">
+      <c r="L7" s="17" t="n">
         <v>50</v>
       </c>
     </row>
@@ -2320,24 +2292,21 @@
       <c r="C8" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>64</v>
+      <c r="D8" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="34" t="n">
+        <v>0.4</v>
       </c>
       <c r="F8" s="34" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="G8" s="34" t="n">
         <v>0.45</v>
       </c>
-      <c r="H8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="26"/>
       <c r="I8" s="26"/>
       <c r="J8" s="26"/>
       <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="25" t="n">
+      <c r="L8" s="25" t="n">
         <v>25</v>
       </c>
     </row>
@@ -2349,28 +2318,25 @@
         <v>40</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>76</v>
+        <v>58</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="34" t="n">
+        <v>0.8</v>
       </c>
       <c r="F9" s="34" t="n">
         <v>0.8</v>
       </c>
-      <c r="G9" s="34" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H9" s="34" t="s">
-        <v>77</v>
-      </c>
+      <c r="G9" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="26"/>
       <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
+      <c r="J9" s="35"/>
       <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="25" t="n">
+      <c r="L9" s="25" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2384,24 +2350,21 @@
       <c r="C10" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>76</v>
+      <c r="D10" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="34" t="n">
+        <v>0.45</v>
       </c>
       <c r="F10" s="34" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="G10" s="34" t="n">
         <v>0.55</v>
       </c>
-      <c r="H10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="26"/>
       <c r="I10" s="26"/>
       <c r="J10" s="26"/>
       <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="25" t="n">
+      <c r="L10" s="25" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2415,24 +2378,21 @@
       <c r="C11" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>76</v>
+      <c r="D11" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="34" t="n">
+        <v>0.5</v>
       </c>
       <c r="F11" s="34" t="n">
         <v>0.5</v>
       </c>
-      <c r="G11" s="34" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="26"/>
       <c r="I11" s="26"/>
       <c r="J11" s="26"/>
       <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="25" t="n">
+      <c r="L11" s="25" t="n">
         <v>15</v>
       </c>
     </row>
@@ -2444,26 +2404,23 @@
         <v>35</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="26" t="s">
-        <v>71</v>
+        <v>58</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="34" t="n">
+        <v>0.4</v>
       </c>
       <c r="F12" s="34" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="G12" s="34" t="n">
         <v>0.45</v>
       </c>
+      <c r="G12" s="26"/>
       <c r="H12" s="26"/>
       <c r="I12" s="26"/>
       <c r="J12" s="26"/>
       <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="25" t="n">
+      <c r="L12" s="25" t="n">
         <v>50</v>
       </c>
     </row>
@@ -2475,31 +2432,28 @@
         <v>42</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>74</v>
+        <v>58</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="36" t="n">
+        <v>0.7</v>
       </c>
       <c r="F13" s="36" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="G13" s="36" t="n">
         <v>0.8</v>
       </c>
+      <c r="G13" s="24"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
       <c r="J13" s="24"/>
       <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="27" t="n">
+      <c r="L13" s="27" t="n">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L13"/>
+  <autoFilter ref="A1:K13"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2549,7 +2503,7 @@
         <v>45</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F1" s="28" t="s">
         <v>46</v>
@@ -2561,7 +2515,7 @@
         <v>53</v>
       </c>
       <c r="I1" s="28" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>5</v>
@@ -2575,14 +2529,14 @@
         <v>14</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G2" s="32" t="n">
         <v>1</v>
@@ -3617,14 +3571,14 @@
         <v>19</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="38" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G3" s="32" t="n">
         <v>1</v>
@@ -4659,14 +4613,14 @@
         <v>23</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="13" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G4" s="32" t="n">
         <v>0.8</v>
@@ -5701,14 +5655,14 @@
         <v>25</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G5" s="40"/>
       <c r="H5" s="40"/>
@@ -5727,14 +5681,14 @@
         <v>14</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G6" s="33" t="n">
         <v>0.8</v>
@@ -5755,14 +5709,14 @@
         <v>19</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G7" s="33" t="n">
         <v>0.8</v>
@@ -5783,14 +5737,14 @@
         <v>23</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G8" s="33" t="n">
         <v>0.8</v>
@@ -5811,14 +5765,14 @@
         <v>23</v>
       </c>
       <c r="C9" s="41" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="18" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G9" s="33"/>
       <c r="H9" s="33"/>
@@ -5837,14 +5791,14 @@
         <v>33</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G10" s="33" t="n">
         <v>0.8</v>
@@ -5865,14 +5819,14 @@
         <v>36</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G11" s="33" t="n">
         <v>1</v>
@@ -5893,14 +5847,14 @@
         <v>37</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="18" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G12" s="33" t="n">
         <v>0.8</v>
@@ -5921,14 +5875,14 @@
         <v>14</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D13" s="26" t="s">
         <v>15</v>
       </c>
       <c r="E13" s="26"/>
       <c r="F13" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G13" s="34" t="n">
         <v>1</v>
@@ -5949,14 +5903,14 @@
         <v>19</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D14" s="26" t="s">
         <v>15</v>
       </c>
       <c r="E14" s="26"/>
       <c r="F14" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G14" s="34" t="n">
         <v>1</v>
@@ -5977,14 +5931,14 @@
         <v>23</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D15" s="26" t="s">
         <v>15</v>
       </c>
       <c r="E15" s="26"/>
       <c r="F15" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G15" s="34" t="n">
         <v>0.8</v>
@@ -6005,14 +5959,14 @@
         <v>23</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D16" s="26" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="26"/>
       <c r="F16" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G16" s="34" t="n">
         <v>0.8</v>
@@ -6033,14 +5987,14 @@
         <v>33</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D17" s="26" t="s">
         <v>15</v>
       </c>
       <c r="E17" s="26"/>
       <c r="F17" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G17" s="34"/>
       <c r="H17" s="34"/>
@@ -6059,14 +6013,14 @@
         <v>36</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D18" s="26" t="s">
         <v>15</v>
       </c>
       <c r="E18" s="26"/>
       <c r="F18" s="26" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G18" s="34" t="n">
         <v>1</v>
@@ -6087,14 +6041,14 @@
         <v>41</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D19" s="26" t="s">
         <v>15</v>
       </c>
       <c r="E19" s="26"/>
       <c r="F19" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G19" s="34" t="n">
         <v>0.8</v>
@@ -6169,7 +6123,7 @@
         <v>53</v>
       </c>
       <c r="H1" s="43" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>5</v>
@@ -7184,13 +7138,13 @@
         <v>20</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F2" s="45"/>
       <c r="G2" s="13"/>
@@ -7212,13 +7166,13 @@
         <v>26</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F3" s="32"/>
       <c r="G3" s="46"/>
@@ -7238,13 +7192,13 @@
         <v>28</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F4" s="33" t="n">
         <v>0.8</v>
@@ -7267,13 +7221,13 @@
         <v>29</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F5" s="33"/>
       <c r="G5" s="47"/>
@@ -7292,13 +7246,13 @@
         <v>26</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F6" s="34"/>
       <c r="G6" s="26"/>
@@ -7361,13 +7315,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>3</v>
@@ -7376,10 +7330,10 @@
         <v>4</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>5</v>
@@ -7400,13 +7354,13 @@
         <v>9</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>11</v>
@@ -7415,10 +7369,10 @@
         <v>12</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J2" s="10" t="n">
         <v>25</v>
@@ -7438,25 +7392,25 @@
         <v>9</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>107</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>110</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>15</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J3" s="10" t="n">
         <v>35</v>
@@ -7474,13 +7428,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>16</v>
@@ -7489,10 +7443,10 @@
         <v>17</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J4" s="12" t="n">
         <v>5</v>
@@ -7510,25 +7464,25 @@
         <v>9</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>15</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J5" s="12" t="n">
         <v>10</v>
@@ -7546,25 +7500,25 @@
         <v>9</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>20</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J6" s="12" t="n">
         <v>5</v>
@@ -7582,25 +7536,25 @@
         <v>9</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>15</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J7" s="12" t="n">
         <v>20</v>
@@ -7618,25 +7572,25 @@
         <v>9</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>24</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>15</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J8" s="10" t="n">
         <v>80</v>
@@ -7656,25 +7610,25 @@
         <v>9</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>24</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>26</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J9" s="12" t="n">
         <v>20</v>
@@ -7692,22 +7646,22 @@
         <v>9</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G10" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I10" s="15" t="s">
         <v>12</v>
@@ -7730,22 +7684,22 @@
         <v>9</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G11" s="15" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I11" s="15" t="s">
         <v>15</v>
@@ -7766,25 +7720,25 @@
         <v>9</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J12" s="17" t="n">
         <v>2.5</v>
@@ -7802,25 +7756,25 @@
         <v>9</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J13" s="17" t="n">
         <v>2.5</v>
@@ -7838,22 +7792,22 @@
         <v>9</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G14" s="15" t="s">
         <v>15</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I14" s="15" t="s">
         <v>15</v>
@@ -7874,22 +7828,22 @@
         <v>9</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>10</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G15" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I15" s="15" t="s">
         <v>12</v>
@@ -7910,22 +7864,22 @@
         <v>9</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G16" s="15" t="s">
         <v>15</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I16" s="15" t="s">
         <v>15</v>
@@ -7946,22 +7900,22 @@
         <v>9</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G17" s="15" t="s">
         <v>15</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="I17" s="15" t="s">
         <v>15</v>
@@ -7982,22 +7936,22 @@
         <v>9</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>10</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G18" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I18" s="15" t="s">
         <v>12</v>
@@ -8018,22 +7972,22 @@
         <v>9</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>10</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G19" s="15" t="s">
         <v>15</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I19" s="15" t="s">
         <v>15</v>
@@ -8054,22 +8008,22 @@
         <v>9</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>34</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G20" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I20" s="15" t="s">
         <v>12</v>
@@ -8092,22 +8046,22 @@
         <v>9</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>34</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G21" s="15" t="s">
         <v>15</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I21" s="15" t="s">
         <v>15</v>
@@ -8128,22 +8082,22 @@
         <v>9</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>24</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G22" s="15" t="s">
         <v>15</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I22" s="15" t="s">
         <v>15</v>
@@ -8166,22 +8120,22 @@
         <v>9</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>24</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G23" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I23" s="15" t="s">
         <v>12</v>
@@ -8202,22 +8156,22 @@
         <v>9</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D24" s="23" t="s">
         <v>10</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H24" s="22" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I24" s="23" t="s">
         <v>12</v>
@@ -8240,22 +8194,22 @@
         <v>9</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D25" s="23" t="s">
         <v>10</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F25" s="23" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G25" s="22" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H25" s="23" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I25" s="23" t="s">
         <v>15</v>
@@ -8276,22 +8230,22 @@
         <v>9</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D26" s="23" t="s">
         <v>10</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H26" s="22" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I26" s="23" t="s">
         <v>12</v>
@@ -8312,22 +8266,22 @@
         <v>9</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D27" s="23" t="s">
         <v>10</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F27" s="23" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G27" s="22" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H27" s="23" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I27" s="23" t="s">
         <v>15</v>
@@ -8348,22 +8302,22 @@
         <v>9</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D28" s="23" t="s">
         <v>10</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G28" s="22" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H28" s="22" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I28" s="23" t="s">
         <v>12</v>
@@ -8384,22 +8338,22 @@
         <v>9</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D29" s="23" t="s">
         <v>10</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F29" s="23" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H29" s="23" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I29" s="23" t="s">
         <v>15</v>
@@ -8420,22 +8374,22 @@
         <v>9</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D30" s="23" t="s">
         <v>10</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F30" s="23" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H30" s="23" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="I30" s="23" t="s">
         <v>15</v>
@@ -8456,22 +8410,22 @@
         <v>9</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D31" s="23" t="s">
         <v>10</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H31" s="22" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I31" s="23" t="s">
         <v>12</v>
@@ -8492,22 +8446,22 @@
         <v>9</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D32" s="23" t="s">
         <v>10</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F32" s="23" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G32" s="22" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H32" s="23" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I32" s="23" t="s">
         <v>15</v>
@@ -8528,22 +8482,22 @@
         <v>9</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D33" s="22" t="s">
         <v>34</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G33" s="22" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H33" s="22" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I33" s="23" t="s">
         <v>12</v>
@@ -8566,22 +8520,22 @@
         <v>9</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D34" s="22" t="s">
         <v>34</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F34" s="23" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G34" s="22" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H34" s="23" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I34" s="23" t="s">
         <v>15</v>
@@ -8602,22 +8556,22 @@
         <v>9</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D35" s="22" t="s">
         <v>24</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F35" s="23" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G35" s="22" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H35" s="23" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I35" s="23" t="s">
         <v>15</v>
@@ -8640,22 +8594,22 @@
         <v>9</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D36" s="22" t="s">
         <v>24</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F36" s="23" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G36" s="22" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H36" s="23" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I36" s="23" t="s">
         <v>12</v>
@@ -8676,25 +8630,25 @@
         <v>9</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D37" s="22" t="s">
         <v>24</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F37" s="23" t="s">
         <v>26</v>
       </c>
       <c r="G37" s="22" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H37" s="23" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I37" s="23" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J37" s="25" t="n">
         <v>20</v>

--- a/Projects/MARSUAE/Data/Template.xlsx
+++ b/Projects/MARSUAE/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="KPI" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,8 +22,11 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPI!$A$1:$H$37</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPI!$A$1:$H$37</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPI!$A$1:$H$37</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPI!$A$1:$H$37</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">SOS!$A$1:$K$13</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">SOS!$A$1:$K$13</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">SOS!$A$1:$K$13</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Distribution!$A$1:$J$19</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -317,7 +320,7 @@
     <t xml:space="preserve">SCENE RECOGNITION</t>
   </si>
   <si>
-    <t xml:space="preserve">Availbility hanging strip</t>
+    <t xml:space="preserve">Availability hanging strip</t>
   </si>
   <si>
     <t xml:space="preserve">Hanging Strip Choc</t>
@@ -329,13 +332,13 @@
     <t xml:space="preserve">All Mars Choc SKUs</t>
   </si>
   <si>
-    <t xml:space="preserve">Availbility basket</t>
+    <t xml:space="preserve">Availability basket</t>
   </si>
   <si>
     <t xml:space="preserve">Main Shelf (Ice Cream), Industrial Coolers</t>
   </si>
   <si>
-    <t xml:space="preserve">Availbility multipack</t>
+    <t xml:space="preserve">Availability multipack</t>
   </si>
   <si>
     <t xml:space="preserve">Level_1_type</t>
@@ -550,7 +553,7 @@
     <numFmt numFmtId="167" formatCode="@"/>
     <numFmt numFmtId="168" formatCode="0"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -605,12 +608,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -709,7 +706,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -790,10 +787,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -850,7 +843,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -993,23 +986,22 @@
   </sheetPr>
   <dimension ref="1:37"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H37" activeCellId="0" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.5"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="42.7908163265306"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="19.9795918367347"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="18.6275510204082"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="24.8367346938776"/>
-    <col collapsed="false" hidden="false" max="1019" min="9" style="1" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1020" min="1020" style="2" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="1021" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="42.3877551020408"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="19.7091836734694"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="24.5663265306122"/>
+    <col collapsed="false" hidden="false" max="1019" min="9" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1020" min="1020" style="2" width="11.0714285714286"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1323,7 +1315,7 @@
       <c r="C13" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="19" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="15" t="s">
@@ -1547,10 +1539,10 @@
       <c r="E22" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="21" t="n">
+      <c r="F22" s="20" t="n">
         <v>50</v>
       </c>
-      <c r="G22" s="21" t="n">
+      <c r="G22" s="20" t="n">
         <v>100</v>
       </c>
       <c r="H22" s="15" t="s">
@@ -1576,350 +1568,350 @@
       <c r="F23" s="17" t="n">
         <v>50</v>
       </c>
-      <c r="G23" s="21"/>
+      <c r="G23" s="20"/>
       <c r="H23" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="D24" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="25" t="n">
+      <c r="F24" s="24" t="n">
         <v>25</v>
       </c>
-      <c r="G24" s="22" t="n">
+      <c r="G24" s="21" t="n">
         <v>100</v>
       </c>
-      <c r="H24" s="23" t="s">
+      <c r="H24" s="22" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="26" t="s">
+      <c r="D25" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="25" t="n">
+      <c r="F25" s="24" t="n">
         <v>20</v>
       </c>
-      <c r="G25" s="22"/>
-      <c r="H25" s="23" t="s">
+      <c r="G25" s="21"/>
+      <c r="H25" s="22" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="25" t="n">
+      <c r="F26" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="G26" s="22"/>
-      <c r="H26" s="23" t="s">
+      <c r="G26" s="21"/>
+      <c r="H26" s="22" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="26" t="s">
+      <c r="D27" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="E27" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="25" t="n">
+      <c r="F27" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="G27" s="22"/>
-      <c r="H27" s="23" t="s">
+      <c r="G27" s="21"/>
+      <c r="H27" s="22" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="24" t="s">
+      <c r="D28" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="22" t="s">
+      <c r="E28" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="25" t="n">
+      <c r="F28" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="G28" s="22"/>
-      <c r="H28" s="23" t="s">
+      <c r="G28" s="21"/>
+      <c r="H28" s="22" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="26" t="s">
+      <c r="D29" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E29" s="22" t="s">
+      <c r="E29" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="25" t="n">
+      <c r="F29" s="24" t="n">
         <v>7.5</v>
       </c>
-      <c r="G29" s="22"/>
-      <c r="H29" s="23" t="s">
+      <c r="G29" s="21"/>
+      <c r="H29" s="22" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="26" t="s">
+      <c r="D30" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E30" s="22" t="s">
+      <c r="E30" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F30" s="25" t="n">
+      <c r="F30" s="24" t="n">
         <v>7.5</v>
       </c>
-      <c r="G30" s="22"/>
-      <c r="H30" s="23" t="s">
+      <c r="G30" s="21"/>
+      <c r="H30" s="22" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="24" t="s">
+      <c r="D31" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="22" t="s">
+      <c r="E31" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F31" s="25" t="n">
+      <c r="F31" s="24" t="n">
         <v>15</v>
       </c>
-      <c r="G31" s="22"/>
-      <c r="H31" s="23" t="s">
+      <c r="G31" s="21"/>
+      <c r="H31" s="22" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="26" t="s">
+      <c r="D32" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="E32" s="22" t="s">
+      <c r="E32" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F32" s="25" t="n">
+      <c r="F32" s="24" t="n">
         <v>10</v>
       </c>
-      <c r="G32" s="22"/>
-      <c r="H32" s="23" t="s">
+      <c r="G32" s="21"/>
+      <c r="H32" s="22" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="24" t="s">
+      <c r="D33" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="E33" s="22" t="s">
+      <c r="E33" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F33" s="25" t="n">
+      <c r="F33" s="24" t="n">
         <v>50</v>
       </c>
-      <c r="G33" s="22" t="n">
+      <c r="G33" s="21" t="n">
         <v>100</v>
       </c>
-      <c r="H33" s="23" t="s">
+      <c r="H33" s="22" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="C34" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="26" t="s">
+      <c r="D34" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="E34" s="22" t="s">
+      <c r="E34" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="25" t="n">
+      <c r="F34" s="24" t="n">
         <v>50</v>
       </c>
-      <c r="G34" s="22"/>
-      <c r="H34" s="23" t="s">
+      <c r="G34" s="21"/>
+      <c r="H34" s="22" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D35" s="26" t="s">
+      <c r="D35" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="E35" s="22" t="s">
+      <c r="E35" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F35" s="27" t="n">
+      <c r="F35" s="26" t="n">
         <v>60</v>
       </c>
-      <c r="G35" s="27" t="n">
+      <c r="G35" s="26" t="n">
         <v>100</v>
       </c>
-      <c r="H35" s="23" t="s">
+      <c r="H35" s="22" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="24" t="s">
+      <c r="D36" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="E36" s="22" t="s">
+      <c r="E36" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F36" s="27" t="n">
+      <c r="F36" s="26" t="n">
         <v>20</v>
       </c>
-      <c r="G36" s="27"/>
-      <c r="H36" s="23" t="s">
+      <c r="G36" s="26"/>
+      <c r="H36" s="22" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C37" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D37" s="26" t="s">
+      <c r="D37" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="E37" s="22" t="s">
+      <c r="E37" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="F37" s="25" t="n">
+      <c r="F37" s="24" t="n">
         <v>20</v>
       </c>
-      <c r="G37" s="27"/>
-      <c r="H37" s="23" t="s">
+      <c r="G37" s="26"/>
+      <c r="H37" s="22" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1959,39 +1951,39 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.3826530612245"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="26.0510204081633"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="7.1530612244898"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.1122448979592"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.3010204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="25.6479591836735"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="10.6632653061225"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="27" t="s">
         <v>49</v>
       </c>
       <c r="I1" s="3" t="s">
@@ -2006,15 +1998,15 @@
         <v>16</v>
       </c>
       <c r="C2" s="13"/>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="28" t="s">
         <v>50</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
       <c r="I2" s="12" t="n">
         <v>5</v>
       </c>
@@ -2043,54 +2035,54 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.4438775510204"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="30.5"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.9030612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="34.8163265306122"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.0204081632653"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="24.3265306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="28.6428571428571"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="23.8571428571429"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="24.9489795918367"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="50.4132653061224"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="27.719387755102"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="9.35204081632653"/>
-    <col collapsed="false" hidden="false" max="1023" min="13" style="1" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="30.1020408163265"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="34.4234693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="23.6224489795918"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="23.8928571428571"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="28.2142857142857"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="23.4897959183673"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="24.7040816326531"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="49.8112244897959"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="27.4030612244898"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="1023" min="13" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="27" t="s">
         <v>57</v>
       </c>
       <c r="L1" s="3" t="s">
@@ -2111,13 +2103,13 @@
       <c r="D2" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="32" t="n">
+      <c r="E2" s="31" t="n">
         <v>0.5</v>
       </c>
-      <c r="F2" s="32" t="n">
+      <c r="F2" s="31" t="n">
         <v>0.5</v>
       </c>
-      <c r="G2" s="32"/>
+      <c r="G2" s="31"/>
       <c r="H2" s="13" t="s">
         <v>60</v>
       </c>
@@ -2145,13 +2137,13 @@
       <c r="D3" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="33" t="n">
+      <c r="E3" s="32" t="n">
         <v>0.35</v>
       </c>
-      <c r="F3" s="33" t="n">
+      <c r="F3" s="32" t="n">
         <v>0.4</v>
       </c>
-      <c r="G3" s="33"/>
+      <c r="G3" s="32"/>
       <c r="H3" s="18" t="s">
         <v>60</v>
       </c>
@@ -2179,13 +2171,13 @@
       <c r="D4" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="33" t="n">
+      <c r="E4" s="32" t="n">
         <v>0.55</v>
       </c>
-      <c r="F4" s="33" t="n">
+      <c r="F4" s="32" t="n">
         <v>0.55</v>
       </c>
-      <c r="G4" s="33"/>
+      <c r="G4" s="32"/>
       <c r="H4" s="18"/>
       <c r="I4" s="18" t="s">
         <v>66</v>
@@ -2211,13 +2203,13 @@
       <c r="D5" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="33" t="n">
+      <c r="E5" s="32" t="n">
         <v>0.5</v>
       </c>
-      <c r="F5" s="33" t="n">
+      <c r="F5" s="32" t="n">
         <v>0.5</v>
       </c>
-      <c r="G5" s="33"/>
+      <c r="G5" s="32"/>
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
       <c r="J5" s="18"/>
@@ -2239,10 +2231,10 @@
       <c r="D6" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="33" t="n">
+      <c r="E6" s="32" t="n">
         <v>0.4</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="32" t="s">
         <v>70</v>
       </c>
       <c r="G6" s="18"/>
@@ -2267,13 +2259,13 @@
       <c r="D7" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="E7" s="33" t="n">
+      <c r="E7" s="32" t="n">
         <v>0.7</v>
       </c>
-      <c r="F7" s="33" t="n">
+      <c r="F7" s="32" t="n">
         <v>0.8</v>
       </c>
-      <c r="G7" s="33"/>
+      <c r="G7" s="32"/>
       <c r="H7" s="18"/>
       <c r="I7" s="18"/>
       <c r="J7" s="18"/>
@@ -2283,172 +2275,172 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="34" t="n">
+      <c r="E8" s="33" t="n">
         <v>0.4</v>
       </c>
-      <c r="F8" s="34" t="n">
+      <c r="F8" s="33" t="n">
         <v>0.45</v>
       </c>
-      <c r="G8" s="34"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="25" t="n">
+      <c r="G8" s="33"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="24" t="n">
         <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="34" t="n">
+      <c r="E9" s="33" t="n">
         <v>0.8</v>
       </c>
-      <c r="F9" s="34" t="n">
+      <c r="F9" s="33" t="n">
         <v>0.8</v>
       </c>
-      <c r="G9" s="34" t="s">
+      <c r="G9" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="25" t="n">
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="24" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="34" t="n">
+      <c r="E10" s="33" t="n">
         <v>0.45</v>
       </c>
-      <c r="F10" s="34" t="n">
+      <c r="F10" s="33" t="n">
         <v>0.55</v>
       </c>
-      <c r="G10" s="34"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="25" t="n">
+      <c r="G10" s="33"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="24" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="34" t="n">
+      <c r="E11" s="33" t="n">
         <v>0.5</v>
       </c>
-      <c r="F11" s="34" t="n">
+      <c r="F11" s="33" t="n">
         <v>0.5</v>
       </c>
-      <c r="G11" s="34"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="25" t="n">
+      <c r="G11" s="33"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="24" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="34" t="n">
+      <c r="E12" s="33" t="n">
         <v>0.4</v>
       </c>
-      <c r="F12" s="34" t="n">
+      <c r="F12" s="33" t="n">
         <v>0.45</v>
       </c>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="25" t="n">
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="24" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="36" t="n">
+      <c r="E13" s="35" t="n">
         <v>0.7</v>
       </c>
-      <c r="F13" s="36" t="n">
+      <c r="F13" s="35" t="n">
         <v>0.8</v>
       </c>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="27" t="n">
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="26" t="n">
         <v>20</v>
       </c>
     </row>
@@ -2473,48 +2465,50 @@
   <dimension ref="1:19"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.3622448979592"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="40.2295918367347"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="62.5"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="33.2091836734694"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="37" width="20.3826530612245"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="20.6530612244898"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="23.8928571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.4438775510204"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.0102040816327"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="66.7857142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="14.9030612244898"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="26.7908163265306"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="34.8163265306122"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="36" width="24.0204081632653"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="24.3265306122449"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="27.5663265306122"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="12.1326530612245"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="1" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="27" t="s">
         <v>75</v>
       </c>
       <c r="J1" s="3" t="s">
@@ -2528,7 +2522,7 @@
       <c r="B2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="28" t="s">
         <v>76</v>
       </c>
       <c r="D2" s="13" t="s">
@@ -2538,10 +2532,10 @@
       <c r="F2" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="G2" s="32" t="n">
+      <c r="G2" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="H2" s="32" t="n">
+      <c r="H2" s="31" t="n">
         <v>1</v>
       </c>
       <c r="I2" s="9"/>
@@ -3570,20 +3564,20 @@
       <c r="B3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="28" t="s">
         <v>77</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="13"/>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="G3" s="32" t="n">
+      <c r="G3" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="H3" s="32" t="n">
+      <c r="H3" s="31" t="n">
         <v>1</v>
       </c>
       <c r="I3" s="9"/>
@@ -4612,7 +4606,7 @@
       <c r="B4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="28" t="s">
         <v>76</v>
       </c>
       <c r="D4" s="13" t="s">
@@ -4622,10 +4616,10 @@
       <c r="F4" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="G4" s="32" t="n">
+      <c r="G4" s="31" t="n">
         <v>0.8</v>
       </c>
-      <c r="H4" s="32" t="n">
+      <c r="H4" s="31" t="n">
         <v>0.8</v>
       </c>
       <c r="I4" s="9"/>
@@ -5654,7 +5648,7 @@
       <c r="B5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="38" t="s">
         <v>80</v>
       </c>
       <c r="D5" s="13" t="s">
@@ -5664,8 +5658,8 @@
       <c r="F5" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
       <c r="I5" s="13" t="n">
         <v>1</v>
       </c>
@@ -5680,7 +5674,7 @@
       <c r="B6" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="40" t="s">
         <v>82</v>
       </c>
       <c r="D6" s="18" t="s">
@@ -5690,10 +5684,10 @@
       <c r="F6" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="G6" s="33" t="n">
+      <c r="G6" s="32" t="n">
         <v>0.8</v>
       </c>
-      <c r="H6" s="33" t="n">
+      <c r="H6" s="32" t="n">
         <v>0.8</v>
       </c>
       <c r="I6" s="16"/>
@@ -5708,7 +5702,7 @@
       <c r="B7" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="40" t="s">
         <v>83</v>
       </c>
       <c r="D7" s="18" t="s">
@@ -5718,10 +5712,10 @@
       <c r="F7" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="G7" s="33" t="n">
+      <c r="G7" s="32" t="n">
         <v>0.8</v>
       </c>
-      <c r="H7" s="33" t="n">
+      <c r="H7" s="32" t="n">
         <v>0.8</v>
       </c>
       <c r="I7" s="16"/>
@@ -5736,7 +5730,7 @@
       <c r="B8" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="40" t="s">
         <v>84</v>
       </c>
       <c r="D8" s="18" t="s">
@@ -5746,10 +5740,10 @@
       <c r="F8" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="33" t="n">
+      <c r="G8" s="32" t="n">
         <v>0.8</v>
       </c>
-      <c r="H8" s="33" t="n">
+      <c r="H8" s="32" t="n">
         <v>0.8</v>
       </c>
       <c r="I8" s="16"/>
@@ -5764,7 +5758,7 @@
       <c r="B9" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="40" t="s">
         <v>84</v>
       </c>
       <c r="D9" s="18" t="s">
@@ -5774,8 +5768,8 @@
       <c r="F9" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
       <c r="I9" s="16" t="n">
         <v>1</v>
       </c>
@@ -5790,7 +5784,7 @@
       <c r="B10" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="40" t="s">
         <v>86</v>
       </c>
       <c r="D10" s="18" t="s">
@@ -5800,10 +5794,10 @@
       <c r="F10" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="33" t="n">
+      <c r="G10" s="32" t="n">
         <v>0.8</v>
       </c>
-      <c r="H10" s="33" t="n">
+      <c r="H10" s="32" t="n">
         <v>0.8</v>
       </c>
       <c r="I10" s="16"/>
@@ -5818,7 +5812,7 @@
       <c r="B11" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="40" t="s">
         <v>87</v>
       </c>
       <c r="D11" s="18" t="s">
@@ -5828,10 +5822,10 @@
       <c r="F11" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G11" s="33" t="n">
+      <c r="G11" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="H11" s="33" t="n">
+      <c r="H11" s="32" t="n">
         <v>1</v>
       </c>
       <c r="I11" s="16"/>
@@ -5846,7 +5840,7 @@
       <c r="B12" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="40" t="s">
         <v>76</v>
       </c>
       <c r="D12" s="18" t="s">
@@ -5856,208 +5850,208 @@
       <c r="F12" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="G12" s="33" t="n">
+      <c r="G12" s="32" t="n">
         <v>0.8</v>
       </c>
-      <c r="H12" s="33" t="n">
+      <c r="H12" s="32" t="n">
         <v>0.8</v>
       </c>
       <c r="I12" s="16"/>
-      <c r="J12" s="21" t="n">
+      <c r="J12" s="20" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26" t="s">
+      <c r="E13" s="25"/>
+      <c r="F13" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="G13" s="34" t="n">
+      <c r="G13" s="33" t="n">
         <v>1</v>
       </c>
-      <c r="H13" s="34" t="n">
+      <c r="H13" s="33" t="n">
         <v>1</v>
       </c>
-      <c r="I13" s="24"/>
-      <c r="J13" s="25" t="n">
+      <c r="I13" s="23"/>
+      <c r="J13" s="24" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26" t="s">
+      <c r="E14" s="25"/>
+      <c r="F14" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="34" t="n">
+      <c r="G14" s="33" t="n">
         <v>1</v>
       </c>
-      <c r="H14" s="34" t="n">
+      <c r="H14" s="33" t="n">
         <v>1</v>
       </c>
-      <c r="I14" s="24"/>
-      <c r="J14" s="25" t="n">
+      <c r="I14" s="23"/>
+      <c r="J14" s="24" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26" t="s">
+      <c r="E15" s="25"/>
+      <c r="F15" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="G15" s="34" t="n">
+      <c r="G15" s="33" t="n">
         <v>0.8</v>
       </c>
-      <c r="H15" s="34" t="n">
+      <c r="H15" s="33" t="n">
         <v>0.8</v>
       </c>
-      <c r="I15" s="24"/>
-      <c r="J15" s="25" t="n">
+      <c r="I15" s="23"/>
+      <c r="J15" s="24" t="n">
         <v>7.5</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="42" t="s">
+      <c r="C16" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26" t="s">
+      <c r="E16" s="25"/>
+      <c r="F16" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="G16" s="34" t="n">
+      <c r="G16" s="33" t="n">
         <v>0.8</v>
       </c>
-      <c r="H16" s="34" t="n">
+      <c r="H16" s="33" t="n">
         <v>0.9</v>
       </c>
-      <c r="I16" s="24"/>
-      <c r="J16" s="25" t="n">
+      <c r="I16" s="23"/>
+      <c r="J16" s="24" t="n">
         <v>7.5</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="42" t="s">
+      <c r="C17" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26" t="s">
+      <c r="E17" s="25"/>
+      <c r="F17" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="24" t="n">
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="J17" s="25" t="n">
+      <c r="J17" s="24" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="42" t="s">
+      <c r="C18" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="D18" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26" t="s">
+      <c r="E18" s="25"/>
+      <c r="F18" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="G18" s="34" t="n">
+      <c r="G18" s="33" t="n">
         <v>1</v>
       </c>
-      <c r="H18" s="34" t="n">
+      <c r="H18" s="33" t="n">
         <v>1</v>
       </c>
-      <c r="I18" s="24"/>
-      <c r="J18" s="25" t="n">
+      <c r="I18" s="23"/>
+      <c r="J18" s="24" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="42" t="s">
+      <c r="C19" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26" t="s">
+      <c r="E19" s="25"/>
+      <c r="F19" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="G19" s="34" t="n">
+      <c r="G19" s="33" t="n">
         <v>0.8</v>
       </c>
-      <c r="H19" s="34" t="n">
+      <c r="H19" s="33" t="n">
         <v>0.8</v>
       </c>
-      <c r="I19" s="24"/>
-      <c r="J19" s="27" t="n">
+      <c r="I19" s="23"/>
+      <c r="J19" s="26" t="n">
         <v>60</v>
       </c>
     </row>
@@ -6081,8 +6075,8 @@
   </sheetPr>
   <dimension ref="A1:ALZ6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -6090,7 +6084,7 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.4438775510204"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="2" width="35.4387755102041"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="2" width="21.5459183673469"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="23.3979591836735"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="24.4795918367347"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="39.9234693877551"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="2" width="21.2397959183673"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="2" width="21.5459183673469"/>
@@ -6104,25 +6098,25 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="42" t="s">
         <v>75</v>
       </c>
       <c r="I1" s="3" t="s">
@@ -7137,7 +7131,7 @@
       <c r="B2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="38" t="s">
         <v>92</v>
       </c>
       <c r="D2" s="13" t="s">
@@ -7146,7 +7140,7 @@
       <c r="E2" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="F2" s="45"/>
+      <c r="F2" s="44"/>
       <c r="G2" s="13"/>
       <c r="H2" s="13" t="n">
         <v>2</v>
@@ -7165,7 +7159,7 @@
       <c r="B3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="28" t="s">
         <v>92</v>
       </c>
       <c r="D3" s="13" t="s">
@@ -7174,8 +7168,8 @@
       <c r="E3" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="F3" s="32"/>
-      <c r="G3" s="46"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="45"/>
       <c r="H3" s="9" t="n">
         <v>1</v>
       </c>
@@ -7191,7 +7185,7 @@
       <c r="B4" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="40" t="s">
         <v>96</v>
       </c>
       <c r="D4" s="18" t="s">
@@ -7200,10 +7194,10 @@
       <c r="E4" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="F4" s="33" t="n">
+      <c r="F4" s="32" t="n">
         <v>0.8</v>
       </c>
-      <c r="G4" s="33" t="n">
+      <c r="G4" s="32" t="n">
         <v>0.8</v>
       </c>
       <c r="H4" s="16" t="n">
@@ -7217,10 +7211,10 @@
       <c r="A5" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="40" t="s">
         <v>96</v>
       </c>
       <c r="D5" s="18" t="s">
@@ -7229,8 +7223,8 @@
       <c r="E5" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="F5" s="33"/>
-      <c r="G5" s="47"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="46"/>
       <c r="H5" s="16" t="n">
         <v>3</v>
       </c>
@@ -7239,27 +7233,27 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="F6" s="34"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="24" t="n">
+      <c r="F6" s="33"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="I6" s="25" t="n">
+      <c r="I6" s="24" t="n">
         <v>20</v>
       </c>
       <c r="ALW6" s="2"/>
@@ -7291,20 +7285,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.5"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="19.9795918367347"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="19.9795918367347"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="42.7908163265306"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="19.9795918367347"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="47.3826530612245"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="19.9795918367347"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="18.6275510204082"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="24.8367346938776"/>
-    <col collapsed="false" hidden="false" max="1023" min="13" style="1" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="2" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="19.7091836734694"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="19.7091836734694"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="42.3877551020408"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="19.7091836734694"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="46.8418367346939"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="19.7091836734694"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="24.5663265306122"/>
+    <col collapsed="false" hidden="false" max="1023" min="13" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="2" width="11.0714285714286"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8102,10 +8096,10 @@
       <c r="I22" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J22" s="21" t="n">
+      <c r="J22" s="20" t="n">
         <v>50</v>
       </c>
-      <c r="K22" s="21" t="n">
+      <c r="K22" s="20" t="n">
         <v>100</v>
       </c>
       <c r="L22" s="15" t="s">
@@ -8143,518 +8137,518 @@
       <c r="J23" s="17" t="n">
         <v>50</v>
       </c>
-      <c r="K23" s="21"/>
+      <c r="K23" s="20"/>
       <c r="L23" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="F24" s="22" t="s">
+      <c r="F24" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="G24" s="22" t="s">
+      <c r="G24" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="H24" s="22" t="s">
+      <c r="H24" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="I24" s="23" t="s">
+      <c r="I24" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="J24" s="25" t="n">
+      <c r="J24" s="24" t="n">
         <v>25</v>
       </c>
-      <c r="K24" s="22" t="n">
+      <c r="K24" s="21" t="n">
         <v>100</v>
       </c>
-      <c r="L24" s="23" t="s">
+      <c r="L24" s="22" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="F25" s="23" t="s">
+      <c r="F25" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="G25" s="22" t="s">
+      <c r="G25" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="H25" s="23" t="s">
+      <c r="H25" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="I25" s="23" t="s">
+      <c r="I25" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="J25" s="25" t="n">
+      <c r="J25" s="24" t="n">
         <v>20</v>
       </c>
-      <c r="K25" s="22"/>
-      <c r="L25" s="23" t="s">
+      <c r="K25" s="21"/>
+      <c r="L25" s="22" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="F26" s="22" t="s">
+      <c r="F26" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="G26" s="22" t="s">
+      <c r="G26" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="H26" s="22" t="s">
+      <c r="H26" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="I26" s="23" t="s">
+      <c r="I26" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="J26" s="25" t="n">
+      <c r="J26" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="K26" s="22"/>
-      <c r="L26" s="23" t="s">
+      <c r="K26" s="21"/>
+      <c r="L26" s="22" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="E27" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="F27" s="23" t="s">
+      <c r="F27" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="G27" s="22" t="s">
+      <c r="G27" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="H27" s="23" t="s">
+      <c r="H27" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="I27" s="23" t="s">
+      <c r="I27" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="J27" s="25" t="n">
+      <c r="J27" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="K27" s="22"/>
-      <c r="L27" s="23" t="s">
+      <c r="K27" s="21"/>
+      <c r="L27" s="22" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="D28" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="22" t="s">
+      <c r="E28" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="F28" s="22" t="s">
+      <c r="F28" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="G28" s="22" t="s">
+      <c r="G28" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="H28" s="22" t="s">
+      <c r="H28" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="I28" s="23" t="s">
+      <c r="I28" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="J28" s="25" t="n">
+      <c r="J28" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="K28" s="22"/>
-      <c r="L28" s="23" t="s">
+      <c r="K28" s="21"/>
+      <c r="L28" s="22" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="22" t="s">
+      <c r="E29" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="F29" s="23" t="s">
+      <c r="F29" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="G29" s="22" t="s">
+      <c r="G29" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="H29" s="23" t="s">
+      <c r="H29" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="I29" s="23" t="s">
+      <c r="I29" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="J29" s="25" t="n">
+      <c r="J29" s="24" t="n">
         <v>7.5</v>
       </c>
-      <c r="K29" s="22"/>
-      <c r="L29" s="23" t="s">
+      <c r="K29" s="21"/>
+      <c r="L29" s="22" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D30" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="22" t="s">
+      <c r="E30" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="F30" s="23" t="s">
+      <c r="F30" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="G30" s="22" t="s">
+      <c r="G30" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="H30" s="23" t="s">
+      <c r="H30" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="I30" s="23" t="s">
+      <c r="I30" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="J30" s="25" t="n">
+      <c r="J30" s="24" t="n">
         <v>7.5</v>
       </c>
-      <c r="K30" s="22"/>
-      <c r="L30" s="23" t="s">
+      <c r="K30" s="21"/>
+      <c r="L30" s="22" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="D31" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="22" t="s">
+      <c r="E31" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="F31" s="22" t="s">
+      <c r="F31" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="G31" s="22" t="s">
+      <c r="G31" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="H31" s="22" t="s">
+      <c r="H31" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="I31" s="23" t="s">
+      <c r="I31" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="J31" s="25" t="n">
+      <c r="J31" s="24" t="n">
         <v>15</v>
       </c>
-      <c r="K31" s="22"/>
-      <c r="L31" s="23" t="s">
+      <c r="K31" s="21"/>
+      <c r="L31" s="22" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D32" s="23" t="s">
+      <c r="D32" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="22" t="s">
+      <c r="E32" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="F32" s="23" t="s">
+      <c r="F32" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="G32" s="22" t="s">
+      <c r="G32" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="H32" s="23" t="s">
+      <c r="H32" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="I32" s="23" t="s">
+      <c r="I32" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="J32" s="25" t="n">
+      <c r="J32" s="24" t="n">
         <v>10</v>
       </c>
-      <c r="K32" s="22"/>
-      <c r="L32" s="23" t="s">
+      <c r="K32" s="21"/>
+      <c r="L32" s="22" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D33" s="22" t="s">
+      <c r="D33" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="22" t="s">
+      <c r="E33" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="F33" s="22" t="s">
+      <c r="F33" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="G33" s="22" t="s">
+      <c r="G33" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="H33" s="22" t="s">
+      <c r="H33" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="I33" s="23" t="s">
+      <c r="I33" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="J33" s="25" t="n">
+      <c r="J33" s="24" t="n">
         <v>50</v>
       </c>
-      <c r="K33" s="22" t="n">
+      <c r="K33" s="21" t="n">
         <v>100</v>
       </c>
-      <c r="L33" s="23" t="s">
+      <c r="L33" s="22" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="C34" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D34" s="22" t="s">
+      <c r="D34" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E34" s="22" t="s">
+      <c r="E34" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="F34" s="23" t="s">
+      <c r="F34" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="G34" s="22" t="s">
+      <c r="G34" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="H34" s="23" t="s">
+      <c r="H34" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="I34" s="23" t="s">
+      <c r="I34" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="J34" s="25" t="n">
+      <c r="J34" s="24" t="n">
         <v>50</v>
       </c>
-      <c r="K34" s="22"/>
-      <c r="L34" s="23" t="s">
+      <c r="K34" s="21"/>
+      <c r="L34" s="22" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D35" s="22" t="s">
+      <c r="D35" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E35" s="22" t="s">
+      <c r="E35" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="F35" s="23" t="s">
+      <c r="F35" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="G35" s="22" t="s">
+      <c r="G35" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="H35" s="23" t="s">
+      <c r="H35" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="I35" s="23" t="s">
+      <c r="I35" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="J35" s="27" t="n">
+      <c r="J35" s="26" t="n">
         <v>60</v>
       </c>
-      <c r="K35" s="27" t="n">
+      <c r="K35" s="26" t="n">
         <v>100</v>
       </c>
-      <c r="L35" s="23" t="s">
+      <c r="L35" s="22" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D36" s="22" t="s">
+      <c r="D36" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E36" s="22" t="s">
+      <c r="E36" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="F36" s="23" t="s">
+      <c r="F36" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="G36" s="22" t="s">
+      <c r="G36" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="H36" s="23" t="s">
+      <c r="H36" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="I36" s="23" t="s">
+      <c r="I36" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="J36" s="27" t="n">
+      <c r="J36" s="26" t="n">
         <v>20</v>
       </c>
-      <c r="K36" s="27"/>
-      <c r="L36" s="23" t="s">
+      <c r="K36" s="26"/>
+      <c r="L36" s="22" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C37" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D37" s="22" t="s">
+      <c r="D37" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E37" s="22" t="s">
+      <c r="E37" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="F37" s="23" t="s">
+      <c r="F37" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G37" s="22" t="s">
+      <c r="G37" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="H37" s="23" t="s">
+      <c r="H37" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="I37" s="23" t="s">
+      <c r="I37" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="J37" s="25" t="n">
+      <c r="J37" s="24" t="n">
         <v>20</v>
       </c>
-      <c r="K37" s="27"/>
-      <c r="L37" s="23" t="s">
+      <c r="K37" s="26"/>
+      <c r="L37" s="22" t="s">
         <v>22</v>
       </c>
     </row>

--- a/Projects/MARSUAE/Data/Template.xlsx
+++ b/Projects/MARSUAE/Data/Template.xlsx
@@ -5,28 +5,30 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="KPI" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Count" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="SOS" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Distribution" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Availability" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Sheet6" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="SOS" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Distribution" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Availability" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Distribution!$A$1:$J$19</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Distribution!$A$1:$J$19</definedName>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPI!$A$1:$H$37</definedName>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">SOS!$A$1:$K$13</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">SOS!$A$1:$K$13</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPI!$A$1:$H$37</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPI!$A$1:$H$37</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPI!$A$1:$H$37</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPI!$A$1:$H$37</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">SOS!$A$1:$K$13</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">SOS!$A$1:$K$13</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">SOS!$A$1:$K$13</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Distribution!$A$1:$J$19</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPI!$A$1:$H$37</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">SOS!$A$1:$K$13</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">SOS!$A$1:$K$13</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">SOS!$A$1:$K$13</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">SOS!$A$1:$K$13</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Distribution!$A$1:$J$19</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">Distribution!$A$1:$J$19</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="173">
   <si>
     <t xml:space="preserve">Channel</t>
   </si>
@@ -91,42 +93,42 @@
     <t xml:space="preserve">Freezer penetration</t>
   </si>
   <si>
+    <t xml:space="preserve">Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSL - Main Ice Cream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hanging Strips KPI - Choc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSL - Checkout Choc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSL - Checkout GUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hanging Strips KPI - GUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hypermarkets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basket Presence - Main Ice cream</t>
+  </si>
+  <si>
     <t xml:space="preserve">Count</t>
   </si>
   <si>
-    <t xml:space="preserve">0/1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL - Main Ice Cream</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hanging Strips KPI - Choc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL - Checkout Choc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL - Checkout GUM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hanging Strips KPI - GUM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hypermarkets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">basket Presence - Main Ice cream</t>
-  </si>
-  <si>
     <t xml:space="preserve">multipack Presence - Main Ice cream</t>
   </si>
   <si>
@@ -160,6 +162,9 @@
     <t xml:space="preserve">Other</t>
   </si>
   <si>
+    <t xml:space="preserve">SKU LEVEL</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mars Linear SOS - Main Ice cream</t>
   </si>
   <si>
@@ -172,94 +177,91 @@
     <t xml:space="preserve">Atomic KPI</t>
   </si>
   <si>
+    <t xml:space="preserve">KPI Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scene type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lower threshold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">upper threshold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minimum threshold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">numerator type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">numerator value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denominator type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denominator value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">linear SOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main shelf Impulse - Choc + Chillers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manufacturer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All of the confectionery products excluding irrelevant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main Shelf (Choc)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All Other prodcuts excluding irrelevant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checkout </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARS Chocolate SKUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All Chocolate SKUs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scondary Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main Shelf (Petcare)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45%%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checkout (Gum)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main Shelf (Ice Cream)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 slots (Basket SKUs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scene_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check every scene if its belong to mars or competitor and </t>
+  </si>
+  <si>
     <t xml:space="preserve">EAN codes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scene type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">minimum threshold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count Scene Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Branded Freezer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lower threshold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">upper threshold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">numerator type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">numerator value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denominator type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denominator value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">linear SOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Main shelf Impulse - Choc + Chillers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manufacturer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All of the confectionery products excluding irrelevant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Main Shelf (Choc)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All Other prodcuts excluding irrelevant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checkout </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARS Chocolate SKUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All Chocolate SKUs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scondary Display</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Main Shelf (Petcare)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45%%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checkout (Gum)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Main Shelf (Ice Cream)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14 slots (Basket SKUs)</t>
   </si>
   <si>
     <t xml:space="preserve">Assortment group</t>
@@ -317,6 +319,9 @@
     <t xml:space="preserve">All Channels are noted in the Pet MSL worksheet</t>
   </si>
   <si>
+    <t xml:space="preserve">Notes</t>
+  </si>
+  <si>
     <t xml:space="preserve">SCENE RECOGNITION</t>
   </si>
   <si>
@@ -326,6 +331,18 @@
     <t xml:space="preserve">Hanging Strip Choc</t>
   </si>
   <si>
+    <t xml:space="preserve">POSM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Availability Scene Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freezer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scene_type</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hanging Strip Gum</t>
   </si>
   <si>
@@ -336,6 +353,9 @@
   </si>
   <si>
     <t xml:space="preserve">Main Shelf (Ice Cream), Industrial Coolers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POS (product_type)</t>
   </si>
   <si>
     <t xml:space="preserve">Availability multipack</t>
@@ -553,7 +573,7 @@
     <numFmt numFmtId="167" formatCode="@"/>
     <numFmt numFmtId="168" formatCode="0"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -611,10 +631,21 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -706,7 +737,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -752,6 +783,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -819,14 +854,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -843,7 +870,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -853,6 +880,10 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -884,6 +915,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="168" fontId="6" fillId="3" borderId="3" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -986,22 +1025,24 @@
   </sheetPr>
   <dimension ref="1:37"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H37" activeCellId="0" sqref="H37"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="42.3877551020408"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="19.7091836734694"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="1019" min="9" style="1" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="1020" min="1020" style="2" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="41.8469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="24.3010204081633"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="11.8163265306122"/>
+    <col collapsed="false" hidden="false" max="1019" min="10" style="1" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1020" min="1020" style="2" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1021" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1098,10 +1139,10 @@
       <c r="D4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="12" t="n">
+      <c r="F4" s="13" t="n">
         <v>5</v>
       </c>
       <c r="G4" s="10"/>
@@ -1125,7 +1166,7 @@
       <c r="E5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="12" t="n">
+      <c r="F5" s="13" t="n">
         <v>10</v>
       </c>
       <c r="G5" s="10"/>
@@ -1143,18 +1184,18 @@
       <c r="C6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="14" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="12" t="n">
+        <v>17</v>
+      </c>
+      <c r="F6" s="13" t="n">
         <v>5</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1168,17 +1209,17 @@
         <v>10</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="12" t="n">
+      <c r="F7" s="13" t="n">
         <v>20</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1189,10 +1230,10 @@
         <v>9</v>
       </c>
       <c r="C8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>15</v>
@@ -1215,704 +1256,707 @@
         <v>9</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="12" t="n">
+        <v>17</v>
+      </c>
+      <c r="F9" s="13" t="n">
         <v>20</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="18" t="n">
+        <v>25</v>
+      </c>
+      <c r="G10" s="15" t="n">
+        <v>100</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="18" t="n">
+        <v>20</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="18" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G12" s="15"/>
+      <c r="H12" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="18" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="G14" s="15"/>
+      <c r="H14" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="G15" s="15"/>
+      <c r="H15" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="19" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="15" t="s">
+      <c r="E16" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="18" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="G16" s="15"/>
+      <c r="H16" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C17" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D17" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="18" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="G17" s="15"/>
+      <c r="H17" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="18" t="n">
+        <v>15</v>
+      </c>
+      <c r="G18" s="15"/>
+      <c r="H18" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="G19" s="15"/>
+      <c r="H19" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="15" t="n">
+        <v>50</v>
+      </c>
+      <c r="G20" s="15" t="n">
+        <v>100</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="15" t="n">
+        <v>50</v>
+      </c>
+      <c r="G21" s="15"/>
+      <c r="H21" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="21" t="n">
+        <v>50</v>
+      </c>
+      <c r="G22" s="21" t="n">
+        <v>100</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="18" t="n">
+        <v>50</v>
+      </c>
+      <c r="G23" s="21"/>
+      <c r="H23" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E24" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="17" t="n">
+      <c r="F24" s="25" t="n">
         <v>25</v>
       </c>
-      <c r="G10" s="14" t="n">
+      <c r="G24" s="22" t="n">
         <v>100</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H24" s="23" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="15" t="s">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C25" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D25" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E25" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="17" t="n">
+      <c r="F25" s="25" t="n">
         <v>20</v>
       </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="15" t="s">
+      <c r="G25" s="22"/>
+      <c r="H25" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="25" t="n">
+        <v>5</v>
+      </c>
+      <c r="G26" s="22"/>
+      <c r="H26" s="23" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="15" t="s">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C27" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="15" t="s">
+      <c r="D27" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="25" t="n">
+        <v>5</v>
+      </c>
+      <c r="G27" s="22"/>
+      <c r="H27" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="17" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="15" t="s">
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="25" t="n">
+        <v>5</v>
+      </c>
+      <c r="G28" s="22"/>
+      <c r="H28" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="25" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="G29" s="22"/>
+      <c r="H29" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="25" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="G30" s="22"/>
+      <c r="H30" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="25" t="n">
+        <v>15</v>
+      </c>
+      <c r="G31" s="22"/>
+      <c r="H31" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="25" t="n">
+        <v>10</v>
+      </c>
+      <c r="G32" s="22"/>
+      <c r="H32" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="25" t="n">
+        <v>50</v>
+      </c>
+      <c r="G33" s="22" t="n">
+        <v>100</v>
+      </c>
+      <c r="H33" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="25" t="n">
+        <v>50</v>
+      </c>
+      <c r="G34" s="22"/>
+      <c r="H34" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="27" t="n">
+        <v>60</v>
+      </c>
+      <c r="G35" s="27" t="n">
+        <v>100</v>
+      </c>
+      <c r="H35" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="27" t="n">
+        <v>20</v>
+      </c>
+      <c r="G36" s="27"/>
+      <c r="H36" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" s="22" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="15" t="s">
+      <c r="F37" s="25" t="n">
+        <v>20</v>
+      </c>
+      <c r="G37" s="27"/>
+      <c r="H37" s="23" t="s">
         <v>21</v>
-      </c>
-      <c r="F13" s="17" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="G15" s="14"/>
-      <c r="H15" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="17" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="G16" s="14"/>
-      <c r="H16" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="17" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="G17" s="14"/>
-      <c r="H17" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="17" t="n">
-        <v>15</v>
-      </c>
-      <c r="G18" s="14"/>
-      <c r="H18" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="17" t="n">
-        <v>10</v>
-      </c>
-      <c r="G19" s="14"/>
-      <c r="H19" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="14" t="n">
-        <v>50</v>
-      </c>
-      <c r="G20" s="14" t="n">
-        <v>100</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="14" t="n">
-        <v>50</v>
-      </c>
-      <c r="G21" s="14"/>
-      <c r="H21" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="20" t="n">
-        <v>50</v>
-      </c>
-      <c r="G22" s="20" t="n">
-        <v>100</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="17" t="n">
-        <v>50</v>
-      </c>
-      <c r="G23" s="20"/>
-      <c r="H23" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="24" t="n">
-        <v>25</v>
-      </c>
-      <c r="G24" s="21" t="n">
-        <v>100</v>
-      </c>
-      <c r="H24" s="22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="24" t="n">
-        <v>20</v>
-      </c>
-      <c r="G25" s="21"/>
-      <c r="H25" s="22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="24" t="n">
-        <v>5</v>
-      </c>
-      <c r="G26" s="21"/>
-      <c r="H26" s="22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="24" t="n">
-        <v>5</v>
-      </c>
-      <c r="G27" s="21"/>
-      <c r="H27" s="22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E28" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="24" t="n">
-        <v>5</v>
-      </c>
-      <c r="G28" s="21"/>
-      <c r="H28" s="22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" s="24" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="G29" s="21"/>
-      <c r="H29" s="22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F30" s="24" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="G30" s="21"/>
-      <c r="H30" s="22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E31" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="24" t="n">
-        <v>15</v>
-      </c>
-      <c r="G31" s="21"/>
-      <c r="H31" s="22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="E32" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F32" s="24" t="n">
-        <v>10</v>
-      </c>
-      <c r="G32" s="21"/>
-      <c r="H32" s="22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D33" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="E33" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="24" t="n">
-        <v>50</v>
-      </c>
-      <c r="G33" s="21" t="n">
-        <v>100</v>
-      </c>
-      <c r="H33" s="22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D34" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="E34" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F34" s="24" t="n">
-        <v>50</v>
-      </c>
-      <c r="G34" s="21"/>
-      <c r="H34" s="22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D35" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="E35" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F35" s="26" t="n">
-        <v>60</v>
-      </c>
-      <c r="G35" s="26" t="n">
-        <v>100</v>
-      </c>
-      <c r="H35" s="22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D36" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="E36" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" s="26" t="n">
-        <v>20</v>
-      </c>
-      <c r="G36" s="26"/>
-      <c r="H36" s="22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D37" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="E37" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="F37" s="24" t="n">
-        <v>20</v>
-      </c>
-      <c r="G37" s="26"/>
-      <c r="H37" s="22" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1943,504 +1987,428 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="1:13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M18" activeCellId="0" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="27.5408163265306"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.1122448979592"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.3010204081633"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="25.6479591836735"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="7.02040816326531"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="29.6989795918367"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="34.0204081632653"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="23.219387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="23.4897959183673"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="23.0816326530612"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="24.4336734693878"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="49.2704081632653"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="27.1326530612245"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="1023" min="13" style="1" width="11.0714285714286"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="27" t="s">
+      <c r="B1" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="C1" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="D1" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="E1" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="F1" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="G1" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="H1" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="12" t="n">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="1:13"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="30.1020408163265"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="34.4234693877551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="23.6224489795918"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="23.8928571428571"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="28.2142857142857"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="23.4897959183673"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="24.7040816326531"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="49.8112244897959"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="27.4030612244898"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="1023" min="13" style="1" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="11.3418367346939"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="I1" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="J1" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K1" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AMJ1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
-        <v>8</v>
-      </c>
       <c r="B2" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F2" s="30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G2" s="30"/>
+      <c r="H2" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="31" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F2" s="31" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G2" s="31"/>
-      <c r="H2" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="K2" s="13"/>
+      <c r="K2" s="14"/>
       <c r="L2" s="10" t="n">
         <v>25</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="16" t="s">
+      <c r="A3" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="18" t="s">
+      <c r="C3" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="31" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F3" s="31" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G3" s="31"/>
+      <c r="H3" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3" s="19"/>
+      <c r="L3" s="18" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="31" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F4" s="31" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G4" s="31"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="32" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="F3" s="32" t="n">
+      <c r="K4" s="19"/>
+      <c r="L4" s="18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="31"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="18" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="31" t="n">
         <v>0.4</v>
       </c>
-      <c r="G3" s="32"/>
-      <c r="H3" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="K3" s="18"/>
-      <c r="L3" s="17" t="n">
+      <c r="F6" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="15" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="31" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F7" s="31" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G7" s="31"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="18" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="32" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F8" s="32" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G8" s="32"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="25" t="n">
         <v>25</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="16" t="s">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="32" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F9" s="32" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G9" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="18" t="s">
+      <c r="C10" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="32" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F10" s="32" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G10" s="32"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G11" s="32"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="25" t="n">
+        <v>15</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="32" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="F4" s="32" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="G4" s="32"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="J4" s="18" t="s">
+      <c r="E12" s="32" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F12" s="32" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="25" t="n">
+        <v>50</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="K4" s="18"/>
-      <c r="L4" s="17" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="32" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F5" s="32" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="32"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="17" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="32" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="F6" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="14" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" s="32" t="n">
+      <c r="E13" s="34" t="n">
         <v>0.7</v>
       </c>
-      <c r="F7" s="32" t="n">
+      <c r="F13" s="34" t="n">
         <v>0.8</v>
       </c>
-      <c r="G7" s="32"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="17" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" s="33" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="F8" s="33" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="G8" s="33"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="24" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" s="33" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="F9" s="33" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G9" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="24" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="E10" s="33" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="F10" s="33" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="G10" s="33"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="24" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="33" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F11" s="33" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G11" s="33"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="24" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" s="33" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="F12" s="33" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="24" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="E13" s="35" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="F13" s="35" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="26" t="n">
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="27" t="n">
         <v>20</v>
       </c>
     </row>
@@ -2457,7 +2425,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2465,50 +2433,50 @@
   <dimension ref="1:19"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
+      <selection pane="topLeft" activeCell="E40" activeCellId="0" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.4438775510204"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.0102040816327"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="66.7857142857143"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="14.9030612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="26.7908163265306"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="34.8163265306122"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="36" width="24.0204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="24.3265306122449"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="27.5663265306122"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="12.1326530612245"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="1" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="65.8775510204082"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="26.4591836734694"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="34.4234693877551"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="35" width="23.6224489795918"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="23.8928571428571"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="27.2704081632653"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="1" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="27" t="s">
+      <c r="B1" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="C1" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" s="27" t="s">
+      <c r="G1" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="28" t="s">
         <v>75</v>
       </c>
       <c r="J1" s="3" t="s">
@@ -2522,20 +2490,20 @@
       <c r="B2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" s="31" t="n">
+      <c r="E2" s="14"/>
+      <c r="F2" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="30" t="n">
         <v>1</v>
       </c>
-      <c r="H2" s="31" t="n">
+      <c r="H2" s="30" t="n">
         <v>1</v>
       </c>
       <c r="I2" s="9"/>
@@ -3564,24 +3532,24 @@
       <c r="B3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="13"/>
+      <c r="E3" s="14"/>
       <c r="F3" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="G3" s="31" t="n">
+      <c r="G3" s="30" t="n">
         <v>1</v>
       </c>
-      <c r="H3" s="31" t="n">
+      <c r="H3" s="30" t="n">
         <v>1</v>
       </c>
       <c r="I3" s="9"/>
-      <c r="J3" s="12" t="n">
+      <c r="J3" s="13" t="n">
         <v>10</v>
       </c>
       <c r="K3" s="0"/>
@@ -4604,26 +4572,26 @@
         <v>8</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13" t="s">
+      <c r="E4" s="14"/>
+      <c r="F4" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="G4" s="31" t="n">
+      <c r="G4" s="30" t="n">
         <v>0.8</v>
       </c>
-      <c r="H4" s="31" t="n">
+      <c r="H4" s="30" t="n">
         <v>0.8</v>
       </c>
       <c r="I4" s="9"/>
-      <c r="J4" s="12" t="n">
+      <c r="J4" s="13" t="n">
         <v>20</v>
       </c>
       <c r="K4" s="0"/>
@@ -5646,21 +5614,21 @@
         <v>8</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13" t="s">
+      <c r="E5" s="14"/>
+      <c r="F5" s="14" t="s">
         <v>81</v>
       </c>
       <c r="G5" s="39"/>
       <c r="H5" s="39"/>
-      <c r="I5" s="13" t="n">
+      <c r="I5" s="14" t="n">
         <v>1</v>
       </c>
       <c r="J5" s="10" t="n">
@@ -5668,390 +5636,390 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="18" t="s">
+      <c r="A6" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="19" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="G6" s="32" t="n">
+      <c r="E6" s="19"/>
+      <c r="F6" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="31" t="n">
         <v>0.8</v>
       </c>
-      <c r="H6" s="32" t="n">
+      <c r="H6" s="31" t="n">
         <v>0.8</v>
       </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="17" t="n">
+      <c r="I6" s="17"/>
+      <c r="J6" s="18" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="18" t="s">
+      <c r="A7" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="19" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="G7" s="32" t="n">
+      <c r="E7" s="19"/>
+      <c r="F7" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="31" t="n">
         <v>0.8</v>
       </c>
-      <c r="H7" s="32" t="n">
+      <c r="H7" s="31" t="n">
         <v>0.8</v>
       </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="17" t="n">
+      <c r="I7" s="17"/>
+      <c r="J7" s="18" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>23</v>
+      <c r="A8" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>22</v>
       </c>
       <c r="C8" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8" s="32" t="n">
+      <c r="E8" s="19"/>
+      <c r="F8" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="31" t="n">
         <v>0.8</v>
       </c>
-      <c r="H8" s="32" t="n">
+      <c r="H8" s="31" t="n">
         <v>0.8</v>
       </c>
-      <c r="I8" s="16"/>
-      <c r="J8" s="17" t="n">
+      <c r="I8" s="17"/>
+      <c r="J8" s="18" t="n">
         <v>7.5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>23</v>
+      <c r="A9" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>22</v>
       </c>
       <c r="C9" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18" t="s">
+      <c r="E9" s="19"/>
+      <c r="F9" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="16" t="n">
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="J9" s="17" t="n">
+      <c r="J9" s="18" t="n">
         <v>7.5</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="18" t="s">
+      <c r="A10" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="19" t="s">
         <v>33</v>
       </c>
       <c r="C10" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" s="32" t="n">
+      <c r="E10" s="19"/>
+      <c r="F10" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="31" t="n">
         <v>0.8</v>
       </c>
-      <c r="H10" s="32" t="n">
+      <c r="H10" s="31" t="n">
         <v>0.8</v>
       </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="17" t="n">
+      <c r="I10" s="17"/>
+      <c r="J10" s="18" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="18" t="s">
+      <c r="A11" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="19" t="s">
         <v>36</v>
       </c>
       <c r="C11" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="G11" s="32" t="n">
+      <c r="E11" s="19"/>
+      <c r="F11" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="H11" s="32" t="n">
+      <c r="H11" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="I11" s="16"/>
-      <c r="J11" s="14" t="n">
+      <c r="I11" s="17"/>
+      <c r="J11" s="15" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="18" t="s">
+      <c r="A12" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="19" t="s">
         <v>37</v>
       </c>
       <c r="C12" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18" t="s">
+      <c r="E12" s="19"/>
+      <c r="F12" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="G12" s="32" t="n">
+      <c r="G12" s="31" t="n">
         <v>0.8</v>
       </c>
-      <c r="H12" s="32" t="n">
+      <c r="H12" s="31" t="n">
         <v>0.8</v>
       </c>
-      <c r="I12" s="16"/>
-      <c r="J12" s="20" t="n">
+      <c r="I12" s="17"/>
+      <c r="J12" s="21" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="26" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" s="33" t="n">
+      <c r="E13" s="26"/>
+      <c r="F13" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="H13" s="33" t="n">
+      <c r="H13" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="I13" s="23"/>
-      <c r="J13" s="24" t="n">
+      <c r="I13" s="24"/>
+      <c r="J13" s="25" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="26" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="G14" s="33" t="n">
+      <c r="E14" s="26"/>
+      <c r="F14" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="H14" s="33" t="n">
+      <c r="H14" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="I14" s="23"/>
-      <c r="J14" s="24" t="n">
+      <c r="I14" s="24"/>
+      <c r="J14" s="25" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="25" t="s">
-        <v>23</v>
+      <c r="B15" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="C15" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="G15" s="33" t="n">
+      <c r="E15" s="26"/>
+      <c r="F15" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="32" t="n">
         <v>0.8</v>
       </c>
-      <c r="H15" s="33" t="n">
+      <c r="H15" s="32" t="n">
         <v>0.8</v>
       </c>
-      <c r="I15" s="23"/>
-      <c r="J15" s="24" t="n">
+      <c r="I15" s="24"/>
+      <c r="J15" s="25" t="n">
         <v>7.5</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="25" t="s">
-        <v>23</v>
+      <c r="B16" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="C16" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="G16" s="33" t="n">
+      <c r="E16" s="26"/>
+      <c r="F16" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="32" t="n">
         <v>0.8</v>
       </c>
-      <c r="H16" s="33" t="n">
+      <c r="H16" s="32" t="n">
         <v>0.9</v>
       </c>
-      <c r="I16" s="23"/>
-      <c r="J16" s="24" t="n">
+      <c r="I16" s="24"/>
+      <c r="J16" s="25" t="n">
         <v>7.5</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="26" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="23" t="n">
+      <c r="E17" s="26"/>
+      <c r="F17" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="J17" s="24" t="n">
+      <c r="J17" s="25" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="26" t="s">
         <v>36</v>
       </c>
       <c r="C18" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="G18" s="33" t="n">
+      <c r="E18" s="26"/>
+      <c r="F18" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="H18" s="33" t="n">
+      <c r="H18" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="I18" s="23"/>
-      <c r="J18" s="24" t="n">
+      <c r="I18" s="24"/>
+      <c r="J18" s="25" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="25" t="s">
-        <v>41</v>
+      <c r="B19" s="26" t="s">
+        <v>42</v>
       </c>
       <c r="C19" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25" t="s">
+      <c r="E19" s="26"/>
+      <c r="F19" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="G19" s="33" t="n">
+      <c r="G19" s="32" t="n">
         <v>0.8</v>
       </c>
-      <c r="H19" s="33" t="n">
+      <c r="H19" s="32" t="n">
         <v>0.8</v>
       </c>
-      <c r="I19" s="23"/>
-      <c r="J19" s="26" t="n">
+      <c r="I19" s="24"/>
+      <c r="J19" s="27" t="n">
         <v>60</v>
       </c>
     </row>
@@ -6068,30 +6036,30 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:ALZ6"/>
+  <dimension ref="A1:ALZ7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.4438775510204"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="35.4387755102041"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="21.5459183673469"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="24.4795918367347"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="39.9234693877551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="21.2397959183673"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="21.5459183673469"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="24.7857142857143"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="9.35204081632653"/>
-    <col collapsed="false" hidden="false" max="1010" min="10" style="2" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="1011" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="34.9642857142857"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="21.3265306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="24.1632653061224"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="39.4183673469388"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="21.0612244897959"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="21.3265306122449"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="24.4336734693878"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="1010" min="10" style="2" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="1011" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6099,10 +6067,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="D1" s="42" t="s">
         <v>45</v>
@@ -6111,10 +6079,10 @@
         <v>46</v>
       </c>
       <c r="F1" s="43" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G1" s="42" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H1" s="42" t="s">
         <v>75</v>
@@ -6122,7 +6090,9 @@
       <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="0"/>
+      <c r="J1" s="0" t="s">
+        <v>92</v>
+      </c>
       <c r="K1" s="0"/>
       <c r="L1" s="0"/>
       <c r="M1" s="0"/>
@@ -7128,138 +7098,181 @@
       <c r="A2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="D2" s="14" t="s">
         <v>94</v>
       </c>
+      <c r="E2" s="14" t="s">
+        <v>95</v>
+      </c>
       <c r="F2" s="44"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13" t="n">
+      <c r="G2" s="14"/>
+      <c r="H2" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="I2" s="12" t="n">
+      <c r="I2" s="13" t="n">
         <v>5</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="ALW2" s="2"/>
       <c r="ALX2" s="2"/>
       <c r="ALY2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="F3" s="44"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="ALW3" s="2"/>
+      <c r="ALX3" s="2"/>
+      <c r="ALY3" s="2"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" s="30"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="13" t="n">
+        <v>20</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="ALW4" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="D3" s="13" t="s">
+      <c r="B5" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="F5" s="31" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G5" s="31" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H5" s="17" t="n">
+        <v>16</v>
+      </c>
+      <c r="I5" s="18" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="F6" s="31"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" s="18" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="F3" s="31"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="9" t="n">
+      <c r="D7" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="32"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="I3" s="12" t="n">
+      <c r="I7" s="25" t="n">
         <v>20</v>
       </c>
-      <c r="ALW3" s="2"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="F4" s="32" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G4" s="32" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H4" s="16" t="n">
-        <v>16</v>
-      </c>
-      <c r="I4" s="17" t="n">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="F5" s="32"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="16" t="n">
-        <v>3</v>
-      </c>
-      <c r="I5" s="17" t="n">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="F6" s="33"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="24" t="n">
-        <v>20</v>
-      </c>
-      <c r="ALW6" s="2"/>
-      <c r="ALX6" s="2"/>
-      <c r="ALY6" s="2"/>
-      <c r="ALZ6" s="2"/>
+      <c r="ALW7" s="2"/>
+      <c r="ALX7" s="2"/>
+      <c r="ALY7" s="2"/>
+      <c r="ALZ7" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -7272,7 +7285,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -7285,20 +7298,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="19.7091836734694"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="19.7091836734694"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="42.3877551020408"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="19.7091836734694"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="46.8418367346939"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="19.7091836734694"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="1023" min="13" style="1" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="2" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="41.8469387755102"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="46.3010204081633"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="24.3010204081633"/>
+    <col collapsed="false" hidden="false" max="1023" min="13" style="1" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="2" width="10.8010204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7309,13 +7322,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>3</v>
@@ -7324,10 +7337,10 @@
         <v>4</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>5</v>
@@ -7348,13 +7361,13 @@
         <v>9</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>11</v>
@@ -7363,10 +7376,10 @@
         <v>12</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="J2" s="10" t="n">
         <v>25</v>
@@ -7386,25 +7399,25 @@
         <v>9</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>15</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="J3" s="10" t="n">
         <v>35</v>
@@ -7422,27 +7435,27 @@
         <v>9</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="J4" s="12" t="n">
+        <v>112</v>
+      </c>
+      <c r="J4" s="13" t="n">
         <v>5</v>
       </c>
       <c r="K4" s="10"/>
@@ -7458,27 +7471,27 @@
         <v>9</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>15</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="J5" s="12" t="n">
+        <v>112</v>
+      </c>
+      <c r="J5" s="13" t="n">
         <v>10</v>
       </c>
       <c r="K5" s="10"/>
@@ -7494,32 +7507,32 @@
         <v>9</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>20</v>
       </c>
       <c r="G6" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="I6" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="H6" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="J6" s="12" t="n">
+      <c r="J6" s="13" t="n">
         <v>5</v>
       </c>
       <c r="K6" s="10"/>
       <c r="L6" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7530,32 +7543,32 @@
         <v>9</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>15</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="J7" s="12" t="n">
+        <v>112</v>
+      </c>
+      <c r="J7" s="13" t="n">
         <v>20</v>
       </c>
       <c r="K7" s="10"/>
       <c r="L7" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7566,25 +7579,25 @@
         <v>9</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>15</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="J8" s="10" t="n">
         <v>80</v>
@@ -7604,1052 +7617,1052 @@
         <v>9</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G9" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="I9" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="H9" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="J9" s="12" t="n">
+      <c r="J9" s="13" t="n">
         <v>20</v>
       </c>
       <c r="K9" s="10"/>
       <c r="L9" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="15" t="s">
+      <c r="A10" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D10" s="15" t="s">
+      <c r="C10" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="G10" s="15" t="s">
+      <c r="E10" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="G10" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="I10" s="15" t="s">
+      <c r="H10" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="I10" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="17" t="n">
+      <c r="J10" s="18" t="n">
         <v>25</v>
       </c>
-      <c r="K10" s="14" t="n">
+      <c r="K10" s="15" t="n">
         <v>100</v>
       </c>
-      <c r="L10" s="15" t="s">
+      <c r="L10" s="16" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="15" t="s">
+      <c r="A11" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D11" s="15" t="s">
+      <c r="C11" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="G11" s="15" t="s">
+      <c r="E11" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="G11" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="I11" s="15" t="s">
+      <c r="H11" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="I11" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="17" t="n">
+      <c r="J11" s="18" t="n">
         <v>20</v>
       </c>
-      <c r="K11" s="14"/>
-      <c r="L11" s="15" t="s">
+      <c r="K11" s="15"/>
+      <c r="L11" s="16" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="15" t="s">
+      <c r="A12" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D12" s="15" t="s">
+      <c r="C12" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="H12" s="14" t="s">
+      <c r="E12" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="J12" s="18" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K12" s="15"/>
+      <c r="L12" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="J13" s="18" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K13" s="15"/>
+      <c r="L13" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="K14" s="15"/>
+      <c r="L14" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="K15" s="15"/>
+      <c r="L15" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="18" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K16" s="15"/>
+      <c r="L16" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="18" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K17" s="15"/>
+      <c r="L17" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" s="18" t="n">
+        <v>15</v>
+      </c>
+      <c r="K18" s="15"/>
+      <c r="L18" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="K19" s="15"/>
+      <c r="L19" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="15" t="n">
+        <v>50</v>
+      </c>
+      <c r="K20" s="15" t="n">
+        <v>100</v>
+      </c>
+      <c r="L20" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="15" t="n">
+        <v>50</v>
+      </c>
+      <c r="K21" s="15"/>
+      <c r="L21" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="21" t="n">
+        <v>50</v>
+      </c>
+      <c r="K22" s="21" t="n">
+        <v>100</v>
+      </c>
+      <c r="L22" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="I23" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" s="18" t="n">
+        <v>50</v>
+      </c>
+      <c r="K23" s="21"/>
+      <c r="L23" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="H24" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="I24" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" s="25" t="n">
+        <v>25</v>
+      </c>
+      <c r="K24" s="22" t="n">
+        <v>100</v>
+      </c>
+      <c r="L24" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="H25" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="I25" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" s="25" t="n">
+        <v>20</v>
+      </c>
+      <c r="K25" s="22"/>
+      <c r="L25" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="G26" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="H26" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="I26" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J26" s="25" t="n">
+        <v>5</v>
+      </c>
+      <c r="K26" s="22"/>
+      <c r="L26" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="H27" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="I27" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" s="25" t="n">
+        <v>5</v>
+      </c>
+      <c r="K27" s="22"/>
+      <c r="L27" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="G28" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="H28" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="I28" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J28" s="25" t="n">
+        <v>5</v>
+      </c>
+      <c r="K28" s="22"/>
+      <c r="L28" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="G29" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="H29" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="I29" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" s="25" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K29" s="22"/>
+      <c r="L29" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="G30" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="H30" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="I30" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="J30" s="25" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K30" s="22"/>
+      <c r="L30" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="G31" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="H31" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="I31" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J31" s="25" t="n">
+        <v>15</v>
+      </c>
+      <c r="K31" s="22"/>
+      <c r="L31" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="F32" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="G32" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="H32" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="I32" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="J32" s="25" t="n">
+        <v>10</v>
+      </c>
+      <c r="K32" s="22"/>
+      <c r="L32" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="G33" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="H33" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="I33" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J33" s="25" t="n">
+        <v>50</v>
+      </c>
+      <c r="K33" s="22" t="n">
+        <v>100</v>
+      </c>
+      <c r="L33" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="F34" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="G34" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="H34" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="I34" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="J34" s="25" t="n">
+        <v>50</v>
+      </c>
+      <c r="K34" s="22"/>
+      <c r="L34" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="F35" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="G35" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="H35" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="I35" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="J35" s="27" t="n">
+        <v>60</v>
+      </c>
+      <c r="K35" s="27" t="n">
+        <v>100</v>
+      </c>
+      <c r="L35" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="F36" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="G36" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="H36" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="I36" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J36" s="27" t="n">
+        <v>20</v>
+      </c>
+      <c r="K36" s="27"/>
+      <c r="L36" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="F37" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G37" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="H37" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="I12" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="J12" s="17" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K12" s="14"/>
-      <c r="L12" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="I13" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="J13" s="17" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K13" s="14"/>
-      <c r="L13" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="K14" s="14"/>
-      <c r="L14" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="I15" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="J15" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="K15" s="14"/>
-      <c r="L15" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="I16" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="J16" s="17" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K16" s="14"/>
-      <c r="L16" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="I17" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="J17" s="17" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K17" s="14"/>
-      <c r="L17" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="I18" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="J18" s="17" t="n">
-        <v>15</v>
-      </c>
-      <c r="K18" s="14"/>
-      <c r="L18" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="I19" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="J19" s="17" t="n">
-        <v>10</v>
-      </c>
-      <c r="K19" s="14"/>
-      <c r="L19" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="I20" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="J20" s="14" t="n">
-        <v>50</v>
-      </c>
-      <c r="K20" s="14" t="n">
-        <v>100</v>
-      </c>
-      <c r="L20" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="I21" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="J21" s="14" t="n">
-        <v>50</v>
-      </c>
-      <c r="K21" s="14"/>
-      <c r="L21" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="I22" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="J22" s="20" t="n">
-        <v>50</v>
-      </c>
-      <c r="K22" s="20" t="n">
-        <v>100</v>
-      </c>
-      <c r="L22" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="G23" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="I23" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="J23" s="17" t="n">
-        <v>50</v>
-      </c>
-      <c r="K23" s="20"/>
-      <c r="L23" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="G24" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="H24" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="I24" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="J24" s="24" t="n">
-        <v>25</v>
-      </c>
-      <c r="K24" s="21" t="n">
-        <v>100</v>
-      </c>
-      <c r="L24" s="22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="F25" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="G25" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="H25" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="I25" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="J25" s="24" t="n">
+      <c r="I37" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="J37" s="25" t="n">
         <v>20</v>
       </c>
-      <c r="K25" s="21"/>
-      <c r="L25" s="22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="F26" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="G26" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="H26" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="I26" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="J26" s="24" t="n">
-        <v>5</v>
-      </c>
-      <c r="K26" s="21"/>
-      <c r="L26" s="22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="F27" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="G27" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="H27" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="I27" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="J27" s="24" t="n">
-        <v>5</v>
-      </c>
-      <c r="K27" s="21"/>
-      <c r="L27" s="22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="F28" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="G28" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="H28" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="I28" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="J28" s="24" t="n">
-        <v>5</v>
-      </c>
-      <c r="K28" s="21"/>
-      <c r="L28" s="22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="F29" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="G29" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="H29" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="I29" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="J29" s="24" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K29" s="21"/>
-      <c r="L29" s="22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="F30" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="G30" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="H30" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="I30" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="J30" s="24" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K30" s="21"/>
-      <c r="L30" s="22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="D31" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="F31" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="G31" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="H31" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="I31" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="J31" s="24" t="n">
-        <v>15</v>
-      </c>
-      <c r="K31" s="21"/>
-      <c r="L31" s="22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="D32" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="F32" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="G32" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="H32" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="I32" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="J32" s="24" t="n">
-        <v>10</v>
-      </c>
-      <c r="K32" s="21"/>
-      <c r="L32" s="22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="D33" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="E33" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="F33" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="G33" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="H33" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="I33" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="J33" s="24" t="n">
-        <v>50</v>
-      </c>
-      <c r="K33" s="21" t="n">
-        <v>100</v>
-      </c>
-      <c r="L33" s="22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="D34" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="E34" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="F34" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="G34" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="H34" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="I34" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="J34" s="24" t="n">
-        <v>50</v>
-      </c>
-      <c r="K34" s="21"/>
-      <c r="L34" s="22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="D35" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E35" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="F35" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="G35" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="H35" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="I35" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="J35" s="26" t="n">
-        <v>60</v>
-      </c>
-      <c r="K35" s="26" t="n">
-        <v>100</v>
-      </c>
-      <c r="L35" s="22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="D36" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="F36" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="G36" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="H36" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="I36" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="J36" s="26" t="n">
-        <v>20</v>
-      </c>
-      <c r="K36" s="26"/>
-      <c r="L36" s="22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="D37" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E37" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="F37" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="G37" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="H37" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="I37" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="J37" s="24" t="n">
-        <v>20</v>
-      </c>
-      <c r="K37" s="26"/>
-      <c r="L37" s="22" t="s">
-        <v>22</v>
+      <c r="K37" s="27"/>
+      <c r="L37" s="23" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/MARSUAE/Data/Template.xlsx
+++ b/Projects/MARSUAE/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="KPI" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,12 +23,15 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPI!$A$1:$H$37</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPI!$A$1:$H$37</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPI!$A$1:$H$37</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$H$37</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">SOS!$A$1:$K$13</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">SOS!$A$1:$K$13</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">SOS!$A$1:$K$13</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">SOS!$A$1:$K$13</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">SOS!$A$1:$K$13</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Distribution!$A$1:$J$19</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">Distribution!$A$1:$J$19</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Distribution!$A$1:$J$19</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -40,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="182">
   <si>
     <t xml:space="preserve">Channel</t>
   </si>
@@ -250,6 +253,9 @@
   </si>
   <si>
     <t xml:space="preserve">14 slots (Basket SKUs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display linear SOS</t>
   </si>
   <si>
     <t xml:space="preserve">with weight</t>
@@ -319,22 +325,34 @@
     <t xml:space="preserve">All Channels are noted in the Pet MSL worksheet</t>
   </si>
   <si>
+    <t xml:space="preserve">Type_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value_2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Notes</t>
   </si>
   <si>
+    <t xml:space="preserve">Availability hanging strip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POSM</t>
+  </si>
+  <si>
     <t xml:space="preserve">SCENE RECOGNITION</t>
   </si>
   <si>
-    <t xml:space="preserve">Availability hanging strip</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hanging Strip Choc</t>
   </si>
   <si>
-    <t xml:space="preserve">POSM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Availability Scene Type</t>
+    <t xml:space="preserve">Availability scene type</t>
   </si>
   <si>
     <t xml:space="preserve">Freezer</t>
@@ -346,12 +364,18 @@
     <t xml:space="preserve">Hanging Strip Gum</t>
   </si>
   <si>
-    <t xml:space="preserve">All Mars Choc SKUs</t>
-  </si>
-  <si>
     <t xml:space="preserve">Availability basket</t>
   </si>
   <si>
+    <t xml:space="preserve">product_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manufacturer</t>
+  </si>
+  <si>
     <t xml:space="preserve">Main Shelf (Ice Cream), Industrial Coolers</t>
   </si>
   <si>
@@ -359,6 +383,12 @@
   </si>
   <si>
     <t xml:space="preserve">Availability multipack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">package</t>
+  </si>
+  <si>
+    <t xml:space="preserve">multipack</t>
   </si>
   <si>
     <t xml:space="preserve">Level_1_type</t>
@@ -573,7 +603,7 @@
     <numFmt numFmtId="167" formatCode="@"/>
     <numFmt numFmtId="168" formatCode="0"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -631,21 +661,10 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -737,7 +756,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="46">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -783,10 +802,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -870,7 +885,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -915,14 +930,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="168" fontId="6" fillId="3" borderId="3" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1025,24 +1032,24 @@
   </sheetPr>
   <dimension ref="1:37"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="41.8469387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="24.3010204081633"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="11.8163265306122"/>
-    <col collapsed="false" hidden="false" max="1019" min="10" style="1" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="1020" min="1020" style="2" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="1021" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="41.3061224489796"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="23.8928571428571"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="1019" min="10" style="1" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1020" min="1020" style="2" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1025" min="1021" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1101,6 +1108,7 @@
       <c r="H2" s="8" t="s">
         <v>13</v>
       </c>
+      <c r="I2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
@@ -1125,6 +1133,7 @@
       <c r="H3" s="8" t="s">
         <v>13</v>
       </c>
+      <c r="I3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="s">
@@ -1139,16 +1148,17 @@
       <c r="D4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="13" t="n">
+      <c r="F4" s="12" t="n">
         <v>5</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="8" t="s">
         <v>18</v>
       </c>
+      <c r="I4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
@@ -1166,13 +1176,14 @@
       <c r="E5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="13" t="n">
+      <c r="F5" s="12" t="n">
         <v>10</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="8" t="s">
         <v>13</v>
       </c>
+      <c r="I5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
@@ -1184,19 +1195,20 @@
       <c r="C6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="13" t="n">
+      <c r="F6" s="12" t="n">
         <v>5</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="8" t="s">
         <v>21</v>
       </c>
+      <c r="I6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
@@ -1214,13 +1226,14 @@
       <c r="E7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="13" t="n">
+      <c r="F7" s="12" t="n">
         <v>20</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="8" t="s">
         <v>21</v>
       </c>
+      <c r="I7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
@@ -1247,6 +1260,7 @@
       <c r="H8" s="8" t="s">
         <v>13</v>
       </c>
+      <c r="I8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
@@ -1258,409 +1272,425 @@
       <c r="C9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="13" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="13" t="n">
+      <c r="F9" s="12" t="n">
         <v>20</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="8" t="s">
         <v>21</v>
       </c>
+      <c r="I9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="18" t="n">
+      <c r="F10" s="17" t="n">
         <v>25</v>
       </c>
-      <c r="G10" s="15" t="n">
+      <c r="G10" s="14" t="n">
         <v>100</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="15" t="s">
         <v>13</v>
       </c>
+      <c r="I10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="18" t="n">
+      <c r="F11" s="17" t="n">
         <v>20</v>
       </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="16" t="s">
+      <c r="G11" s="14"/>
+      <c r="H11" s="15" t="s">
         <v>13</v>
       </c>
+      <c r="I11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="18" t="n">
+      <c r="F12" s="17" t="n">
         <v>2.5</v>
       </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="16" t="s">
+      <c r="G12" s="14"/>
+      <c r="H12" s="15" t="s">
         <v>28</v>
       </c>
+      <c r="I12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="18" t="n">
+      <c r="F13" s="17" t="n">
         <v>2.5</v>
       </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="16" t="s">
+      <c r="G13" s="14"/>
+      <c r="H13" s="15" t="s">
         <v>30</v>
       </c>
+      <c r="I13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="18" t="n">
+      <c r="F14" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="16" t="s">
+      <c r="G14" s="14"/>
+      <c r="H14" s="15" t="s">
         <v>13</v>
       </c>
+      <c r="I14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="18" t="n">
+      <c r="F15" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="16" t="s">
+      <c r="G15" s="14"/>
+      <c r="H15" s="15" t="s">
         <v>13</v>
       </c>
+      <c r="I15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="18" t="n">
+      <c r="F16" s="17" t="n">
         <v>7.5</v>
       </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="16" t="s">
+      <c r="G16" s="14"/>
+      <c r="H16" s="15" t="s">
         <v>13</v>
       </c>
+      <c r="I16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="18" t="n">
+      <c r="F17" s="17" t="n">
         <v>7.5</v>
       </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="16" t="s">
+      <c r="G17" s="14"/>
+      <c r="H17" s="15" t="s">
         <v>28</v>
       </c>
+      <c r="I17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="18" t="n">
+      <c r="F18" s="17" t="n">
         <v>15</v>
       </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="16" t="s">
+      <c r="G18" s="14"/>
+      <c r="H18" s="15" t="s">
         <v>13</v>
       </c>
+      <c r="I18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="18" t="n">
+      <c r="F19" s="17" t="n">
         <v>10</v>
       </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="16" t="s">
+      <c r="G19" s="14"/>
+      <c r="H19" s="15" t="s">
         <v>21</v>
       </c>
+      <c r="I19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="15" t="n">
+      <c r="F20" s="14" t="n">
         <v>50</v>
       </c>
-      <c r="G20" s="15" t="n">
+      <c r="G20" s="14" t="n">
         <v>100</v>
       </c>
-      <c r="H20" s="16" t="s">
+      <c r="H20" s="15" t="s">
         <v>13</v>
       </c>
+      <c r="I20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="15" t="n">
+      <c r="F21" s="14" t="n">
         <v>50</v>
       </c>
-      <c r="G21" s="15"/>
-      <c r="H21" s="16" t="s">
+      <c r="G21" s="14"/>
+      <c r="H21" s="15" t="s">
         <v>21</v>
       </c>
+      <c r="I21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="21" t="n">
+      <c r="F22" s="20" t="n">
         <v>50</v>
       </c>
-      <c r="G22" s="21" t="n">
+      <c r="G22" s="20" t="n">
         <v>100</v>
       </c>
-      <c r="H22" s="16" t="s">
+      <c r="H22" s="15" t="s">
         <v>13</v>
       </c>
+      <c r="I22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="18" t="n">
+      <c r="F23" s="17" t="n">
         <v>50</v>
       </c>
-      <c r="G23" s="21"/>
-      <c r="H23" s="16" t="s">
+      <c r="G23" s="20"/>
+      <c r="H23" s="15" t="s">
         <v>13</v>
       </c>
+      <c r="I23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="D24" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="25" t="n">
+      <c r="F24" s="24" t="n">
         <v>25</v>
       </c>
-      <c r="G24" s="22" t="n">
+      <c r="G24" s="21" t="n">
         <v>100</v>
       </c>
-      <c r="H24" s="23" t="s">
+      <c r="H24" s="22" t="s">
         <v>13</v>
       </c>
+      <c r="I24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="26" t="s">
+      <c r="D25" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="25" t="n">
+      <c r="F25" s="24" t="n">
         <v>20</v>
       </c>
-      <c r="G25" s="22"/>
-      <c r="H25" s="23" t="s">
+      <c r="G25" s="21"/>
+      <c r="H25" s="22" t="s">
         <v>21</v>
       </c>
       <c r="I25" s="1" t="s">
@@ -1668,294 +1698,294 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="25" t="n">
+      <c r="F26" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="G26" s="22"/>
-      <c r="H26" s="23" t="s">
+      <c r="G26" s="21"/>
+      <c r="H26" s="22" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="26" t="s">
+      <c r="D27" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="E27" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="25" t="n">
+      <c r="F27" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="G27" s="22"/>
-      <c r="H27" s="23" t="s">
+      <c r="G27" s="21"/>
+      <c r="H27" s="22" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="24" t="s">
+      <c r="D28" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="22" t="s">
+      <c r="E28" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="25" t="n">
+      <c r="F28" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="G28" s="22"/>
-      <c r="H28" s="23" t="s">
+      <c r="G28" s="21"/>
+      <c r="H28" s="22" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="26" t="s">
+      <c r="D29" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="22" t="s">
+      <c r="E29" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="25" t="n">
+      <c r="F29" s="24" t="n">
         <v>7.5</v>
       </c>
-      <c r="G29" s="22"/>
-      <c r="H29" s="23" t="s">
+      <c r="G29" s="21"/>
+      <c r="H29" s="22" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="26" t="s">
+      <c r="D30" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="E30" s="22" t="s">
+      <c r="E30" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F30" s="25" t="n">
+      <c r="F30" s="24" t="n">
         <v>7.5</v>
       </c>
-      <c r="G30" s="22"/>
-      <c r="H30" s="23" t="s">
+      <c r="G30" s="21"/>
+      <c r="H30" s="22" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="24" t="s">
+      <c r="D31" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="22" t="s">
+      <c r="E31" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F31" s="25" t="n">
+      <c r="F31" s="24" t="n">
         <v>15</v>
       </c>
-      <c r="G31" s="22"/>
-      <c r="H31" s="23" t="s">
+      <c r="G31" s="21"/>
+      <c r="H31" s="22" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="26" t="s">
+      <c r="D32" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="E32" s="22" t="s">
+      <c r="E32" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F32" s="25" t="n">
+      <c r="F32" s="24" t="n">
         <v>10</v>
       </c>
-      <c r="G32" s="22"/>
-      <c r="H32" s="23" t="s">
+      <c r="G32" s="21"/>
+      <c r="H32" s="22" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="24" t="s">
+      <c r="D33" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="E33" s="22" t="s">
+      <c r="E33" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F33" s="25" t="n">
+      <c r="F33" s="24" t="n">
         <v>50</v>
       </c>
-      <c r="G33" s="22" t="n">
+      <c r="G33" s="21" t="n">
         <v>100</v>
       </c>
-      <c r="H33" s="23" t="s">
+      <c r="H33" s="22" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="C34" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="26" t="s">
+      <c r="D34" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="E34" s="22" t="s">
+      <c r="E34" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="25" t="n">
+      <c r="F34" s="24" t="n">
         <v>50</v>
       </c>
-      <c r="G34" s="22"/>
-      <c r="H34" s="23" t="s">
+      <c r="G34" s="21"/>
+      <c r="H34" s="22" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D35" s="26" t="s">
+      <c r="D35" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="E35" s="22" t="s">
+      <c r="E35" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F35" s="27" t="n">
+      <c r="F35" s="26" t="n">
         <v>60</v>
       </c>
-      <c r="G35" s="27" t="n">
+      <c r="G35" s="26" t="n">
         <v>100</v>
       </c>
-      <c r="H35" s="23" t="s">
+      <c r="H35" s="22" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="24" t="s">
+      <c r="D36" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="E36" s="22" t="s">
+      <c r="E36" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F36" s="27" t="n">
+      <c r="F36" s="26" t="n">
         <v>20</v>
       </c>
-      <c r="G36" s="27"/>
-      <c r="H36" s="23" t="s">
+      <c r="G36" s="26"/>
+      <c r="H36" s="22" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C37" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D37" s="26" t="s">
+      <c r="D37" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="E37" s="22" t="s">
+      <c r="E37" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F37" s="25" t="n">
+      <c r="F37" s="24" t="n">
         <v>20</v>
       </c>
-      <c r="G37" s="27"/>
-      <c r="H37" s="23" t="s">
+      <c r="G37" s="26"/>
+      <c r="H37" s="22" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1989,59 +2019,62 @@
   </sheetPr>
   <dimension ref="1:13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M18" activeCellId="0" sqref="M18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="29.6989795918367"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="34.0204081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="23.219387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="23.4897959183673"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="23.0816326530612"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="24.4336734693878"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="49.2704081632653"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="27.1326530612245"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="1023" min="13" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.4438775510204"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="30.5"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.530612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="34.8163265306122"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.0204081632653"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="24.3265306122449"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="28.6428571428571"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="23.8571428571429"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="24.9489795918367"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="50.4132653061224"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="27.719387755102"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="9.35204081632653"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="11.0510204081633"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="49.4897959183674"/>
+    <col collapsed="false" hidden="false" max="1023" min="15" style="1" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="27" t="s">
         <v>53</v>
       </c>
       <c r="L1" s="3" t="s">
@@ -2059,356 +2092,374 @@
       <c r="C2" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="30" t="n">
+      <c r="E2" s="29" t="n">
         <v>0.5</v>
       </c>
-      <c r="F2" s="30" t="n">
+      <c r="F2" s="29" t="n">
         <v>0.5</v>
       </c>
-      <c r="G2" s="30"/>
-      <c r="H2" s="14" t="s">
+      <c r="G2" s="29"/>
+      <c r="H2" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="K2" s="14"/>
+      <c r="K2" s="13"/>
       <c r="L2" s="10" t="n">
         <v>25</v>
       </c>
+      <c r="M2" s="0"/>
+      <c r="N2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="31" t="n">
+      <c r="E3" s="30" t="n">
         <v>0.35</v>
       </c>
-      <c r="F3" s="31" t="n">
+      <c r="F3" s="30" t="n">
         <v>0.4</v>
       </c>
-      <c r="G3" s="31"/>
-      <c r="H3" s="19" t="s">
+      <c r="G3" s="30"/>
+      <c r="H3" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="K3" s="19"/>
-      <c r="L3" s="18" t="n">
+      <c r="K3" s="18"/>
+      <c r="L3" s="17" t="n">
         <v>25</v>
       </c>
+      <c r="M3" s="0"/>
+      <c r="N3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="31" t="n">
+      <c r="E4" s="30" t="n">
         <v>0.55</v>
       </c>
-      <c r="F4" s="31" t="n">
+      <c r="F4" s="30" t="n">
         <v>0.55</v>
       </c>
-      <c r="G4" s="31"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19" t="s">
+      <c r="G4" s="30"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="K4" s="19"/>
-      <c r="L4" s="18" t="n">
+      <c r="K4" s="18"/>
+      <c r="L4" s="17" t="n">
         <v>5</v>
       </c>
+      <c r="M4" s="0"/>
+      <c r="N4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="31" t="n">
+      <c r="E5" s="30" t="n">
         <v>0.5</v>
       </c>
-      <c r="F5" s="31" t="n">
+      <c r="F5" s="30" t="n">
         <v>0.5</v>
       </c>
-      <c r="G5" s="31"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="18" t="n">
+      <c r="G5" s="30"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="17" t="n">
         <v>15</v>
       </c>
+      <c r="M5" s="0"/>
+      <c r="N5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="31" t="n">
+      <c r="E6" s="30" t="n">
         <v>0.4</v>
       </c>
-      <c r="F6" s="31" t="s">
+      <c r="F6" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="15" t="n">
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="14" t="n">
         <v>50</v>
       </c>
+      <c r="M6" s="0"/>
+      <c r="N6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="31" t="n">
+      <c r="E7" s="30" t="n">
         <v>0.7</v>
       </c>
-      <c r="F7" s="31" t="n">
+      <c r="F7" s="30" t="n">
         <v>0.8</v>
       </c>
-      <c r="G7" s="31"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="18" t="n">
+      <c r="G7" s="30"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="17" t="n">
         <v>50</v>
       </c>
+      <c r="M7" s="0"/>
+      <c r="N7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="32" t="n">
+      <c r="E8" s="31" t="n">
         <v>0.4</v>
       </c>
-      <c r="F8" s="32" t="n">
+      <c r="F8" s="31" t="n">
         <v>0.45</v>
       </c>
-      <c r="G8" s="32"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="25" t="n">
+      <c r="G8" s="31"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="24" t="n">
         <v>25</v>
       </c>
+      <c r="M8" s="0"/>
+      <c r="N8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="E9" s="32" t="n">
+      <c r="E9" s="31" t="n">
         <v>0.8</v>
       </c>
-      <c r="F9" s="32" t="n">
+      <c r="F9" s="31" t="n">
         <v>0.8</v>
       </c>
-      <c r="G9" s="32" t="s">
+      <c r="G9" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="25" t="n">
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="24" t="n">
         <v>5</v>
       </c>
+      <c r="M9" s="0"/>
+      <c r="N9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="32" t="n">
+      <c r="E10" s="31" t="n">
         <v>0.45</v>
       </c>
-      <c r="F10" s="32" t="n">
+      <c r="F10" s="31" t="n">
         <v>0.55</v>
       </c>
-      <c r="G10" s="32"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="25" t="n">
+      <c r="G10" s="31"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="24" t="n">
         <v>5</v>
       </c>
+      <c r="M10" s="0"/>
+      <c r="N10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G11" s="31"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="24" t="n">
+        <v>15</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="32" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F11" s="32" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G11" s="32"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="25" t="n">
-        <v>15</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="22" t="s">
+      <c r="D12" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="31" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F12" s="31" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="24" t="n">
+        <v>50</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="24" t="s">
+      <c r="B13" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="32" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="F12" s="32" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="25" t="n">
-        <v>50</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="34" t="n">
+      <c r="E13" s="33" t="n">
         <v>0.7</v>
       </c>
-      <c r="F13" s="34" t="n">
+      <c r="F13" s="33" t="n">
         <v>0.8</v>
       </c>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="27" t="n">
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="26" t="n">
         <v>20</v>
       </c>
     </row>
@@ -2432,56 +2483,57 @@
   </sheetPr>
   <dimension ref="1:19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E40" activeCellId="0" sqref="E40"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D35" activeCellId="0" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.734693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="65.8775510204082"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="26.4591836734694"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="34.4234693877551"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="35" width="23.6224489795918"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="23.8928571428571"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="27.2704081632653"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.4642857142857"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="65.0663265306122"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="26.0510204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="34.0204081632653"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="34" width="23.219387755102"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="23.4897959183673"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="26.8622448979592"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="1023" min="11" style="1" width="11.0714285714286"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" s="28" t="s">
+      <c r="C1" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="D1" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="E1" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="28" t="s">
-        <v>75</v>
+      <c r="I1" s="27" t="s">
+        <v>76</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
@@ -2490,20 +2542,20 @@
       <c r="B2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14" t="s">
+      <c r="D2" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="30" t="n">
+      <c r="G2" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="H2" s="30" t="n">
+      <c r="H2" s="29" t="n">
         <v>1</v>
       </c>
       <c r="I2" s="9"/>
@@ -3523,7 +3575,6 @@
       <c r="AMG2" s="0"/>
       <c r="AMH2" s="0"/>
       <c r="AMI2" s="0"/>
-      <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
@@ -3532,24 +3583,24 @@
       <c r="B3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="37" t="s">
+      <c r="D3" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="G3" s="30" t="n">
+      <c r="E3" s="13"/>
+      <c r="F3" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="H3" s="30" t="n">
+      <c r="H3" s="29" t="n">
         <v>1</v>
       </c>
       <c r="I3" s="9"/>
-      <c r="J3" s="13" t="n">
+      <c r="J3" s="12" t="n">
         <v>10</v>
       </c>
       <c r="K3" s="0"/>
@@ -4565,7 +4616,6 @@
       <c r="AMG3" s="0"/>
       <c r="AMH3" s="0"/>
       <c r="AMI3" s="0"/>
-      <c r="AMJ3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
@@ -4574,24 +4624,24 @@
       <c r="B4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="G4" s="30" t="n">
+      <c r="D4" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="29" t="n">
         <v>0.8</v>
       </c>
-      <c r="H4" s="30" t="n">
+      <c r="H4" s="29" t="n">
         <v>0.8</v>
       </c>
       <c r="I4" s="9"/>
-      <c r="J4" s="13" t="n">
+      <c r="J4" s="12" t="n">
         <v>20</v>
       </c>
       <c r="K4" s="0"/>
@@ -5607,7 +5657,6 @@
       <c r="AMG4" s="0"/>
       <c r="AMH4" s="0"/>
       <c r="AMI4" s="0"/>
-      <c r="AMJ4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
@@ -5616,19 +5665,19 @@
       <c r="B5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14" t="s">
+      <c r="D5" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="14" t="n">
+      <c r="E5" s="13"/>
+      <c r="F5" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="13" t="n">
         <v>1</v>
       </c>
       <c r="J5" s="10" t="n">
@@ -5636,390 +5685,390 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" s="19" t="s">
+      <c r="C6" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19" t="s">
+      <c r="D6" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="G6" s="31" t="n">
+      <c r="G6" s="30" t="n">
         <v>0.8</v>
       </c>
-      <c r="H6" s="31" t="n">
+      <c r="H6" s="30" t="n">
         <v>0.8</v>
       </c>
-      <c r="I6" s="17"/>
-      <c r="J6" s="18" t="n">
+      <c r="I6" s="16"/>
+      <c r="J6" s="17" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19" t="s">
+      <c r="D7" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="G7" s="31" t="n">
+      <c r="G7" s="30" t="n">
         <v>0.8</v>
       </c>
-      <c r="H7" s="31" t="n">
+      <c r="H7" s="30" t="n">
         <v>0.8</v>
       </c>
-      <c r="I7" s="17"/>
-      <c r="J7" s="18" t="n">
+      <c r="I7" s="16"/>
+      <c r="J7" s="17" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="19" t="s">
+      <c r="C8" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19" t="s">
+      <c r="D8" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="31" t="n">
+      <c r="G8" s="30" t="n">
         <v>0.8</v>
       </c>
-      <c r="H8" s="31" t="n">
+      <c r="H8" s="30" t="n">
         <v>0.8</v>
       </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="18" t="n">
+      <c r="I8" s="16"/>
+      <c r="J8" s="17" t="n">
         <v>7.5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" s="19" t="s">
+      <c r="C9" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19" t="s">
+      <c r="D9" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="17" t="n">
+      <c r="E9" s="18"/>
+      <c r="F9" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="J9" s="18" t="n">
+      <c r="J9" s="17" t="n">
         <v>7.5</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="D10" s="19" t="s">
+      <c r="C10" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19" t="s">
+      <c r="D10" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="G10" s="31" t="n">
+      <c r="G10" s="30" t="n">
         <v>0.8</v>
       </c>
-      <c r="H10" s="31" t="n">
+      <c r="H10" s="30" t="n">
         <v>0.8</v>
       </c>
-      <c r="I10" s="17"/>
-      <c r="J10" s="18" t="n">
+      <c r="I10" s="16"/>
+      <c r="J10" s="17" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="16"/>
+      <c r="J11" s="14" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12" s="30" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H12" s="30" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I12" s="16"/>
+      <c r="J12" s="20" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="23"/>
+      <c r="J13" s="24" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="23"/>
+      <c r="J14" s="24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="31" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H15" s="31" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I15" s="23"/>
+      <c r="J15" s="24" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="31" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H16" s="31" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I16" s="23"/>
+      <c r="J16" s="24" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="E17" s="25"/>
+      <c r="F17" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="J17" s="24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19" t="s">
+      <c r="D18" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="G11" s="31" t="n">
+      <c r="G18" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="H11" s="31" t="n">
+      <c r="H18" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="I11" s="17"/>
-      <c r="J11" s="15" t="n">
+      <c r="I18" s="23"/>
+      <c r="J18" s="24" t="n">
         <v>50</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" s="19" t="s">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="G12" s="31" t="n">
+      <c r="D19" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="G19" s="31" t="n">
         <v>0.8</v>
       </c>
-      <c r="H12" s="31" t="n">
+      <c r="H19" s="31" t="n">
         <v>0.8</v>
       </c>
-      <c r="I12" s="17"/>
-      <c r="J12" s="21" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" s="24"/>
-      <c r="J13" s="25" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" s="24"/>
-      <c r="J14" s="25" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" s="32" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H15" s="32" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="I15" s="24"/>
-      <c r="J15" s="25" t="n">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16" s="32" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H16" s="32" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="I16" s="24"/>
-      <c r="J16" s="25" t="n">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="J17" s="25" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="G18" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="H18" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" s="24"/>
-      <c r="J18" s="25" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="G19" s="32" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H19" s="32" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="I19" s="24"/>
-      <c r="J19" s="27" t="n">
+      <c r="I19" s="23"/>
+      <c r="J19" s="26" t="n">
         <v>60</v>
       </c>
     </row>
@@ -6041,61 +6090,69 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:ALZ7"/>
+  <dimension ref="A1:AMC7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+      <selection pane="topLeft" activeCell="F31" activeCellId="0" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="34.9642857142857"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="21.3265306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="24.1632653061224"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="39.4183673469388"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="21.3265306122449"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="24.4336734693878"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="1010" min="10" style="2" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="1011" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="34.5561224489796"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="23.7602040816327"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.984693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="21.0612244897959"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="14.2908163265306"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="21.5459183673469"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="38.8775510204082"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="20.6530612244898"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="21.0612244897959"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="24.1632653061224"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="1013" min="13" style="2" width="11.0714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" s="42" t="s">
+      <c r="C1" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="D1" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="H1" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="I1" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="J1" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="K1" s="0"/>
-      <c r="L1" s="0"/>
-      <c r="M1" s="0"/>
+      <c r="M1" s="0" t="s">
+        <v>97</v>
+      </c>
       <c r="N1" s="0"/>
       <c r="O1" s="0"/>
       <c r="P1" s="0"/>
@@ -7093,186 +7150,238 @@
       <c r="ALT1" s="0"/>
       <c r="ALU1" s="0"/>
       <c r="ALV1" s="0"/>
+      <c r="ALW1" s="0"/>
+      <c r="ALX1" s="0"/>
+      <c r="ALY1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="F2" s="44"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14" t="n">
+      <c r="C2" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="37"/>
+      <c r="F2" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="I2" s="43"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="I2" s="13" t="n">
+      <c r="L2" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="ALW2" s="2"/>
-      <c r="ALX2" s="2"/>
-      <c r="ALY2" s="2"/>
+      <c r="M2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="ALZ2" s="2"/>
+      <c r="AMA2" s="2"/>
+      <c r="AMB2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="46" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="F3" s="44"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14" t="n">
+      <c r="C3" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="I3" s="43"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="I3" s="13" t="n">
+      <c r="L3" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="ALW3" s="2"/>
-      <c r="ALX3" s="2"/>
-      <c r="ALY3" s="2"/>
+      <c r="M3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="ALZ3" s="2"/>
+      <c r="AMA3" s="2"/>
+      <c r="AMB3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="E4" s="14" t="s">
+      <c r="C4" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="35"/>
+      <c r="F4" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="9" t="n">
+      <c r="H4" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="I4" s="29"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="I4" s="13" t="n">
+      <c r="L4" s="12" t="n">
         <v>20</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="ALW4" s="2"/>
+      <c r="M4" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="ALZ4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="F5" s="31" t="n">
+      <c r="C5" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="G5" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="I5" s="30" t="n">
         <v>0.8</v>
       </c>
-      <c r="G5" s="31" t="n">
+      <c r="J5" s="30" t="n">
         <v>0.8</v>
       </c>
-      <c r="H5" s="17" t="n">
+      <c r="K5" s="16" t="n">
         <v>16</v>
       </c>
-      <c r="I5" s="18" t="n">
+      <c r="L5" s="17" t="n">
         <v>2.5</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>104</v>
+      <c r="M5" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="D6" s="19" t="s">
+      <c r="C6" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="G6" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="I6" s="30"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="L6" s="17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" s="40"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="H7" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="E6" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="F6" s="31"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="I6" s="18" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="41" t="s">
-        <v>93</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="F7" s="32"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="24" t="n">
+      <c r="I7" s="31"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="I7" s="25" t="n">
+      <c r="L7" s="24" t="n">
         <v>20</v>
       </c>
-      <c r="ALW7" s="2"/>
-      <c r="ALX7" s="2"/>
-      <c r="ALY7" s="2"/>
+      <c r="M7" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="ALZ7" s="2"/>
+      <c r="AMA7" s="2"/>
+      <c r="AMB7" s="2"/>
+      <c r="AMC7" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -7298,20 +7407,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="41.8469387755102"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="46.3010204081633"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="24.3010204081633"/>
-    <col collapsed="false" hidden="false" max="1023" min="13" style="1" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="2" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="41.3061224489796"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="45.7602040816327"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="23.8928571428571"/>
+    <col collapsed="false" hidden="false" max="1023" min="13" style="1" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="2" width="10.6632653061225"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7322,13 +7431,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>3</v>
@@ -7337,10 +7446,10 @@
         <v>4</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>5</v>
@@ -7361,13 +7470,13 @@
         <v>9</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>11</v>
@@ -7376,10 +7485,10 @@
         <v>12</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="J2" s="10" t="n">
         <v>25</v>
@@ -7399,25 +7508,25 @@
         <v>9</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>15</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="J3" s="10" t="n">
         <v>35</v>
@@ -7435,13 +7544,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>16</v>
@@ -7450,12 +7559,12 @@
         <v>28</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="J4" s="13" t="n">
+        <v>121</v>
+      </c>
+      <c r="J4" s="12" t="n">
         <v>5</v>
       </c>
       <c r="K4" s="10"/>
@@ -7471,27 +7580,27 @@
         <v>9</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>15</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="J5" s="13" t="n">
+        <v>121</v>
+      </c>
+      <c r="J5" s="12" t="n">
         <v>10</v>
       </c>
       <c r="K5" s="10"/>
@@ -7507,27 +7616,27 @@
         <v>9</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>20</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="J6" s="13" t="n">
+        <v>121</v>
+      </c>
+      <c r="J6" s="12" t="n">
         <v>5</v>
       </c>
       <c r="K6" s="10"/>
@@ -7543,27 +7652,27 @@
         <v>9</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>15</v>
       </c>
       <c r="H7" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="I7" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="I7" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="J7" s="13" t="n">
+      <c r="J7" s="12" t="n">
         <v>20</v>
       </c>
       <c r="K7" s="10"/>
@@ -7579,25 +7688,25 @@
         <v>9</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>15</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="J8" s="10" t="n">
         <v>80</v>
@@ -7617,27 +7726,27 @@
         <v>9</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>25</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="J9" s="13" t="n">
+        <v>121</v>
+      </c>
+      <c r="J9" s="12" t="n">
         <v>20</v>
       </c>
       <c r="K9" s="10"/>
@@ -7646,1022 +7755,1022 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="D10" s="16" t="s">
+      <c r="C10" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="G10" s="16" t="s">
+      <c r="E10" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="G10" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="I10" s="16" t="s">
+      <c r="H10" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="I10" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="18" t="n">
+      <c r="J10" s="17" t="n">
         <v>25</v>
       </c>
-      <c r="K10" s="15" t="n">
+      <c r="K10" s="14" t="n">
         <v>100</v>
       </c>
-      <c r="L10" s="16" t="s">
+      <c r="L10" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="D11" s="16" t="s">
+      <c r="C11" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="F11" s="16" t="s">
+      <c r="E11" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="17" t="n">
+        <v>20</v>
+      </c>
+      <c r="K11" s="14"/>
+      <c r="L11" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="G12" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="H12" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="J12" s="17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K12" s="14"/>
+      <c r="L12" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="J13" s="17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K13" s="14"/>
+      <c r="L13" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="G14" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="I11" s="16" t="s">
+      <c r="H14" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="I14" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="18" t="n">
+      <c r="J14" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="K14" s="14"/>
+      <c r="L14" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="K15" s="14"/>
+      <c r="L15" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K16" s="14"/>
+      <c r="L16" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K17" s="14"/>
+      <c r="L17" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" s="17" t="n">
+        <v>15</v>
+      </c>
+      <c r="K18" s="14"/>
+      <c r="L18" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="17" t="n">
+        <v>10</v>
+      </c>
+      <c r="K19" s="14"/>
+      <c r="L19" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="14" t="n">
+        <v>50</v>
+      </c>
+      <c r="K20" s="14" t="n">
+        <v>100</v>
+      </c>
+      <c r="L20" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="14" t="n">
+        <v>50</v>
+      </c>
+      <c r="K21" s="14"/>
+      <c r="L21" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="20" t="n">
+        <v>50</v>
+      </c>
+      <c r="K22" s="20" t="n">
+        <v>100</v>
+      </c>
+      <c r="L22" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" s="17" t="n">
+        <v>50</v>
+      </c>
+      <c r="K23" s="20"/>
+      <c r="L23" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="H24" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="I24" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" s="24" t="n">
+        <v>25</v>
+      </c>
+      <c r="K24" s="21" t="n">
+        <v>100</v>
+      </c>
+      <c r="L24" s="22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="H25" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="I25" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" s="24" t="n">
         <v>20</v>
       </c>
-      <c r="K11" s="15"/>
-      <c r="L11" s="16" t="s">
+      <c r="K25" s="21"/>
+      <c r="L25" s="22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="H26" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="I26" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="J26" s="24" t="n">
+        <v>5</v>
+      </c>
+      <c r="K26" s="21"/>
+      <c r="L26" s="22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="16" t="s">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="D12" s="16" t="s">
+      <c r="C27" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="D27" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="J12" s="18" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K12" s="15"/>
-      <c r="L12" s="16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="16" t="s">
+      <c r="E27" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="H27" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="I27" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" s="24" t="n">
+        <v>5</v>
+      </c>
+      <c r="K27" s="21"/>
+      <c r="L27" s="22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="D13" s="16" t="s">
+      <c r="C28" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="D28" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="I13" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="J13" s="18" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K13" s="15"/>
-      <c r="L13" s="16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="16" t="s">
+      <c r="E28" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="H28" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="I28" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="J28" s="24" t="n">
+        <v>5</v>
+      </c>
+      <c r="K28" s="21"/>
+      <c r="L28" s="22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="D14" s="16" t="s">
+      <c r="C29" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="D29" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="F14" s="16" t="s">
+      <c r="E29" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="G29" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="H29" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="I29" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" s="24" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K29" s="21"/>
+      <c r="L29" s="22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="G30" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="H30" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="I30" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="J30" s="24" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K30" s="21"/>
+      <c r="L30" s="22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="G31" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="H31" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="I31" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="J31" s="24" t="n">
+        <v>15</v>
+      </c>
+      <c r="K31" s="21"/>
+      <c r="L31" s="22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="G32" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="H32" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="I32" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="J32" s="24" t="n">
+        <v>10</v>
+      </c>
+      <c r="K32" s="21"/>
+      <c r="L32" s="22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="G33" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="H33" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="I33" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="J33" s="24" t="n">
+        <v>50</v>
+      </c>
+      <c r="K33" s="21" t="n">
+        <v>100</v>
+      </c>
+      <c r="L33" s="22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="G34" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="H34" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="I34" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="J34" s="24" t="n">
+        <v>50</v>
+      </c>
+      <c r="K34" s="21"/>
+      <c r="L34" s="22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="F35" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="G35" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="H35" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="I35" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="J35" s="26" t="n">
+        <v>60</v>
+      </c>
+      <c r="K35" s="26" t="n">
+        <v>100</v>
+      </c>
+      <c r="L35" s="22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="G36" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="H36" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="I36" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="J36" s="26" t="n">
+        <v>20</v>
+      </c>
+      <c r="K36" s="26"/>
+      <c r="L36" s="22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G37" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="H37" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="G14" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" s="18" t="n">
-        <v>5</v>
-      </c>
-      <c r="K14" s="15"/>
-      <c r="L14" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="I15" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="J15" s="18" t="n">
-        <v>5</v>
-      </c>
-      <c r="K15" s="15"/>
-      <c r="L15" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="I16" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="J16" s="18" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K16" s="15"/>
-      <c r="L16" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="I17" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="J17" s="18" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K17" s="15"/>
-      <c r="L17" s="16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="I18" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="J18" s="18" t="n">
-        <v>15</v>
-      </c>
-      <c r="K18" s="15"/>
-      <c r="L18" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="I19" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="J19" s="18" t="n">
-        <v>10</v>
-      </c>
-      <c r="K19" s="15"/>
-      <c r="L19" s="16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="I20" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="J20" s="15" t="n">
-        <v>50</v>
-      </c>
-      <c r="K20" s="15" t="n">
-        <v>100</v>
-      </c>
-      <c r="L20" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="I21" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="J21" s="15" t="n">
-        <v>50</v>
-      </c>
-      <c r="K21" s="15"/>
-      <c r="L21" s="16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="I22" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="J22" s="21" t="n">
-        <v>50</v>
-      </c>
-      <c r="K22" s="21" t="n">
-        <v>100</v>
-      </c>
-      <c r="L22" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="I23" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="J23" s="18" t="n">
-        <v>50</v>
-      </c>
-      <c r="K23" s="21"/>
-      <c r="L23" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="F24" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="G24" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="H24" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="I24" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="J24" s="25" t="n">
-        <v>25</v>
-      </c>
-      <c r="K24" s="22" t="n">
-        <v>100</v>
-      </c>
-      <c r="L24" s="23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="F25" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="G25" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="H25" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="I25" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="J25" s="25" t="n">
+      <c r="I37" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="J37" s="24" t="n">
         <v>20</v>
       </c>
-      <c r="K25" s="22"/>
-      <c r="L25" s="23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="D26" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="F26" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="G26" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="H26" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="I26" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="J26" s="25" t="n">
-        <v>5</v>
-      </c>
-      <c r="K26" s="22"/>
-      <c r="L26" s="23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="F27" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="G27" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="H27" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="I27" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="J27" s="25" t="n">
-        <v>5</v>
-      </c>
-      <c r="K27" s="22"/>
-      <c r="L27" s="23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="F28" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="G28" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="H28" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="I28" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="J28" s="25" t="n">
-        <v>5</v>
-      </c>
-      <c r="K28" s="22"/>
-      <c r="L28" s="23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="F29" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="G29" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="H29" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="I29" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="J29" s="25" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K29" s="22"/>
-      <c r="L29" s="23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="F30" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="G30" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="H30" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="I30" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="J30" s="25" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K30" s="22"/>
-      <c r="L30" s="23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="D31" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="F31" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="G31" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="H31" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="I31" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="J31" s="25" t="n">
-        <v>15</v>
-      </c>
-      <c r="K31" s="22"/>
-      <c r="L31" s="23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="D32" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="F32" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="G32" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="H32" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="I32" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="J32" s="25" t="n">
-        <v>10</v>
-      </c>
-      <c r="K32" s="22"/>
-      <c r="L32" s="23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="D33" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="E33" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="F33" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="G33" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="H33" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="I33" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="J33" s="25" t="n">
-        <v>50</v>
-      </c>
-      <c r="K33" s="22" t="n">
-        <v>100</v>
-      </c>
-      <c r="L33" s="23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="D34" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="E34" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="F34" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="G34" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="H34" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="I34" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="J34" s="25" t="n">
-        <v>50</v>
-      </c>
-      <c r="K34" s="22"/>
-      <c r="L34" s="23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="D35" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="F35" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="G35" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="H35" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="I35" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="J35" s="27" t="n">
-        <v>60</v>
-      </c>
-      <c r="K35" s="27" t="n">
-        <v>100</v>
-      </c>
-      <c r="L35" s="23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="D36" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="E36" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="F36" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="G36" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="H36" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="I36" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="J36" s="27" t="n">
-        <v>20</v>
-      </c>
-      <c r="K36" s="27"/>
-      <c r="L36" s="23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="D37" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="E37" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="F37" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="G37" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="H37" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="I37" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="J37" s="25" t="n">
-        <v>20</v>
-      </c>
-      <c r="K37" s="27"/>
-      <c r="L37" s="23" t="s">
+      <c r="K37" s="26"/>
+      <c r="L37" s="22" t="s">
         <v>21</v>
       </c>
     </row>

--- a/Projects/MARSUAE/Data/Template.xlsx
+++ b/Projects/MARSUAE/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="KPI" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,14 +24,17 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPI!$A$1:$H$37</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPI!$A$1:$H$37</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$H$37</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$H$37</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">SOS!$A$1:$K$13</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">SOS!$A$1:$K$13</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">SOS!$A$1:$K$13</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">SOS!$A$1:$K$13</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">SOS!$A$1:$K$13</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">SOS!$A$1:$K$13</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Distribution!$A$1:$J$19</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">Distribution!$A$1:$J$19</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Distribution!$A$1:$J$19</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Distribution!$A$1:$J$19</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -43,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="181">
   <si>
     <t xml:space="preserve">Channel</t>
   </si>
@@ -237,6 +240,9 @@
     <t xml:space="preserve">All Chocolate SKUs</t>
   </si>
   <si>
+    <t xml:space="preserve">Display SOS</t>
+  </si>
+  <si>
     <t xml:space="preserve">Scondary Display</t>
   </si>
   <si>
@@ -253,9 +259,6 @@
   </si>
   <si>
     <t xml:space="preserve">14 slots (Basket SKUs)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Display linear SOS</t>
   </si>
   <si>
     <t xml:space="preserve">with weight</t>
@@ -344,9 +347,6 @@
   </si>
   <si>
     <t xml:space="preserve">POSM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCENE RECOGNITION</t>
   </si>
   <si>
     <t xml:space="preserve">Hanging Strip Choc</t>
@@ -603,7 +603,7 @@
     <numFmt numFmtId="167" formatCode="@"/>
     <numFmt numFmtId="168" formatCode="0"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -661,10 +661,20 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -756,7 +766,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -881,11 +891,19 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1038,18 +1056,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.3622448979592"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="41.3061224489796"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="23.8928571428571"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="1019" min="10" style="1" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="1020" min="1020" style="2" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="1025" min="1021" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="40.765306122449"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="23.4897959183673"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1019" min="10" style="1" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1020" min="1020" style="2" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="1021" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2020,14 +2038,14 @@
   <dimension ref="1:13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.4438775510204"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="30.5"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.530612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.9030612244898"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="34.8163265306122"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.0204081632653"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="24.3265306122449"/>
@@ -2195,11 +2213,11 @@
       <c r="B5" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>54</v>
+      <c r="C5" s="31" t="s">
+        <v>64</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E5" s="30" t="n">
         <v>0.5</v>
@@ -2229,13 +2247,13 @@
         <v>54</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E6" s="30" t="n">
         <v>0.4</v>
       </c>
       <c r="F6" s="30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
@@ -2259,7 +2277,7 @@
         <v>54</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E7" s="30" t="n">
         <v>0.7</v>
@@ -2291,13 +2309,13 @@
       <c r="D8" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="31" t="n">
+      <c r="E8" s="32" t="n">
         <v>0.4</v>
       </c>
-      <c r="F8" s="31" t="n">
+      <c r="F8" s="32" t="n">
         <v>0.45</v>
       </c>
-      <c r="G8" s="31"/>
+      <c r="G8" s="32"/>
       <c r="H8" s="25"/>
       <c r="I8" s="25"/>
       <c r="J8" s="25"/>
@@ -2319,21 +2337,21 @@
         <v>54</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" s="31" t="n">
+        <v>69</v>
+      </c>
+      <c r="E9" s="32" t="n">
         <v>0.8</v>
       </c>
-      <c r="F9" s="31" t="n">
+      <c r="F9" s="32" t="n">
         <v>0.8</v>
       </c>
-      <c r="G9" s="31" t="s">
-        <v>69</v>
+      <c r="G9" s="32" t="s">
+        <v>70</v>
       </c>
       <c r="H9" s="25"/>
       <c r="I9" s="25"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
       <c r="L9" s="24" t="n">
         <v>5</v>
       </c>
@@ -2351,15 +2369,15 @@
         <v>54</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" s="31" t="n">
+        <v>69</v>
+      </c>
+      <c r="E10" s="32" t="n">
         <v>0.45</v>
       </c>
-      <c r="F10" s="31" t="n">
+      <c r="F10" s="32" t="n">
         <v>0.55</v>
       </c>
-      <c r="G10" s="31"/>
+      <c r="G10" s="32"/>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
@@ -2378,20 +2396,24 @@
         <v>32</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="31" t="n">
+        <v>64</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="32" t="n">
         <v>0.5</v>
       </c>
-      <c r="F11" s="31" t="n">
+      <c r="F11" s="32" t="n">
         <v>0.5</v>
       </c>
-      <c r="G11" s="31"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>57</v>
+      </c>
       <c r="J11" s="25"/>
       <c r="K11" s="25"/>
       <c r="L11" s="24" t="n">
@@ -2415,12 +2437,12 @@
         <v>54</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="31" t="n">
+        <v>66</v>
+      </c>
+      <c r="E12" s="32" t="n">
         <v>0.4</v>
       </c>
-      <c r="F12" s="31" t="n">
+      <c r="F12" s="32" t="n">
         <v>0.45</v>
       </c>
       <c r="G12" s="25"/>
@@ -2446,12 +2468,12 @@
         <v>54</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" s="33" t="n">
+        <v>68</v>
+      </c>
+      <c r="E13" s="35" t="n">
         <v>0.7</v>
       </c>
-      <c r="F13" s="33" t="n">
+      <c r="F13" s="35" t="n">
         <v>0.8</v>
       </c>
       <c r="G13" s="23"/>
@@ -2483,23 +2505,24 @@
   </sheetPr>
   <dimension ref="1:19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D35" activeCellId="0" sqref="D35"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.4642857142857"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="65.0663265306122"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="26.0510204081633"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="34.0204081632653"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="34" width="23.219387755102"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="23.4897959183673"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="26.8622448979592"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="1023" min="11" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.1938775510204"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="64.2551020408163"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="25.6479591836735"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="33.6122448979592"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="36" width="22.9489795918367"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="23.0816326530612"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="26.4591836734694"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1023" min="11" style="1" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2545,7 +2568,7 @@
       <c r="C2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="37" t="s">
         <v>77</v>
       </c>
       <c r="E2" s="13"/>
@@ -3586,11 +3609,11 @@
       <c r="C3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="37" t="s">
         <v>78</v>
       </c>
       <c r="E3" s="13"/>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="38" t="s">
         <v>79</v>
       </c>
       <c r="G3" s="29" t="n">
@@ -4627,7 +4650,7 @@
       <c r="C4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="37" t="s">
         <v>77</v>
       </c>
       <c r="E4" s="13"/>
@@ -5668,15 +5691,15 @@
       <c r="C5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="39" t="s">
         <v>81</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
       <c r="I5" s="13" t="n">
         <v>1</v>
       </c>
@@ -5694,7 +5717,7 @@
       <c r="C6" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="41" t="s">
         <v>83</v>
       </c>
       <c r="E6" s="18"/>
@@ -5722,7 +5745,7 @@
       <c r="C7" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="41" t="s">
         <v>84</v>
       </c>
       <c r="E7" s="18"/>
@@ -5750,7 +5773,7 @@
       <c r="C8" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="41" t="s">
         <v>85</v>
       </c>
       <c r="E8" s="18"/>
@@ -5778,7 +5801,7 @@
       <c r="C9" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="41" t="s">
         <v>85</v>
       </c>
       <c r="E9" s="18"/>
@@ -5804,12 +5827,12 @@
       <c r="C10" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="41" t="s">
         <v>87</v>
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G10" s="30" t="n">
         <v>0.8</v>
@@ -5832,12 +5855,12 @@
       <c r="C11" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="D11" s="41" t="s">
         <v>88</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G11" s="30" t="n">
         <v>1</v>
@@ -5860,7 +5883,7 @@
       <c r="C12" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="D12" s="41" t="s">
         <v>77</v>
       </c>
       <c r="E12" s="18"/>
@@ -5888,17 +5911,17 @@
       <c r="C13" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="40" t="s">
+      <c r="D13" s="42" t="s">
         <v>90</v>
       </c>
       <c r="E13" s="25"/>
       <c r="F13" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="31" t="n">
+      <c r="G13" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="H13" s="31" t="n">
+      <c r="H13" s="32" t="n">
         <v>1</v>
       </c>
       <c r="I13" s="23"/>
@@ -5916,17 +5939,17 @@
       <c r="C14" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="40" t="s">
+      <c r="D14" s="42" t="s">
         <v>91</v>
       </c>
       <c r="E14" s="25"/>
       <c r="F14" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="G14" s="31" t="n">
+      <c r="G14" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="H14" s="31" t="n">
+      <c r="H14" s="32" t="n">
         <v>1</v>
       </c>
       <c r="I14" s="23"/>
@@ -5944,17 +5967,17 @@
       <c r="C15" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="40" t="s">
+      <c r="D15" s="42" t="s">
         <v>78</v>
       </c>
       <c r="E15" s="25"/>
       <c r="F15" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="G15" s="31" t="n">
+      <c r="G15" s="32" t="n">
         <v>0.8</v>
       </c>
-      <c r="H15" s="31" t="n">
+      <c r="H15" s="32" t="n">
         <v>0.8</v>
       </c>
       <c r="I15" s="23"/>
@@ -5972,17 +5995,17 @@
       <c r="C16" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="40" t="s">
+      <c r="D16" s="42" t="s">
         <v>78</v>
       </c>
       <c r="E16" s="25"/>
       <c r="F16" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="31" t="n">
+      <c r="G16" s="32" t="n">
         <v>0.8</v>
       </c>
-      <c r="H16" s="31" t="n">
+      <c r="H16" s="32" t="n">
         <v>0.9</v>
       </c>
       <c r="I16" s="23"/>
@@ -6000,15 +6023,15 @@
       <c r="C17" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="40" t="s">
+      <c r="D17" s="42" t="s">
         <v>87</v>
       </c>
       <c r="E17" s="25"/>
       <c r="F17" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
       <c r="I17" s="23" t="n">
         <v>2</v>
       </c>
@@ -6026,17 +6049,17 @@
       <c r="C18" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="40" t="s">
+      <c r="D18" s="42" t="s">
         <v>92</v>
       </c>
       <c r="E18" s="25"/>
       <c r="F18" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="G18" s="31" t="n">
+        <v>66</v>
+      </c>
+      <c r="G18" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="H18" s="31" t="n">
+      <c r="H18" s="32" t="n">
         <v>1</v>
       </c>
       <c r="I18" s="23"/>
@@ -6054,17 +6077,17 @@
       <c r="C19" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="40" t="s">
+      <c r="D19" s="42" t="s">
         <v>77</v>
       </c>
       <c r="E19" s="25"/>
       <c r="F19" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="G19" s="31" t="n">
+      <c r="G19" s="32" t="n">
         <v>0.8</v>
       </c>
-      <c r="H19" s="31" t="n">
+      <c r="H19" s="32" t="n">
         <v>0.8</v>
       </c>
       <c r="I19" s="23"/>
@@ -6090,1069 +6113,70 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMC7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F31" activeCellId="0" sqref="F31"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="34.5561224489796"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="23.7602040816327"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="14.4438775510204"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="35.4387755102041"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="24.4795918367347"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.984693877551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="21.0612244897959"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="11.0510204081633"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="2" width="14.2908163265306"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="2" width="21.5459183673469"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="38.8775510204082"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="20.6530612244898"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="24.1632653061224"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="1013" min="13" style="2" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="39.9234693877551"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="21.2397959183673"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="21.5459183673469"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="24.7857142857143"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="9.35204081632653"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="18.1530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="2" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="J1" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="K1" s="43" t="s">
         <v>76</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="N1" s="0"/>
-      <c r="O1" s="0"/>
-      <c r="P1" s="0"/>
-      <c r="Q1" s="0"/>
-      <c r="R1" s="0"/>
-      <c r="S1" s="0"/>
-      <c r="T1" s="0"/>
-      <c r="U1" s="0"/>
-      <c r="V1" s="0"/>
-      <c r="W1" s="0"/>
-      <c r="X1" s="0"/>
-      <c r="Y1" s="0"/>
-      <c r="Z1" s="0"/>
-      <c r="AA1" s="0"/>
-      <c r="AB1" s="0"/>
-      <c r="AC1" s="0"/>
-      <c r="AD1" s="0"/>
-      <c r="AE1" s="0"/>
-      <c r="AF1" s="0"/>
-      <c r="AG1" s="0"/>
-      <c r="AH1" s="0"/>
-      <c r="AI1" s="0"/>
-      <c r="AJ1" s="0"/>
-      <c r="AK1" s="0"/>
-      <c r="AL1" s="0"/>
-      <c r="AM1" s="0"/>
-      <c r="AN1" s="0"/>
-      <c r="AO1" s="0"/>
-      <c r="AP1" s="0"/>
-      <c r="AQ1" s="0"/>
-      <c r="AR1" s="0"/>
-      <c r="AS1" s="0"/>
-      <c r="AT1" s="0"/>
-      <c r="AU1" s="0"/>
-      <c r="AV1" s="0"/>
-      <c r="AW1" s="0"/>
-      <c r="AX1" s="0"/>
-      <c r="AY1" s="0"/>
-      <c r="AZ1" s="0"/>
-      <c r="BA1" s="0"/>
-      <c r="BB1" s="0"/>
-      <c r="BC1" s="0"/>
-      <c r="BD1" s="0"/>
-      <c r="BE1" s="0"/>
-      <c r="BF1" s="0"/>
-      <c r="BG1" s="0"/>
-      <c r="BH1" s="0"/>
-      <c r="BI1" s="0"/>
-      <c r="BJ1" s="0"/>
-      <c r="BK1" s="0"/>
-      <c r="BL1" s="0"/>
-      <c r="BM1" s="0"/>
-      <c r="BN1" s="0"/>
-      <c r="BO1" s="0"/>
-      <c r="BP1" s="0"/>
-      <c r="BQ1" s="0"/>
-      <c r="BR1" s="0"/>
-      <c r="BS1" s="0"/>
-      <c r="BT1" s="0"/>
-      <c r="BU1" s="0"/>
-      <c r="BV1" s="0"/>
-      <c r="BW1" s="0"/>
-      <c r="BX1" s="0"/>
-      <c r="BY1" s="0"/>
-      <c r="BZ1" s="0"/>
-      <c r="CA1" s="0"/>
-      <c r="CB1" s="0"/>
-      <c r="CC1" s="0"/>
-      <c r="CD1" s="0"/>
-      <c r="CE1" s="0"/>
-      <c r="CF1" s="0"/>
-      <c r="CG1" s="0"/>
-      <c r="CH1" s="0"/>
-      <c r="CI1" s="0"/>
-      <c r="CJ1" s="0"/>
-      <c r="CK1" s="0"/>
-      <c r="CL1" s="0"/>
-      <c r="CM1" s="0"/>
-      <c r="CN1" s="0"/>
-      <c r="CO1" s="0"/>
-      <c r="CP1" s="0"/>
-      <c r="CQ1" s="0"/>
-      <c r="CR1" s="0"/>
-      <c r="CS1" s="0"/>
-      <c r="CT1" s="0"/>
-      <c r="CU1" s="0"/>
-      <c r="CV1" s="0"/>
-      <c r="CW1" s="0"/>
-      <c r="CX1" s="0"/>
-      <c r="CY1" s="0"/>
-      <c r="CZ1" s="0"/>
-      <c r="DA1" s="0"/>
-      <c r="DB1" s="0"/>
-      <c r="DC1" s="0"/>
-      <c r="DD1" s="0"/>
-      <c r="DE1" s="0"/>
-      <c r="DF1" s="0"/>
-      <c r="DG1" s="0"/>
-      <c r="DH1" s="0"/>
-      <c r="DI1" s="0"/>
-      <c r="DJ1" s="0"/>
-      <c r="DK1" s="0"/>
-      <c r="DL1" s="0"/>
-      <c r="DM1" s="0"/>
-      <c r="DN1" s="0"/>
-      <c r="DO1" s="0"/>
-      <c r="DP1" s="0"/>
-      <c r="DQ1" s="0"/>
-      <c r="DR1" s="0"/>
-      <c r="DS1" s="0"/>
-      <c r="DT1" s="0"/>
-      <c r="DU1" s="0"/>
-      <c r="DV1" s="0"/>
-      <c r="DW1" s="0"/>
-      <c r="DX1" s="0"/>
-      <c r="DY1" s="0"/>
-      <c r="DZ1" s="0"/>
-      <c r="EA1" s="0"/>
-      <c r="EB1" s="0"/>
-      <c r="EC1" s="0"/>
-      <c r="ED1" s="0"/>
-      <c r="EE1" s="0"/>
-      <c r="EF1" s="0"/>
-      <c r="EG1" s="0"/>
-      <c r="EH1" s="0"/>
-      <c r="EI1" s="0"/>
-      <c r="EJ1" s="0"/>
-      <c r="EK1" s="0"/>
-      <c r="EL1" s="0"/>
-      <c r="EM1" s="0"/>
-      <c r="EN1" s="0"/>
-      <c r="EO1" s="0"/>
-      <c r="EP1" s="0"/>
-      <c r="EQ1" s="0"/>
-      <c r="ER1" s="0"/>
-      <c r="ES1" s="0"/>
-      <c r="ET1" s="0"/>
-      <c r="EU1" s="0"/>
-      <c r="EV1" s="0"/>
-      <c r="EW1" s="0"/>
-      <c r="EX1" s="0"/>
-      <c r="EY1" s="0"/>
-      <c r="EZ1" s="0"/>
-      <c r="FA1" s="0"/>
-      <c r="FB1" s="0"/>
-      <c r="FC1" s="0"/>
-      <c r="FD1" s="0"/>
-      <c r="FE1" s="0"/>
-      <c r="FF1" s="0"/>
-      <c r="FG1" s="0"/>
-      <c r="FH1" s="0"/>
-      <c r="FI1" s="0"/>
-      <c r="FJ1" s="0"/>
-      <c r="FK1" s="0"/>
-      <c r="FL1" s="0"/>
-      <c r="FM1" s="0"/>
-      <c r="FN1" s="0"/>
-      <c r="FO1" s="0"/>
-      <c r="FP1" s="0"/>
-      <c r="FQ1" s="0"/>
-      <c r="FR1" s="0"/>
-      <c r="FS1" s="0"/>
-      <c r="FT1" s="0"/>
-      <c r="FU1" s="0"/>
-      <c r="FV1" s="0"/>
-      <c r="FW1" s="0"/>
-      <c r="FX1" s="0"/>
-      <c r="FY1" s="0"/>
-      <c r="FZ1" s="0"/>
-      <c r="GA1" s="0"/>
-      <c r="GB1" s="0"/>
-      <c r="GC1" s="0"/>
-      <c r="GD1" s="0"/>
-      <c r="GE1" s="0"/>
-      <c r="GF1" s="0"/>
-      <c r="GG1" s="0"/>
-      <c r="GH1" s="0"/>
-      <c r="GI1" s="0"/>
-      <c r="GJ1" s="0"/>
-      <c r="GK1" s="0"/>
-      <c r="GL1" s="0"/>
-      <c r="GM1" s="0"/>
-      <c r="GN1" s="0"/>
-      <c r="GO1" s="0"/>
-      <c r="GP1" s="0"/>
-      <c r="GQ1" s="0"/>
-      <c r="GR1" s="0"/>
-      <c r="GS1" s="0"/>
-      <c r="GT1" s="0"/>
-      <c r="GU1" s="0"/>
-      <c r="GV1" s="0"/>
-      <c r="GW1" s="0"/>
-      <c r="GX1" s="0"/>
-      <c r="GY1" s="0"/>
-      <c r="GZ1" s="0"/>
-      <c r="HA1" s="0"/>
-      <c r="HB1" s="0"/>
-      <c r="HC1" s="0"/>
-      <c r="HD1" s="0"/>
-      <c r="HE1" s="0"/>
-      <c r="HF1" s="0"/>
-      <c r="HG1" s="0"/>
-      <c r="HH1" s="0"/>
-      <c r="HI1" s="0"/>
-      <c r="HJ1" s="0"/>
-      <c r="HK1" s="0"/>
-      <c r="HL1" s="0"/>
-      <c r="HM1" s="0"/>
-      <c r="HN1" s="0"/>
-      <c r="HO1" s="0"/>
-      <c r="HP1" s="0"/>
-      <c r="HQ1" s="0"/>
-      <c r="HR1" s="0"/>
-      <c r="HS1" s="0"/>
-      <c r="HT1" s="0"/>
-      <c r="HU1" s="0"/>
-      <c r="HV1" s="0"/>
-      <c r="HW1" s="0"/>
-      <c r="HX1" s="0"/>
-      <c r="HY1" s="0"/>
-      <c r="HZ1" s="0"/>
-      <c r="IA1" s="0"/>
-      <c r="IB1" s="0"/>
-      <c r="IC1" s="0"/>
-      <c r="ID1" s="0"/>
-      <c r="IE1" s="0"/>
-      <c r="IF1" s="0"/>
-      <c r="IG1" s="0"/>
-      <c r="IH1" s="0"/>
-      <c r="II1" s="0"/>
-      <c r="IJ1" s="0"/>
-      <c r="IK1" s="0"/>
-      <c r="IL1" s="0"/>
-      <c r="IM1" s="0"/>
-      <c r="IN1" s="0"/>
-      <c r="IO1" s="0"/>
-      <c r="IP1" s="0"/>
-      <c r="IQ1" s="0"/>
-      <c r="IR1" s="0"/>
-      <c r="IS1" s="0"/>
-      <c r="IT1" s="0"/>
-      <c r="IU1" s="0"/>
-      <c r="IV1" s="0"/>
-      <c r="IW1" s="0"/>
-      <c r="IX1" s="0"/>
-      <c r="IY1" s="0"/>
-      <c r="IZ1" s="0"/>
-      <c r="JA1" s="0"/>
-      <c r="JB1" s="0"/>
-      <c r="JC1" s="0"/>
-      <c r="JD1" s="0"/>
-      <c r="JE1" s="0"/>
-      <c r="JF1" s="0"/>
-      <c r="JG1" s="0"/>
-      <c r="JH1" s="0"/>
-      <c r="JI1" s="0"/>
-      <c r="JJ1" s="0"/>
-      <c r="JK1" s="0"/>
-      <c r="JL1" s="0"/>
-      <c r="JM1" s="0"/>
-      <c r="JN1" s="0"/>
-      <c r="JO1" s="0"/>
-      <c r="JP1" s="0"/>
-      <c r="JQ1" s="0"/>
-      <c r="JR1" s="0"/>
-      <c r="JS1" s="0"/>
-      <c r="JT1" s="0"/>
-      <c r="JU1" s="0"/>
-      <c r="JV1" s="0"/>
-      <c r="JW1" s="0"/>
-      <c r="JX1" s="0"/>
-      <c r="JY1" s="0"/>
-      <c r="JZ1" s="0"/>
-      <c r="KA1" s="0"/>
-      <c r="KB1" s="0"/>
-      <c r="KC1" s="0"/>
-      <c r="KD1" s="0"/>
-      <c r="KE1" s="0"/>
-      <c r="KF1" s="0"/>
-      <c r="KG1" s="0"/>
-      <c r="KH1" s="0"/>
-      <c r="KI1" s="0"/>
-      <c r="KJ1" s="0"/>
-      <c r="KK1" s="0"/>
-      <c r="KL1" s="0"/>
-      <c r="KM1" s="0"/>
-      <c r="KN1" s="0"/>
-      <c r="KO1" s="0"/>
-      <c r="KP1" s="0"/>
-      <c r="KQ1" s="0"/>
-      <c r="KR1" s="0"/>
-      <c r="KS1" s="0"/>
-      <c r="KT1" s="0"/>
-      <c r="KU1" s="0"/>
-      <c r="KV1" s="0"/>
-      <c r="KW1" s="0"/>
-      <c r="KX1" s="0"/>
-      <c r="KY1" s="0"/>
-      <c r="KZ1" s="0"/>
-      <c r="LA1" s="0"/>
-      <c r="LB1" s="0"/>
-      <c r="LC1" s="0"/>
-      <c r="LD1" s="0"/>
-      <c r="LE1" s="0"/>
-      <c r="LF1" s="0"/>
-      <c r="LG1" s="0"/>
-      <c r="LH1" s="0"/>
-      <c r="LI1" s="0"/>
-      <c r="LJ1" s="0"/>
-      <c r="LK1" s="0"/>
-      <c r="LL1" s="0"/>
-      <c r="LM1" s="0"/>
-      <c r="LN1" s="0"/>
-      <c r="LO1" s="0"/>
-      <c r="LP1" s="0"/>
-      <c r="LQ1" s="0"/>
-      <c r="LR1" s="0"/>
-      <c r="LS1" s="0"/>
-      <c r="LT1" s="0"/>
-      <c r="LU1" s="0"/>
-      <c r="LV1" s="0"/>
-      <c r="LW1" s="0"/>
-      <c r="LX1" s="0"/>
-      <c r="LY1" s="0"/>
-      <c r="LZ1" s="0"/>
-      <c r="MA1" s="0"/>
-      <c r="MB1" s="0"/>
-      <c r="MC1" s="0"/>
-      <c r="MD1" s="0"/>
-      <c r="ME1" s="0"/>
-      <c r="MF1" s="0"/>
-      <c r="MG1" s="0"/>
-      <c r="MH1" s="0"/>
-      <c r="MI1" s="0"/>
-      <c r="MJ1" s="0"/>
-      <c r="MK1" s="0"/>
-      <c r="ML1" s="0"/>
-      <c r="MM1" s="0"/>
-      <c r="MN1" s="0"/>
-      <c r="MO1" s="0"/>
-      <c r="MP1" s="0"/>
-      <c r="MQ1" s="0"/>
-      <c r="MR1" s="0"/>
-      <c r="MS1" s="0"/>
-      <c r="MT1" s="0"/>
-      <c r="MU1" s="0"/>
-      <c r="MV1" s="0"/>
-      <c r="MW1" s="0"/>
-      <c r="MX1" s="0"/>
-      <c r="MY1" s="0"/>
-      <c r="MZ1" s="0"/>
-      <c r="NA1" s="0"/>
-      <c r="NB1" s="0"/>
-      <c r="NC1" s="0"/>
-      <c r="ND1" s="0"/>
-      <c r="NE1" s="0"/>
-      <c r="NF1" s="0"/>
-      <c r="NG1" s="0"/>
-      <c r="NH1" s="0"/>
-      <c r="NI1" s="0"/>
-      <c r="NJ1" s="0"/>
-      <c r="NK1" s="0"/>
-      <c r="NL1" s="0"/>
-      <c r="NM1" s="0"/>
-      <c r="NN1" s="0"/>
-      <c r="NO1" s="0"/>
-      <c r="NP1" s="0"/>
-      <c r="NQ1" s="0"/>
-      <c r="NR1" s="0"/>
-      <c r="NS1" s="0"/>
-      <c r="NT1" s="0"/>
-      <c r="NU1" s="0"/>
-      <c r="NV1" s="0"/>
-      <c r="NW1" s="0"/>
-      <c r="NX1" s="0"/>
-      <c r="NY1" s="0"/>
-      <c r="NZ1" s="0"/>
-      <c r="OA1" s="0"/>
-      <c r="OB1" s="0"/>
-      <c r="OC1" s="0"/>
-      <c r="OD1" s="0"/>
-      <c r="OE1" s="0"/>
-      <c r="OF1" s="0"/>
-      <c r="OG1" s="0"/>
-      <c r="OH1" s="0"/>
-      <c r="OI1" s="0"/>
-      <c r="OJ1" s="0"/>
-      <c r="OK1" s="0"/>
-      <c r="OL1" s="0"/>
-      <c r="OM1" s="0"/>
-      <c r="ON1" s="0"/>
-      <c r="OO1" s="0"/>
-      <c r="OP1" s="0"/>
-      <c r="OQ1" s="0"/>
-      <c r="OR1" s="0"/>
-      <c r="OS1" s="0"/>
-      <c r="OT1" s="0"/>
-      <c r="OU1" s="0"/>
-      <c r="OV1" s="0"/>
-      <c r="OW1" s="0"/>
-      <c r="OX1" s="0"/>
-      <c r="OY1" s="0"/>
-      <c r="OZ1" s="0"/>
-      <c r="PA1" s="0"/>
-      <c r="PB1" s="0"/>
-      <c r="PC1" s="0"/>
-      <c r="PD1" s="0"/>
-      <c r="PE1" s="0"/>
-      <c r="PF1" s="0"/>
-      <c r="PG1" s="0"/>
-      <c r="PH1" s="0"/>
-      <c r="PI1" s="0"/>
-      <c r="PJ1" s="0"/>
-      <c r="PK1" s="0"/>
-      <c r="PL1" s="0"/>
-      <c r="PM1" s="0"/>
-      <c r="PN1" s="0"/>
-      <c r="PO1" s="0"/>
-      <c r="PP1" s="0"/>
-      <c r="PQ1" s="0"/>
-      <c r="PR1" s="0"/>
-      <c r="PS1" s="0"/>
-      <c r="PT1" s="0"/>
-      <c r="PU1" s="0"/>
-      <c r="PV1" s="0"/>
-      <c r="PW1" s="0"/>
-      <c r="PX1" s="0"/>
-      <c r="PY1" s="0"/>
-      <c r="PZ1" s="0"/>
-      <c r="QA1" s="0"/>
-      <c r="QB1" s="0"/>
-      <c r="QC1" s="0"/>
-      <c r="QD1" s="0"/>
-      <c r="QE1" s="0"/>
-      <c r="QF1" s="0"/>
-      <c r="QG1" s="0"/>
-      <c r="QH1" s="0"/>
-      <c r="QI1" s="0"/>
-      <c r="QJ1" s="0"/>
-      <c r="QK1" s="0"/>
-      <c r="QL1" s="0"/>
-      <c r="QM1" s="0"/>
-      <c r="QN1" s="0"/>
-      <c r="QO1" s="0"/>
-      <c r="QP1" s="0"/>
-      <c r="QQ1" s="0"/>
-      <c r="QR1" s="0"/>
-      <c r="QS1" s="0"/>
-      <c r="QT1" s="0"/>
-      <c r="QU1" s="0"/>
-      <c r="QV1" s="0"/>
-      <c r="QW1" s="0"/>
-      <c r="QX1" s="0"/>
-      <c r="QY1" s="0"/>
-      <c r="QZ1" s="0"/>
-      <c r="RA1" s="0"/>
-      <c r="RB1" s="0"/>
-      <c r="RC1" s="0"/>
-      <c r="RD1" s="0"/>
-      <c r="RE1" s="0"/>
-      <c r="RF1" s="0"/>
-      <c r="RG1" s="0"/>
-      <c r="RH1" s="0"/>
-      <c r="RI1" s="0"/>
-      <c r="RJ1" s="0"/>
-      <c r="RK1" s="0"/>
-      <c r="RL1" s="0"/>
-      <c r="RM1" s="0"/>
-      <c r="RN1" s="0"/>
-      <c r="RO1" s="0"/>
-      <c r="RP1" s="0"/>
-      <c r="RQ1" s="0"/>
-      <c r="RR1" s="0"/>
-      <c r="RS1" s="0"/>
-      <c r="RT1" s="0"/>
-      <c r="RU1" s="0"/>
-      <c r="RV1" s="0"/>
-      <c r="RW1" s="0"/>
-      <c r="RX1" s="0"/>
-      <c r="RY1" s="0"/>
-      <c r="RZ1" s="0"/>
-      <c r="SA1" s="0"/>
-      <c r="SB1" s="0"/>
-      <c r="SC1" s="0"/>
-      <c r="SD1" s="0"/>
-      <c r="SE1" s="0"/>
-      <c r="SF1" s="0"/>
-      <c r="SG1" s="0"/>
-      <c r="SH1" s="0"/>
-      <c r="SI1" s="0"/>
-      <c r="SJ1" s="0"/>
-      <c r="SK1" s="0"/>
-      <c r="SL1" s="0"/>
-      <c r="SM1" s="0"/>
-      <c r="SN1" s="0"/>
-      <c r="SO1" s="0"/>
-      <c r="SP1" s="0"/>
-      <c r="SQ1" s="0"/>
-      <c r="SR1" s="0"/>
-      <c r="SS1" s="0"/>
-      <c r="ST1" s="0"/>
-      <c r="SU1" s="0"/>
-      <c r="SV1" s="0"/>
-      <c r="SW1" s="0"/>
-      <c r="SX1" s="0"/>
-      <c r="SY1" s="0"/>
-      <c r="SZ1" s="0"/>
-      <c r="TA1" s="0"/>
-      <c r="TB1" s="0"/>
-      <c r="TC1" s="0"/>
-      <c r="TD1" s="0"/>
-      <c r="TE1" s="0"/>
-      <c r="TF1" s="0"/>
-      <c r="TG1" s="0"/>
-      <c r="TH1" s="0"/>
-      <c r="TI1" s="0"/>
-      <c r="TJ1" s="0"/>
-      <c r="TK1" s="0"/>
-      <c r="TL1" s="0"/>
-      <c r="TM1" s="0"/>
-      <c r="TN1" s="0"/>
-      <c r="TO1" s="0"/>
-      <c r="TP1" s="0"/>
-      <c r="TQ1" s="0"/>
-      <c r="TR1" s="0"/>
-      <c r="TS1" s="0"/>
-      <c r="TT1" s="0"/>
-      <c r="TU1" s="0"/>
-      <c r="TV1" s="0"/>
-      <c r="TW1" s="0"/>
-      <c r="TX1" s="0"/>
-      <c r="TY1" s="0"/>
-      <c r="TZ1" s="0"/>
-      <c r="UA1" s="0"/>
-      <c r="UB1" s="0"/>
-      <c r="UC1" s="0"/>
-      <c r="UD1" s="0"/>
-      <c r="UE1" s="0"/>
-      <c r="UF1" s="0"/>
-      <c r="UG1" s="0"/>
-      <c r="UH1" s="0"/>
-      <c r="UI1" s="0"/>
-      <c r="UJ1" s="0"/>
-      <c r="UK1" s="0"/>
-      <c r="UL1" s="0"/>
-      <c r="UM1" s="0"/>
-      <c r="UN1" s="0"/>
-      <c r="UO1" s="0"/>
-      <c r="UP1" s="0"/>
-      <c r="UQ1" s="0"/>
-      <c r="UR1" s="0"/>
-      <c r="US1" s="0"/>
-      <c r="UT1" s="0"/>
-      <c r="UU1" s="0"/>
-      <c r="UV1" s="0"/>
-      <c r="UW1" s="0"/>
-      <c r="UX1" s="0"/>
-      <c r="UY1" s="0"/>
-      <c r="UZ1" s="0"/>
-      <c r="VA1" s="0"/>
-      <c r="VB1" s="0"/>
-      <c r="VC1" s="0"/>
-      <c r="VD1" s="0"/>
-      <c r="VE1" s="0"/>
-      <c r="VF1" s="0"/>
-      <c r="VG1" s="0"/>
-      <c r="VH1" s="0"/>
-      <c r="VI1" s="0"/>
-      <c r="VJ1" s="0"/>
-      <c r="VK1" s="0"/>
-      <c r="VL1" s="0"/>
-      <c r="VM1" s="0"/>
-      <c r="VN1" s="0"/>
-      <c r="VO1" s="0"/>
-      <c r="VP1" s="0"/>
-      <c r="VQ1" s="0"/>
-      <c r="VR1" s="0"/>
-      <c r="VS1" s="0"/>
-      <c r="VT1" s="0"/>
-      <c r="VU1" s="0"/>
-      <c r="VV1" s="0"/>
-      <c r="VW1" s="0"/>
-      <c r="VX1" s="0"/>
-      <c r="VY1" s="0"/>
-      <c r="VZ1" s="0"/>
-      <c r="WA1" s="0"/>
-      <c r="WB1" s="0"/>
-      <c r="WC1" s="0"/>
-      <c r="WD1" s="0"/>
-      <c r="WE1" s="0"/>
-      <c r="WF1" s="0"/>
-      <c r="WG1" s="0"/>
-      <c r="WH1" s="0"/>
-      <c r="WI1" s="0"/>
-      <c r="WJ1" s="0"/>
-      <c r="WK1" s="0"/>
-      <c r="WL1" s="0"/>
-      <c r="WM1" s="0"/>
-      <c r="WN1" s="0"/>
-      <c r="WO1" s="0"/>
-      <c r="WP1" s="0"/>
-      <c r="WQ1" s="0"/>
-      <c r="WR1" s="0"/>
-      <c r="WS1" s="0"/>
-      <c r="WT1" s="0"/>
-      <c r="WU1" s="0"/>
-      <c r="WV1" s="0"/>
-      <c r="WW1" s="0"/>
-      <c r="WX1" s="0"/>
-      <c r="WY1" s="0"/>
-      <c r="WZ1" s="0"/>
-      <c r="XA1" s="0"/>
-      <c r="XB1" s="0"/>
-      <c r="XC1" s="0"/>
-      <c r="XD1" s="0"/>
-      <c r="XE1" s="0"/>
-      <c r="XF1" s="0"/>
-      <c r="XG1" s="0"/>
-      <c r="XH1" s="0"/>
-      <c r="XI1" s="0"/>
-      <c r="XJ1" s="0"/>
-      <c r="XK1" s="0"/>
-      <c r="XL1" s="0"/>
-      <c r="XM1" s="0"/>
-      <c r="XN1" s="0"/>
-      <c r="XO1" s="0"/>
-      <c r="XP1" s="0"/>
-      <c r="XQ1" s="0"/>
-      <c r="XR1" s="0"/>
-      <c r="XS1" s="0"/>
-      <c r="XT1" s="0"/>
-      <c r="XU1" s="0"/>
-      <c r="XV1" s="0"/>
-      <c r="XW1" s="0"/>
-      <c r="XX1" s="0"/>
-      <c r="XY1" s="0"/>
-      <c r="XZ1" s="0"/>
-      <c r="YA1" s="0"/>
-      <c r="YB1" s="0"/>
-      <c r="YC1" s="0"/>
-      <c r="YD1" s="0"/>
-      <c r="YE1" s="0"/>
-      <c r="YF1" s="0"/>
-      <c r="YG1" s="0"/>
-      <c r="YH1" s="0"/>
-      <c r="YI1" s="0"/>
-      <c r="YJ1" s="0"/>
-      <c r="YK1" s="0"/>
-      <c r="YL1" s="0"/>
-      <c r="YM1" s="0"/>
-      <c r="YN1" s="0"/>
-      <c r="YO1" s="0"/>
-      <c r="YP1" s="0"/>
-      <c r="YQ1" s="0"/>
-      <c r="YR1" s="0"/>
-      <c r="YS1" s="0"/>
-      <c r="YT1" s="0"/>
-      <c r="YU1" s="0"/>
-      <c r="YV1" s="0"/>
-      <c r="YW1" s="0"/>
-      <c r="YX1" s="0"/>
-      <c r="YY1" s="0"/>
-      <c r="YZ1" s="0"/>
-      <c r="ZA1" s="0"/>
-      <c r="ZB1" s="0"/>
-      <c r="ZC1" s="0"/>
-      <c r="ZD1" s="0"/>
-      <c r="ZE1" s="0"/>
-      <c r="ZF1" s="0"/>
-      <c r="ZG1" s="0"/>
-      <c r="ZH1" s="0"/>
-      <c r="ZI1" s="0"/>
-      <c r="ZJ1" s="0"/>
-      <c r="ZK1" s="0"/>
-      <c r="ZL1" s="0"/>
-      <c r="ZM1" s="0"/>
-      <c r="ZN1" s="0"/>
-      <c r="ZO1" s="0"/>
-      <c r="ZP1" s="0"/>
-      <c r="ZQ1" s="0"/>
-      <c r="ZR1" s="0"/>
-      <c r="ZS1" s="0"/>
-      <c r="ZT1" s="0"/>
-      <c r="ZU1" s="0"/>
-      <c r="ZV1" s="0"/>
-      <c r="ZW1" s="0"/>
-      <c r="ZX1" s="0"/>
-      <c r="ZY1" s="0"/>
-      <c r="ZZ1" s="0"/>
-      <c r="AAA1" s="0"/>
-      <c r="AAB1" s="0"/>
-      <c r="AAC1" s="0"/>
-      <c r="AAD1" s="0"/>
-      <c r="AAE1" s="0"/>
-      <c r="AAF1" s="0"/>
-      <c r="AAG1" s="0"/>
-      <c r="AAH1" s="0"/>
-      <c r="AAI1" s="0"/>
-      <c r="AAJ1" s="0"/>
-      <c r="AAK1" s="0"/>
-      <c r="AAL1" s="0"/>
-      <c r="AAM1" s="0"/>
-      <c r="AAN1" s="0"/>
-      <c r="AAO1" s="0"/>
-      <c r="AAP1" s="0"/>
-      <c r="AAQ1" s="0"/>
-      <c r="AAR1" s="0"/>
-      <c r="AAS1" s="0"/>
-      <c r="AAT1" s="0"/>
-      <c r="AAU1" s="0"/>
-      <c r="AAV1" s="0"/>
-      <c r="AAW1" s="0"/>
-      <c r="AAX1" s="0"/>
-      <c r="AAY1" s="0"/>
-      <c r="AAZ1" s="0"/>
-      <c r="ABA1" s="0"/>
-      <c r="ABB1" s="0"/>
-      <c r="ABC1" s="0"/>
-      <c r="ABD1" s="0"/>
-      <c r="ABE1" s="0"/>
-      <c r="ABF1" s="0"/>
-      <c r="ABG1" s="0"/>
-      <c r="ABH1" s="0"/>
-      <c r="ABI1" s="0"/>
-      <c r="ABJ1" s="0"/>
-      <c r="ABK1" s="0"/>
-      <c r="ABL1" s="0"/>
-      <c r="ABM1" s="0"/>
-      <c r="ABN1" s="0"/>
-      <c r="ABO1" s="0"/>
-      <c r="ABP1" s="0"/>
-      <c r="ABQ1" s="0"/>
-      <c r="ABR1" s="0"/>
-      <c r="ABS1" s="0"/>
-      <c r="ABT1" s="0"/>
-      <c r="ABU1" s="0"/>
-      <c r="ABV1" s="0"/>
-      <c r="ABW1" s="0"/>
-      <c r="ABX1" s="0"/>
-      <c r="ABY1" s="0"/>
-      <c r="ABZ1" s="0"/>
-      <c r="ACA1" s="0"/>
-      <c r="ACB1" s="0"/>
-      <c r="ACC1" s="0"/>
-      <c r="ACD1" s="0"/>
-      <c r="ACE1" s="0"/>
-      <c r="ACF1" s="0"/>
-      <c r="ACG1" s="0"/>
-      <c r="ACH1" s="0"/>
-      <c r="ACI1" s="0"/>
-      <c r="ACJ1" s="0"/>
-      <c r="ACK1" s="0"/>
-      <c r="ACL1" s="0"/>
-      <c r="ACM1" s="0"/>
-      <c r="ACN1" s="0"/>
-      <c r="ACO1" s="0"/>
-      <c r="ACP1" s="0"/>
-      <c r="ACQ1" s="0"/>
-      <c r="ACR1" s="0"/>
-      <c r="ACS1" s="0"/>
-      <c r="ACT1" s="0"/>
-      <c r="ACU1" s="0"/>
-      <c r="ACV1" s="0"/>
-      <c r="ACW1" s="0"/>
-      <c r="ACX1" s="0"/>
-      <c r="ACY1" s="0"/>
-      <c r="ACZ1" s="0"/>
-      <c r="ADA1" s="0"/>
-      <c r="ADB1" s="0"/>
-      <c r="ADC1" s="0"/>
-      <c r="ADD1" s="0"/>
-      <c r="ADE1" s="0"/>
-      <c r="ADF1" s="0"/>
-      <c r="ADG1" s="0"/>
-      <c r="ADH1" s="0"/>
-      <c r="ADI1" s="0"/>
-      <c r="ADJ1" s="0"/>
-      <c r="ADK1" s="0"/>
-      <c r="ADL1" s="0"/>
-      <c r="ADM1" s="0"/>
-      <c r="ADN1" s="0"/>
-      <c r="ADO1" s="0"/>
-      <c r="ADP1" s="0"/>
-      <c r="ADQ1" s="0"/>
-      <c r="ADR1" s="0"/>
-      <c r="ADS1" s="0"/>
-      <c r="ADT1" s="0"/>
-      <c r="ADU1" s="0"/>
-      <c r="ADV1" s="0"/>
-      <c r="ADW1" s="0"/>
-      <c r="ADX1" s="0"/>
-      <c r="ADY1" s="0"/>
-      <c r="ADZ1" s="0"/>
-      <c r="AEA1" s="0"/>
-      <c r="AEB1" s="0"/>
-      <c r="AEC1" s="0"/>
-      <c r="AED1" s="0"/>
-      <c r="AEE1" s="0"/>
-      <c r="AEF1" s="0"/>
-      <c r="AEG1" s="0"/>
-      <c r="AEH1" s="0"/>
-      <c r="AEI1" s="0"/>
-      <c r="AEJ1" s="0"/>
-      <c r="AEK1" s="0"/>
-      <c r="AEL1" s="0"/>
-      <c r="AEM1" s="0"/>
-      <c r="AEN1" s="0"/>
-      <c r="AEO1" s="0"/>
-      <c r="AEP1" s="0"/>
-      <c r="AEQ1" s="0"/>
-      <c r="AER1" s="0"/>
-      <c r="AES1" s="0"/>
-      <c r="AET1" s="0"/>
-      <c r="AEU1" s="0"/>
-      <c r="AEV1" s="0"/>
-      <c r="AEW1" s="0"/>
-      <c r="AEX1" s="0"/>
-      <c r="AEY1" s="0"/>
-      <c r="AEZ1" s="0"/>
-      <c r="AFA1" s="0"/>
-      <c r="AFB1" s="0"/>
-      <c r="AFC1" s="0"/>
-      <c r="AFD1" s="0"/>
-      <c r="AFE1" s="0"/>
-      <c r="AFF1" s="0"/>
-      <c r="AFG1" s="0"/>
-      <c r="AFH1" s="0"/>
-      <c r="AFI1" s="0"/>
-      <c r="AFJ1" s="0"/>
-      <c r="AFK1" s="0"/>
-      <c r="AFL1" s="0"/>
-      <c r="AFM1" s="0"/>
-      <c r="AFN1" s="0"/>
-      <c r="AFO1" s="0"/>
-      <c r="AFP1" s="0"/>
-      <c r="AFQ1" s="0"/>
-      <c r="AFR1" s="0"/>
-      <c r="AFS1" s="0"/>
-      <c r="AFT1" s="0"/>
-      <c r="AFU1" s="0"/>
-      <c r="AFV1" s="0"/>
-      <c r="AFW1" s="0"/>
-      <c r="AFX1" s="0"/>
-      <c r="AFY1" s="0"/>
-      <c r="AFZ1" s="0"/>
-      <c r="AGA1" s="0"/>
-      <c r="AGB1" s="0"/>
-      <c r="AGC1" s="0"/>
-      <c r="AGD1" s="0"/>
-      <c r="AGE1" s="0"/>
-      <c r="AGF1" s="0"/>
-      <c r="AGG1" s="0"/>
-      <c r="AGH1" s="0"/>
-      <c r="AGI1" s="0"/>
-      <c r="AGJ1" s="0"/>
-      <c r="AGK1" s="0"/>
-      <c r="AGL1" s="0"/>
-      <c r="AGM1" s="0"/>
-      <c r="AGN1" s="0"/>
-      <c r="AGO1" s="0"/>
-      <c r="AGP1" s="0"/>
-      <c r="AGQ1" s="0"/>
-      <c r="AGR1" s="0"/>
-      <c r="AGS1" s="0"/>
-      <c r="AGT1" s="0"/>
-      <c r="AGU1" s="0"/>
-      <c r="AGV1" s="0"/>
-      <c r="AGW1" s="0"/>
-      <c r="AGX1" s="0"/>
-      <c r="AGY1" s="0"/>
-      <c r="AGZ1" s="0"/>
-      <c r="AHA1" s="0"/>
-      <c r="AHB1" s="0"/>
-      <c r="AHC1" s="0"/>
-      <c r="AHD1" s="0"/>
-      <c r="AHE1" s="0"/>
-      <c r="AHF1" s="0"/>
-      <c r="AHG1" s="0"/>
-      <c r="AHH1" s="0"/>
-      <c r="AHI1" s="0"/>
-      <c r="AHJ1" s="0"/>
-      <c r="AHK1" s="0"/>
-      <c r="AHL1" s="0"/>
-      <c r="AHM1" s="0"/>
-      <c r="AHN1" s="0"/>
-      <c r="AHO1" s="0"/>
-      <c r="AHP1" s="0"/>
-      <c r="AHQ1" s="0"/>
-      <c r="AHR1" s="0"/>
-      <c r="AHS1" s="0"/>
-      <c r="AHT1" s="0"/>
-      <c r="AHU1" s="0"/>
-      <c r="AHV1" s="0"/>
-      <c r="AHW1" s="0"/>
-      <c r="AHX1" s="0"/>
-      <c r="AHY1" s="0"/>
-      <c r="AHZ1" s="0"/>
-      <c r="AIA1" s="0"/>
-      <c r="AIB1" s="0"/>
-      <c r="AIC1" s="0"/>
-      <c r="AID1" s="0"/>
-      <c r="AIE1" s="0"/>
-      <c r="AIF1" s="0"/>
-      <c r="AIG1" s="0"/>
-      <c r="AIH1" s="0"/>
-      <c r="AII1" s="0"/>
-      <c r="AIJ1" s="0"/>
-      <c r="AIK1" s="0"/>
-      <c r="AIL1" s="0"/>
-      <c r="AIM1" s="0"/>
-      <c r="AIN1" s="0"/>
-      <c r="AIO1" s="0"/>
-      <c r="AIP1" s="0"/>
-      <c r="AIQ1" s="0"/>
-      <c r="AIR1" s="0"/>
-      <c r="AIS1" s="0"/>
-      <c r="AIT1" s="0"/>
-      <c r="AIU1" s="0"/>
-      <c r="AIV1" s="0"/>
-      <c r="AIW1" s="0"/>
-      <c r="AIX1" s="0"/>
-      <c r="AIY1" s="0"/>
-      <c r="AIZ1" s="0"/>
-      <c r="AJA1" s="0"/>
-      <c r="AJB1" s="0"/>
-      <c r="AJC1" s="0"/>
-      <c r="AJD1" s="0"/>
-      <c r="AJE1" s="0"/>
-      <c r="AJF1" s="0"/>
-      <c r="AJG1" s="0"/>
-      <c r="AJH1" s="0"/>
-      <c r="AJI1" s="0"/>
-      <c r="AJJ1" s="0"/>
-      <c r="AJK1" s="0"/>
-      <c r="AJL1" s="0"/>
-      <c r="AJM1" s="0"/>
-      <c r="AJN1" s="0"/>
-      <c r="AJO1" s="0"/>
-      <c r="AJP1" s="0"/>
-      <c r="AJQ1" s="0"/>
-      <c r="AJR1" s="0"/>
-      <c r="AJS1" s="0"/>
-      <c r="AJT1" s="0"/>
-      <c r="AJU1" s="0"/>
-      <c r="AJV1" s="0"/>
-      <c r="AJW1" s="0"/>
-      <c r="AJX1" s="0"/>
-      <c r="AJY1" s="0"/>
-      <c r="AJZ1" s="0"/>
-      <c r="AKA1" s="0"/>
-      <c r="AKB1" s="0"/>
-      <c r="AKC1" s="0"/>
-      <c r="AKD1" s="0"/>
-      <c r="AKE1" s="0"/>
-      <c r="AKF1" s="0"/>
-      <c r="AKG1" s="0"/>
-      <c r="AKH1" s="0"/>
-      <c r="AKI1" s="0"/>
-      <c r="AKJ1" s="0"/>
-      <c r="AKK1" s="0"/>
-      <c r="AKL1" s="0"/>
-      <c r="AKM1" s="0"/>
-      <c r="AKN1" s="0"/>
-      <c r="AKO1" s="0"/>
-      <c r="AKP1" s="0"/>
-      <c r="AKQ1" s="0"/>
-      <c r="AKR1" s="0"/>
-      <c r="AKS1" s="0"/>
-      <c r="AKT1" s="0"/>
-      <c r="AKU1" s="0"/>
-      <c r="AKV1" s="0"/>
-      <c r="AKW1" s="0"/>
-      <c r="AKX1" s="0"/>
-      <c r="AKY1" s="0"/>
-      <c r="AKZ1" s="0"/>
-      <c r="ALA1" s="0"/>
-      <c r="ALB1" s="0"/>
-      <c r="ALC1" s="0"/>
-      <c r="ALD1" s="0"/>
-      <c r="ALE1" s="0"/>
-      <c r="ALF1" s="0"/>
-      <c r="ALG1" s="0"/>
-      <c r="ALH1" s="0"/>
-      <c r="ALI1" s="0"/>
-      <c r="ALJ1" s="0"/>
-      <c r="ALK1" s="0"/>
-      <c r="ALL1" s="0"/>
-      <c r="ALM1" s="0"/>
-      <c r="ALN1" s="0"/>
-      <c r="ALO1" s="0"/>
-      <c r="ALP1" s="0"/>
-      <c r="ALQ1" s="0"/>
-      <c r="ALR1" s="0"/>
-      <c r="ALS1" s="0"/>
-      <c r="ALT1" s="0"/>
-      <c r="ALU1" s="0"/>
-      <c r="ALV1" s="0"/>
-      <c r="ALW1" s="0"/>
-      <c r="ALX1" s="0"/>
-      <c r="ALY1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
@@ -7167,17 +6191,13 @@
       <c r="D2" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="G2" s="37" t="s">
+      <c r="E2" s="39"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="H2" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="I2" s="43"/>
+      <c r="I2" s="45"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13" t="n">
         <v>2</v>
@@ -7188,9 +6208,6 @@
       <c r="M2" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="ALZ2" s="2"/>
-      <c r="AMA2" s="2"/>
-      <c r="AMB2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
@@ -7200,24 +6217,20 @@
         <v>16</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="G3" s="37" t="s">
-        <v>100</v>
-      </c>
+      <c r="E3" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="39"/>
       <c r="H3" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="I3" s="43"/>
+        <v>102</v>
+      </c>
+      <c r="I3" s="45"/>
       <c r="J3" s="13"/>
       <c r="K3" s="13" t="n">
         <v>1</v>
@@ -7226,11 +6239,8 @@
         <v>5</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="ALZ3" s="2"/>
-      <c r="AMA3" s="2"/>
-      <c r="AMB3" s="2"/>
+        <v>103</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
@@ -7245,18 +6255,14 @@
       <c r="D4" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="E4" s="35"/>
-      <c r="F4" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="G4" s="35" t="s">
-        <v>100</v>
-      </c>
+      <c r="E4" s="37"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="37"/>
       <c r="H4" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I4" s="29"/>
-      <c r="J4" s="44"/>
+      <c r="J4" s="46"/>
       <c r="K4" s="9" t="n">
         <v>1</v>
       </c>
@@ -7266,7 +6272,6 @@
       <c r="M4" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="ALZ4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="14" t="s">
@@ -7276,22 +6281,22 @@
         <v>27</v>
       </c>
       <c r="C5" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="E5" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="F5" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="G5" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="18" t="s">
         <v>109</v>
-      </c>
-      <c r="G5" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>110</v>
       </c>
       <c r="I5" s="30" t="n">
         <v>0.8</v>
@@ -7306,7 +6311,7 @@
         <v>2.5</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7317,25 +6322,25 @@
         <v>29</v>
       </c>
       <c r="C6" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="E6" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="E6" s="39" t="s">
-        <v>114</v>
-      </c>
       <c r="F6" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="G6" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="G6" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>110</v>
-      </c>
       <c r="I6" s="30"/>
-      <c r="J6" s="45"/>
+      <c r="J6" s="47"/>
       <c r="K6" s="16" t="n">
         <v>3</v>
       </c>
@@ -7343,7 +6348,7 @@
         <v>2.5</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7359,15 +6364,13 @@
       <c r="D7" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="E7" s="40"/>
+      <c r="E7" s="42"/>
       <c r="F7" s="25"/>
-      <c r="G7" s="40" t="s">
-        <v>100</v>
-      </c>
+      <c r="G7" s="42"/>
       <c r="H7" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="I7" s="31"/>
+        <v>104</v>
+      </c>
+      <c r="I7" s="32"/>
       <c r="J7" s="25"/>
       <c r="K7" s="23" t="n">
         <v>1</v>
@@ -7378,10 +6381,6 @@
       <c r="M7" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="ALZ7" s="2"/>
-      <c r="AMA7" s="2"/>
-      <c r="AMB7" s="2"/>
-      <c r="AMC7" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -7407,20 +6406,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.3622448979592"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="41.3061224489796"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="45.7602040816327"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="23.8928571428571"/>
-    <col collapsed="false" hidden="false" max="1023" min="13" style="1" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="2" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="40.765306122449"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="45.2244897959184"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="23.4897959183673"/>
+    <col collapsed="false" hidden="false" max="1023" min="13" style="1" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="2" width="10.530612244898"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7431,13 +6430,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>3</v>
@@ -7446,10 +6445,10 @@
         <v>4</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>5</v>
@@ -7470,13 +6469,13 @@
         <v>9</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>11</v>
@@ -7485,10 +6484,10 @@
         <v>12</v>
       </c>
       <c r="H2" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>120</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>121</v>
       </c>
       <c r="J2" s="10" t="n">
         <v>25</v>
@@ -7508,25 +6507,25 @@
         <v>9</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>15</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J3" s="10" t="n">
         <v>35</v>
@@ -7544,13 +6543,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>16</v>
@@ -7559,10 +6558,10 @@
         <v>28</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J4" s="12" t="n">
         <v>5</v>
@@ -7580,25 +6579,25 @@
         <v>9</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>15</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J5" s="12" t="n">
         <v>10</v>
@@ -7616,25 +6615,25 @@
         <v>9</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>20</v>
       </c>
       <c r="G6" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="H6" s="8" t="s">
-        <v>128</v>
-      </c>
       <c r="I6" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J6" s="12" t="n">
         <v>5</v>
@@ -7652,25 +6651,25 @@
         <v>9</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>15</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J7" s="12" t="n">
         <v>20</v>
@@ -7688,25 +6687,25 @@
         <v>9</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>15</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J8" s="10" t="n">
         <v>80</v>
@@ -7726,25 +6725,25 @@
         <v>9</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>25</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J9" s="12" t="n">
         <v>20</v>
@@ -7762,22 +6761,22 @@
         <v>9</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G10" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I10" s="15" t="s">
         <v>12</v>
@@ -7800,22 +6799,22 @@
         <v>9</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G11" s="15" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I11" s="15" t="s">
         <v>15</v>
@@ -7836,25 +6835,25 @@
         <v>9</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F12" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="H12" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="G12" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>139</v>
-      </c>
       <c r="I12" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J12" s="17" t="n">
         <v>2.5</v>
@@ -7872,25 +6871,25 @@
         <v>9</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F13" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="H13" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="G13" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>141</v>
-      </c>
       <c r="I13" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J13" s="17" t="n">
         <v>2.5</v>
@@ -7908,22 +6907,22 @@
         <v>9</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G14" s="15" t="s">
         <v>15</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I14" s="15" t="s">
         <v>15</v>
@@ -7944,22 +6943,22 @@
         <v>9</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>10</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G15" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I15" s="15" t="s">
         <v>12</v>
@@ -7980,22 +6979,22 @@
         <v>9</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G16" s="15" t="s">
         <v>15</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I16" s="15" t="s">
         <v>15</v>
@@ -8016,22 +7015,22 @@
         <v>9</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G17" s="15" t="s">
         <v>15</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I17" s="15" t="s">
         <v>15</v>
@@ -8052,22 +7051,22 @@
         <v>9</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>10</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G18" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I18" s="15" t="s">
         <v>12</v>
@@ -8088,22 +7087,22 @@
         <v>9</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>10</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G19" s="15" t="s">
         <v>15</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I19" s="15" t="s">
         <v>15</v>
@@ -8124,22 +7123,22 @@
         <v>9</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>34</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G20" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I20" s="15" t="s">
         <v>12</v>
@@ -8162,22 +7161,22 @@
         <v>9</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>34</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G21" s="15" t="s">
         <v>15</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I21" s="15" t="s">
         <v>15</v>
@@ -8198,22 +7197,22 @@
         <v>9</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>23</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G22" s="15" t="s">
         <v>15</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I22" s="15" t="s">
         <v>15</v>
@@ -8236,22 +7235,22 @@
         <v>9</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>23</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G23" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I23" s="15" t="s">
         <v>12</v>
@@ -8272,22 +7271,22 @@
         <v>9</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D24" s="22" t="s">
         <v>10</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F24" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="H24" s="21" t="s">
         <v>162</v>
-      </c>
-      <c r="G24" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="H24" s="21" t="s">
-        <v>163</v>
       </c>
       <c r="I24" s="22" t="s">
         <v>12</v>
@@ -8310,22 +7309,22 @@
         <v>9</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D25" s="22" t="s">
         <v>10</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F25" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="H25" s="22" t="s">
         <v>164</v>
-      </c>
-      <c r="G25" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="H25" s="22" t="s">
-        <v>165</v>
       </c>
       <c r="I25" s="22" t="s">
         <v>15</v>
@@ -8346,22 +7345,22 @@
         <v>9</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D26" s="22" t="s">
         <v>10</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F26" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="H26" s="21" t="s">
         <v>166</v>
-      </c>
-      <c r="G26" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="H26" s="21" t="s">
-        <v>167</v>
       </c>
       <c r="I26" s="22" t="s">
         <v>12</v>
@@ -8382,22 +7381,22 @@
         <v>9</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D27" s="22" t="s">
         <v>10</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F27" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="H27" s="22" t="s">
         <v>168</v>
-      </c>
-      <c r="G27" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="H27" s="22" t="s">
-        <v>169</v>
       </c>
       <c r="I27" s="22" t="s">
         <v>15</v>
@@ -8418,22 +7417,22 @@
         <v>9</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D28" s="22" t="s">
         <v>10</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F28" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="H28" s="21" t="s">
         <v>144</v>
-      </c>
-      <c r="G28" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="H28" s="21" t="s">
-        <v>145</v>
       </c>
       <c r="I28" s="22" t="s">
         <v>12</v>
@@ -8454,22 +7453,22 @@
         <v>9</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D29" s="22" t="s">
         <v>10</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F29" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="G29" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="H29" s="22" t="s">
         <v>170</v>
-      </c>
-      <c r="G29" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="H29" s="22" t="s">
-        <v>171</v>
       </c>
       <c r="I29" s="22" t="s">
         <v>15</v>
@@ -8490,22 +7489,22 @@
         <v>9</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D30" s="22" t="s">
         <v>10</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F30" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="G30" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="H30" s="22" t="s">
         <v>148</v>
-      </c>
-      <c r="G30" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="H30" s="22" t="s">
-        <v>149</v>
       </c>
       <c r="I30" s="22" t="s">
         <v>15</v>
@@ -8526,22 +7525,22 @@
         <v>9</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D31" s="22" t="s">
         <v>10</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F31" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="G31" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="H31" s="21" t="s">
         <v>150</v>
-      </c>
-      <c r="G31" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="H31" s="21" t="s">
-        <v>151</v>
       </c>
       <c r="I31" s="22" t="s">
         <v>12</v>
@@ -8562,22 +7561,22 @@
         <v>9</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D32" s="22" t="s">
         <v>10</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F32" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="G32" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="H32" s="22" t="s">
         <v>172</v>
-      </c>
-      <c r="G32" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="H32" s="22" t="s">
-        <v>173</v>
       </c>
       <c r="I32" s="22" t="s">
         <v>15</v>
@@ -8598,22 +7597,22 @@
         <v>9</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D33" s="21" t="s">
         <v>34</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F33" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="G33" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="H33" s="21" t="s">
         <v>174</v>
-      </c>
-      <c r="G33" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="H33" s="21" t="s">
-        <v>175</v>
       </c>
       <c r="I33" s="22" t="s">
         <v>12</v>
@@ -8636,22 +7635,22 @@
         <v>9</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D34" s="21" t="s">
         <v>34</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F34" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="G34" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="H34" s="22" t="s">
         <v>176</v>
-      </c>
-      <c r="G34" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="H34" s="22" t="s">
-        <v>177</v>
       </c>
       <c r="I34" s="22" t="s">
         <v>15</v>
@@ -8672,22 +7671,22 @@
         <v>9</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D35" s="21" t="s">
         <v>23</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F35" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="G35" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="H35" s="22" t="s">
         <v>178</v>
-      </c>
-      <c r="G35" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="H35" s="22" t="s">
-        <v>179</v>
       </c>
       <c r="I35" s="22" t="s">
         <v>15</v>
@@ -8710,22 +7709,22 @@
         <v>9</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D36" s="21" t="s">
         <v>23</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F36" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="G36" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="H36" s="22" t="s">
         <v>180</v>
-      </c>
-      <c r="G36" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="H36" s="22" t="s">
-        <v>181</v>
       </c>
       <c r="I36" s="22" t="s">
         <v>12</v>
@@ -8746,25 +7745,25 @@
         <v>9</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D37" s="21" t="s">
         <v>23</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F37" s="22" t="s">
         <v>25</v>
       </c>
       <c r="G37" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H37" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I37" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J37" s="24" t="n">
         <v>20</v>

--- a/Projects/MARSUAE/Data/Template.xlsx
+++ b/Projects/MARSUAE/Data/Template.xlsx
@@ -5,14 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="KPI" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="SOS" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Distribution" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Availability" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Sheet6" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Distribution!$A$1:$J$19</definedName>
@@ -25,16 +24,19 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPI!$A$1:$H$37</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$H$37</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$H$37</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$H$37</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">SOS!$A$1:$K$13</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">SOS!$A$1:$K$13</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">SOS!$A$1:$K$13</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">SOS!$A$1:$K$13</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">SOS!$A$1:$K$13</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">SOS!$A$1:$K$13</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">SOS!$A$1:$K$13</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Distribution!$A$1:$J$19</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">Distribution!$A$1:$J$19</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Distribution!$A$1:$J$19</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Distribution!$A$1:$J$19</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Distribution!$A$1:$J$19</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -46,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="115">
   <si>
     <t xml:space="preserve">Channel</t>
   </si>
@@ -343,253 +345,55 @@
     <t xml:space="preserve">Notes</t>
   </si>
   <si>
+    <t xml:space="preserve">KPI Type old</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POSM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hanging Strip Choc</t>
+  </si>
+  <si>
     <t xml:space="preserve">Availability hanging strip</t>
   </si>
   <si>
-    <t xml:space="preserve">POSM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hanging Strip Choc</t>
+    <t xml:space="preserve">Freezer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scene_type</t>
   </si>
   <si>
     <t xml:space="preserve">Availability scene type</t>
   </si>
   <si>
-    <t xml:space="preserve">Freezer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scene_type</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hanging Strip Gum</t>
   </si>
   <si>
+    <t xml:space="preserve">product_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manufacturer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main Shelf (Ice Cream), Industrial Coolers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POS (product_type)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Availability basket</t>
   </si>
   <si>
-    <t xml:space="preserve">product_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">manufacturer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Main Shelf (Ice Cream), Industrial Coolers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POS (product_type)</t>
+    <t xml:space="preserve">package</t>
+  </si>
+  <si>
+    <t xml:space="preserve">multipack</t>
   </si>
   <si>
     <t xml:space="preserve">Availability multipack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">package</t>
-  </si>
-  <si>
-    <t xml:space="preserve">multipack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Level_1_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Level_2_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Level_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Level_4_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aggregation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mars Linear SOS Impulse - Main Choc_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL Impulse - Main Choc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL Impulse - Main Choc_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Impulse - Freezer penetration_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL Impulse - Main Ice Cream</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL Impulse - Main Ice Cream_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Availbility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hanging Strips KPI - Choc_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checkout MSL KPI - Choc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checkout MSL KPI - Choc_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL Impulse - Main GUM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL Impulse - Main GUM_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hanging Strips KPI - GUM_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mars Linear SOS  - Main Choc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mars Linear SOS Hyper  - Main Choc_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL SKUs Hyper - Main Choc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL SKUs Hyper - Main Choc_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mars Presence Hyper - Main Ice cream</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mars Presence Hyper - Main Ice cream_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mars SOS Hyper - Main Ice cream</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mars SOS Hyper - Main Ice cream_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL SKUs Hyper - Main Ice Cream</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL SKUs Hyper - Main Ice Cream_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mars Linear SOS Hyper - Checkout Choc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mars Linear SOS Hyper - Checkout Choc_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL SKUs Hyper - Checkout Choc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL SKUs Hyper - Checkout Choc_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checkout Penetration Hyper - Checkout Choc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checkout Penetration Hyper - Checkout Choc_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mars Linear SOS Hyper - Display Choc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mars Linear SOS Hyper - Display Choc_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL SKUs Hyper - Display Choc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL SKUs Hyper - Display Choc_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mars Linear SOS Hyper - Main Petcare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mars Linear SOS Hyper - Main Petcare_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL SKUs Hyper - Main Petcare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL SKUs Hyper - Main Petcare_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL Hyper - Checkout Gum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL Hyper - Checkout Gum_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mars Linear SOS Hyper - Checkout Gum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mars Linear SOS Hyper - Checkout Gum_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mars Linear SOS All others  - Main Choc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mars Linear SOS All others  - Main Choc_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL SKUs All others - Main Choc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL SKUs All others - Main Choc_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mars Linear SOS All others - Main Ice cream</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mars Linear SOS All others - Main Ice cream_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL SKUs All others - Main Ice Cream</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL SKUs All others - Main Ice Cream_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL Hyper - Checkout Choc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL Hyper - Checkout Choc_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL Hyper - Display Choc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL Hyper - Display Choc_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mars Linear SOS All others - Main Petcare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mars Linear SOS All others - Main Petcare_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL SKUs All others - Main Petcare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSL SKUs All others - Main Petcare_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checkouts only Impulse - Gum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checkouts only Impulse - Gum_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOS of GUM in Checkout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOS of GUM in Checkout_SKU</t>
   </si>
 </sst>
 </file>
@@ -603,7 +407,7 @@
     <numFmt numFmtId="167" formatCode="@"/>
     <numFmt numFmtId="168" formatCode="0"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -658,11 +462,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -891,19 +690,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -955,8 +746,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1050,24 +849,24 @@
   </sheetPr>
   <dimension ref="1:37"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C35" activeCellId="0" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="40.765306122449"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="23.4897959183673"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1019" min="10" style="1" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="1020" min="1020" style="2" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="1021" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.4438775510204"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.6683673469388"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.1530612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="35.4387755102041"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="20.3112244897959"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="12.1326530612245"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="18.9183673469388"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="25.0969387755102"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="11.8163265306122"/>
+    <col collapsed="false" hidden="false" max="1019" min="10" style="1" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1020" min="1020" style="2" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1021" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2037,8 +1836,8 @@
   </sheetPr>
   <dimension ref="1:13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2213,7 +2012,7 @@
       <c r="B5" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="16" t="s">
         <v>64</v>
       </c>
       <c r="D5" s="18" t="s">
@@ -2309,13 +2108,13 @@
       <c r="D8" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="32" t="n">
+      <c r="E8" s="31" t="n">
         <v>0.4</v>
       </c>
-      <c r="F8" s="32" t="n">
+      <c r="F8" s="31" t="n">
         <v>0.45</v>
       </c>
-      <c r="G8" s="32"/>
+      <c r="G8" s="31"/>
       <c r="H8" s="25"/>
       <c r="I8" s="25"/>
       <c r="J8" s="25"/>
@@ -2339,19 +2138,19 @@
       <c r="D9" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="32" t="n">
+      <c r="E9" s="31" t="n">
         <v>0.8</v>
       </c>
-      <c r="F9" s="32" t="n">
+      <c r="F9" s="31" t="n">
         <v>0.8</v>
       </c>
-      <c r="G9" s="32" t="s">
+      <c r="G9" s="31" t="s">
         <v>70</v>
       </c>
       <c r="H9" s="25"/>
       <c r="I9" s="25"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
       <c r="L9" s="24" t="n">
         <v>5</v>
       </c>
@@ -2371,13 +2170,13 @@
       <c r="D10" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="32" t="n">
+      <c r="E10" s="31" t="n">
         <v>0.45</v>
       </c>
-      <c r="F10" s="32" t="n">
+      <c r="F10" s="31" t="n">
         <v>0.55</v>
       </c>
-      <c r="G10" s="32"/>
+      <c r="G10" s="31"/>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
@@ -2398,16 +2197,16 @@
       <c r="C11" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="32" t="n">
+      <c r="E11" s="31" t="n">
         <v>0.5</v>
       </c>
-      <c r="F11" s="32" t="n">
+      <c r="F11" s="31" t="n">
         <v>0.5</v>
       </c>
-      <c r="G11" s="32"/>
+      <c r="G11" s="31"/>
       <c r="H11" s="25" t="s">
         <v>56</v>
       </c>
@@ -2439,10 +2238,10 @@
       <c r="D12" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="32" t="n">
+      <c r="E12" s="31" t="n">
         <v>0.4</v>
       </c>
-      <c r="F12" s="32" t="n">
+      <c r="F12" s="31" t="n">
         <v>0.45</v>
       </c>
       <c r="G12" s="25"/>
@@ -2470,10 +2269,10 @@
       <c r="D13" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="E13" s="35" t="n">
+      <c r="E13" s="33" t="n">
         <v>0.7</v>
       </c>
-      <c r="F13" s="35" t="n">
+      <c r="F13" s="33" t="n">
         <v>0.8</v>
       </c>
       <c r="G13" s="23"/>
@@ -2506,23 +2305,23 @@
   <dimension ref="1:19"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.1938775510204"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="64.2551020408163"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="25.6479591836735"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="33.6122448979592"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="36" width="22.9489795918367"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="23.0816326530612"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="26.4591836734694"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1023" min="11" style="1" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.4438775510204"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.0102040816327"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.9030612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="66.7857142857143"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="26.7908163265306"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="34.8163265306122"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="34" width="24.0204081632653"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="24.3265306122449"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="27.5663265306122"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="12.1326530612245"/>
+    <col collapsed="false" hidden="false" max="1023" min="11" style="1" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2568,7 +2367,7 @@
       <c r="C2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="35" t="s">
         <v>77</v>
       </c>
       <c r="E2" s="13"/>
@@ -3609,11 +3408,11 @@
       <c r="C3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="35" t="s">
         <v>78</v>
       </c>
       <c r="E3" s="13"/>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="36" t="s">
         <v>79</v>
       </c>
       <c r="G3" s="29" t="n">
@@ -4650,7 +4449,7 @@
       <c r="C4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="35" t="s">
         <v>77</v>
       </c>
       <c r="E4" s="13"/>
@@ -5691,15 +5490,15 @@
       <c r="C5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="37" t="s">
         <v>81</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
       <c r="I5" s="13" t="n">
         <v>1</v>
       </c>
@@ -5717,7 +5516,7 @@
       <c r="C6" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="39" t="s">
         <v>83</v>
       </c>
       <c r="E6" s="18"/>
@@ -5745,7 +5544,7 @@
       <c r="C7" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="39" t="s">
         <v>84</v>
       </c>
       <c r="E7" s="18"/>
@@ -5773,7 +5572,7 @@
       <c r="C8" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="39" t="s">
         <v>85</v>
       </c>
       <c r="E8" s="18"/>
@@ -5801,7 +5600,7 @@
       <c r="C9" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="39" t="s">
         <v>85</v>
       </c>
       <c r="E9" s="18"/>
@@ -5827,7 +5626,7 @@
       <c r="C10" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D10" s="39" t="s">
         <v>87</v>
       </c>
       <c r="E10" s="18"/>
@@ -5855,7 +5654,7 @@
       <c r="C11" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="D11" s="39" t="s">
         <v>88</v>
       </c>
       <c r="E11" s="18"/>
@@ -5883,7 +5682,7 @@
       <c r="C12" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="D12" s="39" t="s">
         <v>77</v>
       </c>
       <c r="E12" s="18"/>
@@ -5911,17 +5710,17 @@
       <c r="C13" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="D13" s="40" t="s">
         <v>90</v>
       </c>
       <c r="E13" s="25"/>
       <c r="F13" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="32" t="n">
+      <c r="G13" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="H13" s="32" t="n">
+      <c r="H13" s="31" t="n">
         <v>1</v>
       </c>
       <c r="I13" s="23"/>
@@ -5939,17 +5738,17 @@
       <c r="C14" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="42" t="s">
+      <c r="D14" s="40" t="s">
         <v>91</v>
       </c>
       <c r="E14" s="25"/>
       <c r="F14" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="G14" s="32" t="n">
+      <c r="G14" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="H14" s="32" t="n">
+      <c r="H14" s="31" t="n">
         <v>1</v>
       </c>
       <c r="I14" s="23"/>
@@ -5967,17 +5766,17 @@
       <c r="C15" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="42" t="s">
+      <c r="D15" s="40" t="s">
         <v>78</v>
       </c>
       <c r="E15" s="25"/>
       <c r="F15" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="G15" s="32" t="n">
+      <c r="G15" s="31" t="n">
         <v>0.8</v>
       </c>
-      <c r="H15" s="32" t="n">
+      <c r="H15" s="31" t="n">
         <v>0.8</v>
       </c>
       <c r="I15" s="23"/>
@@ -5995,17 +5794,17 @@
       <c r="C16" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="42" t="s">
+      <c r="D16" s="40" t="s">
         <v>78</v>
       </c>
       <c r="E16" s="25"/>
       <c r="F16" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="32" t="n">
+      <c r="G16" s="31" t="n">
         <v>0.8</v>
       </c>
-      <c r="H16" s="32" t="n">
+      <c r="H16" s="31" t="n">
         <v>0.9</v>
       </c>
       <c r="I16" s="23"/>
@@ -6023,15 +5822,15 @@
       <c r="C17" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="42" t="s">
+      <c r="D17" s="40" t="s">
         <v>87</v>
       </c>
       <c r="E17" s="25"/>
       <c r="F17" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
       <c r="I17" s="23" t="n">
         <v>2</v>
       </c>
@@ -6049,17 +5848,17 @@
       <c r="C18" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="42" t="s">
+      <c r="D18" s="40" t="s">
         <v>92</v>
       </c>
       <c r="E18" s="25"/>
       <c r="F18" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="G18" s="32" t="n">
+      <c r="G18" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="H18" s="32" t="n">
+      <c r="H18" s="31" t="n">
         <v>1</v>
       </c>
       <c r="I18" s="23"/>
@@ -6077,17 +5876,17 @@
       <c r="C19" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="42" t="s">
+      <c r="D19" s="40" t="s">
         <v>77</v>
       </c>
       <c r="E19" s="25"/>
       <c r="F19" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="G19" s="32" t="n">
+      <c r="G19" s="31" t="n">
         <v>0.8</v>
       </c>
-      <c r="H19" s="32" t="n">
+      <c r="H19" s="31" t="n">
         <v>0.8</v>
       </c>
       <c r="I19" s="23"/>
@@ -6113,62 +5912,64 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="2" width="14.4438775510204"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="2" width="35.4387755102041"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="24.4795918367347"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.984693877551"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="11.0510204081633"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="2" width="14.2908163265306"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="21.5459183673469"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="11.0510204081633"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="2" width="39.9234693877551"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="2" width="21.2397959183673"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="2" width="21.5459183673469"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="2" width="24.7857142857143"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="2" width="9.35204081632653"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="2" width="18.1530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="2" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="24.4795918367347"/>
+    <col collapsed="false" hidden="false" max="1023" min="15" style="2" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="I1" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="J1" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="K1" s="41" t="s">
         <v>76</v>
       </c>
       <c r="L1" s="3" t="s">
@@ -6176,6 +5977,9 @@
       </c>
       <c r="M1" s="2" t="s">
         <v>97</v>
+      </c>
+      <c r="N1" s="41" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6186,18 +5990,18 @@
         <v>20</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="E2" s="39"/>
+      <c r="E2" s="37"/>
       <c r="F2" s="13"/>
-      <c r="G2" s="39"/>
+      <c r="G2" s="37"/>
       <c r="H2" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="I2" s="45"/>
+      <c r="I2" s="43"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13" t="n">
         <v>2</v>
@@ -6208,6 +6012,9 @@
       <c r="M2" s="2" t="s">
         <v>99</v>
       </c>
+      <c r="N2" s="13" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
@@ -6217,20 +6024,20 @@
         <v>16</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="37" t="s">
         <v>102</v>
       </c>
       <c r="F3" s="13"/>
-      <c r="G3" s="39"/>
+      <c r="G3" s="37"/>
       <c r="H3" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="I3" s="45"/>
+      <c r="I3" s="43"/>
       <c r="J3" s="13"/>
       <c r="K3" s="13" t="n">
         <v>1</v>
@@ -6241,6 +6048,9 @@
       <c r="M3" s="2" t="s">
         <v>103</v>
       </c>
+      <c r="N3" s="13" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
@@ -6250,19 +6060,19 @@
         <v>25</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="E4" s="37"/>
+      <c r="E4" s="35"/>
       <c r="F4" s="13"/>
-      <c r="G4" s="37"/>
+      <c r="G4" s="35"/>
       <c r="H4" s="13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I4" s="29"/>
-      <c r="J4" s="46"/>
+      <c r="J4" s="44"/>
       <c r="K4" s="9" t="n">
         <v>1</v>
       </c>
@@ -6271,6 +6081,9 @@
       </c>
       <c r="M4" s="2" t="s">
         <v>99</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6280,19 +6093,19 @@
       <c r="B5" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>105</v>
+      <c r="C5" s="45" t="s">
+        <v>17</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="E5" s="39" t="s">
         <v>107</v>
       </c>
       <c r="F5" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="G5" s="41" t="s">
+      <c r="G5" s="39" t="s">
         <v>57</v>
       </c>
       <c r="H5" s="18" t="s">
@@ -6312,6 +6125,9 @@
       </c>
       <c r="M5" s="2" t="s">
         <v>110</v>
+      </c>
+      <c r="N5" s="18" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6321,26 +6137,26 @@
       <c r="B6" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>111</v>
+      <c r="C6" s="45" t="s">
+        <v>17</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="39" t="s">
         <v>113</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="G6" s="41" t="s">
+      <c r="G6" s="39" t="s">
         <v>57</v>
       </c>
       <c r="H6" s="18" t="s">
         <v>109</v>
       </c>
       <c r="I6" s="30"/>
-      <c r="J6" s="47"/>
+      <c r="J6" s="46"/>
       <c r="K6" s="16" t="n">
         <v>3</v>
       </c>
@@ -6349,6 +6165,9 @@
       </c>
       <c r="M6" s="2" t="s">
         <v>113</v>
+      </c>
+      <c r="N6" s="18" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6358,19 +6177,19 @@
       <c r="B7" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="25" t="s">
-        <v>98</v>
+      <c r="C7" s="47" t="s">
+        <v>17</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="E7" s="42"/>
+      <c r="E7" s="40"/>
       <c r="F7" s="25"/>
-      <c r="G7" s="42"/>
+      <c r="G7" s="40"/>
       <c r="H7" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="I7" s="32"/>
+        <v>105</v>
+      </c>
+      <c r="I7" s="31"/>
       <c r="J7" s="25"/>
       <c r="K7" s="23" t="n">
         <v>1</v>
@@ -6380,6 +6199,9 @@
       </c>
       <c r="M7" s="2" t="s">
         <v>99</v>
+      </c>
+      <c r="N7" s="25" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -6391,1405 +6213,4 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="1:37"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I24" activeCellId="0" sqref="I24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="40.765306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="45.2244897959184"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="23.4897959183673"/>
-    <col collapsed="false" hidden="false" max="1023" min="13" style="1" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="2" width="10.530612244898"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AMJ1" s="2"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="J2" s="10" t="n">
-        <v>25</v>
-      </c>
-      <c r="K2" s="10" t="n">
-        <v>100</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="J3" s="10" t="n">
-        <v>35</v>
-      </c>
-      <c r="K3" s="10"/>
-      <c r="L3" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="J4" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="K4" s="10"/>
-      <c r="L4" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="J5" s="12" t="n">
-        <v>10</v>
-      </c>
-      <c r="K5" s="10"/>
-      <c r="L5" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="J6" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="K6" s="10"/>
-      <c r="L6" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="J7" s="12" t="n">
-        <v>20</v>
-      </c>
-      <c r="K7" s="10"/>
-      <c r="L7" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="J8" s="10" t="n">
-        <v>80</v>
-      </c>
-      <c r="K8" s="10" t="n">
-        <v>100</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="J9" s="12" t="n">
-        <v>20</v>
-      </c>
-      <c r="K9" s="10"/>
-      <c r="L9" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="17" t="n">
-        <v>25</v>
-      </c>
-      <c r="K10" s="14" t="n">
-        <v>100</v>
-      </c>
-      <c r="L10" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" s="17" t="n">
-        <v>20</v>
-      </c>
-      <c r="K11" s="14"/>
-      <c r="L11" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="J12" s="17" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K12" s="14"/>
-      <c r="L12" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="I13" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="J13" s="17" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K13" s="14"/>
-      <c r="L13" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="K14" s="14"/>
-      <c r="L14" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="I15" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="J15" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="K15" s="14"/>
-      <c r="L15" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="I16" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="J16" s="17" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K16" s="14"/>
-      <c r="L16" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="I17" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="J17" s="17" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K17" s="14"/>
-      <c r="L17" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="I18" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="J18" s="17" t="n">
-        <v>15</v>
-      </c>
-      <c r="K18" s="14"/>
-      <c r="L18" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="I19" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="J19" s="17" t="n">
-        <v>10</v>
-      </c>
-      <c r="K19" s="14"/>
-      <c r="L19" s="15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="I20" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="J20" s="14" t="n">
-        <v>50</v>
-      </c>
-      <c r="K20" s="14" t="n">
-        <v>100</v>
-      </c>
-      <c r="L20" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="I21" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="J21" s="14" t="n">
-        <v>50</v>
-      </c>
-      <c r="K21" s="14"/>
-      <c r="L21" s="15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="I22" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="J22" s="20" t="n">
-        <v>50</v>
-      </c>
-      <c r="K22" s="20" t="n">
-        <v>100</v>
-      </c>
-      <c r="L22" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="G23" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="I23" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="J23" s="17" t="n">
-        <v>50</v>
-      </c>
-      <c r="K23" s="20"/>
-      <c r="L23" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="G24" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="H24" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="I24" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="J24" s="24" t="n">
-        <v>25</v>
-      </c>
-      <c r="K24" s="21" t="n">
-        <v>100</v>
-      </c>
-      <c r="L24" s="22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="F25" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="G25" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="H25" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="I25" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="J25" s="24" t="n">
-        <v>20</v>
-      </c>
-      <c r="K25" s="21"/>
-      <c r="L25" s="22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="F26" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="G26" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="H26" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="I26" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="J26" s="24" t="n">
-        <v>5</v>
-      </c>
-      <c r="K26" s="21"/>
-      <c r="L26" s="22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="F27" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="G27" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="H27" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="I27" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="J27" s="24" t="n">
-        <v>5</v>
-      </c>
-      <c r="K27" s="21"/>
-      <c r="L27" s="22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="F28" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="G28" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="H28" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="I28" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="J28" s="24" t="n">
-        <v>5</v>
-      </c>
-      <c r="K28" s="21"/>
-      <c r="L28" s="22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="F29" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="G29" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="H29" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="I29" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="J29" s="24" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K29" s="21"/>
-      <c r="L29" s="22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="F30" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="G30" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="H30" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="I30" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="J30" s="24" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K30" s="21"/>
-      <c r="L30" s="22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="D31" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="F31" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="G31" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="H31" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="I31" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="J31" s="24" t="n">
-        <v>15</v>
-      </c>
-      <c r="K31" s="21"/>
-      <c r="L31" s="22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="D32" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="F32" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="G32" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="H32" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="I32" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="J32" s="24" t="n">
-        <v>10</v>
-      </c>
-      <c r="K32" s="21"/>
-      <c r="L32" s="22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="D33" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="E33" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="F33" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="G33" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="H33" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="I33" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="J33" s="24" t="n">
-        <v>50</v>
-      </c>
-      <c r="K33" s="21" t="n">
-        <v>100</v>
-      </c>
-      <c r="L33" s="22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="D34" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="E34" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="F34" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="G34" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="H34" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="I34" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="J34" s="24" t="n">
-        <v>50</v>
-      </c>
-      <c r="K34" s="21"/>
-      <c r="L34" s="22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="D35" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="F35" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="G35" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="H35" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="I35" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="J35" s="26" t="n">
-        <v>60</v>
-      </c>
-      <c r="K35" s="26" t="n">
-        <v>100</v>
-      </c>
-      <c r="L35" s="22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="D36" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E36" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="F36" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="G36" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="H36" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="I36" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="J36" s="26" t="n">
-        <v>20</v>
-      </c>
-      <c r="K36" s="26"/>
-      <c r="L36" s="22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="D37" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E37" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="F37" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G37" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="H37" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="I37" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="J37" s="24" t="n">
-        <v>20</v>
-      </c>
-      <c r="K37" s="26"/>
-      <c r="L37" s="22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="K2:K7"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="K10:K19"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="K24:K32"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="K35:K37"/>
-  </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>
--- a/Projects/MARSUAE/Data/Template.xlsx
+++ b/Projects/MARSUAE/Data/Template.xlsx
@@ -14,6 +14,7 @@
     <sheet name="Availability" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Availability!$A$1:$N$8</definedName>
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Distribution!$A$1:$J$19</definedName>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPI!$A$1:$H$37</definedName>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">SOS!$A$1:$K$12</definedName>
@@ -27,6 +28,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPI!$A$1:$H$37</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPI!$A$1:$H$37</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPI!$A$1:$H$37</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPI!$A$1:$H$37</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0" vbProcedure="false">SOS!$A$1:$K$12</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0" vbProcedure="false">SOS!$A$1:$K$12</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0" vbProcedure="false">SOS!$A$1:$K$12</definedName>
@@ -36,6 +38,7 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">SOS!$A$1:$K$12</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">SOS!$A$1:$K$12</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">SOS!$A$1:$K$12</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">SOS!$A$1:$K$12</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0" vbProcedure="false">Distribution!$A$1:$J$19</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0_0" vbProcedure="false">Distribution!$A$1:$J$19</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0_0_0" vbProcedure="false">Distribution!$A$1:$J$19</definedName>
@@ -43,6 +46,7 @@
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Distribution!$A$1:$J$19</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">Distribution!$A$1:$J$19</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Distribution!$A$1:$J$19</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Distribution!$A$1:$J$19</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -597,7 +601,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -764,6 +768,10 @@
     </xf>
     <xf numFmtId="166" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -866,30 +874,34 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AMF37"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I25" activeCellId="0" sqref="I25"/>
+      <selection pane="topLeft" activeCell="F38" activeCellId="0" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="32.1275510204082"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="11.2040816326531"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="21.5969387755102"/>
-    <col collapsed="false" hidden="false" max="1019" min="9" style="1" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="1020" min="1020" style="2" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="1021" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.9030612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="14.2551020408163"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.3418367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="35.1785714285714"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="21.2857142857143"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="12.6173469387755"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="19.8061224489796"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="26.3520408163265"/>
+    <col collapsed="false" hidden="false" max="1019" min="9" style="1" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1020" min="1020" style="2" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1021" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -946,7 +958,7 @@
       </c>
       <c r="I2" s="0"/>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
@@ -996,7 +1008,7 @@
       </c>
       <c r="I4" s="0"/>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
         <v>8</v>
       </c>
@@ -1046,7 +1058,7 @@
       </c>
       <c r="I6" s="0"/>
     </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
         <v>8</v>
       </c>
@@ -1071,7 +1083,7 @@
       </c>
       <c r="I7" s="0"/>
     </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
         <v>8</v>
       </c>
@@ -1150,7 +1162,7 @@
       </c>
       <c r="I10" s="0"/>
     </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="14" t="s">
         <v>26</v>
       </c>
@@ -1225,7 +1237,7 @@
       </c>
       <c r="I13" s="0"/>
     </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="14" t="s">
         <v>26</v>
       </c>
@@ -1275,7 +1287,7 @@
       </c>
       <c r="I15" s="0"/>
     </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="14" t="s">
         <v>26</v>
       </c>
@@ -1300,7 +1312,7 @@
       </c>
       <c r="I16" s="0"/>
     </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="14" t="s">
         <v>26</v>
       </c>
@@ -1350,7 +1362,7 @@
       </c>
       <c r="I18" s="0"/>
     </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="14" t="s">
         <v>26</v>
       </c>
@@ -1402,7 +1414,7 @@
       </c>
       <c r="I20" s="0"/>
     </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="14" t="s">
         <v>26</v>
       </c>
@@ -1427,7 +1439,7 @@
       </c>
       <c r="I21" s="0"/>
     </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="14" t="s">
         <v>26</v>
       </c>
@@ -1506,7 +1518,7 @@
       </c>
       <c r="I24" s="0"/>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="21" t="s">
         <v>38</v>
       </c>
@@ -1554,7 +1566,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="21" t="s">
         <v>38</v>
       </c>
@@ -1602,7 +1614,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="21" t="s">
         <v>38</v>
       </c>
@@ -1626,7 +1638,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="21" t="s">
         <v>38</v>
       </c>
@@ -1674,7 +1686,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="21" t="s">
         <v>38</v>
       </c>
@@ -1724,7 +1736,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="21" t="s">
         <v>38</v>
       </c>
@@ -1748,7 +1760,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="21" t="s">
         <v>38</v>
       </c>
@@ -1823,7 +1835,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H37"/>
+  <autoFilter ref="A1:H37">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="SOS"/>
+        <filter val="Availability"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="8">
     <mergeCell ref="G2:G7"/>
     <mergeCell ref="G8:G9"/>
@@ -1858,22 +1877,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="29.4540816326531"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.5612244897959"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="33.6122448979592"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="25.2091836734694"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="25.530612244898"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="30.1122448979592"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="25.0459183673469"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="26.1887755102041"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="27.9897959183673"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="29.1326530612245"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="9.83673469387755"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="47.6530612244898"/>
-    <col collapsed="false" hidden="false" max="1023" min="15" style="1" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="29.0255102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="33.2091836734694"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.8367346938776"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="25.2448979591837"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="29.6989795918367"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="24.7040816326531"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="25.7857142857143"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="27.6734693877551"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="28.7551020408163"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="47.1122448979592"/>
+    <col collapsed="false" hidden="false" max="1023" min="15" style="1" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2359,24 +2378,24 @@
   </sheetPr>
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J19" activeCellId="0" sqref="J19"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I8" activeCellId="0" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="25.9183673469388"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="21.1938775510204"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="64.2551020408163"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="25.6479591836735"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="33.6122448979592"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="33" width="22.9489795918367"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="23.0816326530612"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="26.4591836734694"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1023" min="11" style="1" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="25.515306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.7908163265306"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="63.5816326530612"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="33.2091836734694"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="33" width="22.6785714285714"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="22.8112244897959"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="28.969387755102"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1023" min="11" style="1" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2965,28 +2984,28 @@
   </sheetPr>
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="34.1530612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="35.234693877551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="13.5"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="43.469387755102"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="20.3826530612245"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="20.6530612244898"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="23.7602040816327"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="23.3520408163265"/>
-    <col collapsed="false" hidden="false" max="1023" min="15" style="2" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="14.9030612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="35.1785714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="15.5612244897959"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.5969387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="16.0204081632653"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="14.0918367346939"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="14.4183673469388"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="52.8367346938776"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="25.2091836734694"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="25.530612244898"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="28.969387755102"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="12.6173469387755"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="17.6836734693878"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="24.3877551020408"/>
+    <col collapsed="false" hidden="false" max="1023" min="15" style="2" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3026,7 +3045,7 @@
       <c r="L1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="42" t="s">
         <v>106</v>
       </c>
       <c r="N1" s="40" t="s">
@@ -3043,7 +3062,7 @@
       <c r="C2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="43" t="s">
         <v>108</v>
       </c>
       <c r="E2" s="13" t="s">
@@ -3054,7 +3073,7 @@
       <c r="H2" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="I2" s="43"/>
+      <c r="I2" s="44"/>
       <c r="J2" s="29"/>
       <c r="K2" s="13" t="n">
         <v>2</v>
@@ -3090,7 +3109,7 @@
       <c r="H3" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="I3" s="43"/>
+      <c r="I3" s="44"/>
       <c r="J3" s="29"/>
       <c r="K3" s="13" t="n">
         <v>1</v>
@@ -3115,7 +3134,7 @@
       <c r="C4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="43" t="s">
         <v>108</v>
       </c>
       <c r="E4" s="13" t="s">
@@ -3127,7 +3146,7 @@
         <v>116</v>
       </c>
       <c r="I4" s="29"/>
-      <c r="J4" s="44"/>
+      <c r="J4" s="45"/>
       <c r="K4" s="9" t="n">
         <v>1</v>
       </c>
@@ -3211,7 +3230,7 @@
         <v>75</v>
       </c>
       <c r="I6" s="30"/>
-      <c r="J6" s="45"/>
+      <c r="J6" s="46"/>
       <c r="K6" s="16" t="n">
         <v>3</v>
       </c>
@@ -3235,7 +3254,7 @@
       <c r="C7" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="D7" s="43" t="s">
         <v>108</v>
       </c>
       <c r="E7" s="25" t="s">
@@ -3306,6 +3325,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:N8"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -3313,5 +3333,6 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Projects/MARSUAE/Data/Template.xlsx
+++ b/Projects/MARSUAE/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="KPI" sheetId="1" state="visible" r:id="rId2"/>
@@ -29,6 +29,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_hj" vbProcedure="false">KPI!$A$1:$H$37</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_uhj" vbProcedure="false">KPI!$A$1:$H$37</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPI!$A$1:$H$37</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPI!$A$1:$H$37</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="tg" vbProcedure="false">SOS!$A$1:$K$12</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_" vbProcedure="false">SOS!$A$1:$K$12</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0" vbProcedure="false">SOS!$A$1:$K$12</definedName>
@@ -39,6 +40,7 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">SOS!$A$1:$K$12</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_ol" vbProcedure="false">SOS!$A$1:$K$12</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">SOS!$A$1:$K$12</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">SOS!$A$1:$K$12</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="rghf" vbProcedure="false">Distribution!$A$1:$J$19</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0" vbProcedure="false">Distribution!$A$1:$J$19</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0_0" vbProcedure="false">Distribution!$A$1:$J$19</definedName>
@@ -47,7 +49,9 @@
     <definedName function="false" hidden="false" localSheetId="2" name="_gfd" vbProcedure="false">Distribution!$A$1:$J$19</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_gyui" vbProcedure="false">Distribution!$A$1:$J$19</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Distribution!$A$1:$J$19</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">Distribution!$A$1:$J$19</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Availability!$A$1:$N$8</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Availability!$A$1:$N$8</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -220,7 +224,7 @@
     <t xml:space="preserve">Main shelf chocolate, Chillers Chocolate </t>
   </si>
   <si>
-    <t xml:space="preserve">Manufacturer</t>
+    <t xml:space="preserve">manufacturer_name</t>
   </si>
   <si>
     <t xml:space="preserve">MARS GCC</t>
@@ -400,6 +404,9 @@
     <t xml:space="preserve">Availability hanging strip</t>
   </si>
   <si>
+    <t xml:space="preserve">template_name</t>
+  </si>
+  <si>
     <t xml:space="preserve">MARS Freezer</t>
   </si>
   <si>
@@ -416,9 +423,6 @@
   </si>
   <si>
     <t xml:space="preserve">POS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">manufacturer</t>
   </si>
   <si>
     <t xml:space="preserve">POS (product_type)</t>
@@ -601,7 +605,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -682,112 +686,116 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="3" borderId="3" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="3" borderId="3" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -880,28 +888,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="true">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AMF37"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G40" activeCellId="0" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="23.3367346938776"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="30.5102040816327"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="23.3520408163265"/>
-    <col collapsed="false" hidden="false" max="1019" min="9" style="1" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1020" min="1020" style="2" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="1021" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="22.9489795918367"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="19.3061224489796"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="22.9489795918367"/>
+    <col collapsed="false" hidden="false" max="1019" min="9" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1020" min="1020" style="2" width="11.0714285714286"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -931,7 +938,7 @@
       </c>
       <c r="AMF1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
         <v>8</v>
       </c>
@@ -957,7 +964,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
@@ -981,7 +988,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="s">
         <v>8</v>
       </c>
@@ -1005,7 +1012,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
         <v>8</v>
       </c>
@@ -1029,7 +1036,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
         <v>8</v>
       </c>
@@ -1053,7 +1060,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
         <v>8</v>
       </c>
@@ -1077,7 +1084,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
         <v>8</v>
       </c>
@@ -1103,7 +1110,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
         <v>8</v>
       </c>
@@ -1127,7 +1134,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="14" t="s">
         <v>26</v>
       </c>
@@ -1153,7 +1160,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="14" t="s">
         <v>26</v>
       </c>
@@ -1177,7 +1184,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="14" t="s">
         <v>26</v>
       </c>
@@ -1201,7 +1208,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="14" t="s">
         <v>26</v>
       </c>
@@ -1273,7 +1280,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="14" t="s">
         <v>26</v>
       </c>
@@ -1283,7 +1290,7 @@
       <c r="C16" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="18" t="s">
         <v>32</v>
       </c>
       <c r="E16" s="15" t="s">
@@ -1297,7 +1304,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="14" t="s">
         <v>26</v>
       </c>
@@ -1321,7 +1328,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="14" t="s">
         <v>26</v>
       </c>
@@ -1345,7 +1352,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="14" t="s">
         <v>26</v>
       </c>
@@ -1369,7 +1376,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="14" t="s">
         <v>26</v>
       </c>
@@ -1395,7 +1402,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="14" t="s">
         <v>26</v>
       </c>
@@ -1419,7 +1426,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="14" t="s">
         <v>26</v>
       </c>
@@ -1435,17 +1442,17 @@
       <c r="E22" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="21" t="n">
+      <c r="F22" s="20" t="n">
         <v>50</v>
       </c>
-      <c r="G22" s="21" t="n">
+      <c r="G22" s="20" t="n">
         <v>100</v>
       </c>
       <c r="H22" s="15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="14" t="s">
         <v>26</v>
       </c>
@@ -1464,366 +1471,355 @@
       <c r="F23" s="17" t="n">
         <v>50</v>
       </c>
-      <c r="G23" s="21"/>
+      <c r="G23" s="20"/>
       <c r="H23" s="15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="22" t="s">
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="23" t="s">
+      <c r="B24" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="D24" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="25" t="n">
+      <c r="F24" s="24" t="n">
         <v>25</v>
       </c>
-      <c r="G24" s="22" t="n">
+      <c r="G24" s="21" t="n">
         <v>100</v>
       </c>
-      <c r="H24" s="23" t="s">
+      <c r="H24" s="22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="22" t="s">
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="23" t="s">
+      <c r="B25" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="26" t="s">
+      <c r="D25" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="25" t="n">
+      <c r="E25" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="24" t="n">
         <v>20</v>
       </c>
-      <c r="G25" s="22"/>
-      <c r="H25" s="23" t="s">
+      <c r="G25" s="21"/>
+      <c r="H25" s="22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="22" t="s">
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="23" t="s">
+      <c r="B26" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="25" t="n">
+      <c r="F26" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="G26" s="22"/>
-      <c r="H26" s="23" t="s">
+      <c r="G26" s="21"/>
+      <c r="H26" s="22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="22" t="s">
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="23" t="s">
+      <c r="B27" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="26" t="s">
+      <c r="D27" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="25" t="n">
+      <c r="E27" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="G27" s="22"/>
-      <c r="H27" s="23" t="s">
+      <c r="G27" s="21"/>
+      <c r="H27" s="22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="22" t="s">
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="23" t="s">
+      <c r="B28" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="24" t="s">
+      <c r="D28" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="22" t="s">
+      <c r="E28" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="25" t="n">
+      <c r="F28" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="G28" s="22"/>
-      <c r="H28" s="23" t="s">
+      <c r="G28" s="21"/>
+      <c r="H28" s="22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="22" t="s">
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="23" t="s">
+      <c r="B29" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="26" t="s">
+      <c r="D29" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" s="25" t="n">
+      <c r="E29" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="24" t="n">
         <v>7.5</v>
       </c>
-      <c r="G29" s="22"/>
-      <c r="H29" s="23" t="s">
+      <c r="G29" s="21"/>
+      <c r="H29" s="22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="22" t="s">
+    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="23" t="s">
+      <c r="B30" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="26" t="s">
+      <c r="D30" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="E30" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F30" s="25" t="n">
+      <c r="E30" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="24" t="n">
         <v>7.5</v>
       </c>
-      <c r="G30" s="22"/>
-      <c r="H30" s="23" t="s">
+      <c r="G30" s="21"/>
+      <c r="H30" s="22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="22" t="s">
+    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="23" t="s">
+      <c r="B31" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="24" t="s">
+      <c r="D31" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="E31" s="22" t="s">
+      <c r="E31" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F31" s="25" t="n">
-        <v>15</v>
-      </c>
-      <c r="G31" s="22"/>
-      <c r="H31" s="23" t="s">
+      <c r="F31" s="24" t="n">
+        <v>15</v>
+      </c>
+      <c r="G31" s="21"/>
+      <c r="H31" s="22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="22" t="s">
+    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="23" t="s">
+      <c r="B32" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="26" t="s">
+      <c r="D32" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="E32" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F32" s="25" t="n">
+      <c r="E32" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="24" t="n">
         <v>10</v>
       </c>
-      <c r="G32" s="22"/>
-      <c r="H32" s="23" t="s">
+      <c r="G32" s="21"/>
+      <c r="H32" s="22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="22" t="s">
+    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="23" t="s">
+      <c r="B33" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="24" t="s">
+      <c r="D33" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E33" s="22" t="s">
+      <c r="E33" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F33" s="25" t="n">
+      <c r="F33" s="24" t="n">
         <v>50</v>
       </c>
-      <c r="G33" s="22" t="n">
+      <c r="G33" s="21" t="n">
         <v>100</v>
       </c>
-      <c r="H33" s="23" t="s">
+      <c r="H33" s="22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="22" t="s">
+    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="23" t="s">
+      <c r="B34" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D34" s="26" t="s">
+      <c r="D34" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="E34" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F34" s="25" t="n">
+      <c r="E34" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="24" t="n">
         <v>50</v>
       </c>
-      <c r="G34" s="22"/>
-      <c r="H34" s="23" t="s">
+      <c r="G34" s="21"/>
+      <c r="H34" s="22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="22" t="s">
+    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="22" t="s">
+      <c r="B35" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D35" s="26" t="s">
+      <c r="D35" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E35" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F35" s="27" t="n">
+      <c r="E35" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="26" t="n">
         <v>60</v>
       </c>
-      <c r="G35" s="27" t="n">
+      <c r="G35" s="26" t="n">
         <v>100</v>
       </c>
-      <c r="H35" s="23" t="s">
+      <c r="H35" s="22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="22" t="s">
+    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="22" t="s">
+      <c r="B36" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="24" t="s">
+      <c r="D36" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="E36" s="22" t="s">
+      <c r="E36" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F36" s="27" t="n">
+      <c r="F36" s="26" t="n">
         <v>20</v>
       </c>
-      <c r="G36" s="27"/>
-      <c r="H36" s="23" t="s">
+      <c r="G36" s="26"/>
+      <c r="H36" s="22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="22" t="s">
+    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="22" t="s">
+      <c r="B37" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D37" s="26" t="s">
+      <c r="D37" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="E37" s="22" t="s">
+      <c r="E37" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F37" s="25" t="n">
+      <c r="F37" s="24" t="n">
         <v>20</v>
       </c>
-      <c r="G37" s="27"/>
-      <c r="H37" s="23" t="s">
+      <c r="G37" s="26"/>
+      <c r="H37" s="22" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H37">
-    <filterColumn colId="5">
-      <customFilters and="true">
-        <customFilter operator="equal" val="5"/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="0">
-      <customFilters and="true">
-        <customFilter operator="equal" val="Hypers"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H37"/>
   <mergeCells count="8">
     <mergeCell ref="G2:G7"/>
     <mergeCell ref="G8:G9"/>
@@ -1852,62 +1848,62 @@
   </sheetPr>
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="28.6173469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="32.6683673469388"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="24.9744897959184"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="29.2908163265306"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="24.4336734693878"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="25.3775510204082"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="27.4030612244898"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="28.3469387755102"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="46.5714285714286"/>
-    <col collapsed="false" hidden="false" max="1023" min="15" style="1" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="37.2040816326531"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="32.265306122449"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.3010204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="24.7040816326531"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="28.8877551020408"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="24.1632653061224"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="25.1071428571429"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="27.1326530612245"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="27.9438775510204"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="46.030612244898"/>
+    <col collapsed="false" hidden="false" max="1023" min="15" style="1" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.10204081632653"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="27" t="s">
         <v>50</v>
       </c>
       <c r="L1" s="3" t="s">
@@ -1927,13 +1923,13 @@
       <c r="D2" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="30" t="n">
+      <c r="E2" s="29" t="n">
         <v>0.5</v>
       </c>
-      <c r="F2" s="30" t="n">
+      <c r="F2" s="29" t="n">
         <v>0.5</v>
       </c>
-      <c r="G2" s="30"/>
+      <c r="G2" s="29"/>
       <c r="H2" s="13" t="s">
         <v>53</v>
       </c>
@@ -1965,13 +1961,13 @@
       <c r="D3" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="31" t="n">
+      <c r="E3" s="30" t="n">
         <v>0.35</v>
       </c>
-      <c r="F3" s="31" t="n">
+      <c r="F3" s="30" t="n">
         <v>0.4</v>
       </c>
-      <c r="G3" s="31"/>
+      <c r="G3" s="30"/>
       <c r="H3" s="18" t="s">
         <v>53</v>
       </c>
@@ -2003,13 +1999,13 @@
       <c r="D4" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="31" t="n">
+      <c r="E4" s="30" t="n">
         <v>0.55</v>
       </c>
-      <c r="F4" s="31" t="n">
+      <c r="F4" s="30" t="n">
         <v>0.55</v>
       </c>
-      <c r="G4" s="31"/>
+      <c r="G4" s="30"/>
       <c r="H4" s="18" t="s">
         <v>53</v>
       </c>
@@ -2041,13 +2037,13 @@
       <c r="D5" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="31" t="n">
+      <c r="E5" s="30" t="n">
         <v>0.5</v>
       </c>
-      <c r="F5" s="31" t="n">
+      <c r="F5" s="30" t="n">
         <v>0.5</v>
       </c>
-      <c r="G5" s="31"/>
+      <c r="G5" s="30"/>
       <c r="H5" s="18" t="s">
         <v>53</v>
       </c>
@@ -2083,10 +2079,10 @@
       <c r="D6" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="31" t="n">
+      <c r="E6" s="30" t="n">
         <v>0.4</v>
       </c>
-      <c r="F6" s="31" t="n">
+      <c r="F6" s="30" t="n">
         <v>0.45</v>
       </c>
       <c r="G6" s="18"/>
@@ -2121,13 +2117,13 @@
       <c r="D7" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="31" t="n">
+      <c r="E7" s="30" t="n">
         <v>0.7</v>
       </c>
-      <c r="F7" s="31" t="n">
+      <c r="F7" s="30" t="n">
         <v>0.8</v>
       </c>
-      <c r="G7" s="31"/>
+      <c r="G7" s="30"/>
       <c r="H7" s="18" t="s">
         <v>53</v>
       </c>
@@ -2147,114 +2143,114 @@
       <c r="N7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="32" t="n">
+      <c r="E8" s="31" t="n">
         <v>0.4</v>
       </c>
-      <c r="F8" s="32" t="n">
+      <c r="F8" s="31" t="n">
         <v>0.45</v>
       </c>
-      <c r="G8" s="32"/>
-      <c r="H8" s="26" t="s">
+      <c r="G8" s="31"/>
+      <c r="H8" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="26" t="s">
+      <c r="I8" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="J8" s="26" t="s">
+      <c r="J8" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="K8" s="26" t="s">
+      <c r="K8" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="L8" s="25" t="n">
+      <c r="L8" s="24" t="n">
         <v>25</v>
       </c>
       <c r="M8" s="0"/>
       <c r="N8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="32" t="n">
+      <c r="E9" s="31" t="n">
         <v>0.45</v>
       </c>
-      <c r="F9" s="32" t="n">
+      <c r="F9" s="31" t="n">
         <v>0.55</v>
       </c>
-      <c r="G9" s="32"/>
-      <c r="H9" s="26" t="s">
+      <c r="G9" s="31"/>
+      <c r="H9" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="26" t="s">
+      <c r="I9" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="J9" s="26" t="s">
+      <c r="J9" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="26" t="s">
+      <c r="K9" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="L9" s="25" t="n">
+      <c r="L9" s="24" t="n">
         <v>5</v>
       </c>
       <c r="M9" s="0"/>
       <c r="N9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="32" t="n">
+      <c r="E10" s="31" t="n">
         <v>0.5</v>
       </c>
-      <c r="F10" s="32" t="n">
+      <c r="F10" s="31" t="n">
         <v>0.5</v>
       </c>
-      <c r="G10" s="32"/>
-      <c r="H10" s="26" t="s">
+      <c r="G10" s="31"/>
+      <c r="H10" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="I10" s="26" t="s">
+      <c r="I10" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="J10" s="26" t="s">
+      <c r="J10" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="K10" s="26" t="s">
+      <c r="K10" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="L10" s="25" t="n">
+      <c r="L10" s="24" t="n">
         <v>15</v>
       </c>
       <c r="M10" s="1" t="s">
@@ -2265,38 +2261,38 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="32" t="n">
+      <c r="E11" s="31" t="n">
         <v>0.4</v>
       </c>
-      <c r="F11" s="32" t="n">
+      <c r="F11" s="31" t="n">
         <v>0.45</v>
       </c>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26" t="s">
+      <c r="G11" s="25"/>
+      <c r="H11" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="I11" s="26" t="s">
+      <c r="I11" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="J11" s="26" t="s">
+      <c r="J11" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="K11" s="26" t="s">
+      <c r="K11" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="L11" s="25" t="n">
+      <c r="L11" s="24" t="n">
         <v>50</v>
       </c>
       <c r="N11" s="1" t="s">
@@ -2304,38 +2300,38 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="33" t="n">
+      <c r="E12" s="32" t="n">
         <v>0.7</v>
       </c>
-      <c r="F12" s="33" t="n">
+      <c r="F12" s="32" t="n">
         <v>0.8</v>
       </c>
-      <c r="G12" s="24"/>
-      <c r="H12" s="26" t="s">
+      <c r="G12" s="23"/>
+      <c r="H12" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="I12" s="26" t="s">
+      <c r="I12" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="J12" s="26" t="s">
+      <c r="J12" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="K12" s="26" t="s">
+      <c r="K12" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="L12" s="27" t="n">
+      <c r="L12" s="26" t="n">
         <v>20</v>
       </c>
     </row>
@@ -2359,52 +2355,52 @@
   </sheetPr>
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F35" activeCellId="0" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="34.9795918367347"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.5204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="62.7704081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="25.1071428571429"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="32.6683673469388"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="34" width="22.4081632653061"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="22.5459183673469"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="28.6173469387755"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="1023" min="11" style="1" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="34.5561224489796"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.25"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="61.9591836734694"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="34.9795918367347"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="40.5969387755102"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="33" width="22.1377551020408"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="28.2142857142857"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1023" min="11" style="1" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.10204081632653"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="27" t="s">
         <v>71</v>
       </c>
       <c r="J1" s="3" t="s">
@@ -2421,7 +2417,7 @@
       <c r="C2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="34" t="s">
         <v>72</v>
       </c>
       <c r="E2" s="13" t="s">
@@ -2430,10 +2426,10 @@
       <c r="F2" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="30" t="n">
+      <c r="G2" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="H2" s="30" t="n">
+      <c r="H2" s="29" t="n">
         <v>1</v>
       </c>
       <c r="I2" s="9"/>
@@ -2451,19 +2447,19 @@
       <c r="C3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="34" t="s">
         <v>74</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="G3" s="30" t="n">
+      <c r="G3" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="H3" s="30" t="n">
+      <c r="H3" s="29" t="n">
         <v>1</v>
       </c>
       <c r="I3" s="9"/>
@@ -2481,7 +2477,7 @@
       <c r="C4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="34" t="s">
         <v>72</v>
       </c>
       <c r="E4" s="13" t="s">
@@ -2490,10 +2486,10 @@
       <c r="F4" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="30" t="n">
+      <c r="G4" s="29" t="n">
         <v>0.8</v>
       </c>
-      <c r="H4" s="30" t="n">
+      <c r="H4" s="29" t="n">
         <v>0.8</v>
       </c>
       <c r="I4" s="9"/>
@@ -2511,7 +2507,7 @@
       <c r="C5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="36" t="s">
         <v>78</v>
       </c>
       <c r="E5" s="13" t="s">
@@ -2520,8 +2516,8 @@
       <c r="F5" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
       <c r="I5" s="13" t="n">
         <v>1</v>
       </c>
@@ -2539,7 +2535,7 @@
       <c r="C6" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="38" t="s">
         <v>80</v>
       </c>
       <c r="E6" s="18" t="s">
@@ -2548,10 +2544,10 @@
       <c r="F6" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="G6" s="31" t="n">
+      <c r="G6" s="30" t="n">
         <v>0.8</v>
       </c>
-      <c r="H6" s="31" t="n">
+      <c r="H6" s="30" t="n">
         <v>0.8</v>
       </c>
       <c r="I6" s="16"/>
@@ -2569,7 +2565,7 @@
       <c r="C7" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="38" t="s">
         <v>82</v>
       </c>
       <c r="E7" s="18" t="s">
@@ -2578,10 +2574,10 @@
       <c r="F7" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="G7" s="31" t="n">
+      <c r="G7" s="30" t="n">
         <v>0.8</v>
       </c>
-      <c r="H7" s="31" t="n">
+      <c r="H7" s="30" t="n">
         <v>0.8</v>
       </c>
       <c r="I7" s="16"/>
@@ -2599,7 +2595,7 @@
       <c r="C8" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="38" t="s">
         <v>85</v>
       </c>
       <c r="E8" s="18" t="s">
@@ -2608,10 +2604,10 @@
       <c r="F8" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="31" t="n">
+      <c r="G8" s="30" t="n">
         <v>0.8</v>
       </c>
-      <c r="H8" s="31" t="n">
+      <c r="H8" s="30" t="n">
         <v>0.8</v>
       </c>
       <c r="I8" s="16"/>
@@ -2626,10 +2622,10 @@
       <c r="B9" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="39" t="s">
+      <c r="C9" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="38" t="s">
         <v>85</v>
       </c>
       <c r="E9" s="18" t="s">
@@ -2638,8 +2634,8 @@
       <c r="F9" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
       <c r="I9" s="16" t="n">
         <v>1</v>
       </c>
@@ -2657,7 +2653,7 @@
       <c r="C10" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="38" t="s">
         <v>87</v>
       </c>
       <c r="E10" s="18" t="s">
@@ -2666,10 +2662,10 @@
       <c r="F10" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="G10" s="31" t="n">
+      <c r="G10" s="30" t="n">
         <v>0.8</v>
       </c>
-      <c r="H10" s="31" t="n">
+      <c r="H10" s="30" t="n">
         <v>0.8</v>
       </c>
       <c r="I10" s="16"/>
@@ -2687,7 +2683,7 @@
       <c r="C11" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="D11" s="38" t="s">
         <v>89</v>
       </c>
       <c r="E11" s="18" t="s">
@@ -2696,10 +2692,10 @@
       <c r="F11" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="G11" s="31" t="n">
+      <c r="G11" s="30" t="n">
         <v>1</v>
       </c>
-      <c r="H11" s="31" t="n">
+      <c r="H11" s="30" t="n">
         <v>1</v>
       </c>
       <c r="I11" s="16"/>
@@ -2717,7 +2713,7 @@
       <c r="C12" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="D12" s="38" t="s">
         <v>72</v>
       </c>
       <c r="E12" s="18" t="s">
@@ -2726,222 +2722,222 @@
       <c r="F12" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="G12" s="31" t="n">
+      <c r="G12" s="30" t="n">
         <v>0.8</v>
       </c>
-      <c r="H12" s="31" t="n">
+      <c r="H12" s="30" t="n">
         <v>0.8</v>
       </c>
       <c r="I12" s="16"/>
-      <c r="J12" s="21" t="n">
+      <c r="J12" s="20" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="40" t="s">
+      <c r="C13" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="E13" s="26" t="s">
+      <c r="E13" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="G13" s="32" t="n">
+      <c r="G13" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="H13" s="32" t="n">
+      <c r="H13" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="I13" s="24"/>
-      <c r="J13" s="25" t="n">
+      <c r="I13" s="23"/>
+      <c r="J13" s="24" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="40" t="s">
+      <c r="C14" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="G14" s="32" t="n">
+      <c r="G14" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="H14" s="32" t="n">
+      <c r="H14" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="I14" s="24"/>
-      <c r="J14" s="25" t="n">
+      <c r="I14" s="23"/>
+      <c r="J14" s="24" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="40" t="s">
+      <c r="C15" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="G15" s="32" t="n">
+      <c r="G15" s="31" t="n">
         <v>0.8</v>
       </c>
-      <c r="H15" s="32" t="n">
+      <c r="H15" s="31" t="n">
         <v>0.8</v>
       </c>
-      <c r="I15" s="24"/>
-      <c r="J15" s="25" t="n">
+      <c r="I15" s="23"/>
+      <c r="J15" s="24" t="n">
         <v>7.5</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="D16" s="40" t="s">
+      <c r="D16" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="F16" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="G16" s="32" t="n">
+      <c r="G16" s="31" t="n">
         <v>0.8</v>
       </c>
-      <c r="H16" s="32" t="n">
+      <c r="H16" s="31" t="n">
         <v>0.9</v>
       </c>
-      <c r="I16" s="24"/>
-      <c r="J16" s="25" t="n">
+      <c r="I16" s="23"/>
+      <c r="J16" s="24" t="n">
         <v>7.5</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="40" t="s">
+      <c r="C17" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="26" t="s">
+      <c r="F17" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="24" t="n">
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="J17" s="25" t="n">
+      <c r="J17" s="24" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="40" t="s">
+      <c r="C18" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="E18" s="26" t="s">
+      <c r="E18" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="F18" s="26" t="s">
+      <c r="F18" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="G18" s="32" t="n">
+      <c r="G18" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="H18" s="32" t="n">
+      <c r="H18" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="I18" s="24"/>
-      <c r="J18" s="25" t="n">
+      <c r="I18" s="23"/>
+      <c r="J18" s="24" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="40" t="s">
+      <c r="C19" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="F19" s="26" t="s">
+      <c r="F19" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="G19" s="32" t="n">
+      <c r="G19" s="31" t="n">
         <v>0.8</v>
       </c>
-      <c r="H19" s="32" t="n">
+      <c r="H19" s="31" t="n">
         <v>0.8</v>
       </c>
-      <c r="I19" s="24"/>
-      <c r="J19" s="27" t="n">
+      <c r="I19" s="23"/>
+      <c r="J19" s="26" t="n">
         <v>60</v>
       </c>
     </row>
@@ -2971,71 +2967,70 @@
   </sheetPr>
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F25" activeCellId="0" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="34.6938775510204"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.3622448979592"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="36.3112244897959"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="52.2397959183674"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="24.8367346938776"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="25.2448979591837"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="28.6173469387755"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="17.4132653061224"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="24.1632653061224"/>
-    <col collapsed="false" hidden="false" max="1023" min="15" style="2" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="34.2857142857143"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="16.1428571428571"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="35.7704081632653"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="20.4642857142857"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="52.7295918367347"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="24.5663265306122"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="24.9744897959184"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="28.2142857142857"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="17.1428571428571"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="23.7602040816327"/>
+    <col collapsed="false" hidden="false" max="1023" min="15" style="2" width="11.0714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="J1" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="K1" s="40" t="s">
         <v>71</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="43" t="s">
+      <c r="M1" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="N1" s="41" t="s">
+      <c r="N1" s="40" t="s">
         <v>107</v>
       </c>
     </row>
@@ -3056,12 +3051,12 @@
         <v>109</v>
       </c>
       <c r="F2" s="13"/>
-      <c r="G2" s="37"/>
+      <c r="G2" s="36"/>
       <c r="H2" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="30"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="29"/>
       <c r="K2" s="13" t="n">
         <v>2</v>
       </c>
@@ -3086,18 +3081,18 @@
         <v>17</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F3" s="13"/>
-      <c r="G3" s="37"/>
+      <c r="G3" s="36"/>
       <c r="H3" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="I3" s="44"/>
-      <c r="J3" s="30"/>
+        <v>114</v>
+      </c>
+      <c r="I3" s="43"/>
+      <c r="J3" s="29"/>
       <c r="K3" s="13" t="n">
         <v>1</v>
       </c>
@@ -3105,10 +3100,10 @@
         <v>5</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N3" s="13" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3128,12 +3123,12 @@
         <v>109</v>
       </c>
       <c r="F4" s="13"/>
-      <c r="G4" s="35"/>
+      <c r="G4" s="34"/>
       <c r="H4" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="I4" s="30"/>
-      <c r="J4" s="45"/>
+        <v>117</v>
+      </c>
+      <c r="I4" s="29"/>
+      <c r="J4" s="44"/>
       <c r="K4" s="9" t="n">
         <v>1</v>
       </c>
@@ -3147,7 +3142,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="14" t="s">
         <v>26</v>
       </c>
@@ -3158,24 +3153,24 @@
         <v>17</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="E5" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="E5" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="G5" s="39" t="s">
+      <c r="F5" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="H5" s="39" t="s">
+      <c r="H5" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="I5" s="31" t="n">
+      <c r="I5" s="30" t="n">
         <v>0.8</v>
       </c>
-      <c r="J5" s="31" t="n">
+      <c r="J5" s="30" t="n">
         <v>0.8</v>
       </c>
       <c r="K5" s="16" t="n">
@@ -3191,7 +3186,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="14" t="s">
         <v>26</v>
       </c>
@@ -3204,19 +3199,19 @@
       <c r="D6" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="E6" s="39" t="s">
+      <c r="E6" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="F6" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="G6" s="39" t="s">
+      <c r="F6" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="H6" s="39" t="s">
+      <c r="H6" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="I6" s="31"/>
+      <c r="I6" s="30"/>
       <c r="J6" s="46"/>
       <c r="K6" s="16" t="n">
         <v>3</v>
@@ -3232,82 +3227,82 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="24" t="n">
+      <c r="F7" s="25"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="L7" s="25" t="n">
+      <c r="L7" s="24" t="n">
         <v>20</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="N7" s="26" t="s">
+      <c r="N7" s="25" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="22" t="s">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="E8" s="26" t="s">
+      <c r="D8" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="E8" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="G8" s="40" t="s">
+      <c r="F8" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="I8" s="32" t="n">
+      <c r="I8" s="31" t="n">
         <v>0.8</v>
       </c>
-      <c r="J8" s="32" t="n">
+      <c r="J8" s="31" t="n">
         <v>0.8</v>
       </c>
-      <c r="K8" s="24" t="n">
+      <c r="K8" s="23" t="n">
         <v>16</v>
       </c>
-      <c r="L8" s="25" t="n">
+      <c r="L8" s="24" t="n">
         <v>5</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="N8" s="26" t="s">
+      <c r="N8" s="25" t="s">
         <v>121</v>
       </c>
     </row>

--- a/Projects/MARSUAE/Data/Template.xlsx
+++ b/Projects/MARSUAE/Data/Template.xlsx
@@ -16,20 +16,21 @@
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Availability!$A$1:$N$8</definedName>
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Distribution!$A$1:$J$19</definedName>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPI!$A$1:$H$37</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPI!$A$1:$H$36</definedName>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">SOS!$A$1:$K$12</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="tg" vbProcedure="false">KPI!$A$1:$H$37</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">KPI!$A$1:$H$37</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">KPI!$A$1:$H$37</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">KPI!$A$1:$H$37</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0" vbProcedure="false">KPI!$A$1:$H$37</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$H$37</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$H$37</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$H$37</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_hj" vbProcedure="false">KPI!$A$1:$H$37</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_uhj" vbProcedure="false">KPI!$A$1:$H$37</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPI!$A$1:$H$37</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPI!$A$1:$H$37</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="tg" vbProcedure="false">KPI!$A$1:$H$36</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">KPI!$A$1:$H$36</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">KPI!$A$1:$H$36</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">KPI!$A$1:$H$36</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0" vbProcedure="false">KPI!$A$1:$H$36</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$H$36</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$H$36</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$H$36</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_hj" vbProcedure="false">KPI!$A$1:$H$36</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_uhj" vbProcedure="false">KPI!$A$1:$H$36</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPI!$A$1:$H$36</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPI!$A$1:$H$36</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPI!$A$1:$H$36</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="tg" vbProcedure="false">SOS!$A$1:$K$12</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_" vbProcedure="false">SOS!$A$1:$K$12</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0" vbProcedure="false">SOS!$A$1:$K$12</definedName>
@@ -41,6 +42,7 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_ol" vbProcedure="false">SOS!$A$1:$K$12</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">SOS!$A$1:$K$12</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">SOS!$A$1:$K$12</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">SOS!$A$1:$K$12</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="rghf" vbProcedure="false">Distribution!$A$1:$J$19</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0" vbProcedure="false">Distribution!$A$1:$J$19</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0_0" vbProcedure="false">Distribution!$A$1:$J$19</definedName>
@@ -50,8 +52,10 @@
     <definedName function="false" hidden="false" localSheetId="2" name="_gyui" vbProcedure="false">Distribution!$A$1:$J$19</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Distribution!$A$1:$J$19</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">Distribution!$A$1:$J$19</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Distribution!$A$1:$J$19</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Availability!$A$1:$N$8</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Availability!$A$1:$N$8</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Availability!$A$1:$N$8</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -63,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="124">
   <si>
     <t xml:space="preserve">Channel</t>
   </si>
@@ -185,9 +189,6 @@
     <t xml:space="preserve">All Others</t>
   </si>
   <si>
-    <t xml:space="preserve">Mars Linear SOS - Main Ice cream</t>
-  </si>
-  <si>
     <t xml:space="preserve">Atomic KPI</t>
   </si>
   <si>
@@ -261,9 +262,6 @@
   </si>
   <si>
     <t xml:space="preserve">Checkout Gum </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other</t>
   </si>
   <si>
     <t xml:space="preserve">scene_type</t>
@@ -512,6 +510,7 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -605,7 +604,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -730,6 +729,10 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -786,16 +789,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -891,24 +886,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMF37"/>
+  <dimension ref="A1:AMF36"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G40" activeCellId="0" sqref="G40"/>
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.3622448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="22.9489795918367"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="19.3061224489796"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="22.9489795918367"/>
-    <col collapsed="false" hidden="false" max="1019" min="9" style="1" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="1020" min="1020" style="2" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="22.6785714285714"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="19.0357142857143"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="22.6785714285714"/>
+    <col collapsed="false" hidden="false" max="1019" min="9" style="1" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1020" min="1020" style="2" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1021" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1476,7 +1472,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="21" t="s">
         <v>39</v>
       </c>
@@ -1502,7 +1498,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="21" t="s">
         <v>39</v>
       </c>
@@ -1526,7 +1522,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="21" t="s">
         <v>39</v>
       </c>
@@ -1536,21 +1532,21 @@
       <c r="C26" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="23" t="s">
-        <v>40</v>
+      <c r="D26" s="25" t="s">
+        <v>19</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F26" s="24" t="n">
         <v>5</v>
       </c>
       <c r="G26" s="21"/>
       <c r="H26" s="22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="21" t="s">
         <v>39</v>
       </c>
@@ -1560,21 +1556,21 @@
       <c r="C27" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="25" t="s">
-        <v>19</v>
+      <c r="D27" s="23" t="s">
+        <v>31</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F27" s="24" t="n">
         <v>5</v>
       </c>
       <c r="G27" s="21"/>
       <c r="H27" s="22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="21" t="s">
         <v>39</v>
       </c>
@@ -1584,21 +1580,21 @@
       <c r="C28" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="23" t="s">
-        <v>31</v>
+      <c r="D28" s="25" t="s">
+        <v>22</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F28" s="24" t="n">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="G28" s="21"/>
       <c r="H28" s="22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="21" t="s">
         <v>39</v>
       </c>
@@ -1622,7 +1618,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="21" t="s">
         <v>39</v>
       </c>
@@ -1632,21 +1628,21 @@
       <c r="C30" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="25" t="s">
-        <v>22</v>
+      <c r="D30" s="23" t="s">
+        <v>33</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F30" s="24" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="G30" s="21"/>
       <c r="H30" s="22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="21" t="s">
         <v>39</v>
       </c>
@@ -1656,18 +1652,18 @@
       <c r="C31" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="23" t="s">
-        <v>33</v>
+      <c r="D31" s="25" t="s">
+        <v>34</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F31" s="24" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G31" s="21"/>
       <c r="H31" s="22" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1678,20 +1674,22 @@
         <v>9</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="25" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>36</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F32" s="24" t="n">
-        <v>10</v>
-      </c>
-      <c r="G32" s="21"/>
+        <v>50</v>
+      </c>
+      <c r="G32" s="21" t="n">
+        <v>100</v>
+      </c>
       <c r="H32" s="22" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1704,20 +1702,18 @@
       <c r="C33" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="23" t="s">
-        <v>36</v>
+      <c r="D33" s="25" t="s">
+        <v>37</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F33" s="24" t="n">
         <v>50</v>
       </c>
-      <c r="G33" s="21" t="n">
-        <v>100</v>
-      </c>
+      <c r="G33" s="21"/>
       <c r="H33" s="22" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1727,21 +1723,23 @@
       <c r="B34" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="22" t="s">
-        <v>35</v>
+      <c r="C34" s="21" t="s">
+        <v>23</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E34" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="24" t="n">
-        <v>50</v>
-      </c>
-      <c r="G34" s="21"/>
+      <c r="F34" s="26" t="n">
+        <v>60</v>
+      </c>
+      <c r="G34" s="26" t="n">
+        <v>100</v>
+      </c>
       <c r="H34" s="22" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1754,18 +1752,16 @@
       <c r="C35" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D35" s="25" t="s">
-        <v>24</v>
+      <c r="D35" s="23" t="s">
+        <v>38</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F35" s="26" t="n">
-        <v>60</v>
-      </c>
-      <c r="G35" s="26" t="n">
-        <v>100</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G35" s="26"/>
       <c r="H35" s="22" t="s">
         <v>13</v>
       </c>
@@ -1780,55 +1776,31 @@
       <c r="C36" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="23" t="s">
-        <v>38</v>
+      <c r="D36" s="25" t="s">
+        <v>25</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" s="26" t="n">
+        <v>17</v>
+      </c>
+      <c r="F36" s="24" t="n">
         <v>20</v>
       </c>
       <c r="G36" s="26"/>
       <c r="H36" s="22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D37" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="F37" s="24" t="n">
-        <v>20</v>
-      </c>
-      <c r="G37" s="26"/>
-      <c r="H37" s="22" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H37"/>
+  <autoFilter ref="A1:H36"/>
   <mergeCells count="8">
     <mergeCell ref="G2:G7"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="G10:G19"/>
     <mergeCell ref="G20:G21"/>
     <mergeCell ref="G22:G23"/>
-    <mergeCell ref="G24:G32"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G35:G37"/>
+    <mergeCell ref="G24:G31"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="G34:G36"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
@@ -1846,30 +1818,30 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="37.2040816326531"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="32.265306122449"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.3010204081633"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="24.7040816326531"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="28.8877551020408"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="24.1632653061224"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="25.1071428571429"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="27.1326530612245"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="27.9438775510204"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="46.030612244898"/>
-    <col collapsed="false" hidden="false" max="1023" min="15" style="1" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="36.719387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="39.8214285714286"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="23.8928571428571"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="24.4336734693878"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="28.484693877551"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="23.7602040816327"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="24.8367346938776"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="26.7295918367347"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="27.6734693877551"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="45.4897959183674"/>
+    <col collapsed="false" hidden="false" max="1023" min="15" style="1" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="7.96428571428571"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1877,34 +1849,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="D1" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="E1" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="F1" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="G1" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="H1" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="I1" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="J1" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="K1" s="27" t="s">
         <v>49</v>
-      </c>
-      <c r="K1" s="27" t="s">
-        <v>50</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>5</v>
@@ -1918,10 +1890,10 @@
         <v>11</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>51</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>52</v>
       </c>
       <c r="E2" s="29" t="n">
         <v>0.5</v>
@@ -1931,16 +1903,16 @@
       </c>
       <c r="G2" s="29"/>
       <c r="H2" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="J2" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="K2" s="13" t="s">
         <v>55</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>56</v>
       </c>
       <c r="L2" s="10" t="n">
         <v>25</v>
@@ -1956,10 +1928,10 @@
         <v>11</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E3" s="30" t="n">
         <v>0.35</v>
@@ -1969,16 +1941,16 @@
       </c>
       <c r="G3" s="30"/>
       <c r="H3" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="J3" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="K3" s="18" t="s">
         <v>55</v>
-      </c>
-      <c r="K3" s="18" t="s">
-        <v>56</v>
       </c>
       <c r="L3" s="17" t="n">
         <v>25</v>
@@ -1994,10 +1966,10 @@
         <v>31</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E4" s="30" t="n">
         <v>0.55</v>
@@ -2007,16 +1979,16 @@
       </c>
       <c r="G4" s="30"/>
       <c r="H4" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="J4" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="K4" s="18" t="s">
         <v>55</v>
-      </c>
-      <c r="K4" s="18" t="s">
-        <v>56</v>
       </c>
       <c r="L4" s="17" t="n">
         <v>5</v>
@@ -2032,10 +2004,10 @@
         <v>33</v>
       </c>
       <c r="C5" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="18" t="s">
         <v>59</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>60</v>
       </c>
       <c r="E5" s="30" t="n">
         <v>0.5</v>
@@ -2045,25 +2017,25 @@
       </c>
       <c r="G5" s="30"/>
       <c r="H5" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="I5" s="18" t="s">
+      <c r="J5" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="J5" s="18" t="s">
+      <c r="K5" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="K5" s="18" t="s">
-        <v>56</v>
-      </c>
       <c r="L5" s="17" t="n">
         <v>15</v>
       </c>
       <c r="M5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N5" s="0" t="s">
         <v>61</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2074,10 +2046,10 @@
         <v>36</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E6" s="30" t="n">
         <v>0.4</v>
@@ -2087,16 +2059,16 @@
       </c>
       <c r="G6" s="18"/>
       <c r="H6" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="J6" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="J6" s="18" t="s">
-        <v>55</v>
-      </c>
       <c r="K6" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L6" s="14" t="n">
         <v>50</v>
@@ -2112,10 +2084,10 @@
         <v>38</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E7" s="30" t="n">
         <v>0.7</v>
@@ -2125,13 +2097,13 @@
       </c>
       <c r="G7" s="30"/>
       <c r="H7" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="J7" s="18" t="s">
         <v>54</v>
-      </c>
-      <c r="J7" s="18" t="s">
-        <v>55</v>
       </c>
       <c r="K7" s="18" t="s">
         <v>23</v>
@@ -2142,37 +2114,37 @@
       <c r="M7" s="0"/>
       <c r="N7" s="0"/>
     </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="21" t="s">
-        <v>66</v>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="31" t="s">
+        <v>39</v>
       </c>
       <c r="B8" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="31" t="n">
+        <v>56</v>
+      </c>
+      <c r="E8" s="32" t="n">
         <v>0.4</v>
       </c>
-      <c r="F8" s="31" t="n">
+      <c r="F8" s="32" t="n">
         <v>0.45</v>
       </c>
-      <c r="G8" s="31"/>
+      <c r="G8" s="32"/>
       <c r="H8" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="25" t="s">
+      <c r="J8" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="J8" s="25" t="s">
+      <c r="K8" s="25" t="s">
         <v>55</v>
-      </c>
-      <c r="K8" s="25" t="s">
-        <v>56</v>
       </c>
       <c r="L8" s="24" t="n">
         <v>25</v>
@@ -2180,37 +2152,37 @@
       <c r="M8" s="0"/>
       <c r="N8" s="0"/>
     </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="21" t="s">
-        <v>66</v>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="31" t="s">
+        <v>39</v>
       </c>
       <c r="B9" s="23" t="s">
         <v>31</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="31" t="n">
+        <v>57</v>
+      </c>
+      <c r="E9" s="32" t="n">
         <v>0.45</v>
       </c>
-      <c r="F9" s="31" t="n">
+      <c r="F9" s="32" t="n">
         <v>0.55</v>
       </c>
-      <c r="G9" s="31"/>
+      <c r="G9" s="32"/>
       <c r="H9" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="25" t="s">
+      <c r="J9" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="J9" s="25" t="s">
+      <c r="K9" s="25" t="s">
         <v>55</v>
-      </c>
-      <c r="K9" s="25" t="s">
-        <v>56</v>
       </c>
       <c r="L9" s="24" t="n">
         <v>5</v>
@@ -2218,115 +2190,115 @@
       <c r="M9" s="0"/>
       <c r="N9" s="0"/>
     </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="21" t="s">
-        <v>66</v>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="31" t="s">
+        <v>39</v>
       </c>
       <c r="B10" s="23" t="s">
         <v>33</v>
       </c>
       <c r="C10" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="E10" s="32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G10" s="32"/>
+      <c r="H10" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="J10" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="L10" s="24" t="n">
+        <v>15</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="31" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F10" s="31" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G10" s="31"/>
-      <c r="H10" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="I10" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="J10" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="K10" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="L10" s="24" t="n">
-        <v>15</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="N10" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="31" t="s">
+        <v>39</v>
       </c>
       <c r="B11" s="23" t="s">
         <v>36</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="31" t="n">
+        <v>62</v>
+      </c>
+      <c r="E11" s="32" t="n">
         <v>0.4</v>
       </c>
-      <c r="F11" s="31" t="n">
+      <c r="F11" s="32" t="n">
         <v>0.45</v>
       </c>
       <c r="G11" s="25"/>
       <c r="H11" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="I11" s="25" t="s">
+      <c r="J11" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="J11" s="25" t="s">
-        <v>55</v>
-      </c>
       <c r="K11" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L11" s="24" t="n">
         <v>50</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="21" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="31" t="s">
+        <v>39</v>
       </c>
       <c r="B12" s="23" t="s">
         <v>38</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="32" t="n">
+        <v>64</v>
+      </c>
+      <c r="E12" s="33" t="n">
         <v>0.7</v>
       </c>
-      <c r="F12" s="32" t="n">
+      <c r="F12" s="33" t="n">
         <v>0.8</v>
       </c>
       <c r="G12" s="23"/>
       <c r="H12" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="I12" s="25" t="s">
+      <c r="J12" s="25" t="s">
         <v>54</v>
-      </c>
-      <c r="J12" s="25" t="s">
-        <v>55</v>
       </c>
       <c r="K12" s="25" t="s">
         <v>23</v>
@@ -2335,6 +2307,7 @@
         <v>20</v>
       </c>
     </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <autoFilter ref="A1:K12"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2350,7 +2323,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="true">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:J19"/>
@@ -2361,18 +2334,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="34.5561224489796"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.25"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="61.9591836734694"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="34.9795918367347"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="40.5969387755102"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="33" width="22.1377551020408"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="22.2755102040816"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="28.2142857142857"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="1023" min="11" style="1" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="34.1530612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="19.9795918367347"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="61.2857142857143"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="34.5561224489796"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="40.0918367346939"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="34" width="21.8673469387755"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="22.0051020408163"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1023" min="11" style="1" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="7.96428571428571"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2380,34 +2353,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="D1" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="G1" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="27" t="s">
         <v>69</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" s="27" t="s">
-        <v>71</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
         <v>8</v>
       </c>
@@ -2417,14 +2390,14 @@
       <c r="C2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="34" t="s">
-        <v>72</v>
+      <c r="D2" s="35" t="s">
+        <v>70</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G2" s="29" t="n">
         <v>1</v>
@@ -2437,7 +2410,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="25.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
@@ -2447,14 +2420,14 @@
       <c r="C3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="36" t="s">
         <v>74</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>76</v>
       </c>
       <c r="G3" s="29" t="n">
         <v>1</v>
@@ -2467,7 +2440,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
@@ -2477,14 +2450,14 @@
       <c r="C4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="34" t="s">
-        <v>72</v>
+      <c r="D4" s="35" t="s">
+        <v>70</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G4" s="29" t="n">
         <v>0.8</v>
@@ -2497,7 +2470,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
@@ -2507,17 +2480,17 @@
       <c r="C5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="36" t="s">
-        <v>78</v>
+      <c r="D5" s="37" t="s">
+        <v>76</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
+        <v>64</v>
+      </c>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
       <c r="I5" s="13" t="n">
         <v>1</v>
       </c>
@@ -2535,14 +2508,14 @@
       <c r="C6" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="38" t="s">
-        <v>80</v>
+      <c r="D6" s="39" t="s">
+        <v>78</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G6" s="30" t="n">
         <v>0.8</v>
@@ -2565,14 +2538,14 @@
       <c r="C7" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" s="18" t="s">
         <v>82</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>84</v>
       </c>
       <c r="G7" s="30" t="n">
         <v>0.8</v>
@@ -2595,14 +2568,14 @@
       <c r="C8" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="38" t="s">
-        <v>85</v>
+      <c r="D8" s="39" t="s">
+        <v>83</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G8" s="30" t="n">
         <v>0.8</v>
@@ -2625,14 +2598,14 @@
       <c r="C9" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="38" t="s">
-        <v>85</v>
+      <c r="D9" s="39" t="s">
+        <v>83</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G9" s="30"/>
       <c r="H9" s="30"/>
@@ -2653,14 +2626,14 @@
       <c r="C10" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="38" t="s">
-        <v>87</v>
+      <c r="D10" s="39" t="s">
+        <v>85</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G10" s="30" t="n">
         <v>0.8</v>
@@ -2683,14 +2656,14 @@
       <c r="C11" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="38" t="s">
-        <v>89</v>
+      <c r="D11" s="39" t="s">
+        <v>87</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G11" s="30" t="n">
         <v>1</v>
@@ -2713,14 +2686,14 @@
       <c r="C12" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="38" t="s">
-        <v>72</v>
+      <c r="D12" s="39" t="s">
+        <v>70</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G12" s="30" t="n">
         <v>0.8</v>
@@ -2733,7 +2706,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="21" t="s">
         <v>39</v>
       </c>
@@ -2743,19 +2716,19 @@
       <c r="C13" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="39" t="s">
-        <v>92</v>
+      <c r="D13" s="40" t="s">
+        <v>90</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="G13" s="31" t="n">
+        <v>56</v>
+      </c>
+      <c r="G13" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="H13" s="31" t="n">
+      <c r="H13" s="32" t="n">
         <v>1</v>
       </c>
       <c r="I13" s="23"/>
@@ -2763,7 +2736,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="21" t="s">
         <v>39</v>
       </c>
@@ -2773,19 +2746,19 @@
       <c r="C14" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="39" t="s">
-        <v>94</v>
+      <c r="D14" s="40" t="s">
+        <v>92</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="G14" s="31" t="n">
+        <v>82</v>
+      </c>
+      <c r="G14" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="H14" s="31" t="n">
+      <c r="H14" s="32" t="n">
         <v>1</v>
       </c>
       <c r="I14" s="23"/>
@@ -2793,7 +2766,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="21" t="s">
         <v>39</v>
       </c>
@@ -2803,19 +2776,19 @@
       <c r="C15" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="39" t="s">
-        <v>74</v>
+      <c r="D15" s="40" t="s">
+        <v>72</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="G15" s="31" t="n">
+        <v>57</v>
+      </c>
+      <c r="G15" s="32" t="n">
         <v>0.8</v>
       </c>
-      <c r="H15" s="31" t="n">
+      <c r="H15" s="32" t="n">
         <v>0.8</v>
       </c>
       <c r="I15" s="23"/>
@@ -2823,7 +2796,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="21" t="s">
         <v>39</v>
       </c>
@@ -2831,21 +2804,21 @@
         <v>32</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="D16" s="39" t="s">
-        <v>74</v>
+        <v>95</v>
+      </c>
+      <c r="D16" s="40" t="s">
+        <v>72</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="G16" s="31" t="n">
+        <v>57</v>
+      </c>
+      <c r="G16" s="32" t="n">
         <v>0.8</v>
       </c>
-      <c r="H16" s="31" t="n">
+      <c r="H16" s="32" t="n">
         <v>0.9</v>
       </c>
       <c r="I16" s="23"/>
@@ -2853,7 +2826,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="21" t="s">
         <v>39</v>
       </c>
@@ -2863,17 +2836,17 @@
       <c r="C17" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="39" t="s">
-        <v>87</v>
+      <c r="D17" s="40" t="s">
+        <v>85</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
+        <v>59</v>
+      </c>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
       <c r="I17" s="23" t="n">
         <v>2</v>
       </c>
@@ -2881,7 +2854,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="21" t="s">
         <v>39</v>
       </c>
@@ -2891,19 +2864,19 @@
       <c r="C18" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="39" t="s">
-        <v>99</v>
+      <c r="D18" s="40" t="s">
+        <v>97</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="G18" s="31" t="n">
+        <v>62</v>
+      </c>
+      <c r="G18" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="H18" s="31" t="n">
+      <c r="H18" s="32" t="n">
         <v>1</v>
       </c>
       <c r="I18" s="23"/>
@@ -2911,7 +2884,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="21" t="s">
         <v>39</v>
       </c>
@@ -2921,19 +2894,19 @@
       <c r="C19" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="39" t="s">
-        <v>72</v>
+      <c r="D19" s="40" t="s">
+        <v>70</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="G19" s="31" t="n">
+        <v>64</v>
+      </c>
+      <c r="G19" s="32" t="n">
         <v>0.8</v>
       </c>
-      <c r="H19" s="31" t="n">
+      <c r="H19" s="32" t="n">
         <v>0.8</v>
       </c>
       <c r="I19" s="23"/>
@@ -2942,13 +2915,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J19">
-    <filterColumn colId="0">
-      <customFilters and="true">
-        <customFilter operator="equal" val="Hypers"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:J19"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2968,70 +2935,71 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F25" activeCellId="0" sqref="F25"/>
+      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="34.2857142857143"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="16.1428571428571"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="35.7704081632653"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="20.4642857142857"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="52.7295918367347"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="24.9744897959184"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="28.2142857142857"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="17.1428571428571"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="23.7602040816327"/>
-    <col collapsed="false" hidden="false" max="1023" min="15" style="2" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="33.8826530612245"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="35.234693877551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="20.1122448979592"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="52.1071428571429"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="24.3010204081633"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="24.7040816326531"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="16.8724489795918"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="23.3520408163265"/>
+    <col collapsed="false" hidden="false" max="1023" min="15" style="2" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="D1" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="E1" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="G1" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="H1" s="40" t="s">
+      <c r="I1" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="J1" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="K1" s="40" t="s">
-        <v>71</v>
+      <c r="K1" s="41" t="s">
+        <v>69</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="N1" s="40" t="s">
-        <v>107</v>
+      <c r="M1" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="N1" s="41" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3045,17 +3013,17 @@
         <v>17</v>
       </c>
       <c r="D2" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" s="13"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="I2" s="43"/>
+      <c r="I2" s="44"/>
       <c r="J2" s="29"/>
       <c r="K2" s="13" t="n">
         <v>2</v>
@@ -3064,10 +3032,10 @@
         <v>5</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3081,17 +3049,17 @@
         <v>17</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F3" s="13"/>
-      <c r="G3" s="36"/>
+      <c r="G3" s="37"/>
       <c r="H3" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="I3" s="43"/>
+        <v>112</v>
+      </c>
+      <c r="I3" s="44"/>
       <c r="J3" s="29"/>
       <c r="K3" s="13" t="n">
         <v>1</v>
@@ -3100,10 +3068,10 @@
         <v>5</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N3" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3117,18 +3085,18 @@
         <v>17</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F4" s="13"/>
-      <c r="G4" s="34"/>
+      <c r="G4" s="35"/>
       <c r="H4" s="13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I4" s="29"/>
-      <c r="J4" s="44"/>
+      <c r="J4" s="45"/>
       <c r="K4" s="9" t="n">
         <v>1</v>
       </c>
@@ -3136,10 +3104,10 @@
         <v>20</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3153,19 +3121,19 @@
         <v>17</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="E5" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="F5" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="G5" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="H5" s="38" t="s">
-        <v>76</v>
+      <c r="H5" s="39" t="s">
+        <v>74</v>
       </c>
       <c r="I5" s="30" t="n">
         <v>0.8</v>
@@ -3180,10 +3148,10 @@
         <v>2.5</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N5" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3197,19 +3165,19 @@
         <v>17</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="E6" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="F6" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="H6" s="38" t="s">
-        <v>76</v>
+      <c r="H6" s="39" t="s">
+        <v>74</v>
       </c>
       <c r="I6" s="30"/>
       <c r="J6" s="46"/>
@@ -3220,10 +3188,10 @@
         <v>2.5</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N6" s="18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3237,18 +3205,18 @@
         <v>17</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F7" s="25"/>
-      <c r="G7" s="39"/>
+      <c r="G7" s="40"/>
       <c r="H7" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
+        <v>115</v>
+      </c>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
       <c r="K7" s="23" t="n">
         <v>1</v>
       </c>
@@ -3256,10 +3224,10 @@
         <v>20</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N7" s="25" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3273,24 +3241,24 @@
         <v>17</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="F8" s="47" t="s">
+        <v>117</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="39" t="s">
-        <v>54</v>
-      </c>
       <c r="H8" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="I8" s="31" t="n">
+        <v>74</v>
+      </c>
+      <c r="I8" s="32" t="n">
         <v>0.8</v>
       </c>
-      <c r="J8" s="31" t="n">
+      <c r="J8" s="32" t="n">
         <v>0.8</v>
       </c>
       <c r="K8" s="23" t="n">
@@ -3300,10 +3268,10 @@
         <v>5</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N8" s="25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/MARSUAE/Data/Template.xlsx
+++ b/Projects/MARSUAE/Data/Template.xlsx
@@ -16,21 +16,22 @@
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Availability!$A$1:$N$8</definedName>
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Distribution!$A$1:$J$19</definedName>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPI!$A$1:$H$36</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPI!$A$1:$H$37</definedName>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">SOS!$A$1:$K$12</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="tg" vbProcedure="false">KPI!$A$1:$H$36</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">KPI!$A$1:$H$36</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">KPI!$A$1:$H$36</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">KPI!$A$1:$H$36</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0" vbProcedure="false">KPI!$A$1:$H$36</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$H$36</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$H$36</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$H$36</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_hj" vbProcedure="false">KPI!$A$1:$H$36</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_uhj" vbProcedure="false">KPI!$A$1:$H$36</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPI!$A$1:$H$36</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPI!$A$1:$H$36</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPI!$A$1:$H$36</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="tg" vbProcedure="false">KPI!$A$1:$H$37</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">KPI!$A$1:$H$37</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">KPI!$A$1:$H$37</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">KPI!$A$1:$H$37</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0" vbProcedure="false">KPI!$A$1:$H$37</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$H$37</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$H$37</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$H$37</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_hj" vbProcedure="false">KPI!$A$1:$H$37</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_uhj" vbProcedure="false">KPI!$A$1:$H$37</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPI!$A$1:$H$37</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPI!$A$1:$H$37</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPI!$A$1:$H$37</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPI!$A$1:$H$37</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="tg" vbProcedure="false">SOS!$A$1:$K$12</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_" vbProcedure="false">SOS!$A$1:$K$12</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0" vbProcedure="false">SOS!$A$1:$K$12</definedName>
@@ -43,6 +44,7 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">SOS!$A$1:$K$12</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">SOS!$A$1:$K$12</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">SOS!$A$1:$K$12</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">SOS!$A$1:$K$12</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="rghf" vbProcedure="false">Distribution!$A$1:$J$19</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0" vbProcedure="false">Distribution!$A$1:$J$19</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0_0" vbProcedure="false">Distribution!$A$1:$J$19</definedName>
@@ -53,9 +55,11 @@
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Distribution!$A$1:$J$19</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">Distribution!$A$1:$J$19</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Distribution!$A$1:$J$19</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Distribution!$A$1:$J$19</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Availability!$A$1:$N$8</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Availability!$A$1:$N$8</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Availability!$A$1:$N$8</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Availability!$A$1:$N$8</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -67,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="124">
   <si>
     <t xml:space="preserve">Channel</t>
   </si>
@@ -452,7 +456,7 @@
     <numFmt numFmtId="167" formatCode="@"/>
     <numFmt numFmtId="168" formatCode="0"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -507,12 +511,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -604,7 +602,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -726,10 +724,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -886,25 +880,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMF36"/>
+  <dimension ref="A1:AMF37"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="22.6785714285714"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="19.0357142857143"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="22.6785714285714"/>
-    <col collapsed="false" hidden="false" max="1019" min="9" style="1" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="1020" min="1020" style="2" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="1021" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.5"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="22.4081632653061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="18.765306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="22.4081632653061"/>
+    <col collapsed="false" hidden="false" max="1019" min="9" style="1" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1020" min="1020" style="2" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1025" min="1021" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1666,7 +1660,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="21" t="s">
         <v>39</v>
       </c>
@@ -1674,22 +1668,20 @@
         <v>9</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32" s="23" t="s">
-        <v>36</v>
+        <v>10</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>27</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F32" s="24" t="n">
-        <v>50</v>
-      </c>
-      <c r="G32" s="21" t="n">
-        <v>100</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G32" s="21"/>
       <c r="H32" s="22" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1702,18 +1694,20 @@
       <c r="C33" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="25" t="s">
-        <v>37</v>
+      <c r="D33" s="23" t="s">
+        <v>36</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F33" s="24" t="n">
         <v>50</v>
       </c>
-      <c r="G33" s="21"/>
+      <c r="G33" s="21" t="n">
+        <v>100</v>
+      </c>
       <c r="H33" s="22" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1723,23 +1717,21 @@
       <c r="B34" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="21" t="s">
-        <v>23</v>
+      <c r="C34" s="22" t="s">
+        <v>35</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E34" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="26" t="n">
-        <v>60</v>
-      </c>
-      <c r="G34" s="26" t="n">
-        <v>100</v>
-      </c>
+      <c r="F34" s="24" t="n">
+        <v>50</v>
+      </c>
+      <c r="G34" s="21"/>
       <c r="H34" s="22" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1752,16 +1744,18 @@
       <c r="C35" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D35" s="23" t="s">
-        <v>38</v>
+      <c r="D35" s="25" t="s">
+        <v>24</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F35" s="26" t="n">
-        <v>20</v>
-      </c>
-      <c r="G35" s="26"/>
+        <v>60</v>
+      </c>
+      <c r="G35" s="26" t="n">
+        <v>100</v>
+      </c>
       <c r="H35" s="22" t="s">
         <v>13</v>
       </c>
@@ -1776,31 +1770,55 @@
       <c r="C36" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="25" t="s">
-        <v>25</v>
+      <c r="D36" s="23" t="s">
+        <v>38</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="F36" s="24" t="n">
+        <v>12</v>
+      </c>
+      <c r="F36" s="26" t="n">
         <v>20</v>
       </c>
       <c r="G36" s="26"/>
       <c r="H36" s="22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" s="24" t="n">
+        <v>20</v>
+      </c>
+      <c r="G37" s="26"/>
+      <c r="H37" s="22" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H36"/>
+  <autoFilter ref="A1:H37"/>
   <mergeCells count="8">
     <mergeCell ref="G2:G7"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="G10:G19"/>
     <mergeCell ref="G20:G21"/>
     <mergeCell ref="G22:G23"/>
-    <mergeCell ref="G24:G31"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="G34:G36"/>
+    <mergeCell ref="G24:G32"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G35:G37"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
@@ -1826,22 +1844,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="36.719387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="39.8214285714286"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="23.8928571428571"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="24.4336734693878"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="28.484693877551"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="23.7602040816327"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="24.8367346938776"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="26.7295918367347"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="27.6734693877551"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="45.4897959183674"/>
-    <col collapsed="false" hidden="false" max="1023" min="15" style="1" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="36.3112244897959"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="39.4183673469388"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="23.4897959183673"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="24.1632653061224"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="28.0765306122449"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="23.3520408163265"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="24.5663265306122"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="26.3214285714286"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="27.4030612244898"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="44.8163265306122"/>
+    <col collapsed="false" hidden="false" max="1023" min="15" style="1" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="7.83163265306122"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2115,7 +2133,7 @@
       <c r="N7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="21" t="s">
         <v>39</v>
       </c>
       <c r="B8" s="23" t="s">
@@ -2127,13 +2145,13 @@
       <c r="D8" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="32" t="n">
+      <c r="E8" s="31" t="n">
         <v>0.4</v>
       </c>
-      <c r="F8" s="32" t="n">
+      <c r="F8" s="31" t="n">
         <v>0.45</v>
       </c>
-      <c r="G8" s="32"/>
+      <c r="G8" s="31"/>
       <c r="H8" s="25" t="s">
         <v>52</v>
       </c>
@@ -2153,7 +2171,7 @@
       <c r="N8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="21" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="23" t="s">
@@ -2165,13 +2183,13 @@
       <c r="D9" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="32" t="n">
+      <c r="E9" s="31" t="n">
         <v>0.45</v>
       </c>
-      <c r="F9" s="32" t="n">
+      <c r="F9" s="31" t="n">
         <v>0.55</v>
       </c>
-      <c r="G9" s="32"/>
+      <c r="G9" s="31"/>
       <c r="H9" s="25" t="s">
         <v>52</v>
       </c>
@@ -2191,7 +2209,7 @@
       <c r="N9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="21" t="s">
         <v>39</v>
       </c>
       <c r="B10" s="23" t="s">
@@ -2203,13 +2221,13 @@
       <c r="D10" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="32" t="n">
+      <c r="E10" s="31" t="n">
         <v>0.5</v>
       </c>
-      <c r="F10" s="32" t="n">
+      <c r="F10" s="31" t="n">
         <v>0.5</v>
       </c>
-      <c r="G10" s="32"/>
+      <c r="G10" s="31"/>
       <c r="H10" s="25" t="s">
         <v>52</v>
       </c>
@@ -2233,7 +2251,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="21" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="23" t="s">
@@ -2245,10 +2263,10 @@
       <c r="D11" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="32" t="n">
+      <c r="E11" s="31" t="n">
         <v>0.4</v>
       </c>
-      <c r="F11" s="32" t="n">
+      <c r="F11" s="31" t="n">
         <v>0.45</v>
       </c>
       <c r="G11" s="25"/>
@@ -2272,7 +2290,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="21" t="s">
         <v>39</v>
       </c>
       <c r="B12" s="23" t="s">
@@ -2284,10 +2302,10 @@
       <c r="D12" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="33" t="n">
+      <c r="E12" s="32" t="n">
         <v>0.7</v>
       </c>
-      <c r="F12" s="33" t="n">
+      <c r="F12" s="32" t="n">
         <v>0.8</v>
       </c>
       <c r="G12" s="23"/>
@@ -2334,18 +2352,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="34.1530612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="19.9795918367347"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="61.2857142857143"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="34.5561224489796"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="40.0918367346939"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="34" width="21.8673469387755"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="22.0051020408163"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="1023" min="11" style="1" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="33.75"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="19.7091836734694"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="60.6122448979592"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="34.1530612244898"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="39.6887755102041"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="33" width="21.5969387755102"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="21.734693877551"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1023" min="11" style="1" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="7.83163265306122"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2390,7 +2408,7 @@
       <c r="C2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="34" t="s">
         <v>70</v>
       </c>
       <c r="E2" s="13" t="s">
@@ -2420,13 +2438,13 @@
       <c r="C3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="34" t="s">
         <v>72</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="35" t="s">
         <v>74</v>
       </c>
       <c r="G3" s="29" t="n">
@@ -2450,7 +2468,7 @@
       <c r="C4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="34" t="s">
         <v>70</v>
       </c>
       <c r="E4" s="13" t="s">
@@ -2480,7 +2498,7 @@
       <c r="C5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="36" t="s">
         <v>76</v>
       </c>
       <c r="E5" s="13" t="s">
@@ -2489,8 +2507,8 @@
       <c r="F5" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
       <c r="I5" s="13" t="n">
         <v>1</v>
       </c>
@@ -2508,7 +2526,7 @@
       <c r="C6" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="38" t="s">
         <v>78</v>
       </c>
       <c r="E6" s="18" t="s">
@@ -2538,7 +2556,7 @@
       <c r="C7" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="38" t="s">
         <v>80</v>
       </c>
       <c r="E7" s="18" t="s">
@@ -2568,7 +2586,7 @@
       <c r="C8" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="38" t="s">
         <v>83</v>
       </c>
       <c r="E8" s="18" t="s">
@@ -2598,7 +2616,7 @@
       <c r="C9" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="38" t="s">
         <v>83</v>
       </c>
       <c r="E9" s="18" t="s">
@@ -2626,7 +2644,7 @@
       <c r="C10" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="38" t="s">
         <v>85</v>
       </c>
       <c r="E10" s="18" t="s">
@@ -2656,7 +2674,7 @@
       <c r="C11" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="D11" s="38" t="s">
         <v>87</v>
       </c>
       <c r="E11" s="18" t="s">
@@ -2686,7 +2704,7 @@
       <c r="C12" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="D12" s="38" t="s">
         <v>70</v>
       </c>
       <c r="E12" s="18" t="s">
@@ -2716,7 +2734,7 @@
       <c r="C13" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="40" t="s">
+      <c r="D13" s="39" t="s">
         <v>90</v>
       </c>
       <c r="E13" s="25" t="s">
@@ -2725,10 +2743,10 @@
       <c r="F13" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="G13" s="32" t="n">
+      <c r="G13" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="H13" s="32" t="n">
+      <c r="H13" s="31" t="n">
         <v>1</v>
       </c>
       <c r="I13" s="23"/>
@@ -2746,7 +2764,7 @@
       <c r="C14" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="40" t="s">
+      <c r="D14" s="39" t="s">
         <v>92</v>
       </c>
       <c r="E14" s="25" t="s">
@@ -2755,10 +2773,10 @@
       <c r="F14" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="G14" s="32" t="n">
+      <c r="G14" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="H14" s="32" t="n">
+      <c r="H14" s="31" t="n">
         <v>1</v>
       </c>
       <c r="I14" s="23"/>
@@ -2776,7 +2794,7 @@
       <c r="C15" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="40" t="s">
+      <c r="D15" s="39" t="s">
         <v>72</v>
       </c>
       <c r="E15" s="25" t="s">
@@ -2785,10 +2803,10 @@
       <c r="F15" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="G15" s="32" t="n">
+      <c r="G15" s="31" t="n">
         <v>0.8</v>
       </c>
-      <c r="H15" s="32" t="n">
+      <c r="H15" s="31" t="n">
         <v>0.8</v>
       </c>
       <c r="I15" s="23"/>
@@ -2806,7 +2824,7 @@
       <c r="C16" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="D16" s="40" t="s">
+      <c r="D16" s="39" t="s">
         <v>72</v>
       </c>
       <c r="E16" s="25" t="s">
@@ -2815,10 +2833,10 @@
       <c r="F16" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="G16" s="32" t="n">
+      <c r="G16" s="31" t="n">
         <v>0.8</v>
       </c>
-      <c r="H16" s="32" t="n">
+      <c r="H16" s="31" t="n">
         <v>0.9</v>
       </c>
       <c r="I16" s="23"/>
@@ -2836,7 +2854,7 @@
       <c r="C17" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="40" t="s">
+      <c r="D17" s="39" t="s">
         <v>85</v>
       </c>
       <c r="E17" s="25" t="s">
@@ -2845,8 +2863,8 @@
       <c r="F17" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
       <c r="I17" s="23" t="n">
         <v>2</v>
       </c>
@@ -2864,7 +2882,7 @@
       <c r="C18" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="40" t="s">
+      <c r="D18" s="39" t="s">
         <v>97</v>
       </c>
       <c r="E18" s="25" t="s">
@@ -2873,10 +2891,10 @@
       <c r="F18" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="G18" s="32" t="n">
+      <c r="G18" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="H18" s="32" t="n">
+      <c r="H18" s="31" t="n">
         <v>1</v>
       </c>
       <c r="I18" s="23"/>
@@ -2894,7 +2912,7 @@
       <c r="C19" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="40" t="s">
+      <c r="D19" s="39" t="s">
         <v>70</v>
       </c>
       <c r="E19" s="25" t="s">
@@ -2903,10 +2921,10 @@
       <c r="F19" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="G19" s="32" t="n">
+      <c r="G19" s="31" t="n">
         <v>0.8</v>
       </c>
-      <c r="H19" s="32" t="n">
+      <c r="H19" s="31" t="n">
         <v>0.8</v>
       </c>
       <c r="I19" s="23"/>
@@ -2935,70 +2953,70 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
+      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="33.8826530612245"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="35.234693877551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="20.1122448979592"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="52.1071428571429"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="24.3010204081633"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="24.7040816326531"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="23.3520408163265"/>
-    <col collapsed="false" hidden="false" max="1023" min="15" style="2" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="33.4795918367347"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="34.8265306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="19.8418367346939"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="51.5663265306123"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="23.8928571428571"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="24.4336734693878"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="16.6020408163265"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="22.9489795918367"/>
+    <col collapsed="false" hidden="false" max="1023" min="15" style="2" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="J1" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="K1" s="40" t="s">
         <v>69</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="43" t="s">
+      <c r="M1" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="N1" s="41" t="s">
+      <c r="N1" s="40" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3019,11 +3037,11 @@
         <v>107</v>
       </c>
       <c r="F2" s="13"/>
-      <c r="G2" s="37"/>
+      <c r="G2" s="36"/>
       <c r="H2" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="I2" s="44"/>
+      <c r="I2" s="43"/>
       <c r="J2" s="29"/>
       <c r="K2" s="13" t="n">
         <v>2</v>
@@ -3055,11 +3073,11 @@
         <v>112</v>
       </c>
       <c r="F3" s="13"/>
-      <c r="G3" s="37"/>
+      <c r="G3" s="36"/>
       <c r="H3" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="I3" s="44"/>
+      <c r="I3" s="43"/>
       <c r="J3" s="29"/>
       <c r="K3" s="13" t="n">
         <v>1</v>
@@ -3091,12 +3109,12 @@
         <v>107</v>
       </c>
       <c r="F4" s="13"/>
-      <c r="G4" s="35"/>
+      <c r="G4" s="34"/>
       <c r="H4" s="13" t="s">
         <v>115</v>
       </c>
       <c r="I4" s="29"/>
-      <c r="J4" s="45"/>
+      <c r="J4" s="44"/>
       <c r="K4" s="9" t="n">
         <v>1</v>
       </c>
@@ -3123,16 +3141,16 @@
       <c r="D5" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="38" t="s">
         <v>117</v>
       </c>
       <c r="F5" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="39" t="s">
+      <c r="G5" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="H5" s="39" t="s">
+      <c r="H5" s="38" t="s">
         <v>74</v>
       </c>
       <c r="I5" s="30" t="n">
@@ -3167,20 +3185,20 @@
       <c r="D6" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="E6" s="39" t="s">
+      <c r="E6" s="38" t="s">
         <v>121</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="39" t="s">
+      <c r="G6" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="H6" s="39" t="s">
+      <c r="H6" s="38" t="s">
         <v>74</v>
       </c>
       <c r="I6" s="30"/>
-      <c r="J6" s="46"/>
+      <c r="J6" s="45"/>
       <c r="K6" s="16" t="n">
         <v>3</v>
       </c>
@@ -3211,12 +3229,12 @@
         <v>107</v>
       </c>
       <c r="F7" s="25"/>
-      <c r="G7" s="40"/>
+      <c r="G7" s="39"/>
       <c r="H7" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
       <c r="K7" s="23" t="n">
         <v>1</v>
       </c>
@@ -3249,16 +3267,16 @@
       <c r="F8" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="40" t="s">
+      <c r="G8" s="39" t="s">
         <v>53</v>
       </c>
       <c r="H8" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="I8" s="32" t="n">
+      <c r="I8" s="31" t="n">
         <v>0.8</v>
       </c>
-      <c r="J8" s="32" t="n">
+      <c r="J8" s="31" t="n">
         <v>0.8</v>
       </c>
       <c r="K8" s="23" t="n">

--- a/Projects/MARSUAE/Data/Template.xlsx
+++ b/Projects/MARSUAE/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="KPI" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,65 +13,17 @@
     <sheet name="Distribution" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Availability" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
-  <definedNames>
-    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Availability!$A$1:$N$8</definedName>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Distribution!$A$1:$J$19</definedName>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPI!$A$1:$H$37</definedName>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">SOS!$A$1:$K$12</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="tg" vbProcedure="false">KPI!$A$1:$H$37</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">KPI!$A$1:$H$37</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">KPI!$A$1:$H$37</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">KPI!$A$1:$H$37</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0" vbProcedure="false">KPI!$A$1:$H$37</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$H$37</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$H$37</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$H$37</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_hj" vbProcedure="false">KPI!$A$1:$H$37</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_uhj" vbProcedure="false">KPI!$A$1:$H$37</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPI!$A$1:$H$37</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPI!$A$1:$H$37</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPI!$A$1:$H$37</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPI!$A$1:$H$37</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="tg" vbProcedure="false">SOS!$A$1:$K$12</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_" vbProcedure="false">SOS!$A$1:$K$12</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0" vbProcedure="false">SOS!$A$1:$K$12</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0" vbProcedure="false">SOS!$A$1:$K$12</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0" vbProcedure="false">SOS!$A$1:$K$12</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0" vbProcedure="false">SOS!$A$1:$K$12</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">SOS!$A$1:$K$12</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">SOS!$A$1:$K$12</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_ol" vbProcedure="false">SOS!$A$1:$K$12</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">SOS!$A$1:$K$12</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">SOS!$A$1:$K$12</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">SOS!$A$1:$K$12</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">SOS!$A$1:$K$12</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="rghf" vbProcedure="false">Distribution!$A$1:$J$19</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0" vbProcedure="false">Distribution!$A$1:$J$19</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0_0" vbProcedure="false">Distribution!$A$1:$J$19</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0_0_0" vbProcedure="false">Distribution!$A$1:$J$19</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0_0_0_0" vbProcedure="false">Distribution!$A$1:$J$19</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_gfd" vbProcedure="false">Distribution!$A$1:$J$19</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_gyui" vbProcedure="false">Distribution!$A$1:$J$19</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Distribution!$A$1:$J$19</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">Distribution!$A$1:$J$19</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Distribution!$A$1:$J$19</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Distribution!$A$1:$J$19</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Availability!$A$1:$N$8</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Availability!$A$1:$N$8</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Availability!$A$1:$N$8</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Availability!$A$1:$N$8</definedName>
-  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="123">
   <si>
     <t xml:space="preserve">Channel</t>
   </si>
@@ -356,9 +308,6 @@
   </si>
   <si>
     <t xml:space="preserve">Other MSL - Checkout Choc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distribution at least 1</t>
   </si>
   <si>
     <t xml:space="preserve">Other MSL - Display Choc</t>
@@ -456,7 +405,7 @@
     <numFmt numFmtId="167" formatCode="@"/>
     <numFmt numFmtId="168" formatCode="0"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -511,6 +460,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -602,39 +556,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -727,6 +673,10 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -735,10 +685,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="167" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -760,6 +706,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -859,22 +809,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -882,952 +816,938 @@
   </sheetPr>
   <dimension ref="A1:AMF37"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D34" activeCellId="0" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.5"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="22.4081632653061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="18.765306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="22.4081632653061"/>
-    <col collapsed="false" hidden="false" max="1019" min="9" style="1" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="1020" min="1020" style="2" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="1025" min="1021" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AMF1" s="2"/>
+      <c r="AMF1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="8" t="s">
+      <c r="B2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="10" t="n">
+      <c r="F2" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="G2" s="10" t="n">
+      <c r="G2" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="10" t="n">
+      <c r="E3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="8" t="n">
         <v>35</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="8" t="s">
+      <c r="G3" s="8"/>
+      <c r="H3" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="8" t="s">
+      <c r="B4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="12" t="n">
+      <c r="F4" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="8" t="s">
+      <c r="G4" s="8"/>
+      <c r="H4" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="8" t="s">
+      <c r="B5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="12" t="n">
+      <c r="E5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="8" t="s">
+      <c r="G5" s="8"/>
+      <c r="H5" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="8" t="s">
+      <c r="B6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="12" t="n">
+      <c r="F6" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="8" t="s">
+      <c r="G6" s="8"/>
+      <c r="H6" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="8" t="s">
+      <c r="B7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="12" t="n">
+      <c r="E7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="10" t="n">
         <v>20</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="8" t="s">
+      <c r="G7" s="8"/>
+      <c r="H7" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="8" t="s">
+      <c r="B8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="10" t="n">
+      <c r="E8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="8" t="n">
         <v>80</v>
       </c>
-      <c r="G8" s="10" t="n">
+      <c r="G8" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="8" t="s">
+      <c r="B9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="12" t="n">
+      <c r="F9" s="10" t="n">
         <v>20</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="8" t="s">
+      <c r="G9" s="8"/>
+      <c r="H9" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="15" t="s">
+      <c r="B10" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="17" t="n">
+      <c r="F10" s="15" t="n">
         <v>25</v>
       </c>
-      <c r="G10" s="14" t="n">
+      <c r="G10" s="12" t="n">
         <v>100</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="15" t="s">
+      <c r="B11" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="17" t="n">
+      <c r="E11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="15" t="n">
         <v>20</v>
       </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="15" t="s">
+      <c r="G11" s="12"/>
+      <c r="H11" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="15" t="s">
+      <c r="B12" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="17" t="n">
+      <c r="F12" s="15" t="n">
         <v>2.5</v>
       </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="15" t="s">
+      <c r="G12" s="12"/>
+      <c r="H12" s="13" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="15" t="s">
+      <c r="B13" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="17" t="n">
+      <c r="F13" s="15" t="n">
         <v>2.5</v>
       </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="15" t="s">
+      <c r="G13" s="12"/>
+      <c r="H13" s="13" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="15" t="s">
+      <c r="B14" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="17" t="n">
+      <c r="E14" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="15" t="s">
+      <c r="G14" s="12"/>
+      <c r="H14" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="15" t="s">
+      <c r="B15" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="17" t="n">
+      <c r="F15" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="G15" s="14"/>
-      <c r="H15" s="15" t="s">
+      <c r="G15" s="12"/>
+      <c r="H15" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14" t="s">
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="15" t="s">
+      <c r="B16" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="17" t="n">
+      <c r="E16" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="15" t="n">
         <v>7.5</v>
       </c>
-      <c r="G16" s="14"/>
-      <c r="H16" s="15" t="s">
+      <c r="G16" s="12"/>
+      <c r="H16" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="15" t="s">
+      <c r="B17" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="17" t="n">
+      <c r="E17" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="15" t="n">
         <v>7.5</v>
       </c>
-      <c r="G17" s="14"/>
-      <c r="H17" s="15" t="s">
+      <c r="G17" s="12"/>
+      <c r="H17" s="13" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="15" t="s">
+      <c r="B18" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="17" t="n">
-        <v>15</v>
-      </c>
-      <c r="G18" s="14"/>
-      <c r="H18" s="15" t="s">
+      <c r="F18" s="15" t="n">
+        <v>15</v>
+      </c>
+      <c r="G18" s="12"/>
+      <c r="H18" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="15" t="s">
+      <c r="B19" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="17" t="n">
+      <c r="E19" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="15" t="n">
         <v>10</v>
       </c>
-      <c r="G19" s="14"/>
-      <c r="H19" s="15" t="s">
+      <c r="G19" s="12"/>
+      <c r="H19" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="15" t="s">
+      <c r="B20" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E20" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="14" t="n">
+      <c r="F20" s="12" t="n">
         <v>50</v>
       </c>
-      <c r="G20" s="14" t="n">
+      <c r="G20" s="12" t="n">
         <v>100</v>
       </c>
-      <c r="H20" s="15" t="s">
+      <c r="H20" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="15" t="s">
+      <c r="B21" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="14" t="n">
+      <c r="E21" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="12" t="n">
         <v>50</v>
       </c>
-      <c r="G21" s="14"/>
-      <c r="H21" s="15" t="s">
+      <c r="G21" s="12"/>
+      <c r="H21" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="15" t="s">
+      <c r="B22" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="20" t="n">
+      <c r="E22" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="18" t="n">
         <v>50</v>
       </c>
-      <c r="G22" s="20" t="n">
+      <c r="G22" s="18" t="n">
         <v>100</v>
       </c>
-      <c r="H22" s="15" t="s">
+      <c r="H22" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="15" t="s">
+      <c r="B23" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="17" t="n">
+      <c r="F23" s="15" t="n">
         <v>50</v>
       </c>
-      <c r="G23" s="20"/>
-      <c r="H23" s="15" t="s">
+      <c r="G23" s="18"/>
+      <c r="H23" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="21" t="s">
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="22" t="s">
+      <c r="B24" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="21" t="s">
+      <c r="E24" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="24" t="n">
+      <c r="F24" s="22" t="n">
         <v>25</v>
       </c>
-      <c r="G24" s="21" t="n">
+      <c r="G24" s="19" t="n">
         <v>100</v>
       </c>
-      <c r="H24" s="22" t="s">
+      <c r="H24" s="20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="21" t="s">
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="22" t="s">
+      <c r="B25" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="24" t="n">
+      <c r="E25" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="22" t="n">
         <v>20</v>
       </c>
-      <c r="G25" s="21"/>
-      <c r="H25" s="22" t="s">
+      <c r="G25" s="19"/>
+      <c r="H25" s="20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="21" t="s">
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="22" t="s">
+      <c r="B26" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="25" t="s">
+      <c r="D26" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="24" t="n">
+      <c r="E26" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="22" t="n">
         <v>5</v>
       </c>
-      <c r="G26" s="21"/>
-      <c r="H26" s="22" t="s">
+      <c r="G26" s="19"/>
+      <c r="H26" s="20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="21" t="s">
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="22" t="s">
+      <c r="B27" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="21" t="s">
+      <c r="E27" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F27" s="24" t="n">
+      <c r="F27" s="22" t="n">
         <v>5</v>
       </c>
-      <c r="G27" s="21"/>
-      <c r="H27" s="22" t="s">
+      <c r="G27" s="19"/>
+      <c r="H27" s="20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="21" t="s">
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="22" t="s">
+      <c r="B28" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="25" t="s">
+      <c r="D28" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" s="24" t="n">
+      <c r="E28" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="22" t="n">
         <v>7.5</v>
       </c>
-      <c r="G28" s="21"/>
-      <c r="H28" s="22" t="s">
+      <c r="G28" s="19"/>
+      <c r="H28" s="20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="21" t="s">
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="22" t="s">
+      <c r="B29" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" s="24" t="n">
+      <c r="D29" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="22" t="n">
         <v>7.5</v>
       </c>
-      <c r="G29" s="21"/>
-      <c r="H29" s="22" t="s">
+      <c r="G29" s="19"/>
+      <c r="H29" s="20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="21" t="s">
+    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="22" t="s">
+      <c r="B30" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D30" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="21" t="s">
+      <c r="E30" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F30" s="24" t="n">
-        <v>15</v>
-      </c>
-      <c r="G30" s="21"/>
-      <c r="H30" s="22" t="s">
+      <c r="F30" s="22" t="n">
+        <v>15</v>
+      </c>
+      <c r="G30" s="19"/>
+      <c r="H30" s="20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="21" t="s">
+    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="22" t="s">
+      <c r="B31" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="25" t="s">
+      <c r="D31" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F31" s="24" t="n">
+      <c r="E31" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="G31" s="21"/>
-      <c r="H31" s="22" t="s">
+      <c r="G31" s="19"/>
+      <c r="H31" s="20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="21" t="s">
+    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="22" t="s">
+      <c r="B32" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="25" t="s">
+      <c r="D32" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="21" t="s">
+      <c r="E32" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="F32" s="24" t="n">
+      <c r="F32" s="22" t="n">
         <v>5</v>
       </c>
-      <c r="G32" s="21"/>
-      <c r="H32" s="22" t="s">
+      <c r="G32" s="19"/>
+      <c r="H32" s="20" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="22" t="s">
+      <c r="B33" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="23" t="s">
+      <c r="D33" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E33" s="21" t="s">
+      <c r="E33" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F33" s="24" t="n">
+      <c r="F33" s="22" t="n">
         <v>50</v>
       </c>
-      <c r="G33" s="21" t="n">
+      <c r="G33" s="19" t="n">
         <v>100</v>
       </c>
-      <c r="H33" s="22" t="s">
+      <c r="H33" s="20" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="22" t="s">
+      <c r="B34" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D34" s="25" t="s">
+      <c r="D34" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="E34" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F34" s="24" t="n">
+      <c r="E34" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="22" t="n">
         <v>50</v>
       </c>
-      <c r="G34" s="21"/>
-      <c r="H34" s="22" t="s">
+      <c r="G34" s="19"/>
+      <c r="H34" s="20" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="21" t="s">
+      <c r="B35" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D35" s="25" t="s">
+      <c r="D35" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E35" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F35" s="26" t="n">
+      <c r="E35" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="24" t="n">
         <v>60</v>
       </c>
-      <c r="G35" s="26" t="n">
+      <c r="G35" s="24" t="n">
         <v>100</v>
       </c>
-      <c r="H35" s="22" t="s">
+      <c r="H35" s="20" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="21" t="s">
+      <c r="B36" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="23" t="s">
+      <c r="D36" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E36" s="21" t="s">
+      <c r="E36" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F36" s="26" t="n">
+      <c r="F36" s="24" t="n">
         <v>20</v>
       </c>
-      <c r="G36" s="26"/>
-      <c r="H36" s="22" t="s">
+      <c r="G36" s="24"/>
+      <c r="H36" s="20" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="21" t="s">
+      <c r="B37" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D37" s="25" t="s">
+      <c r="D37" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E37" s="21" t="s">
+      <c r="E37" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="F37" s="24" t="n">
+      <c r="F37" s="22" t="n">
         <v>20</v>
       </c>
-      <c r="G37" s="26"/>
-      <c r="H37" s="22" t="s">
+      <c r="G37" s="24"/>
+      <c r="H37" s="20" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H37"/>
-  <mergeCells count="8">
-    <mergeCell ref="G2:G7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G10:G19"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="G24:G32"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G35:G37"/>
-  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1836,220 +1756,213 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N65536"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="36.3112244897959"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="39.4183673469388"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="23.4897959183673"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="24.1632653061224"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="28.0765306122449"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="23.3520408163265"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="26.3214285714286"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="27.4030612244898"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="44.8163265306122"/>
-    <col collapsed="false" hidden="false" max="1023" min="15" style="1" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.1020408163265"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.4744897959184"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="252.974489795918"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.25"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.4132653061224"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="19.7091836734694"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="49.5408163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="29" t="n">
+      <c r="E2" s="27" t="n">
         <v>0.5</v>
       </c>
-      <c r="F2" s="29" t="n">
+      <c r="F2" s="27" t="n">
         <v>0.5</v>
       </c>
-      <c r="G2" s="29"/>
-      <c r="H2" s="13" t="s">
+      <c r="G2" s="27"/>
+      <c r="H2" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="L2" s="10" t="n">
+      <c r="L2" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="M2" s="0"/>
-      <c r="N2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="30" t="n">
+      <c r="E3" s="28" t="n">
         <v>0.35</v>
       </c>
-      <c r="F3" s="30" t="n">
+      <c r="F3" s="28" t="n">
         <v>0.4</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="18" t="s">
+      <c r="G3" s="28"/>
+      <c r="H3" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="L3" s="17" t="n">
+      <c r="L3" s="15" t="n">
         <v>25</v>
       </c>
-      <c r="M3" s="0"/>
-      <c r="N3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="30" t="n">
+      <c r="E4" s="28" t="n">
         <v>0.55</v>
       </c>
-      <c r="F4" s="30" t="n">
+      <c r="F4" s="28" t="n">
         <v>0.55</v>
       </c>
-      <c r="G4" s="30"/>
-      <c r="H4" s="18" t="s">
+      <c r="G4" s="28"/>
+      <c r="H4" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="L4" s="17" t="n">
+      <c r="L4" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="M4" s="0"/>
-      <c r="N4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="30" t="n">
+      <c r="E5" s="28" t="n">
         <v>0.5</v>
       </c>
-      <c r="F5" s="30" t="n">
+      <c r="F5" s="28" t="n">
         <v>0.5</v>
       </c>
-      <c r="G5" s="30"/>
-      <c r="H5" s="18" t="s">
+      <c r="G5" s="28"/>
+      <c r="H5" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="I5" s="18" t="s">
+      <c r="I5" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="J5" s="18" t="s">
+      <c r="J5" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="K5" s="18" t="s">
+      <c r="K5" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="L5" s="17" t="n">
-        <v>15</v>
-      </c>
-      <c r="M5" s="1" t="s">
+      <c r="L5" s="15" t="n">
+        <v>15</v>
+      </c>
+      <c r="M5" s="29" t="s">
         <v>60</v>
       </c>
       <c r="N5" s="0" t="s">
@@ -2057,285 +1970,274 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="30" t="n">
+      <c r="E6" s="28" t="n">
         <v>0.4</v>
       </c>
-      <c r="F6" s="30" t="n">
+      <c r="F6" s="28" t="n">
         <v>0.45</v>
       </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18" t="s">
+      <c r="G6" s="16"/>
+      <c r="H6" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="I6" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="J6" s="18" t="s">
+      <c r="J6" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="K6" s="18" t="s">
+      <c r="K6" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="L6" s="14" t="n">
+      <c r="L6" s="12" t="n">
         <v>50</v>
       </c>
-      <c r="M6" s="0"/>
-      <c r="N6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="30" t="n">
+      <c r="E7" s="28" t="n">
         <v>0.7</v>
       </c>
-      <c r="F7" s="30" t="n">
+      <c r="F7" s="28" t="n">
         <v>0.8</v>
       </c>
-      <c r="G7" s="30"/>
-      <c r="H7" s="18" t="s">
+      <c r="G7" s="28"/>
+      <c r="H7" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="I7" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="J7" s="18" t="s">
+      <c r="J7" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="K7" s="18" t="s">
+      <c r="K7" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="L7" s="17" t="n">
+      <c r="L7" s="15" t="n">
         <v>50</v>
       </c>
-      <c r="M7" s="0"/>
-      <c r="N7" s="0"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="21" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="31" t="n">
+      <c r="E8" s="30" t="n">
         <v>0.4</v>
       </c>
-      <c r="F8" s="31" t="n">
+      <c r="F8" s="30" t="n">
         <v>0.45</v>
       </c>
-      <c r="G8" s="31"/>
-      <c r="H8" s="25" t="s">
+      <c r="G8" s="30"/>
+      <c r="H8" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="I8" s="25" t="s">
+      <c r="I8" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="J8" s="25" t="s">
+      <c r="J8" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="25" t="s">
+      <c r="K8" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="L8" s="24" t="n">
+      <c r="L8" s="22" t="n">
         <v>25</v>
       </c>
-      <c r="M8" s="0"/>
-      <c r="N8" s="0"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="21" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="31" t="n">
+      <c r="E9" s="30" t="n">
         <v>0.45</v>
       </c>
-      <c r="F9" s="31" t="n">
+      <c r="F9" s="30" t="n">
         <v>0.55</v>
       </c>
-      <c r="G9" s="31"/>
-      <c r="H9" s="25" t="s">
+      <c r="G9" s="30"/>
+      <c r="H9" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="I9" s="25" t="s">
+      <c r="I9" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="J9" s="25" t="s">
+      <c r="J9" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="25" t="s">
+      <c r="K9" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="L9" s="24" t="n">
+      <c r="L9" s="22" t="n">
         <v>5</v>
       </c>
-      <c r="M9" s="0"/>
-      <c r="N9" s="0"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="21" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="31" t="n">
+      <c r="E10" s="30" t="n">
         <v>0.5</v>
       </c>
-      <c r="F10" s="31" t="n">
+      <c r="F10" s="30" t="n">
         <v>0.5</v>
       </c>
-      <c r="G10" s="31"/>
-      <c r="H10" s="25" t="s">
+      <c r="G10" s="30"/>
+      <c r="H10" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="I10" s="25" t="s">
+      <c r="I10" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="J10" s="25" t="s">
+      <c r="J10" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="25" t="s">
+      <c r="K10" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="L10" s="24" t="n">
-        <v>15</v>
-      </c>
-      <c r="M10" s="1" t="s">
+      <c r="L10" s="22" t="n">
+        <v>15</v>
+      </c>
+      <c r="M10" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="N10" s="29" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="21" t="s">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="31" t="n">
+      <c r="E11" s="30" t="n">
         <v>0.4</v>
       </c>
-      <c r="F11" s="31" t="n">
+      <c r="F11" s="30" t="n">
         <v>0.45</v>
       </c>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25" t="s">
+      <c r="G11" s="23"/>
+      <c r="H11" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="25" t="s">
+      <c r="I11" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="J11" s="25" t="s">
+      <c r="J11" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="K11" s="25" t="s">
+      <c r="K11" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="L11" s="24" t="n">
+      <c r="L11" s="22" t="n">
         <v>50</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="N11" s="29" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="21" t="s">
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="32" t="n">
+      <c r="E12" s="31" t="n">
         <v>0.7</v>
       </c>
-      <c r="F12" s="32" t="n">
+      <c r="F12" s="31" t="n">
         <v>0.8</v>
       </c>
-      <c r="G12" s="23"/>
-      <c r="H12" s="25" t="s">
+      <c r="G12" s="21"/>
+      <c r="H12" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="I12" s="25" t="s">
+      <c r="I12" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="J12" s="25" t="s">
+      <c r="J12" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="K12" s="25" t="s">
+      <c r="K12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="L12" s="26" t="n">
+      <c r="L12" s="24" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:K12"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2346,602 +2248,597 @@
   </sheetPr>
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F35" activeCellId="0" sqref="F35"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="33.75"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="19.7091836734694"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="60.6122448979592"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="34.1530612244898"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="39.6887755102041"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="33" width="21.5969387755102"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="21.734693877551"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="27.5408163265306"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="1023" min="11" style="1" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5714285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.1632653061224"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.265306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="64.6530612244898"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="34.0816326530612"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.8724489795918"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.3010204081633"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.5816326530612"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="24.9081632653061"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.48469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="34" t="s">
+      <c r="C2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="29" t="n">
+      <c r="G2" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="H2" s="29" t="n">
+      <c r="H2" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="10" t="n">
+      <c r="I2" s="7"/>
+      <c r="J2" s="8" t="n">
         <v>35</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
+    <row r="3" customFormat="false" ht="89.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="34" t="s">
+      <c r="C3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="G3" s="29" t="n">
+      <c r="G3" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="H3" s="29" t="n">
+      <c r="H3" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="12" t="n">
+      <c r="I3" s="7"/>
+      <c r="J3" s="10" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="34" t="s">
+      <c r="C4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="G4" s="29" t="n">
+      <c r="G4" s="27" t="n">
         <v>0.8</v>
       </c>
-      <c r="H4" s="29" t="n">
+      <c r="H4" s="27" t="n">
         <v>0.8</v>
       </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="12" t="n">
+      <c r="I4" s="7"/>
+      <c r="J4" s="10" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="36" t="s">
+      <c r="C5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="13" t="n">
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="J5" s="10" t="n">
+      <c r="J5" s="8" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="38" t="s">
+      <c r="C6" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="30" t="n">
+      <c r="G6" s="28" t="n">
         <v>0.8</v>
       </c>
-      <c r="H6" s="30" t="n">
+      <c r="H6" s="28" t="n">
         <v>0.8</v>
       </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="17" t="n">
+      <c r="I6" s="14"/>
+      <c r="J6" s="15" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="38" t="s">
+      <c r="C7" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="G7" s="30" t="n">
+      <c r="G7" s="28" t="n">
         <v>0.8</v>
       </c>
-      <c r="H7" s="30" t="n">
+      <c r="H7" s="28" t="n">
         <v>0.8</v>
       </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="17" t="n">
+      <c r="I7" s="14"/>
+      <c r="J7" s="15" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="38" t="s">
+      <c r="C8" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="30" t="n">
+      <c r="G8" s="28" t="n">
         <v>0.8</v>
       </c>
-      <c r="H8" s="30" t="n">
+      <c r="H8" s="28" t="n">
         <v>0.8</v>
       </c>
-      <c r="I8" s="16"/>
-      <c r="J8" s="17" t="n">
+      <c r="I8" s="14"/>
+      <c r="J8" s="15" t="n">
         <v>7.5</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14" t="s">
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="38" t="s">
+      <c r="C9" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="16" t="n">
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="J9" s="17" t="n">
+      <c r="J9" s="15" t="n">
         <v>7.5</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="38" t="s">
+      <c r="C10" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="G10" s="30" t="n">
+      <c r="G10" s="28" t="n">
         <v>0.8</v>
       </c>
-      <c r="H10" s="30" t="n">
+      <c r="H10" s="28" t="n">
         <v>0.8</v>
       </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="17" t="n">
+      <c r="I10" s="14"/>
+      <c r="J10" s="15" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="38" t="s">
+      <c r="C11" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="G11" s="30" t="n">
+      <c r="G11" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="H11" s="30" t="n">
+      <c r="H11" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="I11" s="16"/>
-      <c r="J11" s="14" t="n">
+      <c r="I11" s="14"/>
+      <c r="J11" s="12" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="38" t="s">
+      <c r="C12" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="G12" s="30" t="n">
+      <c r="G12" s="28" t="n">
         <v>0.8</v>
       </c>
-      <c r="H12" s="30" t="n">
+      <c r="H12" s="28" t="n">
         <v>0.8</v>
       </c>
-      <c r="I12" s="16"/>
-      <c r="J12" s="20" t="n">
+      <c r="I12" s="14"/>
+      <c r="J12" s="18" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="39" t="s">
+      <c r="C13" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="E13" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="F13" s="25" t="s">
+      <c r="F13" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="G13" s="31" t="n">
+      <c r="G13" s="30" t="n">
         <v>1</v>
       </c>
-      <c r="H13" s="31" t="n">
+      <c r="H13" s="30" t="n">
         <v>1</v>
       </c>
-      <c r="I13" s="23"/>
-      <c r="J13" s="24" t="n">
+      <c r="I13" s="21"/>
+      <c r="J13" s="22" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="39" t="s">
+      <c r="C14" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="F14" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="G14" s="31" t="n">
+      <c r="G14" s="30" t="n">
         <v>1</v>
       </c>
-      <c r="H14" s="31" t="n">
+      <c r="H14" s="30" t="n">
         <v>1</v>
       </c>
-      <c r="I14" s="23"/>
-      <c r="J14" s="24" t="n">
+      <c r="I14" s="21"/>
+      <c r="J14" s="22" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="39" t="s">
+      <c r="C15" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="F15" s="25" t="s">
+      <c r="F15" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="G15" s="31" t="n">
+      <c r="G15" s="30" t="n">
         <v>0.8</v>
       </c>
-      <c r="H15" s="31" t="n">
+      <c r="H15" s="30" t="n">
         <v>0.8</v>
       </c>
-      <c r="I15" s="23"/>
-      <c r="J15" s="24" t="n">
+      <c r="I15" s="21"/>
+      <c r="J15" s="22" t="n">
         <v>7.5</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="21" t="s">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="22" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="D16" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="G16" s="31" t="n">
+      <c r="F17" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="21" t="n">
+        <v>2</v>
+      </c>
+      <c r="J17" s="22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" s="21"/>
+      <c r="J18" s="22" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" s="30" t="n">
         <v>0.8</v>
       </c>
-      <c r="H16" s="31" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="I16" s="23"/>
-      <c r="J16" s="24" t="n">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="F17" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="J17" s="24" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="E18" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="F18" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="G18" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="H18" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" s="23"/>
-      <c r="J18" s="24" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="F19" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="G19" s="31" t="n">
+      <c r="H19" s="30" t="n">
         <v>0.8</v>
       </c>
-      <c r="H19" s="31" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="I19" s="23"/>
-      <c r="J19" s="26" t="n">
+      <c r="I19" s="21"/>
+      <c r="J19" s="24" t="n">
         <v>60</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J19"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2952,355 +2849,352 @@
   </sheetPr>
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="33.4795918367347"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="34.8265306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="19.8418367346939"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="13.3622448979592"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="51.5663265306123"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="23.8928571428571"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="24.4336734693878"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="27.5408163265306"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="22.9489795918367"/>
-    <col collapsed="false" hidden="false" max="1023" min="15" style="2" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.2551020408163"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.1734693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.0357142857143"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="44.8163265306122"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.4132653061224"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="21.1938775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="F1" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="G1" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="H1" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="H1" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="I1" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="K1" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="39" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" s="11"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="I2" s="42"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="L2" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="M1" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="N1" s="40" t="s">
+      <c r="M2" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="I3" s="42"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="13" t="s">
+      <c r="E4" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="I4" s="27"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" s="10" t="n">
         <v>20</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="M4" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D5" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="I5" s="28" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J5" s="28" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K5" s="14" t="n">
+        <v>14</v>
+      </c>
+      <c r="L5" s="15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="N5" s="16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="I6" s="28"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="L6" s="15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="N6" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="13" t="s">
+      <c r="F7" s="23"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" s="22" t="n">
+        <v>20</v>
+      </c>
+      <c r="M7" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="I2" s="43"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="L2" s="12" t="n">
+      <c r="N7" s="23" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="I8" s="30" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J8" s="30" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K8" s="21" t="n">
+        <v>16</v>
+      </c>
+      <c r="L8" s="22" t="n">
         <v>5</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="I3" s="43"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="I4" s="29"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" s="12" t="n">
-        <v>20</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="N4" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="E5" s="38" t="s">
+      <c r="M8" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F5" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="I5" s="30" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="J5" s="30" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="K5" s="16" t="n">
-        <v>14</v>
-      </c>
-      <c r="L5" s="17" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="M5" s="2" t="s">
+      <c r="N8" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="N5" s="18" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="E6" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="H6" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="16" t="n">
-        <v>3</v>
-      </c>
-      <c r="L6" s="17" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="N6" s="18" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="F7" s="25"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" s="24" t="n">
-        <v>20</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="N7" s="25" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="H8" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="I8" s="31" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="J8" s="31" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="K8" s="23" t="n">
-        <v>16</v>
-      </c>
-      <c r="L8" s="24" t="n">
-        <v>5</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="N8" s="25" t="s">
-        <v>119</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N8"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Projects/MARSUAE/Data/Template.xlsx
+++ b/Projects/MARSUAE/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="KPI" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,61 +13,17 @@
     <sheet name="Distribution" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Availability" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
-  <definedNames>
-    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Availability!$A$1:$N$8</definedName>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Distribution!$A$1:$J$19</definedName>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPI!$A$1:$H$36</definedName>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">SOS!$A$1:$K$12</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="tg" vbProcedure="false">KPI!$A$1:$H$36</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">KPI!$A$1:$H$36</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">KPI!$A$1:$H$36</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">KPI!$A$1:$H$36</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0" vbProcedure="false">KPI!$A$1:$H$36</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$H$36</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$H$36</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$H$36</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_hj" vbProcedure="false">KPI!$A$1:$H$36</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_uhj" vbProcedure="false">KPI!$A$1:$H$36</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPI!$A$1:$H$36</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPI!$A$1:$H$36</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPI!$A$1:$H$36</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="tg" vbProcedure="false">SOS!$A$1:$K$12</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_" vbProcedure="false">SOS!$A$1:$K$12</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0" vbProcedure="false">SOS!$A$1:$K$12</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0" vbProcedure="false">SOS!$A$1:$K$12</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0" vbProcedure="false">SOS!$A$1:$K$12</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0" vbProcedure="false">SOS!$A$1:$K$12</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">SOS!$A$1:$K$12</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">SOS!$A$1:$K$12</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_ol" vbProcedure="false">SOS!$A$1:$K$12</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">SOS!$A$1:$K$12</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">SOS!$A$1:$K$12</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">SOS!$A$1:$K$12</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="rghf" vbProcedure="false">Distribution!$A$1:$J$19</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0" vbProcedure="false">Distribution!$A$1:$J$19</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0_0" vbProcedure="false">Distribution!$A$1:$J$19</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0_0_0" vbProcedure="false">Distribution!$A$1:$J$19</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0_0_0_0" vbProcedure="false">Distribution!$A$1:$J$19</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_gfd" vbProcedure="false">Distribution!$A$1:$J$19</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_gyui" vbProcedure="false">Distribution!$A$1:$J$19</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Distribution!$A$1:$J$19</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">Distribution!$A$1:$J$19</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Distribution!$A$1:$J$19</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Availability!$A$1:$N$8</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Availability!$A$1:$N$8</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Availability!$A$1:$N$8</definedName>
-  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="123">
   <si>
     <t xml:space="preserve">Channel</t>
   </si>
@@ -352,9 +308,6 @@
   </si>
   <si>
     <t xml:space="preserve">Other MSL - Checkout Choc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distribution at least 1</t>
   </si>
   <si>
     <t xml:space="preserve">Other MSL - Display Choc</t>
@@ -510,7 +463,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -604,39 +556,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="45">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -729,8 +673,8 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -741,10 +685,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="167" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -766,6 +706,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -865,951 +809,945 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMF36"/>
+  <dimension ref="A1:AMF37"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D34" activeCellId="0" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="22.6785714285714"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="19.0357142857143"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="22.6785714285714"/>
-    <col collapsed="false" hidden="false" max="1019" min="9" style="1" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="1020" min="1020" style="2" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="1021" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AMF1" s="2"/>
+      <c r="AMF1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="8" t="s">
+      <c r="B2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="10" t="n">
+      <c r="F2" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="G2" s="10" t="n">
+      <c r="G2" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="10" t="n">
+      <c r="E3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="8" t="n">
         <v>35</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="8" t="s">
+      <c r="G3" s="8"/>
+      <c r="H3" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="8" t="s">
+      <c r="B4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="12" t="n">
+      <c r="F4" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="8" t="s">
+      <c r="G4" s="8"/>
+      <c r="H4" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="8" t="s">
+      <c r="B5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="12" t="n">
+      <c r="E5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="8" t="s">
+      <c r="G5" s="8"/>
+      <c r="H5" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="8" t="s">
+      <c r="B6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="12" t="n">
+      <c r="F6" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="8" t="s">
+      <c r="G6" s="8"/>
+      <c r="H6" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="8" t="s">
+      <c r="B7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="12" t="n">
+      <c r="E7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="10" t="n">
         <v>20</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="8" t="s">
+      <c r="G7" s="8"/>
+      <c r="H7" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="8" t="s">
+      <c r="B8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="10" t="n">
+      <c r="E8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="8" t="n">
         <v>80</v>
       </c>
-      <c r="G8" s="10" t="n">
+      <c r="G8" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="8" t="s">
+      <c r="B9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="12" t="n">
+      <c r="F9" s="10" t="n">
         <v>20</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="8" t="s">
+      <c r="G9" s="8"/>
+      <c r="H9" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="15" t="s">
+      <c r="B10" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="17" t="n">
+      <c r="F10" s="15" t="n">
         <v>25</v>
       </c>
-      <c r="G10" s="14" t="n">
+      <c r="G10" s="12" t="n">
         <v>100</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="15" t="s">
+      <c r="B11" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="17" t="n">
+      <c r="E11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="15" t="n">
         <v>20</v>
       </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="15" t="s">
+      <c r="G11" s="12"/>
+      <c r="H11" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="15" t="s">
+      <c r="B12" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="17" t="n">
+      <c r="F12" s="15" t="n">
         <v>2.5</v>
       </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="15" t="s">
+      <c r="G12" s="12"/>
+      <c r="H12" s="13" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="15" t="s">
+      <c r="B13" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="17" t="n">
+      <c r="F13" s="15" t="n">
         <v>2.5</v>
       </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="15" t="s">
+      <c r="G13" s="12"/>
+      <c r="H13" s="13" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="15" t="s">
+      <c r="B14" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="17" t="n">
+      <c r="E14" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="15" t="s">
+      <c r="G14" s="12"/>
+      <c r="H14" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="15" t="s">
+      <c r="B15" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="17" t="n">
+      <c r="F15" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="G15" s="14"/>
-      <c r="H15" s="15" t="s">
+      <c r="G15" s="12"/>
+      <c r="H15" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14" t="s">
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="15" t="s">
+      <c r="B16" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="17" t="n">
+      <c r="E16" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="15" t="n">
         <v>7.5</v>
       </c>
-      <c r="G16" s="14"/>
-      <c r="H16" s="15" t="s">
+      <c r="G16" s="12"/>
+      <c r="H16" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="15" t="s">
+      <c r="B17" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="17" t="n">
+      <c r="E17" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="15" t="n">
         <v>7.5</v>
       </c>
-      <c r="G17" s="14"/>
-      <c r="H17" s="15" t="s">
+      <c r="G17" s="12"/>
+      <c r="H17" s="13" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="15" t="s">
+      <c r="B18" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="17" t="n">
-        <v>15</v>
-      </c>
-      <c r="G18" s="14"/>
-      <c r="H18" s="15" t="s">
+      <c r="F18" s="15" t="n">
+        <v>15</v>
+      </c>
+      <c r="G18" s="12"/>
+      <c r="H18" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="15" t="s">
+      <c r="B19" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="17" t="n">
+      <c r="E19" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="15" t="n">
         <v>10</v>
       </c>
-      <c r="G19" s="14"/>
-      <c r="H19" s="15" t="s">
+      <c r="G19" s="12"/>
+      <c r="H19" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="15" t="s">
+      <c r="B20" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E20" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="14" t="n">
+      <c r="F20" s="12" t="n">
         <v>50</v>
       </c>
-      <c r="G20" s="14" t="n">
+      <c r="G20" s="12" t="n">
         <v>100</v>
       </c>
-      <c r="H20" s="15" t="s">
+      <c r="H20" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="15" t="s">
+      <c r="B21" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="14" t="n">
+      <c r="E21" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="12" t="n">
         <v>50</v>
       </c>
-      <c r="G21" s="14"/>
-      <c r="H21" s="15" t="s">
+      <c r="G21" s="12"/>
+      <c r="H21" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="15" t="s">
+      <c r="B22" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="20" t="n">
+      <c r="E22" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="18" t="n">
         <v>50</v>
       </c>
-      <c r="G22" s="20" t="n">
+      <c r="G22" s="18" t="n">
         <v>100</v>
       </c>
-      <c r="H22" s="15" t="s">
+      <c r="H22" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="15" t="s">
+      <c r="B23" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="17" t="n">
+      <c r="F23" s="15" t="n">
         <v>50</v>
       </c>
-      <c r="G23" s="20"/>
-      <c r="H23" s="15" t="s">
+      <c r="G23" s="18"/>
+      <c r="H23" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="21" t="s">
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="22" t="s">
+      <c r="B24" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="21" t="s">
+      <c r="E24" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="24" t="n">
+      <c r="F24" s="22" t="n">
         <v>25</v>
       </c>
-      <c r="G24" s="21" t="n">
+      <c r="G24" s="19" t="n">
         <v>100</v>
       </c>
-      <c r="H24" s="22" t="s">
+      <c r="H24" s="20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="21" t="s">
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="22" t="s">
+      <c r="B25" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="24" t="n">
+      <c r="E25" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="22" t="n">
         <v>20</v>
       </c>
-      <c r="G25" s="21"/>
-      <c r="H25" s="22" t="s">
+      <c r="G25" s="19"/>
+      <c r="H25" s="20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="21" t="s">
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="22" t="s">
+      <c r="B26" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="25" t="s">
+      <c r="D26" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="24" t="n">
+      <c r="E26" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="22" t="n">
         <v>5</v>
       </c>
-      <c r="G26" s="21"/>
-      <c r="H26" s="22" t="s">
+      <c r="G26" s="19"/>
+      <c r="H26" s="20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="21" t="s">
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="22" t="s">
+      <c r="B27" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="21" t="s">
+      <c r="E27" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F27" s="24" t="n">
+      <c r="F27" s="22" t="n">
         <v>5</v>
       </c>
-      <c r="G27" s="21"/>
-      <c r="H27" s="22" t="s">
+      <c r="G27" s="19"/>
+      <c r="H27" s="20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="21" t="s">
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="22" t="s">
+      <c r="B28" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="25" t="s">
+      <c r="D28" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" s="24" t="n">
+      <c r="E28" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="22" t="n">
         <v>7.5</v>
       </c>
-      <c r="G28" s="21"/>
-      <c r="H28" s="22" t="s">
+      <c r="G28" s="19"/>
+      <c r="H28" s="20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="21" t="s">
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="22" t="s">
+      <c r="B29" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" s="24" t="n">
+      <c r="D29" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="22" t="n">
         <v>7.5</v>
       </c>
-      <c r="G29" s="21"/>
-      <c r="H29" s="22" t="s">
+      <c r="G29" s="19"/>
+      <c r="H29" s="20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="21" t="s">
+    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="22" t="s">
+      <c r="B30" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D30" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="21" t="s">
+      <c r="E30" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F30" s="24" t="n">
-        <v>15</v>
-      </c>
-      <c r="G30" s="21"/>
-      <c r="H30" s="22" t="s">
+      <c r="F30" s="22" t="n">
+        <v>15</v>
+      </c>
+      <c r="G30" s="19"/>
+      <c r="H30" s="20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="21" t="s">
+    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="22" t="s">
+      <c r="B31" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="25" t="s">
+      <c r="D31" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F31" s="24" t="n">
+      <c r="E31" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="G31" s="21"/>
-      <c r="H31" s="22" t="s">
+      <c r="G31" s="19"/>
+      <c r="H31" s="20" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="22" t="s">
+      <c r="B32" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="G32" s="19"/>
+      <c r="H32" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="23" t="s">
+      <c r="D33" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E32" s="21" t="s">
+      <c r="E33" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F32" s="24" t="n">
+      <c r="F33" s="22" t="n">
         <v>50</v>
       </c>
-      <c r="G32" s="21" t="n">
+      <c r="G33" s="19" t="n">
         <v>100</v>
       </c>
-      <c r="H32" s="22" t="s">
+      <c r="H33" s="20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="21" t="s">
+    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="22" t="s">
+      <c r="B34" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="25" t="s">
+      <c r="D34" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="E33" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F33" s="24" t="n">
+      <c r="E34" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="22" t="n">
         <v>50</v>
       </c>
-      <c r="G33" s="21"/>
-      <c r="H33" s="22" t="s">
+      <c r="G34" s="19"/>
+      <c r="H34" s="20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="21" t="s">
+    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="21" t="s">
+      <c r="B35" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D34" s="25" t="s">
+      <c r="D35" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E34" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F34" s="26" t="n">
+      <c r="E35" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="24" t="n">
         <v>60</v>
       </c>
-      <c r="G34" s="26" t="n">
+      <c r="G35" s="24" t="n">
         <v>100</v>
       </c>
-      <c r="H34" s="22" t="s">
+      <c r="H35" s="20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="21" t="s">
+    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="21" t="s">
+      <c r="B36" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D35" s="23" t="s">
+      <c r="D36" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E35" s="21" t="s">
+      <c r="E36" s="19" t="s">
         <v>12</v>
-      </c>
-      <c r="F35" s="26" t="n">
-        <v>20</v>
-      </c>
-      <c r="G35" s="26"/>
-      <c r="H35" s="22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D36" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="E36" s="21" t="s">
-        <v>17</v>
       </c>
       <c r="F36" s="24" t="n">
         <v>20</v>
       </c>
-      <c r="G36" s="26"/>
-      <c r="H36" s="22" t="s">
+      <c r="G36" s="24"/>
+      <c r="H36" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" s="22" t="n">
+        <v>20</v>
+      </c>
+      <c r="G37" s="24"/>
+      <c r="H37" s="20" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H36"/>
-  <mergeCells count="8">
-    <mergeCell ref="G2:G7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G10:G19"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="G24:G31"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="G34:G36"/>
-  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1818,220 +1756,213 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N65536"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="36.719387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="39.8214285714286"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="23.8928571428571"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="24.4336734693878"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="28.484693877551"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="23.7602040816327"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="24.8367346938776"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="26.7295918367347"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="27.6734693877551"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="45.4897959183674"/>
-    <col collapsed="false" hidden="false" max="1023" min="15" style="1" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.1020408163265"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.4744897959184"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="252.974489795918"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.25"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.4132653061224"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="19.7091836734694"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="49.5408163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="29" t="n">
+      <c r="E2" s="27" t="n">
         <v>0.5</v>
       </c>
-      <c r="F2" s="29" t="n">
+      <c r="F2" s="27" t="n">
         <v>0.5</v>
       </c>
-      <c r="G2" s="29"/>
-      <c r="H2" s="13" t="s">
+      <c r="G2" s="27"/>
+      <c r="H2" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="L2" s="10" t="n">
+      <c r="L2" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="M2" s="0"/>
-      <c r="N2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="30" t="n">
+      <c r="E3" s="28" t="n">
         <v>0.35</v>
       </c>
-      <c r="F3" s="30" t="n">
+      <c r="F3" s="28" t="n">
         <v>0.4</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="18" t="s">
+      <c r="G3" s="28"/>
+      <c r="H3" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="L3" s="17" t="n">
+      <c r="L3" s="15" t="n">
         <v>25</v>
       </c>
-      <c r="M3" s="0"/>
-      <c r="N3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="30" t="n">
+      <c r="E4" s="28" t="n">
         <v>0.55</v>
       </c>
-      <c r="F4" s="30" t="n">
+      <c r="F4" s="28" t="n">
         <v>0.55</v>
       </c>
-      <c r="G4" s="30"/>
-      <c r="H4" s="18" t="s">
+      <c r="G4" s="28"/>
+      <c r="H4" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="L4" s="17" t="n">
+      <c r="L4" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="M4" s="0"/>
-      <c r="N4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="30" t="n">
+      <c r="E5" s="28" t="n">
         <v>0.5</v>
       </c>
-      <c r="F5" s="30" t="n">
+      <c r="F5" s="28" t="n">
         <v>0.5</v>
       </c>
-      <c r="G5" s="30"/>
-      <c r="H5" s="18" t="s">
+      <c r="G5" s="28"/>
+      <c r="H5" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="I5" s="18" t="s">
+      <c r="I5" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="J5" s="18" t="s">
+      <c r="J5" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="K5" s="18" t="s">
+      <c r="K5" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="L5" s="17" t="n">
-        <v>15</v>
-      </c>
-      <c r="M5" s="1" t="s">
+      <c r="L5" s="15" t="n">
+        <v>15</v>
+      </c>
+      <c r="M5" s="29" t="s">
         <v>60</v>
       </c>
       <c r="N5" s="0" t="s">
@@ -2039,285 +1970,274 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="30" t="n">
+      <c r="E6" s="28" t="n">
         <v>0.4</v>
       </c>
-      <c r="F6" s="30" t="n">
+      <c r="F6" s="28" t="n">
         <v>0.45</v>
       </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18" t="s">
+      <c r="G6" s="16"/>
+      <c r="H6" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="I6" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="J6" s="18" t="s">
+      <c r="J6" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="K6" s="18" t="s">
+      <c r="K6" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="L6" s="14" t="n">
+      <c r="L6" s="12" t="n">
         <v>50</v>
       </c>
-      <c r="M6" s="0"/>
-      <c r="N6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="30" t="n">
+      <c r="E7" s="28" t="n">
         <v>0.7</v>
       </c>
-      <c r="F7" s="30" t="n">
+      <c r="F7" s="28" t="n">
         <v>0.8</v>
       </c>
-      <c r="G7" s="30"/>
-      <c r="H7" s="18" t="s">
+      <c r="G7" s="28"/>
+      <c r="H7" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="I7" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="J7" s="18" t="s">
+      <c r="J7" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="K7" s="18" t="s">
+      <c r="K7" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="L7" s="17" t="n">
+      <c r="L7" s="15" t="n">
         <v>50</v>
       </c>
-      <c r="M7" s="0"/>
-      <c r="N7" s="0"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="31" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="32" t="n">
+      <c r="E8" s="30" t="n">
         <v>0.4</v>
       </c>
-      <c r="F8" s="32" t="n">
+      <c r="F8" s="30" t="n">
         <v>0.45</v>
       </c>
-      <c r="G8" s="32"/>
-      <c r="H8" s="25" t="s">
+      <c r="G8" s="30"/>
+      <c r="H8" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="I8" s="25" t="s">
+      <c r="I8" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="J8" s="25" t="s">
+      <c r="J8" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="25" t="s">
+      <c r="K8" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="L8" s="24" t="n">
+      <c r="L8" s="22" t="n">
         <v>25</v>
       </c>
-      <c r="M8" s="0"/>
-      <c r="N8" s="0"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="31" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="32" t="n">
+      <c r="E9" s="30" t="n">
         <v>0.45</v>
       </c>
-      <c r="F9" s="32" t="n">
+      <c r="F9" s="30" t="n">
         <v>0.55</v>
       </c>
-      <c r="G9" s="32"/>
-      <c r="H9" s="25" t="s">
+      <c r="G9" s="30"/>
+      <c r="H9" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="I9" s="25" t="s">
+      <c r="I9" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="J9" s="25" t="s">
+      <c r="J9" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="25" t="s">
+      <c r="K9" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="L9" s="24" t="n">
+      <c r="L9" s="22" t="n">
         <v>5</v>
       </c>
-      <c r="M9" s="0"/>
-      <c r="N9" s="0"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="31" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="32" t="n">
+      <c r="E10" s="30" t="n">
         <v>0.5</v>
       </c>
-      <c r="F10" s="32" t="n">
+      <c r="F10" s="30" t="n">
         <v>0.5</v>
       </c>
-      <c r="G10" s="32"/>
-      <c r="H10" s="25" t="s">
+      <c r="G10" s="30"/>
+      <c r="H10" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="I10" s="25" t="s">
+      <c r="I10" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="J10" s="25" t="s">
+      <c r="J10" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="25" t="s">
+      <c r="K10" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="L10" s="24" t="n">
-        <v>15</v>
-      </c>
-      <c r="M10" s="1" t="s">
+      <c r="L10" s="22" t="n">
+        <v>15</v>
+      </c>
+      <c r="M10" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="N10" s="29" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="31" t="s">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="32" t="n">
+      <c r="E11" s="30" t="n">
         <v>0.4</v>
       </c>
-      <c r="F11" s="32" t="n">
+      <c r="F11" s="30" t="n">
         <v>0.45</v>
       </c>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25" t="s">
+      <c r="G11" s="23"/>
+      <c r="H11" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="25" t="s">
+      <c r="I11" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="J11" s="25" t="s">
+      <c r="J11" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="K11" s="25" t="s">
+      <c r="K11" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="L11" s="24" t="n">
+      <c r="L11" s="22" t="n">
         <v>50</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="N11" s="29" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="31" t="s">
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="33" t="n">
+      <c r="E12" s="31" t="n">
         <v>0.7</v>
       </c>
-      <c r="F12" s="33" t="n">
+      <c r="F12" s="31" t="n">
         <v>0.8</v>
       </c>
-      <c r="G12" s="23"/>
-      <c r="H12" s="25" t="s">
+      <c r="G12" s="21"/>
+      <c r="H12" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="I12" s="25" t="s">
+      <c r="I12" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="J12" s="25" t="s">
+      <c r="J12" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="K12" s="25" t="s">
+      <c r="K12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="L12" s="26" t="n">
+      <c r="L12" s="24" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:K12"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2328,602 +2248,597 @@
   </sheetPr>
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F35" activeCellId="0" sqref="F35"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="34.1530612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="19.9795918367347"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="61.2857142857143"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="34.5561224489796"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="40.0918367346939"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="34" width="21.8673469387755"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="22.0051020408163"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="1023" min="11" style="1" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5714285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.1632653061224"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.265306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="64.6530612244898"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="34.0816326530612"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.8724489795918"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.3010204081633"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.5816326530612"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="24.9081632653061"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.48469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="35" t="s">
+      <c r="C2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="29" t="n">
+      <c r="G2" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="H2" s="29" t="n">
+      <c r="H2" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="10" t="n">
+      <c r="I2" s="7"/>
+      <c r="J2" s="8" t="n">
         <v>35</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
+    <row r="3" customFormat="false" ht="89.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="35" t="s">
+      <c r="C3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="G3" s="29" t="n">
+      <c r="G3" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="H3" s="29" t="n">
+      <c r="H3" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="12" t="n">
+      <c r="I3" s="7"/>
+      <c r="J3" s="10" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="35" t="s">
+      <c r="C4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="G4" s="29" t="n">
+      <c r="G4" s="27" t="n">
         <v>0.8</v>
       </c>
-      <c r="H4" s="29" t="n">
+      <c r="H4" s="27" t="n">
         <v>0.8</v>
       </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="12" t="n">
+      <c r="I4" s="7"/>
+      <c r="J4" s="10" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="37" t="s">
+      <c r="C5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="13" t="n">
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="J5" s="10" t="n">
+      <c r="J5" s="8" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="39" t="s">
+      <c r="C6" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="30" t="n">
+      <c r="G6" s="28" t="n">
         <v>0.8</v>
       </c>
-      <c r="H6" s="30" t="n">
+      <c r="H6" s="28" t="n">
         <v>0.8</v>
       </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="17" t="n">
+      <c r="I6" s="14"/>
+      <c r="J6" s="15" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="39" t="s">
+      <c r="C7" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="G7" s="30" t="n">
+      <c r="G7" s="28" t="n">
         <v>0.8</v>
       </c>
-      <c r="H7" s="30" t="n">
+      <c r="H7" s="28" t="n">
         <v>0.8</v>
       </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="17" t="n">
+      <c r="I7" s="14"/>
+      <c r="J7" s="15" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="39" t="s">
+      <c r="C8" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="30" t="n">
+      <c r="G8" s="28" t="n">
         <v>0.8</v>
       </c>
-      <c r="H8" s="30" t="n">
+      <c r="H8" s="28" t="n">
         <v>0.8</v>
       </c>
-      <c r="I8" s="16"/>
-      <c r="J8" s="17" t="n">
+      <c r="I8" s="14"/>
+      <c r="J8" s="15" t="n">
         <v>7.5</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14" t="s">
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="39" t="s">
+      <c r="C9" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="16" t="n">
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="J9" s="17" t="n">
+      <c r="J9" s="15" t="n">
         <v>7.5</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="39" t="s">
+      <c r="C10" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="G10" s="30" t="n">
+      <c r="G10" s="28" t="n">
         <v>0.8</v>
       </c>
-      <c r="H10" s="30" t="n">
+      <c r="H10" s="28" t="n">
         <v>0.8</v>
       </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="17" t="n">
+      <c r="I10" s="14"/>
+      <c r="J10" s="15" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="39" t="s">
+      <c r="C11" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="G11" s="30" t="n">
+      <c r="G11" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="H11" s="30" t="n">
+      <c r="H11" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="I11" s="16"/>
-      <c r="J11" s="14" t="n">
+      <c r="I11" s="14"/>
+      <c r="J11" s="12" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="39" t="s">
+      <c r="C12" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="G12" s="30" t="n">
+      <c r="G12" s="28" t="n">
         <v>0.8</v>
       </c>
-      <c r="H12" s="30" t="n">
+      <c r="H12" s="28" t="n">
         <v>0.8</v>
       </c>
-      <c r="I12" s="16"/>
-      <c r="J12" s="20" t="n">
+      <c r="I12" s="14"/>
+      <c r="J12" s="18" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="40" t="s">
+      <c r="C13" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="E13" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="F13" s="25" t="s">
+      <c r="F13" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="G13" s="32" t="n">
+      <c r="G13" s="30" t="n">
         <v>1</v>
       </c>
-      <c r="H13" s="32" t="n">
+      <c r="H13" s="30" t="n">
         <v>1</v>
       </c>
-      <c r="I13" s="23"/>
-      <c r="J13" s="24" t="n">
+      <c r="I13" s="21"/>
+      <c r="J13" s="22" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="40" t="s">
+      <c r="C14" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="F14" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="G14" s="32" t="n">
+      <c r="G14" s="30" t="n">
         <v>1</v>
       </c>
-      <c r="H14" s="32" t="n">
+      <c r="H14" s="30" t="n">
         <v>1</v>
       </c>
-      <c r="I14" s="23"/>
-      <c r="J14" s="24" t="n">
+      <c r="I14" s="21"/>
+      <c r="J14" s="22" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="40" t="s">
+      <c r="C15" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="F15" s="25" t="s">
+      <c r="F15" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="G15" s="32" t="n">
+      <c r="G15" s="30" t="n">
         <v>0.8</v>
       </c>
-      <c r="H15" s="32" t="n">
+      <c r="H15" s="30" t="n">
         <v>0.8</v>
       </c>
-      <c r="I15" s="23"/>
-      <c r="J15" s="24" t="n">
+      <c r="I15" s="21"/>
+      <c r="J15" s="22" t="n">
         <v>7.5</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="21" t="s">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="22" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="D16" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="G16" s="32" t="n">
+      <c r="F17" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="21" t="n">
+        <v>2</v>
+      </c>
+      <c r="J17" s="22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" s="21"/>
+      <c r="J18" s="22" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" s="30" t="n">
         <v>0.8</v>
       </c>
-      <c r="H16" s="32" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="I16" s="23"/>
-      <c r="J16" s="24" t="n">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="F17" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="J17" s="24" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="E18" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="F18" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="G18" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="H18" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" s="23"/>
-      <c r="J18" s="24" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="F19" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="G19" s="32" t="n">
+      <c r="H19" s="30" t="n">
         <v>0.8</v>
       </c>
-      <c r="H19" s="32" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="I19" s="23"/>
-      <c r="J19" s="26" t="n">
+      <c r="I19" s="21"/>
+      <c r="J19" s="24" t="n">
         <v>60</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J19"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2934,355 +2849,352 @@
   </sheetPr>
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="33.8826530612245"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="35.234693877551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="20.1122448979592"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="52.1071428571429"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="24.3010204081633"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="24.7040816326531"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="23.3520408163265"/>
-    <col collapsed="false" hidden="false" max="1023" min="15" style="2" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.2551020408163"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.1734693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.0357142857143"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="44.8163265306122"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.4132653061224"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="21.1938775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="F1" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="G1" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="H1" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="H1" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="I1" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="K1" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="39" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" s="11"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="I2" s="42"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="L2" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="M1" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="N1" s="41" t="s">
+      <c r="M2" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="I3" s="42"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="13" t="s">
+      <c r="E4" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="I4" s="27"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" s="10" t="n">
         <v>20</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="M4" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D5" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="I5" s="28" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J5" s="28" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K5" s="14" t="n">
+        <v>14</v>
+      </c>
+      <c r="L5" s="15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="N5" s="16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="I6" s="28"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="L6" s="15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="N6" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="13" t="s">
+      <c r="F7" s="23"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" s="22" t="n">
+        <v>20</v>
+      </c>
+      <c r="M7" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="L2" s="12" t="n">
+      <c r="N7" s="23" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="I8" s="30" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J8" s="30" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K8" s="21" t="n">
+        <v>16</v>
+      </c>
+      <c r="L8" s="22" t="n">
         <v>5</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="I3" s="44"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="I4" s="29"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" s="12" t="n">
-        <v>20</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="N4" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="E5" s="39" t="s">
+      <c r="M8" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F5" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="I5" s="30" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="J5" s="30" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="K5" s="16" t="n">
-        <v>14</v>
-      </c>
-      <c r="L5" s="17" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="M5" s="2" t="s">
+      <c r="N8" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="N5" s="18" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="E6" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="H6" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="16" t="n">
-        <v>3</v>
-      </c>
-      <c r="L6" s="17" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="N6" s="18" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="F7" s="25"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" s="24" t="n">
-        <v>20</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="N7" s="25" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="H8" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="I8" s="32" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="J8" s="32" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="K8" s="23" t="n">
-        <v>16</v>
-      </c>
-      <c r="L8" s="24" t="n">
-        <v>5</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="N8" s="25" t="s">
-        <v>119</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N8"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>